--- a/audio_database/Feature.xlsx
+++ b/audio_database/Feature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Documents\MATLAB\Project\audio_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C068C964-DCA1-47B8-B8BC-2EFF3239E05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA102C2-11EB-42B3-8AC8-5F5E2989DECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{F98F55DE-6286-4433-92DF-1F34DB2F1572}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{F98F55DE-6286-4433-92DF-1F34DB2F1572}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FD446B-03FF-433F-A5A5-561D5C99261F}">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:AC100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M75"/>
@@ -399,7 +399,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5.0976174304885102</v>
       </c>
@@ -478,8 +478,17 @@
       <c r="Z1">
         <v>0.14247396748820057</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1">
+        <v>7.5633522755776478E-2</v>
+      </c>
+      <c r="AB1">
+        <v>-1.2003473801069298E-2</v>
+      </c>
+      <c r="AC1">
+        <v>4.8442449559498203E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6.2165876714931114</v>
       </c>
@@ -558,8 +567,17 @@
       <c r="Z2">
         <v>-0.1858613327163598</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2">
+        <v>-5.150730329281162E-2</v>
+      </c>
+      <c r="AB2">
+        <v>6.3512861773581952E-2</v>
+      </c>
+      <c r="AC2">
+        <v>-5.5351821370128305E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4.315444665612219</v>
       </c>
@@ -638,8 +656,17 @@
       <c r="Z3">
         <v>0.18384431888586628</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3">
+        <v>7.5417299416751529E-2</v>
+      </c>
+      <c r="AB3">
+        <v>0.17040300551471324</v>
+      </c>
+      <c r="AC3">
+        <v>0.30892317951245762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6.018467485076421</v>
       </c>
@@ -718,8 +745,17 @@
       <c r="Z4">
         <v>-3.8034768289925983E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4">
+        <v>-2.2205886473895663E-2</v>
+      </c>
+      <c r="AB4">
+        <v>-5.1680790818715176E-2</v>
+      </c>
+      <c r="AC4">
+        <v>-6.2546097767217909E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5.247483015604316</v>
       </c>
@@ -798,8 +834,17 @@
       <c r="Z5">
         <v>-0.1383377138231599</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5">
+        <v>-0.25019975922847265</v>
+      </c>
+      <c r="AB5">
+        <v>4.0855958763070993E-2</v>
+      </c>
+      <c r="AC5">
+        <v>3.4218350481499592E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4.7035328146850155</v>
       </c>
@@ -878,8 +923,17 @@
       <c r="Z6">
         <v>-9.4804460085001763E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6">
+        <v>-1.1372256996764651E-2</v>
+      </c>
+      <c r="AB6">
+        <v>-0.41143189164290372</v>
+      </c>
+      <c r="AC6">
+        <v>-6.5635529133414749E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5.1450651475915423</v>
       </c>
@@ -958,8 +1012,17 @@
       <c r="Z7">
         <v>-0.19440434569067389</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7">
+        <v>-0.13023498616240939</v>
+      </c>
+      <c r="AB7">
+        <v>-3.6343840849854814E-2</v>
+      </c>
+      <c r="AC7">
+        <v>-5.0796808854083025E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6.8699277510934751</v>
       </c>
@@ -1038,8 +1101,17 @@
       <c r="Z8">
         <v>-0.12597260064432517</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8">
+        <v>-2.9090517165957584E-2</v>
+      </c>
+      <c r="AB8">
+        <v>-4.7339734371255743E-2</v>
+      </c>
+      <c r="AC8">
+        <v>0.21017534382972652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6.0836476700778368</v>
       </c>
@@ -1118,8 +1190,17 @@
       <c r="Z9">
         <v>0.10910543613307265</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9">
+        <v>-8.242578741522108E-3</v>
+      </c>
+      <c r="AB9">
+        <v>-4.2357872696248543E-2</v>
+      </c>
+      <c r="AC9">
+        <v>-5.6234225023866796E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5.3495359407153327</v>
       </c>
@@ -1198,8 +1279,17 @@
       <c r="Z10">
         <v>-0.35266942447163929</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10">
+        <v>-0.37901895197426644</v>
+      </c>
+      <c r="AB10">
+        <v>0.12777653403398226</v>
+      </c>
+      <c r="AC10">
+        <v>9.2428991362448337E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6.9138568977452675</v>
       </c>
@@ -1278,8 +1368,17 @@
       <c r="Z11">
         <v>-0.20499756404349445</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11">
+        <v>-0.18634755567494407</v>
+      </c>
+      <c r="AB11">
+        <v>-7.4238866175429782E-2</v>
+      </c>
+      <c r="AC11">
+        <v>1.1768255493800721E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.2573753497478979</v>
       </c>
@@ -1358,8 +1457,17 @@
       <c r="Z12">
         <v>-0.25853474038174468</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12">
+        <v>1.8988317678626347E-2</v>
+      </c>
+      <c r="AB12">
+        <v>2.2504715882848456E-2</v>
+      </c>
+      <c r="AC12">
+        <v>0.11587591876671857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.0065983171275397</v>
       </c>
@@ -1438,8 +1546,17 @@
       <c r="Z13">
         <v>0.14670505168581341</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13">
+        <v>8.937822823207893E-2</v>
+      </c>
+      <c r="AB13">
+        <v>6.9181167246608902E-2</v>
+      </c>
+      <c r="AC13">
+        <v>-1.8223803011231755E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.71754115055214318</v>
       </c>
@@ -1518,8 +1635,17 @@
       <c r="Z14">
         <v>7.0805972080918461E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14">
+        <v>-4.548245312218477E-3</v>
+      </c>
+      <c r="AB14">
+        <v>0.11415634840701076</v>
+      </c>
+      <c r="AC14">
+        <v>0.15501713461584285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.1044405408727829</v>
       </c>
@@ -1598,8 +1724,17 @@
       <c r="Z15">
         <v>-0.28489160874806019</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15">
+        <v>-6.6687719382675778E-3</v>
+      </c>
+      <c r="AB15">
+        <v>-0.15979183571763367</v>
+      </c>
+      <c r="AC15">
+        <v>-0.1265817242727372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.3375523744066609</v>
       </c>
@@ -1678,8 +1813,17 @@
       <c r="Z16">
         <v>0.5816440569062149</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA16">
+        <v>-0.20810000417605568</v>
+      </c>
+      <c r="AB16">
+        <v>-6.0537820518456041E-2</v>
+      </c>
+      <c r="AC16">
+        <v>1.7851991443201078E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.5456267991679491</v>
       </c>
@@ -1758,8 +1902,17 @@
       <c r="Z17">
         <v>-0.23591292241075359</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA17">
+        <v>-7.6448759602950722E-2</v>
+      </c>
+      <c r="AB17">
+        <v>0.1287247496088347</v>
+      </c>
+      <c r="AC17">
+        <v>0.11510236170737342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7.475586993741909</v>
       </c>
@@ -1838,8 +1991,17 @@
       <c r="Z18">
         <v>-2.9697104717018405E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA18">
+        <v>3.9947975517555852E-3</v>
+      </c>
+      <c r="AB18">
+        <v>-0.16025990690782646</v>
+      </c>
+      <c r="AC18">
+        <v>-0.15740166980842102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6.9519917573460788</v>
       </c>
@@ -1918,8 +2080,17 @@
       <c r="Z19">
         <v>-0.26323697118414846</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA19">
+        <v>-0.20734409788929337</v>
+      </c>
+      <c r="AB19">
+        <v>-0.20927232129450846</v>
+      </c>
+      <c r="AC19">
+        <v>-0.12224919940132009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7.3347616640913058</v>
       </c>
@@ -1998,8 +2169,17 @@
       <c r="Z20">
         <v>-0.25166240136946294</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA20">
+        <v>-0.19226687514175486</v>
+      </c>
+      <c r="AB20">
+        <v>4.9716433892403105E-3</v>
+      </c>
+      <c r="AC20">
+        <v>2.4055797653996059E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7.2161630144595641</v>
       </c>
@@ -2078,8 +2258,17 @@
       <c r="Z21">
         <v>-4.9216618366928588E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA21">
+        <v>1.8412404971732799E-2</v>
+      </c>
+      <c r="AB21">
+        <v>-5.7701836679014934E-2</v>
+      </c>
+      <c r="AC21">
+        <v>0.12921452255985749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7.3132826744032835</v>
       </c>
@@ -2158,8 +2347,17 @@
       <c r="Z22">
         <v>4.318667443041628E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA22">
+        <v>4.9550828637134024E-2</v>
+      </c>
+      <c r="AB22">
+        <v>-5.601962206283622E-2</v>
+      </c>
+      <c r="AC22">
+        <v>-3.2226963041208999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7.874401341794858</v>
       </c>
@@ -2238,8 +2436,17 @@
       <c r="Z23">
         <v>-0.37410367762590052</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA23">
+        <v>-4.3987104121763716E-2</v>
+      </c>
+      <c r="AB23">
+        <v>0.28125065045491088</v>
+      </c>
+      <c r="AC23">
+        <v>0.22684940643489207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8.1786843194554368</v>
       </c>
@@ -2318,8 +2525,17 @@
       <c r="Z24">
         <v>0.21048124882898581</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA24">
+        <v>6.5234460548133505E-2</v>
+      </c>
+      <c r="AB24">
+        <v>-6.5810490274726116E-2</v>
+      </c>
+      <c r="AC24">
+        <v>2.0902395701531146E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8.0728070541582877</v>
       </c>
@@ -2398,8 +2614,17 @@
       <c r="Z25">
         <v>0.28553897685940388</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA25">
+        <v>-0.28267490780420285</v>
+      </c>
+      <c r="AB25">
+        <v>-0.112195721688561</v>
+      </c>
+      <c r="AC25">
+        <v>9.6794238903818997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7.5533476488074163</v>
       </c>
@@ -2478,8 +2703,17 @@
       <c r="Z26">
         <v>-0.24366405864284935</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA26">
+        <v>0.12324986684940045</v>
+      </c>
+      <c r="AB26">
+        <v>-6.5753894993967596E-2</v>
+      </c>
+      <c r="AC26">
+        <v>-0.19636523680680376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8.5279406555946231</v>
       </c>
@@ -2558,8 +2792,17 @@
       <c r="Z27">
         <v>-6.4774850569603391E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA27">
+        <v>-4.0059169391712106E-2</v>
+      </c>
+      <c r="AB27">
+        <v>0.13372954656588279</v>
+      </c>
+      <c r="AC27">
+        <v>0.22015075708826151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8.0801390144090952</v>
       </c>
@@ -2638,8 +2881,17 @@
       <c r="Z28">
         <v>-0.28460012741263102</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA28">
+        <v>-9.6823127569391584E-2</v>
+      </c>
+      <c r="AB28">
+        <v>6.0062215334408062E-3</v>
+      </c>
+      <c r="AC28">
+        <v>0.1747928078804048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7.3681698011478041</v>
       </c>
@@ -2718,8 +2970,17 @@
       <c r="Z29">
         <v>-0.11363823261180757</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA29">
+        <v>-0.10801308258337701</v>
+      </c>
+      <c r="AB29">
+        <v>3.1411253833763274E-2</v>
+      </c>
+      <c r="AC29">
+        <v>-8.4646409915375184E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7.8852104089547019</v>
       </c>
@@ -2798,8 +3059,17 @@
       <c r="Z30">
         <v>-0.18173783027095514</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA30">
+        <v>0.14836535089242708</v>
+      </c>
+      <c r="AB30">
+        <v>-3.1594375313917192E-2</v>
+      </c>
+      <c r="AC30">
+        <v>-4.0697050425791519E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6.6241355388540564</v>
       </c>
@@ -2878,8 +3148,17 @@
       <c r="Z31">
         <v>-0.37220530958622233</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA31">
+        <v>-0.33131685862835442</v>
+      </c>
+      <c r="AB31">
+        <v>-0.12583358403545869</v>
+      </c>
+      <c r="AC31">
+        <v>0.2599527778664002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7.7998502329143289</v>
       </c>
@@ -2958,8 +3237,17 @@
       <c r="Z32">
         <v>-2.6951662427618052E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA32">
+        <v>-0.12867302695814872</v>
+      </c>
+      <c r="AB32">
+        <v>-0.37326961923852664</v>
+      </c>
+      <c r="AC32">
+        <v>-0.23281429508865539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7.9648884925614016</v>
       </c>
@@ -3038,8 +3326,17 @@
       <c r="Z33">
         <v>-4.8282080476684038E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA33">
+        <v>0.11256955472456265</v>
+      </c>
+      <c r="AB33">
+        <v>-4.3909702372232677E-2</v>
+      </c>
+      <c r="AC33">
+        <v>-0.15015392841805733</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7.9632941851649672</v>
       </c>
@@ -3118,8 +3415,17 @@
       <c r="Z34">
         <v>-0.23547366631175148</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA34">
+        <v>-0.14328319549039598</v>
+      </c>
+      <c r="AB34">
+        <v>-8.1086350253592232E-2</v>
+      </c>
+      <c r="AC34">
+        <v>-0.17612237908437542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8.0433116124888375</v>
       </c>
@@ -3198,8 +3504,17 @@
       <c r="Z35">
         <v>4.5787268754595677E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA35">
+        <v>3.6267027125775148E-2</v>
+      </c>
+      <c r="AB35">
+        <v>-2.8004578454706056E-2</v>
+      </c>
+      <c r="AC35">
+        <v>-5.4540674421668968E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6.7975664980586732</v>
       </c>
@@ -3278,8 +3593,17 @@
       <c r="Z36">
         <v>0.31392403173080896</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA36">
+        <v>0.17329687704886237</v>
+      </c>
+      <c r="AB36">
+        <v>0.29536650269902187</v>
+      </c>
+      <c r="AC36">
+        <v>7.8496451259609482E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8.1335566593649418</v>
       </c>
@@ -3358,8 +3682,17 @@
       <c r="Z37">
         <v>0.23052404908831126</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA37">
+        <v>0.13673879218540055</v>
+      </c>
+      <c r="AB37">
+        <v>-6.9794430768584007E-2</v>
+      </c>
+      <c r="AC37">
+        <v>-8.5505146080733591E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8.1335567793154269</v>
       </c>
@@ -3438,8 +3771,17 @@
       <c r="Z38">
         <v>0.22828456997256719</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA38">
+        <v>0.13429760709704699</v>
+      </c>
+      <c r="AB38">
+        <v>-7.0871092013569212E-2</v>
+      </c>
+      <c r="AC38">
+        <v>-8.6479004567750581E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6.6018539133853453</v>
       </c>
@@ -3518,8 +3860,17 @@
       <c r="Z39">
         <v>-3.6449778256065976E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA39">
+        <v>0.12149267987725591</v>
+      </c>
+      <c r="AB39">
+        <v>-1.3081166890383508E-2</v>
+      </c>
+      <c r="AC39">
+        <v>-0.17695252728179461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6.9714441301523822</v>
       </c>
@@ -3598,8 +3949,17 @@
       <c r="Z40">
         <v>0.23682657521872957</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA40">
+        <v>0.15287929312878715</v>
+      </c>
+      <c r="AB40">
+        <v>-4.5467521326853652E-2</v>
+      </c>
+      <c r="AC40">
+        <v>-6.7954629321162627E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6.8537300387176154</v>
       </c>
@@ -3678,8 +4038,17 @@
       <c r="Z41">
         <v>0.30412685180568405</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA41">
+        <v>0.2318660056192326</v>
+      </c>
+      <c r="AB41">
+        <v>-7.6032113703111581E-2</v>
+      </c>
+      <c r="AC41">
+        <v>-0.19241129960518644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8.4033294011678379</v>
       </c>
@@ -3758,8 +4127,17 @@
       <c r="Z42">
         <v>0.22379042992251055</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA42">
+        <v>7.2299848711515458E-2</v>
+      </c>
+      <c r="AB42">
+        <v>1.8068404053448176E-2</v>
+      </c>
+      <c r="AC42">
+        <v>2.8931457106447265E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>7.2769286249046017</v>
       </c>
@@ -3838,8 +4216,17 @@
       <c r="Z43">
         <v>-0.13656052783617462</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA43">
+        <v>-8.284899328929915E-2</v>
+      </c>
+      <c r="AB43">
+        <v>-0.29902323221786792</v>
+      </c>
+      <c r="AC43">
+        <v>0.20675338898868906</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7.7116543491460074</v>
       </c>
@@ -3918,8 +4305,17 @@
       <c r="Z44">
         <v>-3.9176314488783635E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA44">
+        <v>0.13703736200315089</v>
+      </c>
+      <c r="AB44">
+        <v>7.3082937441717233E-2</v>
+      </c>
+      <c r="AC44">
+        <v>-0.22312516518041917</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>7.6141438061978954</v>
       </c>
@@ -3998,8 +4394,17 @@
       <c r="Z45">
         <v>7.0681327998524016E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA45">
+        <v>6.6162117458071198E-2</v>
+      </c>
+      <c r="AB45">
+        <v>-0.13280292211909384</v>
+      </c>
+      <c r="AC45">
+        <v>1.1373994401400316E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3.4911349770034432</v>
       </c>
@@ -4078,8 +4483,17 @@
       <c r="Z46">
         <v>-0.1637655249972079</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA46">
+        <v>4.4347348255364016E-2</v>
+      </c>
+      <c r="AB46">
+        <v>0.11110090807028118</v>
+      </c>
+      <c r="AC46">
+        <v>2.9054634332121802E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4.465649716499799</v>
       </c>
@@ -4158,8 +4572,17 @@
       <c r="Z47">
         <v>0.14779638262801836</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA47">
+        <v>-0.12649336060721542</v>
+      </c>
+      <c r="AB47">
+        <v>-0.14501220142044091</v>
+      </c>
+      <c r="AC47">
+        <v>-0.1582854888907673</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>6.1649430018671181</v>
       </c>
@@ -4238,8 +4661,17 @@
       <c r="Z48">
         <v>-5.9915851412299957E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA48">
+        <v>7.0291106251508584E-2</v>
+      </c>
+      <c r="AB48">
+        <v>-2.3474724176583313E-2</v>
+      </c>
+      <c r="AC48">
+        <v>-8.6677990160058824E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5.8994484812142138</v>
       </c>
@@ -4318,8 +4750,17 @@
       <c r="Z49">
         <v>-2.6806209388334432E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA49">
+        <v>-3.8554152754966604E-2</v>
+      </c>
+      <c r="AB49">
+        <v>0.11745729358801205</v>
+      </c>
+      <c r="AC49">
+        <v>0.1872282774704371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4.9659151281152809</v>
       </c>
@@ -4398,8 +4839,17 @@
       <c r="Z50">
         <v>-0.12081293985455324</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA50">
+        <v>-6.2482577321827083E-2</v>
+      </c>
+      <c r="AB50">
+        <v>0.11477324834702628</v>
+      </c>
+      <c r="AC50">
+        <v>4.6462543374315372E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4.8975373535075626</v>
       </c>
@@ -4478,8 +4928,17 @@
       <c r="Z51">
         <v>-0.31170528124903923</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA51">
+        <v>0.11584985025852265</v>
+      </c>
+      <c r="AB51">
+        <v>-0.12148490345367838</v>
+      </c>
+      <c r="AC51">
+        <v>1.6389075889222691E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4.2268337208362574</v>
       </c>
@@ -4558,8 +5017,17 @@
       <c r="Z52">
         <v>-0.22979763373837458</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA52">
+        <v>-8.6090615139907782E-3</v>
+      </c>
+      <c r="AB52">
+        <v>0.16807769106142775</v>
+      </c>
+      <c r="AC52">
+        <v>2.7278257821262256E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4.567371309297636</v>
       </c>
@@ -4638,8 +5106,17 @@
       <c r="Z53">
         <v>-4.2785422880298372E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA53">
+        <v>-0.30453908539636265</v>
+      </c>
+      <c r="AB53">
+        <v>-4.7085705434914873E-2</v>
+      </c>
+      <c r="AC53">
+        <v>-5.809819459991572E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5.3283275822390621</v>
       </c>
@@ -4718,8 +5195,17 @@
       <c r="Z54">
         <v>-0.1149118251314635</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA54">
+        <v>3.4684286855206845E-2</v>
+      </c>
+      <c r="AB54">
+        <v>-7.9210570584683268E-2</v>
+      </c>
+      <c r="AC54">
+        <v>-0.23296965266206676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5.7624104505873097</v>
       </c>
@@ -4798,8 +5284,17 @@
       <c r="Z55">
         <v>1.2864119257483847E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA55">
+        <v>8.7197250430974399E-3</v>
+      </c>
+      <c r="AB55">
+        <v>-0.14551543960701288</v>
+      </c>
+      <c r="AC55">
+        <v>-8.3737818437239361E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5.312246103956145</v>
       </c>
@@ -4878,8 +5373,17 @@
       <c r="Z56">
         <v>-8.7194863990830481E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA56">
+        <v>3.3450202113131031E-2</v>
+      </c>
+      <c r="AB56">
+        <v>7.6870179283379636E-2</v>
+      </c>
+      <c r="AC56">
+        <v>0.19069271229977641</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>6.7291600463018018</v>
       </c>
@@ -4958,8 +5462,17 @@
       <c r="Z57">
         <v>0.22118817486492393</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA57">
+        <v>-0.16553125707480806</v>
+      </c>
+      <c r="AB57">
+        <v>3.0148286680561475E-2</v>
+      </c>
+      <c r="AC57">
+        <v>-3.0954397344027221E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>7.0091831903401989</v>
       </c>
@@ -5038,8 +5551,17 @@
       <c r="Z58">
         <v>6.9602256941514534E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA58">
+        <v>-7.9169093375056673E-4</v>
+      </c>
+      <c r="AB58">
+        <v>0.11047499912976394</v>
+      </c>
+      <c r="AC58">
+        <v>8.2870553386366202E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6.8501430683817093</v>
       </c>
@@ -5118,8 +5640,17 @@
       <c r="Z59">
         <v>-0.20959228183127024</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA59">
+        <v>-5.4398226950655715E-2</v>
+      </c>
+      <c r="AB59">
+        <v>4.1997178738358919E-2</v>
+      </c>
+      <c r="AC59">
+        <v>-6.2383785168040849E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6.5459979302005973</v>
       </c>
@@ -5198,8 +5729,17 @@
       <c r="Z60">
         <v>-0.23218597058524199</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA60">
+        <v>-0.34693072800184055</v>
+      </c>
+      <c r="AB60">
+        <v>-0.16862888887123795</v>
+      </c>
+      <c r="AC60">
+        <v>0.23059550923413422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5.5564798991598146</v>
       </c>
@@ -5278,8 +5818,17 @@
       <c r="Z61">
         <v>0.10123200678428183</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA61">
+        <v>-2.9533499210263745E-2</v>
+      </c>
+      <c r="AB61">
+        <v>-1.2514871397557533E-3</v>
+      </c>
+      <c r="AC61">
+        <v>0.1406597390316251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6.918086387610189</v>
       </c>
@@ -5358,8 +5907,17 @@
       <c r="Z62">
         <v>0.26360634609942618</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA62">
+        <v>1.6821656214148835E-2</v>
+      </c>
+      <c r="AB62">
+        <v>-5.9138380692086198E-2</v>
+      </c>
+      <c r="AC62">
+        <v>4.1078588523761103E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4.4371885282251684</v>
       </c>
@@ -5438,8 +5996,17 @@
       <c r="Z63">
         <v>-8.6037979479655496E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA63">
+        <v>-0.11853645506503852</v>
+      </c>
+      <c r="AB63">
+        <v>-1.2496418670117771E-2</v>
+      </c>
+      <c r="AC63">
+        <v>-3.3260532217023291E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6.179765030800314</v>
       </c>
@@ -5518,8 +6085,17 @@
       <c r="Z64">
         <v>0.10111354829610841</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA64">
+        <v>3.5107048422241549E-2</v>
+      </c>
+      <c r="AB64">
+        <v>-0.21093133344993326</v>
+      </c>
+      <c r="AC64">
+        <v>-0.29017352003321667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7.8125104677148229</v>
       </c>
@@ -5598,8 +6174,17 @@
       <c r="Z65">
         <v>-1.2567104319042206E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA65">
+        <v>0.1117323431038294</v>
+      </c>
+      <c r="AB65">
+        <v>6.0186648408203092E-2</v>
+      </c>
+      <c r="AC65">
+        <v>-9.3951408506212045E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6.4900679845879043</v>
       </c>
@@ -5678,8 +6263,17 @@
       <c r="Z66">
         <v>-0.13184240315177304</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA66">
+        <v>4.4029804855427714E-2</v>
+      </c>
+      <c r="AB66">
+        <v>-0.19038107516532188</v>
+      </c>
+      <c r="AC66">
+        <v>7.0033915632672326E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1.5396152819952365</v>
       </c>
@@ -5758,8 +6352,17 @@
       <c r="Z67">
         <v>8.1776577371919668E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA67">
+        <v>0.41832271250870984</v>
+      </c>
+      <c r="AB67">
+        <v>5.9161493030081627E-2</v>
+      </c>
+      <c r="AC67">
+        <v>0.21388733663059978</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6.8024013863956236</v>
       </c>
@@ -5838,8 +6441,17 @@
       <c r="Z68">
         <v>-0.24381817455674379</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA68">
+        <v>-0.27193247284989319</v>
+      </c>
+      <c r="AB68">
+        <v>3.360365169319917E-2</v>
+      </c>
+      <c r="AC68">
+        <v>0.11575210054273008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>7.1846730346256731</v>
       </c>
@@ -5918,8 +6530,17 @@
       <c r="Z69">
         <v>-8.5223964375795505E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA69">
+        <v>-0.23587339654420289</v>
+      </c>
+      <c r="AB69">
+        <v>-0.15061453245481685</v>
+      </c>
+      <c r="AC69">
+        <v>2.9379520345162311E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5.8845270903957561</v>
       </c>
@@ -5998,8 +6619,17 @@
       <c r="Z70">
         <v>-9.3845763589849598E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA70">
+        <v>5.408379492906689E-2</v>
+      </c>
+      <c r="AB70">
+        <v>-8.070400289610935E-2</v>
+      </c>
+      <c r="AC70">
+        <v>9.1422409231409749E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6.0174244582082794</v>
       </c>
@@ -6078,8 +6708,17 @@
       <c r="Z71">
         <v>-0.11638493193217016</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA71">
+        <v>6.3854665419325093E-2</v>
+      </c>
+      <c r="AB71">
+        <v>9.2419304535780428E-2</v>
+      </c>
+      <c r="AC71">
+        <v>1.5914079803939486E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6.2098627410367166</v>
       </c>
@@ -6158,8 +6797,17 @@
       <c r="Z72">
         <v>-0.11558992644002579</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA72">
+        <v>-0.13947571891693436</v>
+      </c>
+      <c r="AB72">
+        <v>-8.5730725892775861E-2</v>
+      </c>
+      <c r="AC72">
+        <v>-0.17999386100815534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4.3988107439550923</v>
       </c>
@@ -6238,8 +6886,17 @@
       <c r="Z73">
         <v>-2.8745982832048992E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA73">
+        <v>0.240767630125584</v>
+      </c>
+      <c r="AB73">
+        <v>-0.14583380943816751</v>
+      </c>
+      <c r="AC73">
+        <v>0.12307547319678495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>6.6752958086959211</v>
       </c>
@@ -6318,8 +6975,17 @@
       <c r="Z74">
         <v>0.39955281119337455</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA74">
+        <v>-0.41283988644073027</v>
+      </c>
+      <c r="AB74">
+        <v>0.4501873595745613</v>
+      </c>
+      <c r="AC74">
+        <v>-0.25926759268906285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>6.1745448820278863</v>
       </c>
@@ -6398,46 +7064,55 @@
       <c r="Z75">
         <v>-0.27965506242142729</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA75">
+        <v>0.26455933212002658</v>
+      </c>
+      <c r="AB75">
+        <v>-8.2629033916698069E-2</v>
+      </c>
+      <c r="AC75">
+        <v>7.0061598007029505E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>2.9358196690473326</v>
+        <v>6.2098627410367166</v>
       </c>
       <c r="B76">
-        <v>2.7249673185869683</v>
+        <v>-0.21063689765620119</v>
       </c>
       <c r="C76">
-        <v>-2.2695019536399363</v>
+        <v>-1.370192447328364</v>
       </c>
       <c r="D76">
-        <v>-2.0003256163147172</v>
+        <v>-0.84887844051040218</v>
       </c>
       <c r="E76">
-        <v>-0.53808010586409316</v>
+        <v>-4.8931700186480985E-2</v>
       </c>
       <c r="F76">
-        <v>-0.24785610663116933</v>
+        <v>0.57186918221178451</v>
       </c>
       <c r="G76">
-        <v>-3.7791560230077313E-2</v>
+        <v>-0.13774776864740526</v>
       </c>
       <c r="H76">
-        <v>-0.56832159942335536</v>
+        <v>-0.45637385917520484</v>
       </c>
       <c r="I76">
-        <v>-0.81309168560139522</v>
+        <v>-0.32336006554088187</v>
       </c>
       <c r="J76">
-        <v>-0.69463040716092228</v>
+        <v>-0.4194173754525044</v>
       </c>
       <c r="K76">
-        <v>-0.55054912415288226</v>
+        <v>-0.22584345975083714</v>
       </c>
       <c r="L76">
-        <v>-0.39805093067874447</v>
+        <v>0.26809883573587651</v>
       </c>
       <c r="M76">
-        <v>1.3186665216587095E-3</v>
+        <v>-0.32959840886643732</v>
       </c>
       <c r="N76">
         <v>0.14926109581446481</v>
@@ -6479,45 +7154,45 @@
         <v>0.1300593934084609</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>5.8819256675879554</v>
+        <v>4.3988107439550923</v>
       </c>
       <c r="B77">
-        <v>-0.99557297978974379</v>
+        <v>-3.9224824693888038</v>
       </c>
       <c r="C77">
-        <v>-2.8593622489065864</v>
+        <v>-3.2512351757241751</v>
       </c>
       <c r="D77">
-        <v>-1.7814787345951204</v>
+        <v>2.1284776558237364</v>
       </c>
       <c r="E77">
-        <v>-0.15668587787902064</v>
+        <v>-0.57342544969585429</v>
       </c>
       <c r="F77">
-        <v>0.52806708841063987</v>
+        <v>5.8583486340814526E-2</v>
       </c>
       <c r="G77">
-        <v>0.74468230047669404</v>
+        <v>0.29539355656182564</v>
       </c>
       <c r="H77">
-        <v>0.40238815986433085</v>
+        <v>8.2154698670005119E-2</v>
       </c>
       <c r="I77">
-        <v>3.2048610136147578E-2</v>
+        <v>-0.83328030147300836</v>
       </c>
       <c r="J77">
-        <v>-0.13768575255148749</v>
+        <v>0.33873931586527029</v>
       </c>
       <c r="K77">
-        <v>-0.61149198407657601</v>
+        <v>0.36977583099050193</v>
       </c>
       <c r="L77">
-        <v>-0.38202325172840967</v>
+        <v>-0.31673523074388277</v>
       </c>
       <c r="M77">
-        <v>0.13718563573437342</v>
+        <v>3.7439664969409229E-3</v>
       </c>
       <c r="N77">
         <v>0.17266829637743461</v>
@@ -6559,45 +7234,45 @@
         <v>-4.5340511212256787E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>4.7429380835678172</v>
+        <v>6.6752958086959211</v>
       </c>
       <c r="B78">
-        <v>-1.4809513510871186</v>
+        <v>-5.6811879971357611</v>
       </c>
       <c r="C78">
-        <v>-2.5135324841624067</v>
+        <v>-1.7878377798288585</v>
       </c>
       <c r="D78">
-        <v>0.66883450600431804</v>
+        <v>1.7601031196399719</v>
       </c>
       <c r="E78">
-        <v>-2.3910518728873527</v>
+        <v>-0.74109973503995008</v>
       </c>
       <c r="F78">
-        <v>1.3918719702356044</v>
+        <v>2.3169995808848216E-2</v>
       </c>
       <c r="G78">
-        <v>-0.3022660752861161</v>
+        <v>-9.4804575140565506E-2</v>
       </c>
       <c r="H78">
-        <v>-0.32386238377178522</v>
+        <v>0.53662763391245261</v>
       </c>
       <c r="I78">
-        <v>0.20786102105536688</v>
+        <v>-1.004199503615181</v>
       </c>
       <c r="J78">
-        <v>4.253343354906005E-2</v>
+        <v>0.98309982010817365</v>
       </c>
       <c r="K78">
-        <v>-0.28893032713396077</v>
+        <v>5.486273678109675E-3</v>
       </c>
       <c r="L78">
-        <v>0.51639587922948027</v>
+        <v>-0.54629282925006473</v>
       </c>
       <c r="M78">
-        <v>-9.6932376841417534E-2</v>
+        <v>-0.42885775757814842</v>
       </c>
       <c r="N78">
         <v>-0.20365101888706491</v>
@@ -6639,45 +7314,45 @@
         <v>1.1154292143552137E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>4.424582198244063</v>
+        <v>6.1745448820278863</v>
       </c>
       <c r="B79">
-        <v>-2.8669506080834242</v>
+        <v>-6.2068913846709206</v>
       </c>
       <c r="C79">
-        <v>0.68070102373195085</v>
+        <v>-3.9022999946664849</v>
       </c>
       <c r="D79">
-        <v>-1.0487966339053678</v>
+        <v>2.6312168499107229</v>
       </c>
       <c r="E79">
-        <v>0.7758350013682288</v>
+        <v>-1.7278193673320037</v>
       </c>
       <c r="F79">
-        <v>-0.14897455941101445</v>
+        <v>-5.1155515543705239E-2</v>
       </c>
       <c r="G79">
-        <v>0.36368461062830298</v>
+        <v>-7.6009484362449919E-2</v>
       </c>
       <c r="H79">
-        <v>0.25085598987556668</v>
+        <v>-0.18168243234455178</v>
       </c>
       <c r="I79">
-        <v>0.29059768038871975</v>
+        <v>-0.69585850341701772</v>
       </c>
       <c r="J79">
-        <v>0.72867212274274251</v>
+        <v>0.12782670448526534</v>
       </c>
       <c r="K79">
-        <v>0.40023444098039501</v>
+        <v>0.43659976979246923</v>
       </c>
       <c r="L79">
-        <v>0.29313138647937409</v>
+        <v>0.80763402934231265</v>
       </c>
       <c r="M79">
-        <v>0.1953516919519761</v>
+        <v>-1.0430182097657761</v>
       </c>
       <c r="N79">
         <v>-1.4194466354636618E-2</v>
@@ -6719,45 +7394,45 @@
         <v>3.7347205667917292E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>5.670102301558912</v>
+        <v>2.7156900536869877</v>
       </c>
       <c r="B80">
-        <v>-0.58547045742392512</v>
+        <v>1.7529324208448611</v>
       </c>
       <c r="C80">
-        <v>-1.5310314435237793</v>
+        <v>-1.8665463334255123</v>
       </c>
       <c r="D80">
-        <v>-1.1486715412029158</v>
+        <v>-0.53171216903513796</v>
       </c>
       <c r="E80">
-        <v>-2.3466711332336203</v>
+        <v>5.9988193998202585E-2</v>
       </c>
       <c r="F80">
-        <v>-1.6784237652031615</v>
+        <v>0.91586102162647298</v>
       </c>
       <c r="G80">
-        <v>-1.4857074100820673</v>
+        <v>0.4450457266556952</v>
       </c>
       <c r="H80">
-        <v>-0.73556613559075112</v>
+        <v>-0.24521364271057428</v>
       </c>
       <c r="I80">
-        <v>6.3160645467374057E-2</v>
+        <v>0.92027882711550535</v>
       </c>
       <c r="J80">
-        <v>-1.7609099981775272E-2</v>
+        <v>0.30281541866059608</v>
       </c>
       <c r="K80">
-        <v>0.79183610993840725</v>
+        <v>0.23933590338446598</v>
       </c>
       <c r="L80">
-        <v>0.44677986600472275</v>
+        <v>0.31569152863045924</v>
       </c>
       <c r="M80">
-        <v>0.27739670508292036</v>
+        <v>-0.26669156530070481</v>
       </c>
       <c r="N80">
         <v>-0.18224965850908897</v>
@@ -6801,43 +7476,43 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>6.7193733668586066</v>
+        <v>4.3988107439550923</v>
       </c>
       <c r="B81">
-        <v>3.5301805414258167</v>
+        <v>-3.9224824693888038</v>
       </c>
       <c r="C81">
-        <v>-0.38726681023914356</v>
+        <v>-3.2512351757241751</v>
       </c>
       <c r="D81">
-        <v>-0.51398021959479956</v>
+        <v>2.1284776558237364</v>
       </c>
       <c r="E81">
-        <v>-1.5794457472412091</v>
+        <v>-0.57342544969585429</v>
       </c>
       <c r="F81">
-        <v>-1.3990086006209497</v>
+        <v>5.8583486340814526E-2</v>
       </c>
       <c r="G81">
-        <v>-0.44901188617589616</v>
+        <v>0.29539355656182564</v>
       </c>
       <c r="H81">
-        <v>-0.22392129451455192</v>
+        <v>8.2154698670005119E-2</v>
       </c>
       <c r="I81">
-        <v>0.2732259237301532</v>
+        <v>-0.83328030147300836</v>
       </c>
       <c r="J81">
-        <v>0.88228515229958115</v>
+        <v>0.33873931586527029</v>
       </c>
       <c r="K81">
-        <v>-9.6859393963611401E-2</v>
+        <v>0.36977583099050193</v>
       </c>
       <c r="L81">
-        <v>0.2613606950208629</v>
+        <v>-0.31673523074388277</v>
       </c>
       <c r="M81">
-        <v>-0.17570861157819587</v>
+        <v>3.7439664969409229E-3</v>
       </c>
       <c r="N81">
         <v>0.36948530212218383</v>
@@ -6881,43 +7556,43 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>5.3321000682762891</v>
+        <v>6.6752958086959211</v>
       </c>
       <c r="B82">
-        <v>1.7048277565540924</v>
+        <v>-5.6811879971357611</v>
       </c>
       <c r="C82">
-        <v>-1.6578250404282167</v>
+        <v>-1.7878377798288585</v>
       </c>
       <c r="D82">
-        <v>-2.0616336761959557</v>
+        <v>1.7601031196399719</v>
       </c>
       <c r="E82">
-        <v>-1.4673173831495478</v>
+        <v>-0.74109973503995008</v>
       </c>
       <c r="F82">
-        <v>-2.4806188967972607</v>
+        <v>2.3169995808848216E-2</v>
       </c>
       <c r="G82">
-        <v>-0.97010963947730333</v>
+        <v>-9.4804575140565506E-2</v>
       </c>
       <c r="H82">
-        <v>-1.1074275882212536</v>
+        <v>0.53662763391245261</v>
       </c>
       <c r="I82">
-        <v>-0.17272049051057434</v>
+        <v>-1.004199503615181</v>
       </c>
       <c r="J82">
-        <v>0.43204561196586705</v>
+        <v>0.98309982010817365</v>
       </c>
       <c r="K82">
-        <v>0.38932566504079291</v>
+        <v>5.486273678109675E-3</v>
       </c>
       <c r="L82">
-        <v>0.27379932274449453</v>
+        <v>-0.54629282925006473</v>
       </c>
       <c r="M82">
-        <v>-0.15417956008774739</v>
+        <v>-0.42885775757814842</v>
       </c>
       <c r="N82">
         <v>0.58877518063384859</v>
@@ -6961,43 +7636,43 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>6.352698349231181</v>
+        <v>6.1745448820278863</v>
       </c>
       <c r="B83">
-        <v>-0.94613995334573564</v>
+        <v>-6.2068913846709206</v>
       </c>
       <c r="C83">
-        <v>0.64785656563357963</v>
+        <v>-3.9022999946664849</v>
       </c>
       <c r="D83">
-        <v>-1.1107118228194941</v>
+        <v>2.6312168499107229</v>
       </c>
       <c r="E83">
-        <v>-2.5727203548687347</v>
+        <v>-1.7278193673320037</v>
       </c>
       <c r="F83">
-        <v>-0.44074158910752192</v>
+        <v>-5.1155515543705239E-2</v>
       </c>
       <c r="G83">
-        <v>-1.6360082522141406</v>
+        <v>-7.6009484362449919E-2</v>
       </c>
       <c r="H83">
-        <v>-0.14346924873262665</v>
+        <v>-0.18168243234455178</v>
       </c>
       <c r="I83">
-        <v>-6.4078700915544393E-2</v>
+        <v>-0.69585850341701772</v>
       </c>
       <c r="J83">
-        <v>0.92914701456602933</v>
+        <v>0.12782670448526534</v>
       </c>
       <c r="K83">
-        <v>0.32640279375870435</v>
+        <v>0.43659976979246923</v>
       </c>
       <c r="L83">
-        <v>0.15177671194331055</v>
+        <v>0.80763402934231265</v>
       </c>
       <c r="M83">
-        <v>-0.2990486902432809</v>
+        <v>-1.0430182097657761</v>
       </c>
       <c r="N83">
         <v>0.19813675305578407</v>
@@ -7041,43 +7716,43 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>6.1198782184005314</v>
+        <v>2.7156900536869877</v>
       </c>
       <c r="B84">
-        <v>6.1871550335328136</v>
+        <v>1.7529324208448611</v>
       </c>
       <c r="C84">
-        <v>0.17273103454249311</v>
+        <v>-1.8665463334255123</v>
       </c>
       <c r="D84">
-        <v>0.33076636650281199</v>
+        <v>-0.53171216903513796</v>
       </c>
       <c r="E84">
-        <v>0.77547792304916052</v>
+        <v>5.9988193998202585E-2</v>
       </c>
       <c r="F84">
-        <v>0.7870980516345637</v>
+        <v>0.91586102162647298</v>
       </c>
       <c r="G84">
-        <v>8.0847805479929369E-2</v>
+        <v>0.4450457266556952</v>
       </c>
       <c r="H84">
-        <v>-0.24073120689691999</v>
+        <v>-0.24521364271057428</v>
       </c>
       <c r="I84">
-        <v>-0.27445709914482364</v>
+        <v>0.92027882711550535</v>
       </c>
       <c r="J84">
-        <v>-0.16868342545933954</v>
+        <v>0.30281541866059608</v>
       </c>
       <c r="K84">
-        <v>-0.13462757074671097</v>
+        <v>0.23933590338446598</v>
       </c>
       <c r="L84">
-        <v>-4.4700726697447783E-2</v>
+        <v>0.31569152863045924</v>
       </c>
       <c r="M84">
-        <v>-8.4963665066341856E-2</v>
+        <v>-0.26669156530070481</v>
       </c>
       <c r="N84">
         <v>-3.5345751552870869E-2</v>
@@ -7121,43 +7796,43 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>7.1150747018702987</v>
+        <v>5.2245018140118349</v>
       </c>
       <c r="B85">
-        <v>3.1835709067668048</v>
+        <v>1.3478538778114693</v>
       </c>
       <c r="C85">
-        <v>2.2312417067126273</v>
+        <v>0.38139434061318156</v>
       </c>
       <c r="D85">
-        <v>-0.20986329245191165</v>
+        <v>3.5156730478015259</v>
       </c>
       <c r="E85">
-        <v>-0.84012134380000048</v>
+        <v>0.46855541743494672</v>
       </c>
       <c r="F85">
-        <v>0.51560936672739899</v>
+        <v>0.57977206825760619</v>
       </c>
       <c r="G85">
-        <v>7.4735461102481054E-2</v>
+        <v>0.30648016076600687</v>
       </c>
       <c r="H85">
-        <v>0.56621382813003263</v>
+        <v>0.17128645452943492</v>
       </c>
       <c r="I85">
-        <v>-1.5023516841362998</v>
+        <v>-1.0645346889563587</v>
       </c>
       <c r="J85">
-        <v>0.24106176663247281</v>
+        <v>-0.30871754638322252</v>
       </c>
       <c r="K85">
-        <v>-1.5199643747652405</v>
+        <v>6.556885397645551E-2</v>
       </c>
       <c r="L85">
-        <v>0.60359048823317341</v>
+        <v>-0.27175801828161245</v>
       </c>
       <c r="M85">
-        <v>-0.25424746341715732</v>
+        <v>-0.23366108666756749</v>
       </c>
       <c r="N85">
         <v>0.21748581312343948</v>
@@ -7201,43 +7876,43 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>4.7638344903689021</v>
+        <v>6.6752958086959211</v>
       </c>
       <c r="B86">
-        <v>5.7220205133896833</v>
+        <v>-5.6811879971357611</v>
       </c>
       <c r="C86">
-        <v>0.55742153779201808</v>
+        <v>-1.7878377798288585</v>
       </c>
       <c r="D86">
-        <v>-0.78978062039396624</v>
+        <v>1.7601031196399719</v>
       </c>
       <c r="E86">
-        <v>-0.49731244510656097</v>
+        <v>-0.74109973503995008</v>
       </c>
       <c r="F86">
-        <v>-7.3632387479966005E-2</v>
+        <v>2.3169995808848216E-2</v>
       </c>
       <c r="G86">
-        <v>-0.47289889706323618</v>
+        <v>-9.4804575140565506E-2</v>
       </c>
       <c r="H86">
-        <v>-0.91543192513014626</v>
+        <v>0.53662763391245261</v>
       </c>
       <c r="I86">
-        <v>-0.85341157609503238</v>
+        <v>-1.004199503615181</v>
       </c>
       <c r="J86">
-        <v>-0.98511559865611698</v>
+        <v>0.98309982010817365</v>
       </c>
       <c r="K86">
-        <v>-0.76418656271671948</v>
+        <v>5.486273678109675E-3</v>
       </c>
       <c r="L86">
-        <v>-0.61154064921598306</v>
+        <v>-0.54629282925006473</v>
       </c>
       <c r="M86">
-        <v>-0.51306210703490207</v>
+        <v>-0.42885775757814842</v>
       </c>
       <c r="N86">
         <v>-5.829810645199432E-4</v>
@@ -7281,43 +7956,43 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>4.4778001098962905</v>
+        <v>6.1745448820278863</v>
       </c>
       <c r="B87">
-        <v>6.1553017627434379</v>
+        <v>-6.2068913846709206</v>
       </c>
       <c r="C87">
-        <v>0.92057585331663361</v>
+        <v>-3.9022999946664849</v>
       </c>
       <c r="D87">
-        <v>0.64424019611188565</v>
+        <v>2.6312168499107229</v>
       </c>
       <c r="E87">
-        <v>0.60999078529979334</v>
+        <v>-1.7278193673320037</v>
       </c>
       <c r="F87">
-        <v>-0.64259349161334534</v>
+        <v>-5.1155515543705239E-2</v>
       </c>
       <c r="G87">
-        <v>-0.82292582226548971</v>
+        <v>-7.6009484362449919E-2</v>
       </c>
       <c r="H87">
-        <v>-0.52166732307217434</v>
+        <v>-0.18168243234455178</v>
       </c>
       <c r="I87">
-        <v>-0.59660631001890974</v>
+        <v>-0.69585850341701772</v>
       </c>
       <c r="J87">
-        <v>-0.72507844161070767</v>
+        <v>0.12782670448526534</v>
       </c>
       <c r="K87">
-        <v>-0.48326741856895938</v>
+        <v>0.43659976979246923</v>
       </c>
       <c r="L87">
-        <v>-0.50486479595086964</v>
+        <v>0.80763402934231265</v>
       </c>
       <c r="M87">
-        <v>-0.16074996996290092</v>
+        <v>-1.0430182097657761</v>
       </c>
       <c r="N87">
         <v>0.21666049372455737</v>
@@ -7361,43 +8036,43 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>3.7040405543667165</v>
+        <v>2.7156900536869877</v>
       </c>
       <c r="B88">
-        <v>4.0100992996833176</v>
+        <v>1.7529324208448611</v>
       </c>
       <c r="C88">
-        <v>0.17028342864328833</v>
+        <v>-1.8665463334255123</v>
       </c>
       <c r="D88">
-        <v>0.54439143192218531</v>
+        <v>-0.53171216903513796</v>
       </c>
       <c r="E88">
-        <v>-0.73581925806281856</v>
+        <v>5.9988193998202585E-2</v>
       </c>
       <c r="F88">
-        <v>-0.1103057464998964</v>
+        <v>0.91586102162647298</v>
       </c>
       <c r="G88">
-        <v>0.22016725288063699</v>
+        <v>0.4450457266556952</v>
       </c>
       <c r="H88">
-        <v>-1.2766581948845928</v>
+        <v>-0.24521364271057428</v>
       </c>
       <c r="I88">
-        <v>-0.67236834393587264</v>
+        <v>0.92027882711550535</v>
       </c>
       <c r="J88">
-        <v>2.7033037507317417E-2</v>
+        <v>0.30281541866059608</v>
       </c>
       <c r="K88">
-        <v>-0.89210279166783601</v>
+        <v>0.23933590338446598</v>
       </c>
       <c r="L88">
-        <v>-0.1156605140918298</v>
+        <v>0.31569152863045924</v>
       </c>
       <c r="M88">
-        <v>0.17675881676142366</v>
+        <v>-0.26669156530070481</v>
       </c>
       <c r="N88">
         <v>-0.65993150394586131</v>
@@ -7441,43 +8116,43 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>2.2408153429736686</v>
+        <v>5.2245018140118349</v>
       </c>
       <c r="B89">
-        <v>3.6137827015131614</v>
+        <v>1.3478538778114693</v>
       </c>
       <c r="C89">
-        <v>0.84283222115128109</v>
+        <v>0.38139434061318156</v>
       </c>
       <c r="D89">
-        <v>-0.43520763014846237</v>
+        <v>3.5156730478015259</v>
       </c>
       <c r="E89">
-        <v>-0.67313838821150807</v>
+        <v>0.46855541743494672</v>
       </c>
       <c r="F89">
-        <v>-0.72993753170428322</v>
+        <v>0.57977206825760619</v>
       </c>
       <c r="G89">
-        <v>-0.68897022015062426</v>
+        <v>0.30648016076600687</v>
       </c>
       <c r="H89">
-        <v>-1.0670877889362724</v>
+        <v>0.17128645452943492</v>
       </c>
       <c r="I89">
-        <v>-1.1308121058275218</v>
+        <v>-1.0645346889563587</v>
       </c>
       <c r="J89">
-        <v>-1.0015247194761772</v>
+        <v>-0.30871754638322252</v>
       </c>
       <c r="K89">
-        <v>-0.56211543548732845</v>
+        <v>6.556885397645551E-2</v>
       </c>
       <c r="L89">
-        <v>-0.38833419101925221</v>
+        <v>-0.27175801828161245</v>
       </c>
       <c r="M89">
-        <v>-0.18113744425487122</v>
+        <v>-0.23366108666756749</v>
       </c>
       <c r="N89">
         <v>-0.5008439067958399</v>
@@ -7521,43 +8196,43 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>3.8598961246113079</v>
+        <v>3.8454815215745546</v>
       </c>
       <c r="B90">
-        <v>-4.1923611297153203</v>
+        <v>2.1137526488450331</v>
       </c>
       <c r="C90">
-        <v>-5.0525676191137485</v>
+        <v>-0.7798390062073165</v>
       </c>
       <c r="D90">
-        <v>-2.5281664505675514</v>
+        <v>-0.1331344734162469</v>
       </c>
       <c r="E90">
-        <v>-2.0717496653916827</v>
+        <v>-0.1161635155594158</v>
       </c>
       <c r="F90">
-        <v>-1.2924377358850303</v>
+        <v>0.18135559268779852</v>
       </c>
       <c r="G90">
-        <v>-0.68414463679787807</v>
+        <v>2.1059375545036271E-2</v>
       </c>
       <c r="H90">
-        <v>-0.24097302396515499</v>
+        <v>-1.1703425096951062E-3</v>
       </c>
       <c r="I90">
-        <v>0.26837738536505662</v>
+        <v>-9.4694492007746947E-2</v>
       </c>
       <c r="J90">
-        <v>0.29490151692770894</v>
+        <v>-0.13371820597132877</v>
       </c>
       <c r="K90">
-        <v>-6.1095989915239422E-2</v>
+        <v>0.17162774632160979</v>
       </c>
       <c r="L90">
-        <v>-0.28417472435620894</v>
+        <v>9.4429047734299554E-2</v>
       </c>
       <c r="M90">
-        <v>-0.26369192472331604</v>
+        <v>-9.7054786969422865E-2</v>
       </c>
       <c r="N90">
         <v>-0.36212415618570482</v>

--- a/audio_database/Feature.xlsx
+++ b/audio_database/Feature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Documents\MATLAB\Project\audio_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA102C2-11EB-42B3-8AC8-5F5E2989DECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF006537-85FF-4964-9AD0-9B4D490C4461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{F98F55DE-6286-4433-92DF-1F34DB2F1572}"/>
   </bookViews>
@@ -391,53 +391,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FD446B-03FF-433F-A5A5-561D5C99261F}">
-  <dimension ref="A1:AC100"/>
+  <dimension ref="A1:AC120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M75"/>
+      <selection sqref="A1:M120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>5.0976174304885102</v>
+        <v>2.9358196690473326</v>
       </c>
       <c r="B1">
-        <v>-1.2779866542131137</v>
+        <v>2.7249673185869683</v>
       </c>
       <c r="C1">
-        <v>-2.4876514206192879</v>
+        <v>-2.2695019536399363</v>
       </c>
       <c r="D1">
-        <v>-1.3311930866286665</v>
+        <v>-2.0003256163147172</v>
       </c>
       <c r="E1">
-        <v>-0.80482456710011752</v>
+        <v>-0.53808010586409316</v>
       </c>
       <c r="F1">
-        <v>-0.93957744163438583</v>
+        <v>-0.24785610663116933</v>
       </c>
       <c r="G1">
-        <v>-0.54335991221394109</v>
+        <v>-3.7791560230077313E-2</v>
       </c>
       <c r="H1">
-        <v>3.8209642393807913E-3</v>
+        <v>-0.56832159942335536</v>
       </c>
       <c r="I1">
-        <v>-0.77780510380613144</v>
+        <v>-0.81309168560139522</v>
       </c>
       <c r="J1">
-        <v>-0.32357934954964035</v>
+        <v>-0.69463040716092228</v>
       </c>
       <c r="K1">
-        <v>-0.25397604662121981</v>
+        <v>-0.55054912415288226</v>
       </c>
       <c r="L1">
-        <v>4.0865650570641621E-2</v>
+        <v>-0.39805093067874447</v>
       </c>
       <c r="M1">
-        <v>-6.0070962098635994E-2</v>
+        <v>1.3186665216587095E-3</v>
       </c>
       <c r="N1">
         <v>0.13047666451077583</v>
@@ -490,43 +490,43 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>6.2165876714931114</v>
+        <v>5.8819256675879554</v>
       </c>
       <c r="B2">
-        <v>-0.3301575877553386</v>
+        <v>-0.99557297978974379</v>
       </c>
       <c r="C2">
-        <v>-2.2748746768471038</v>
+        <v>-2.8593622489065864</v>
       </c>
       <c r="D2">
-        <v>-1.4952293220203778</v>
+        <v>-1.7814787345951204</v>
       </c>
       <c r="E2">
-        <v>-0.77909420306304744</v>
+        <v>-0.15668587787902064</v>
       </c>
       <c r="F2">
-        <v>-0.83987049721885398</v>
+        <v>0.52806708841063987</v>
       </c>
       <c r="G2">
-        <v>-1.4620312892254204</v>
+        <v>0.74468230047669404</v>
       </c>
       <c r="H2">
-        <v>-0.49355036430567628</v>
+        <v>0.40238815986433085</v>
       </c>
       <c r="I2">
-        <v>-0.2523916110076756</v>
+        <v>3.2048610136147578E-2</v>
       </c>
       <c r="J2">
-        <v>9.8275876276608928E-2</v>
+        <v>-0.13768575255148749</v>
       </c>
       <c r="K2">
-        <v>-0.29805998040986248</v>
+        <v>-0.61149198407657601</v>
       </c>
       <c r="L2">
-        <v>-0.38831001792476094</v>
+        <v>-0.38202325172840967</v>
       </c>
       <c r="M2">
-        <v>-0.56105507822185607</v>
+        <v>0.13718563573437342</v>
       </c>
       <c r="N2">
         <v>-0.35314543160586054</v>
@@ -579,43 +579,43 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4.315444665612219</v>
+        <v>4.7429380835678172</v>
       </c>
       <c r="B3">
-        <v>-0.34168691136114332</v>
+        <v>-1.4809513510871186</v>
       </c>
       <c r="C3">
-        <v>-2.5921898604697069</v>
+        <v>-2.5135324841624067</v>
       </c>
       <c r="D3">
-        <v>-1.767719025748429</v>
+        <v>0.66883450600431804</v>
       </c>
       <c r="E3">
-        <v>-0.90114567188713501</v>
+        <v>-2.3910518728873527</v>
       </c>
       <c r="F3">
-        <v>-0.72274844830455065</v>
+        <v>1.3918719702356044</v>
       </c>
       <c r="G3">
-        <v>-0.61038553373631832</v>
+        <v>-0.3022660752861161</v>
       </c>
       <c r="H3">
-        <v>-0.18329202150173782</v>
+        <v>-0.32386238377178522</v>
       </c>
       <c r="I3">
-        <v>-0.20335579444453616</v>
+        <v>0.20786102105536688</v>
       </c>
       <c r="J3">
-        <v>0.12243903565519172</v>
+        <v>4.253343354906005E-2</v>
       </c>
       <c r="K3">
-        <v>-0.24381596244713852</v>
+        <v>-0.28893032713396077</v>
       </c>
       <c r="L3">
-        <v>8.1353687154214233E-2</v>
+        <v>0.51639587922948027</v>
       </c>
       <c r="M3">
-        <v>8.8849689179583691E-2</v>
+        <v>-9.6932376841417534E-2</v>
       </c>
       <c r="N3">
         <v>-0.13118946249636898</v>
@@ -668,43 +668,43 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6.018467485076421</v>
+        <v>4.424582198244063</v>
       </c>
       <c r="B4">
-        <v>-1.6150179135223832</v>
+        <v>-2.8669506080834242</v>
       </c>
       <c r="C4">
-        <v>-1.9677072293807032</v>
+        <v>0.68070102373195085</v>
       </c>
       <c r="D4">
-        <v>-1.6153481964245227</v>
+        <v>-1.0487966339053678</v>
       </c>
       <c r="E4">
-        <v>-0.75441304345291127</v>
+        <v>0.7758350013682288</v>
       </c>
       <c r="F4">
-        <v>0.34180756940815116</v>
+        <v>-0.14897455941101445</v>
       </c>
       <c r="G4">
-        <v>-0.59289851746099298</v>
+        <v>0.36368461062830298</v>
       </c>
       <c r="H4">
-        <v>0.3034925871389072</v>
+        <v>0.25085598987556668</v>
       </c>
       <c r="I4">
-        <v>-0.12671604306885423</v>
+        <v>0.29059768038871975</v>
       </c>
       <c r="J4">
-        <v>-2.8785940715043146E-2</v>
+        <v>0.72867212274274251</v>
       </c>
       <c r="K4">
-        <v>-9.0832989882957807E-2</v>
+        <v>0.40023444098039501</v>
       </c>
       <c r="L4">
-        <v>-8.4263242105437286E-2</v>
+        <v>0.29313138647937409</v>
       </c>
       <c r="M4">
-        <v>1.5431749925057031E-2</v>
+        <v>0.1953516919519761</v>
       </c>
       <c r="N4">
         <v>0.1027936095919167</v>
@@ -757,43 +757,43 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5.247483015604316</v>
+        <v>5.670102301558912</v>
       </c>
       <c r="B5">
-        <v>-1.2739763572209277</v>
+        <v>-0.58547045742392512</v>
       </c>
       <c r="C5">
-        <v>-2.1296149103097997</v>
+        <v>-1.5310314435237793</v>
       </c>
       <c r="D5">
-        <v>-2.7092122213924301</v>
+        <v>-1.1486715412029158</v>
       </c>
       <c r="E5">
-        <v>-1.7007712936499557</v>
+        <v>-2.3466711332336203</v>
       </c>
       <c r="F5">
-        <v>-0.63847866192357083</v>
+        <v>-1.6784237652031615</v>
       </c>
       <c r="G5">
-        <v>-0.85066752909635901</v>
+        <v>-1.4857074100820673</v>
       </c>
       <c r="H5">
-        <v>-4.9270507634433199E-2</v>
+        <v>-0.73556613559075112</v>
       </c>
       <c r="I5">
-        <v>-1.1701264570270606</v>
+        <v>6.3160645467374057E-2</v>
       </c>
       <c r="J5">
-        <v>-0.78651342987455952</v>
+        <v>-1.7609099981775272E-2</v>
       </c>
       <c r="K5">
-        <v>-0.55720801904942296</v>
+        <v>0.79183610993840725</v>
       </c>
       <c r="L5">
-        <v>-0.14020184298814281</v>
+        <v>0.44677986600472275</v>
       </c>
       <c r="M5">
-        <v>-9.9824809875596443E-2</v>
+        <v>0.27739670508292036</v>
       </c>
       <c r="N5">
         <v>-7.433415148183449E-2</v>
@@ -846,43 +846,43 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4.7035328146850155</v>
+        <v>6.7193733668586066</v>
       </c>
       <c r="B6">
-        <v>-2.2532844421941278</v>
+        <v>3.5301805414258167</v>
       </c>
       <c r="C6">
-        <v>-4.4723377683289245</v>
+        <v>-0.38726681023914356</v>
       </c>
       <c r="D6">
-        <v>-1.6898770177622415</v>
+        <v>-0.51398021959479956</v>
       </c>
       <c r="E6">
-        <v>0.31333841894489933</v>
+        <v>-1.5794457472412091</v>
       </c>
       <c r="F6">
-        <v>-0.98607841738860802</v>
+        <v>-1.3990086006209497</v>
       </c>
       <c r="G6">
-        <v>-1.8750137441280246</v>
+        <v>-0.44901188617589616</v>
       </c>
       <c r="H6">
-        <v>0.18501006349230484</v>
+        <v>-0.22392129451455192</v>
       </c>
       <c r="I6">
-        <v>-4.5613157127543276E-2</v>
+        <v>0.2732259237301532</v>
       </c>
       <c r="J6">
-        <v>-0.5627913263398856</v>
+        <v>0.88228515229958115</v>
       </c>
       <c r="K6">
-        <v>-0.36486239486925681</v>
+        <v>-9.6859393963611401E-2</v>
       </c>
       <c r="L6">
-        <v>0.65264954285758525</v>
+        <v>0.2613606950208629</v>
       </c>
       <c r="M6">
-        <v>6.0710532762939348E-2</v>
+        <v>-0.17570861157819587</v>
       </c>
       <c r="N6">
         <v>-0.43723558196888107</v>
@@ -935,43 +935,43 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5.1450651475915423</v>
+        <v>5.3321000682762891</v>
       </c>
       <c r="B7">
-        <v>5.7683174153060959</v>
+        <v>1.7048277565540924</v>
       </c>
       <c r="C7">
-        <v>2.0374917313625054</v>
+        <v>-1.6578250404282167</v>
       </c>
       <c r="D7">
-        <v>1.1346578845005124</v>
+        <v>-2.0616336761959557</v>
       </c>
       <c r="E7">
-        <v>1.0062972890636592</v>
+        <v>-1.4673173831495478</v>
       </c>
       <c r="F7">
-        <v>0.11385177322860021</v>
+        <v>-2.4806188967972607</v>
       </c>
       <c r="G7">
-        <v>-0.1074195514751142</v>
+        <v>-0.97010963947730333</v>
       </c>
       <c r="H7">
-        <v>-0.17232537821033472</v>
+        <v>-1.1074275882212536</v>
       </c>
       <c r="I7">
-        <v>-0.4042798525597367</v>
+        <v>-0.17272049051057434</v>
       </c>
       <c r="J7">
-        <v>-0.79836469879443395</v>
+        <v>0.43204561196586705</v>
       </c>
       <c r="K7">
-        <v>-0.52311663235608874</v>
+        <v>0.38932566504079291</v>
       </c>
       <c r="L7">
-        <v>-0.17459376763518505</v>
+        <v>0.27379932274449453</v>
       </c>
       <c r="M7">
-        <v>-0.11108576262625193</v>
+        <v>-0.15417956008774739</v>
       </c>
       <c r="N7">
         <v>-0.29638558523165281</v>
@@ -1024,43 +1024,43 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6.8699277510934751</v>
+        <v>6.352698349231181</v>
       </c>
       <c r="B8">
-        <v>-4.1205038273845283</v>
+        <v>-0.94613995334573564</v>
       </c>
       <c r="C8">
-        <v>1.6946814769017524</v>
+        <v>0.64785656563357963</v>
       </c>
       <c r="D8">
-        <v>-1.6291107056636627</v>
+        <v>-1.1107118228194941</v>
       </c>
       <c r="E8">
-        <v>1.6305809394686441</v>
+        <v>-2.5727203548687347</v>
       </c>
       <c r="F8">
-        <v>-0.45586029559997621</v>
+        <v>-0.44074158910752192</v>
       </c>
       <c r="G8">
-        <v>-0.26713105353230426</v>
+        <v>-1.6360082522141406</v>
       </c>
       <c r="H8">
-        <v>0.44134127595426115</v>
+        <v>-0.14346924873262665</v>
       </c>
       <c r="I8">
-        <v>-0.76897436832616917</v>
+        <v>-6.4078700915544393E-2</v>
       </c>
       <c r="J8">
-        <v>-0.47157761242662388</v>
+        <v>0.92914701456602933</v>
       </c>
       <c r="K8">
-        <v>-0.4401564109988384</v>
+        <v>0.32640279375870435</v>
       </c>
       <c r="L8">
-        <v>-0.60525610136570862</v>
+        <v>0.15177671194331055</v>
       </c>
       <c r="M8">
-        <v>2.9371407349165605E-2</v>
+        <v>-0.2990486902432809</v>
       </c>
       <c r="N8">
         <v>-0.26123711114212295</v>
@@ -1113,43 +1113,43 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>6.0836476700778368</v>
+        <v>6.1198782184005314</v>
       </c>
       <c r="B9">
-        <v>-0.65220599067565832</v>
+        <v>6.1871550335328136</v>
       </c>
       <c r="C9">
-        <v>-2.0607715839608036</v>
+        <v>0.17273103454249311</v>
       </c>
       <c r="D9">
-        <v>2.1736653546265523</v>
+        <v>0.33076636650281199</v>
       </c>
       <c r="E9">
-        <v>-1.0363695939030795</v>
+        <v>0.77547792304916052</v>
       </c>
       <c r="F9">
-        <v>6.3186636844794114E-2</v>
+        <v>0.7870980516345637</v>
       </c>
       <c r="G9">
-        <v>0.13131638893656344</v>
+        <v>8.0847805479929369E-2</v>
       </c>
       <c r="H9">
-        <v>0.56766084129208005</v>
+        <v>-0.24073120689691999</v>
       </c>
       <c r="I9">
-        <v>-0.1208598085146548</v>
+        <v>-0.27445709914482364</v>
       </c>
       <c r="J9">
-        <v>0.71501564036191689</v>
+        <v>-0.16868342545933954</v>
       </c>
       <c r="K9">
-        <v>-0.28857243501114593</v>
+        <v>-0.13462757074671097</v>
       </c>
       <c r="L9">
-        <v>0.11884883421474035</v>
+        <v>-4.4700726697447783E-2</v>
       </c>
       <c r="M9">
-        <v>0.5542385922218529</v>
+        <v>-8.4963665066341856E-2</v>
       </c>
       <c r="N9">
         <v>-9.4706275022567996E-2</v>
@@ -1202,43 +1202,43 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5.3495359407153327</v>
+        <v>7.1150747018702987</v>
       </c>
       <c r="B10">
-        <v>-1.4522694179593458</v>
+        <v>3.1835709067668048</v>
       </c>
       <c r="C10">
-        <v>-2.689126408440591</v>
+        <v>2.2312417067126273</v>
       </c>
       <c r="D10">
-        <v>1.6301774125584401</v>
+        <v>-0.20986329245191165</v>
       </c>
       <c r="E10">
-        <v>-0.73147721458902137</v>
+        <v>-0.84012134380000048</v>
       </c>
       <c r="F10">
-        <v>0.33514048378388178</v>
+        <v>0.51560936672739899</v>
       </c>
       <c r="G10">
-        <v>0.33097760447935765</v>
+        <v>7.4735461102481054E-2</v>
       </c>
       <c r="H10">
-        <v>0.56735199037614958</v>
+        <v>0.56621382813003263</v>
       </c>
       <c r="I10">
-        <v>-0.77820945816180498</v>
+        <v>-1.5023516841362998</v>
       </c>
       <c r="J10">
-        <v>0.8481839488070525</v>
+        <v>0.24106176663247281</v>
       </c>
       <c r="K10">
-        <v>-9.1863725504157459E-2</v>
+        <v>-1.5199643747652405</v>
       </c>
       <c r="L10">
-        <v>0.44326505543620892</v>
+        <v>0.60359048823317341</v>
       </c>
       <c r="M10">
-        <v>0.18274534807555576</v>
+        <v>-0.25424746341715732</v>
       </c>
       <c r="N10">
         <v>0.14433419495054009</v>
@@ -1291,43 +1291,43 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>6.9138568977452675</v>
+        <v>4.7638344903689021</v>
       </c>
       <c r="B11">
-        <v>-1.0954668368323781</v>
+        <v>5.7220205133896833</v>
       </c>
       <c r="C11">
-        <v>-3.7837697231972571</v>
+        <v>0.55742153779201808</v>
       </c>
       <c r="D11">
-        <v>0.5128690102238278</v>
+        <v>-0.78978062039396624</v>
       </c>
       <c r="E11">
-        <v>-0.34279113138499395</v>
+        <v>-0.49731244510656097</v>
       </c>
       <c r="F11">
-        <v>0.28633180566193278</v>
+        <v>-7.3632387479966005E-2</v>
       </c>
       <c r="G11">
-        <v>-1.2243118563910285</v>
+        <v>-0.47289889706323618</v>
       </c>
       <c r="H11">
-        <v>0.98073533236210397</v>
+        <v>-0.91543192513014626</v>
       </c>
       <c r="I11">
-        <v>7.4465284455323313E-2</v>
+        <v>-0.85341157609503238</v>
       </c>
       <c r="J11">
-        <v>0.15614741695789194</v>
+        <v>-0.98511559865611698</v>
       </c>
       <c r="K11">
-        <v>-4.753386389876512E-2</v>
+        <v>-0.76418656271671948</v>
       </c>
       <c r="L11">
-        <v>0.12076621242769607</v>
+        <v>-0.61154064921598306</v>
       </c>
       <c r="M11">
-        <v>-0.16010449264183513</v>
+        <v>-0.51306210703490207</v>
       </c>
       <c r="N11">
         <v>-0.66231466447464915</v>
@@ -1380,43 +1380,43 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3.2573753497478979</v>
+        <v>4.4778001098962905</v>
       </c>
       <c r="B12">
-        <v>1.5744128216748894</v>
+        <v>6.1553017627434379</v>
       </c>
       <c r="C12">
-        <v>-0.24819610525108632</v>
+        <v>0.92057585331663361</v>
       </c>
       <c r="D12">
-        <v>-0.36672334410850355</v>
+        <v>0.64424019611188565</v>
       </c>
       <c r="E12">
-        <v>-1.782670737379362</v>
+        <v>0.60999078529979334</v>
       </c>
       <c r="F12">
-        <v>-1.263004503744154</v>
+        <v>-0.64259349161334534</v>
       </c>
       <c r="G12">
-        <v>-2.9143412158920192</v>
+        <v>-0.82292582226548971</v>
       </c>
       <c r="H12">
-        <v>-0.74408697350632003</v>
+        <v>-0.52166732307217434</v>
       </c>
       <c r="I12">
-        <v>-9.1115667880269077E-2</v>
+        <v>-0.59660631001890974</v>
       </c>
       <c r="J12">
-        <v>-0.43786068103180631</v>
+        <v>-0.72507844161070767</v>
       </c>
       <c r="K12">
-        <v>-3.9708331361057135E-2</v>
+        <v>-0.48326741856895938</v>
       </c>
       <c r="L12">
-        <v>0.25406163756569922</v>
+        <v>-0.50486479595086964</v>
       </c>
       <c r="M12">
-        <v>9.5993379188339778E-2</v>
+        <v>-0.16074996996290092</v>
       </c>
       <c r="N12">
         <v>0.2790265217198567</v>
@@ -1469,43 +1469,43 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3.0065983171275397</v>
+        <v>3.7040405543667165</v>
       </c>
       <c r="B13">
-        <v>2.8070896142931985</v>
+        <v>4.0100992996833176</v>
       </c>
       <c r="C13">
-        <v>-1.4955144722109686</v>
+        <v>0.17028342864328833</v>
       </c>
       <c r="D13">
-        <v>2.3411737980779028</v>
+        <v>0.54439143192218531</v>
       </c>
       <c r="E13">
-        <v>-0.34321114706664407</v>
+        <v>-0.73581925806281856</v>
       </c>
       <c r="F13">
-        <v>-1.4266809510041423</v>
+        <v>-0.1103057464998964</v>
       </c>
       <c r="G13">
-        <v>-0.9680752549680417</v>
+        <v>0.22016725288063699</v>
       </c>
       <c r="H13">
-        <v>-0.36397026833310075</v>
+        <v>-1.2766581948845928</v>
       </c>
       <c r="I13">
-        <v>-0.17283535314511497</v>
+        <v>-0.67236834393587264</v>
       </c>
       <c r="J13">
-        <v>0.19623233338952897</v>
+        <v>2.7033037507317417E-2</v>
       </c>
       <c r="K13">
-        <v>-0.22627197201307389</v>
+        <v>-0.89210279166783601</v>
       </c>
       <c r="L13">
-        <v>-0.18159415094455564</v>
+        <v>-0.1156605140918298</v>
       </c>
       <c r="M13">
-        <v>0.44309026810209234</v>
+        <v>0.17675881676142366</v>
       </c>
       <c r="N13">
         <v>-0.13201362457728277</v>
@@ -1558,43 +1558,43 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.71754115055214318</v>
+        <v>2.2408153429736686</v>
       </c>
       <c r="B14">
-        <v>1.6751664532410042</v>
+        <v>3.6137827015131614</v>
       </c>
       <c r="C14">
-        <v>-0.62171769516937936</v>
+        <v>0.84283222115128109</v>
       </c>
       <c r="D14">
-        <v>-0.46936012408686073</v>
+        <v>-0.43520763014846237</v>
       </c>
       <c r="E14">
-        <v>-6.7496757236656921E-2</v>
+        <v>-0.67313838821150807</v>
       </c>
       <c r="F14">
-        <v>-0.38458641860432624</v>
+        <v>-0.72993753170428322</v>
       </c>
       <c r="G14">
-        <v>-0.41689795544164615</v>
+        <v>-0.68897022015062426</v>
       </c>
       <c r="H14">
-        <v>-4.341159886723657E-2</v>
+        <v>-1.0670877889362724</v>
       </c>
       <c r="I14">
-        <v>-0.11530498649145308</v>
+        <v>-1.1308121058275218</v>
       </c>
       <c r="J14">
-        <v>0.14892798443215613</v>
+        <v>-1.0015247194761772</v>
       </c>
       <c r="K14">
-        <v>0.15249794826659605</v>
+        <v>-0.56211543548732845</v>
       </c>
       <c r="L14">
-        <v>0.15380319066068424</v>
+        <v>-0.38833419101925221</v>
       </c>
       <c r="M14">
-        <v>0.2123762502366435</v>
+        <v>-0.18113744425487122</v>
       </c>
       <c r="N14">
         <v>-0.14833372814134854</v>
@@ -1647,43 +1647,43 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2.1044405408727829</v>
+        <v>3.8598961246113079</v>
       </c>
       <c r="B15">
-        <v>1.7257179815326584</v>
+        <v>-4.1923611297153203</v>
       </c>
       <c r="C15">
-        <v>-0.19335883768296497</v>
+        <v>-5.0525676191137485</v>
       </c>
       <c r="D15">
-        <v>1.1618517466006579E-2</v>
+        <v>-2.5281664505675514</v>
       </c>
       <c r="E15">
-        <v>9.2058361577006101E-2</v>
+        <v>-2.0717496653916827</v>
       </c>
       <c r="F15">
-        <v>8.6837005054571564E-2</v>
+        <v>-1.2924377358850303</v>
       </c>
       <c r="G15">
-        <v>-1.3075154711960166E-2</v>
+        <v>-0.68414463679787807</v>
       </c>
       <c r="H15">
-        <v>0.16711653860110992</v>
+        <v>-0.24097302396515499</v>
       </c>
       <c r="I15">
-        <v>0.5953107795013991</v>
+        <v>0.26837738536505662</v>
       </c>
       <c r="J15">
-        <v>9.3639664269419678E-2</v>
+        <v>0.29490151692770894</v>
       </c>
       <c r="K15">
-        <v>-0.29488617606003614</v>
+        <v>-6.1095989915239422E-2</v>
       </c>
       <c r="L15">
-        <v>-0.18331770430831826</v>
+        <v>-0.28417472435620894</v>
       </c>
       <c r="M15">
-        <v>-0.16183191010437017</v>
+        <v>-0.26369192472331604</v>
       </c>
       <c r="N15">
         <v>-0.23981413076802865</v>
@@ -1736,43 +1736,43 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5.3375523744066609</v>
+        <v>3.7815736122608201</v>
       </c>
       <c r="B16">
-        <v>0.50983533202217068</v>
+        <v>3.0619818273253632</v>
       </c>
       <c r="C16">
-        <v>0.54046965585803441</v>
+        <v>-2.0159250922436738</v>
       </c>
       <c r="D16">
-        <v>0.43793785723953238</v>
+        <v>-0.23907705930529791</v>
       </c>
       <c r="E16">
-        <v>-1.3815460590274899</v>
+        <v>-5.9453855605034696E-2</v>
       </c>
       <c r="F16">
-        <v>2.0131206192612381</v>
+        <v>0.2981693293086079</v>
       </c>
       <c r="G16">
-        <v>-2.3086485705966431</v>
+        <v>0.41689663535001314</v>
       </c>
       <c r="H16">
-        <v>0.28392682761518501</v>
+        <v>-0.17393049132474919</v>
       </c>
       <c r="I16">
-        <v>-0.56425095359006816</v>
+        <v>-0.15941048340834971</v>
       </c>
       <c r="J16">
-        <v>-1.1679976049906375</v>
+        <v>2.300704029825406E-2</v>
       </c>
       <c r="K16">
-        <v>0.26968381273027903</v>
+        <v>-3.5699526373195095E-2</v>
       </c>
       <c r="L16">
-        <v>0.36303158611216735</v>
+        <v>0.6281422947518519</v>
       </c>
       <c r="M16">
-        <v>0.51911912632765866</v>
+        <v>0.33574155370067738</v>
       </c>
       <c r="N16">
         <v>-0.79193546322526298</v>
@@ -1825,43 +1825,43 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>5.5456267991679491</v>
+        <v>2.7095408126740144</v>
       </c>
       <c r="B17">
-        <v>0.68375389017592625</v>
+        <v>-3.2278644737349462</v>
       </c>
       <c r="C17">
-        <v>1.021818400733769</v>
+        <v>-4.6779335980541754</v>
       </c>
       <c r="D17">
-        <v>1.4827204638234435</v>
+        <v>1.2687434088804814</v>
       </c>
       <c r="E17">
-        <v>-1.0414449532286647</v>
+        <v>-0.50091617545458444</v>
       </c>
       <c r="F17">
-        <v>3.1775589240055937</v>
+        <v>-1.3857838880930615</v>
       </c>
       <c r="G17">
-        <v>0.25573894058554597</v>
+        <v>-0.116593205518823</v>
       </c>
       <c r="H17">
-        <v>-0.68598816844771604</v>
+        <v>0.63435041262786196</v>
       </c>
       <c r="I17">
-        <v>-1.0063825151443619</v>
+        <v>0.65516265063040013</v>
       </c>
       <c r="J17">
-        <v>0.30284290776589545</v>
+        <v>-0.31741477510048449</v>
       </c>
       <c r="K17">
-        <v>-8.2274446060977488E-2</v>
+        <v>-0.24456236801446196</v>
       </c>
       <c r="L17">
-        <v>0.26813776103969006</v>
+        <v>0.55604090370359682</v>
       </c>
       <c r="M17">
-        <v>0.29345290698871068</v>
+        <v>-0.46587146174873983</v>
       </c>
       <c r="N17">
         <v>-0.87367675154224533</v>
@@ -1914,43 +1914,43 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7.475586993741909</v>
+        <v>3.4498153627264014</v>
       </c>
       <c r="B18">
-        <v>-5.1664239557841807</v>
+        <v>3.6499529480254744</v>
       </c>
       <c r="C18">
-        <v>-2.707821290822725</v>
+        <v>0.55855886958243783</v>
       </c>
       <c r="D18">
-        <v>-1.9217441088413885</v>
+        <v>3.4326398416086001</v>
       </c>
       <c r="E18">
-        <v>-1.0100452997659499</v>
+        <v>-0.23010843045354323</v>
       </c>
       <c r="F18">
-        <v>0.80782438259670275</v>
+        <v>0.29466937701109652</v>
       </c>
       <c r="G18">
-        <v>1.0680836762924368</v>
+        <v>0.50502226242650505</v>
       </c>
       <c r="H18">
-        <v>0.89724932880066077</v>
+        <v>-0.16552537006459184</v>
       </c>
       <c r="I18">
-        <v>5.3332113166008645E-2</v>
+        <v>0.445689095633933</v>
       </c>
       <c r="J18">
-        <v>-0.54011249336767031</v>
+        <v>-0.59762268179774847</v>
       </c>
       <c r="K18">
-        <v>-0.48887480072447348</v>
+        <v>6.4823452591875372E-2</v>
       </c>
       <c r="L18">
-        <v>-0.44420501383161054</v>
+        <v>-0.50479895680480746</v>
       </c>
       <c r="M18">
-        <v>-0.20589531531415697</v>
+        <v>-0.21262393216358094</v>
       </c>
       <c r="N18">
         <v>0.5480615419819912</v>
@@ -2003,43 +2003,43 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>6.9519917573460788</v>
+        <v>9.3277733374388525</v>
       </c>
       <c r="B19">
-        <v>-5.4928745737214699</v>
+        <v>4.405702283140859</v>
       </c>
       <c r="C19">
-        <v>-3.0335548767367593</v>
+        <v>1.1731043250917943</v>
       </c>
       <c r="D19">
-        <v>-2.6920774905115152</v>
+        <v>0.8241541074424158</v>
       </c>
       <c r="E19">
-        <v>-0.59753640939585373</v>
+        <v>0.37400597765693788</v>
       </c>
       <c r="F19">
-        <v>1.3385636556619371</v>
+        <v>0.37635187571193957</v>
       </c>
       <c r="G19">
-        <v>8.2648319268988028E-3</v>
+        <v>0.24993955659853781</v>
       </c>
       <c r="H19">
-        <v>0.49568702162137229</v>
+        <v>0.23257538784116238</v>
       </c>
       <c r="I19">
-        <v>-6.7536089457753745E-2</v>
+        <v>0.15330914502616255</v>
       </c>
       <c r="J19">
-        <v>-0.95528104993385821</v>
+        <v>9.008124846155327E-2</v>
       </c>
       <c r="K19">
-        <v>-0.71758291979949429</v>
+        <v>-5.5170798802507533E-2</v>
       </c>
       <c r="L19">
-        <v>-0.60812107858256947</v>
+        <v>-3.7212141054520309E-2</v>
       </c>
       <c r="M19">
-        <v>-0.13422951382867807</v>
+        <v>1.0666065107064438E-2</v>
       </c>
       <c r="N19">
         <v>0.39611147518722328</v>
@@ -2092,43 +2092,43 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>7.3347616640913058</v>
+        <v>6.7522993129175051</v>
       </c>
       <c r="B20">
-        <v>-3.6560157527458346</v>
+        <v>4.8281286884421162</v>
       </c>
       <c r="C20">
-        <v>-1.4198597356366387</v>
+        <v>0.9096453924811656</v>
       </c>
       <c r="D20">
-        <v>-1.9385494251627848</v>
+        <v>1.1976194435015333</v>
       </c>
       <c r="E20">
-        <v>-0.57077092755567316</v>
+        <v>-0.40898622970776372</v>
       </c>
       <c r="F20">
-        <v>0.67870873143766508</v>
+        <v>-0.35339466214516363</v>
       </c>
       <c r="G20">
-        <v>0.49209604162529397</v>
+        <v>-0.58589101826589229</v>
       </c>
       <c r="H20">
-        <v>-0.20637197505435531</v>
+        <v>-0.65907675149341971</v>
       </c>
       <c r="I20">
-        <v>0.33521144786653018</v>
+        <v>-0.52729270189467048</v>
       </c>
       <c r="J20">
-        <v>0.31222623091039481</v>
+        <v>-0.63207669426929214</v>
       </c>
       <c r="K20">
-        <v>-0.82671686142333967</v>
+        <v>3.414782450755513E-2</v>
       </c>
       <c r="L20">
-        <v>7.3282439069097441E-2</v>
+        <v>-1.7798746324806658E-2</v>
       </c>
       <c r="M20">
-        <v>-0.10881719549599293</v>
+        <v>-0.1060068521801683</v>
       </c>
       <c r="N20">
         <v>-0.1629061587571965</v>
@@ -2181,43 +2181,43 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>7.2161630144595641</v>
+        <v>6.5051104985903061</v>
       </c>
       <c r="B21">
-        <v>-1.1863083500469949</v>
+        <v>-4.6555852416121768</v>
       </c>
       <c r="C21">
-        <v>-4.758492926782818</v>
+        <v>0.86348440866027176</v>
       </c>
       <c r="D21">
-        <v>-2.7581353052637891</v>
+        <v>-1.7055175066018631</v>
       </c>
       <c r="E21">
-        <v>0.16178665383703777</v>
+        <v>1.4184367185504245</v>
       </c>
       <c r="F21">
-        <v>1.2580598301729191</v>
+        <v>-0.34838467953061647</v>
       </c>
       <c r="G21">
-        <v>-0.44754767686711883</v>
+        <v>0.2087243420166516</v>
       </c>
       <c r="H21">
-        <v>1.1358586023998201</v>
+        <v>0.61413120196282756</v>
       </c>
       <c r="I21">
-        <v>0.82131223110280571</v>
+        <v>-0.12389127261393472</v>
       </c>
       <c r="J21">
-        <v>0.34554892357478478</v>
+        <v>0.28529623670218851</v>
       </c>
       <c r="K21">
-        <v>-0.79017518335711212</v>
+        <v>9.1431464653664099E-2</v>
       </c>
       <c r="L21">
-        <v>8.8275322226729389E-2</v>
+        <v>-0.30582680828512593</v>
       </c>
       <c r="M21">
-        <v>-0.24721374771104007</v>
+        <v>0.13280698782987338</v>
       </c>
       <c r="N21">
         <v>0.29857850686245524</v>
@@ -2270,43 +2270,43 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>7.3132826744032835</v>
+        <v>6.8699017694337812</v>
       </c>
       <c r="B22">
-        <v>-1.2807582396323705</v>
+        <v>-0.59984418494895086</v>
       </c>
       <c r="C22">
-        <v>-4.5997301652995732</v>
+        <v>-2.7604556220043137</v>
       </c>
       <c r="D22">
-        <v>0.47249520036173015</v>
+        <v>-1.4900106302059286</v>
       </c>
       <c r="E22">
-        <v>-2.9867199098172241</v>
+        <v>-1.5628921807655873</v>
       </c>
       <c r="F22">
-        <v>-1.7252471169867716</v>
+        <v>-1.7435943875928857</v>
       </c>
       <c r="G22">
-        <v>0.19980337838923656</v>
+        <v>-0.41853263595652529</v>
       </c>
       <c r="H22">
-        <v>1.1350764015074846</v>
+        <v>-0.13201040218708537</v>
       </c>
       <c r="I22">
-        <v>0.84068126191811687</v>
+        <v>0.10627838508008776</v>
       </c>
       <c r="J22">
-        <v>-0.22353662969912397</v>
+        <v>0.65153819773783173</v>
       </c>
       <c r="K22">
-        <v>-0.41968765009980297</v>
+        <v>0.32344787893529792</v>
       </c>
       <c r="L22">
-        <v>-3.2335559730701166E-2</v>
+        <v>0.17172792941331777</v>
       </c>
       <c r="M22">
-        <v>-1.0333119182131405</v>
+        <v>0.44651288407833817</v>
       </c>
       <c r="N22">
         <v>7.5078262335494764E-2</v>
@@ -2359,43 +2359,43 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>7.874401341794858</v>
+        <v>6.3655783321669697</v>
       </c>
       <c r="B23">
-        <v>4.6295220236599803</v>
+        <v>0.81798462021631879</v>
       </c>
       <c r="C23">
-        <v>-2.6714988371448904</v>
+        <v>-3.2422270767690803E-2</v>
       </c>
       <c r="D23">
-        <v>-1.4284060626741535</v>
+        <v>-0.12988591130198057</v>
       </c>
       <c r="E23">
-        <v>-1.1116139318267262</v>
+        <v>1.0301888224971993</v>
       </c>
       <c r="F23">
-        <v>-2.3370771174610696</v>
+        <v>0.70494758951350833</v>
       </c>
       <c r="G23">
-        <v>-2.0700685550387026</v>
+        <v>-0.11737215512410337</v>
       </c>
       <c r="H23">
-        <v>-0.13677734456198382</v>
+        <v>-0.35283251881449162</v>
       </c>
       <c r="I23">
-        <v>9.9172073426786037E-2</v>
+        <v>-0.56648750745707133</v>
       </c>
       <c r="J23">
-        <v>-1.0476749560440373</v>
+        <v>-0.63596738054955348</v>
       </c>
       <c r="K23">
-        <v>-0.67577166998402816</v>
+        <v>-0.40036556024684672</v>
       </c>
       <c r="L23">
-        <v>0.89143181655897308</v>
+        <v>-4.4737133919173118E-2</v>
       </c>
       <c r="M23">
-        <v>0.88209106765251089</v>
+        <v>-0.22206779697986972</v>
       </c>
       <c r="N23">
         <v>-0.51788593424144513</v>
@@ -2448,43 +2448,43 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>8.1786843194554368</v>
+        <v>5.6870721364537342</v>
       </c>
       <c r="B24">
-        <v>1.8036363625134746</v>
+        <v>3.2728202312587165</v>
       </c>
       <c r="C24">
-        <v>-1.0722395940680562</v>
+        <v>-0.16255049720112744</v>
       </c>
       <c r="D24">
-        <v>-1.1361891168573623</v>
+        <v>6.5494019528827413E-2</v>
       </c>
       <c r="E24">
-        <v>-0.90939413651455325</v>
+        <v>0.69945902892891643</v>
       </c>
       <c r="F24">
-        <v>-0.66339682542505418</v>
+        <v>7.0016316522531707E-2</v>
       </c>
       <c r="G24">
-        <v>-1.111514185205883</v>
+        <v>-0.55081074344108261</v>
       </c>
       <c r="H24">
-        <v>-0.24245365291878879</v>
+        <v>-0.212372079533972</v>
       </c>
       <c r="I24">
-        <v>-0.94921901283021226</v>
+        <v>-0.20248118906163659</v>
       </c>
       <c r="J24">
-        <v>0.34389859544674234</v>
+        <v>-3.1521159172016325E-2</v>
       </c>
       <c r="K24">
-        <v>-0.48472489298982102</v>
+        <v>-0.40965852773781503</v>
       </c>
       <c r="L24">
-        <v>-0.21418978810168054</v>
+        <v>-0.47512055991646218</v>
       </c>
       <c r="M24">
-        <v>0.17466417375049759</v>
+        <v>-0.21382118089466351</v>
       </c>
       <c r="N24">
         <v>-4.6605630225354973E-2</v>
@@ -2537,43 +2537,43 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>8.0728070541582877</v>
+        <v>6.0838035870398048</v>
       </c>
       <c r="B25">
-        <v>0.5596318720386152</v>
+        <v>-0.54908717699027765</v>
       </c>
       <c r="C25">
-        <v>-3.3309203075636242</v>
+        <v>-1.4386608353857691</v>
       </c>
       <c r="D25">
-        <v>2.5941347904557932</v>
+        <v>0.17198705103637027</v>
       </c>
       <c r="E25">
-        <v>-2.4440853461105894</v>
+        <v>1.3823286141335436</v>
       </c>
       <c r="F25">
-        <v>-2.1274569721039192</v>
+        <v>1.4501397092731292</v>
       </c>
       <c r="G25">
-        <v>1.2734357522364201</v>
+        <v>0.9215327018810926</v>
       </c>
       <c r="H25">
-        <v>-1.4926806855681753</v>
+        <v>0.47842364596851478</v>
       </c>
       <c r="I25">
-        <v>-1.1750163869436758</v>
+        <v>-9.6984802722478503E-2</v>
       </c>
       <c r="J25">
-        <v>1.4809321036330749</v>
+        <v>-7.3589700098092625E-2</v>
       </c>
       <c r="K25">
-        <v>-1.0188123347187423</v>
+        <v>-0.5507782620174948</v>
       </c>
       <c r="L25">
-        <v>6.8565189233198168E-2</v>
+        <v>-0.4866073601667385</v>
       </c>
       <c r="M25">
-        <v>0.88406431529569962</v>
+        <v>-0.53111381727357643</v>
       </c>
       <c r="N25">
         <v>-0.41602074813740803</v>
@@ -2626,43 +2626,43 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>7.5533476488074163</v>
+        <v>6.4836350662459861</v>
       </c>
       <c r="B26">
-        <v>-0.25203304761085477</v>
+        <v>-4.2718295893937039</v>
       </c>
       <c r="C26">
-        <v>-3.964034340978186</v>
+        <v>1.2272237268278354</v>
       </c>
       <c r="D26">
-        <v>0.33270629974116944</v>
+        <v>-1.3956276520788429</v>
       </c>
       <c r="E26">
-        <v>-2.8701021142576355</v>
+        <v>0.77110726472237223</v>
       </c>
       <c r="F26">
-        <v>-1.3182776525972684</v>
+        <v>-0.74977782995770559</v>
       </c>
       <c r="G26">
-        <v>-0.44397088123800565</v>
+        <v>-5.7532062283339284E-2</v>
       </c>
       <c r="H26">
-        <v>-1.0350747608226898</v>
+        <v>0.19402251199852749</v>
       </c>
       <c r="I26">
-        <v>-0.25115917945744931</v>
+        <v>-0.34055272979525858</v>
       </c>
       <c r="J26">
-        <v>-0.36524822658770145</v>
+        <v>8.7128981687534281E-3</v>
       </c>
       <c r="K26">
-        <v>-0.37139495519972726</v>
+        <v>-6.9352255078259248E-2</v>
       </c>
       <c r="L26">
-        <v>-0.22953710840840885</v>
+        <v>-0.36882636400517738</v>
       </c>
       <c r="M26">
-        <v>-0.47795191252128505</v>
+        <v>-0.33933360756671499</v>
       </c>
       <c r="N26">
         <v>0.2183993549200447</v>
@@ -2715,43 +2715,43 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>8.5279406555946231</v>
+        <v>6.0553401540115361</v>
       </c>
       <c r="B27">
-        <v>3.3976049286222882</v>
+        <v>6.1403947264156873</v>
       </c>
       <c r="C27">
-        <v>-0.93919007255975528</v>
+        <v>2.9605541235795947</v>
       </c>
       <c r="D27">
-        <v>-2.0563794134268623</v>
+        <v>1.9811947932244007</v>
       </c>
       <c r="E27">
-        <v>-1.0109975247301668</v>
+        <v>0.85226187169285939</v>
       </c>
       <c r="F27">
-        <v>-1.0768920046580694</v>
+        <v>0.69743803672908367</v>
       </c>
       <c r="G27">
-        <v>-1.6450789274932749</v>
+        <v>-4.283857929016089E-2</v>
       </c>
       <c r="H27">
-        <v>0.14968869926349396</v>
+        <v>-0.4879843221283241</v>
       </c>
       <c r="I27">
-        <v>-0.4217980462107927</v>
+        <v>-0.52297153897988169</v>
       </c>
       <c r="J27">
-        <v>0.14268934328652069</v>
+        <v>-0.37764657541428409</v>
       </c>
       <c r="K27">
-        <v>-0.90698506480594232</v>
+        <v>-0.58516811603189045</v>
       </c>
       <c r="L27">
-        <v>-0.21145360121647258</v>
+        <v>-0.18818943344578404</v>
       </c>
       <c r="M27">
-        <v>0.25187391196604392</v>
+        <v>-0.48134002816563176</v>
       </c>
       <c r="N27">
         <v>8.6067514744485193E-2</v>
@@ -2804,43 +2804,43 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>8.0801390144090952</v>
+        <v>3.7012281056843732</v>
       </c>
       <c r="B28">
-        <v>0.40931078717220765</v>
+        <v>3.8502756112995287</v>
       </c>
       <c r="C28">
-        <v>-2.0255567821742226</v>
+        <v>0.17887836108689434</v>
       </c>
       <c r="D28">
-        <v>-1.4316961333381291</v>
+        <v>7.4269643959814863E-2</v>
       </c>
       <c r="E28">
-        <v>-0.71464758276023055</v>
+        <v>-0.63001748862251794</v>
       </c>
       <c r="F28">
-        <v>-0.27373401609936338</v>
+        <v>0.55213792524446204</v>
       </c>
       <c r="G28">
-        <v>-3.592584154519646</v>
+        <v>0.37685559950140257</v>
       </c>
       <c r="H28">
-        <v>0.17526291969684268</v>
+        <v>-0.55189409022340097</v>
       </c>
       <c r="I28">
-        <v>-0.4578242984074038</v>
+        <v>-0.2787459793719691</v>
       </c>
       <c r="J28">
-        <v>0.1755913580630846</v>
+        <v>-0.40368796974527038</v>
       </c>
       <c r="K28">
-        <v>0.23656884822500357</v>
+        <v>-0.2658857920270481</v>
       </c>
       <c r="L28">
-        <v>8.5794932358519135E-2</v>
+        <v>0.39503506524821774</v>
       </c>
       <c r="M28">
-        <v>0.96973334524656996</v>
+        <v>-0.4036044518499588</v>
       </c>
       <c r="N28">
         <v>2.0422126424174295E-2</v>
@@ -2893,43 +2893,43 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>7.3681698011478041</v>
+        <v>5.7471513777296028</v>
       </c>
       <c r="B29">
-        <v>-1.3609375935115202</v>
+        <v>-4.8873820571466391</v>
       </c>
       <c r="C29">
-        <v>0.53090771864922837</v>
+        <v>-3.5249037211353214</v>
       </c>
       <c r="D29">
-        <v>2.6287456175804116</v>
+        <v>4.4753084976646784</v>
       </c>
       <c r="E29">
-        <v>-3.5192266514454213</v>
+        <v>-9.9738192101090861E-2</v>
       </c>
       <c r="F29">
-        <v>-1.9034768632107828</v>
+        <v>0.90884486871295644</v>
       </c>
       <c r="G29">
-        <v>-0.37336116321295792</v>
+        <v>0.4367162981463022</v>
       </c>
       <c r="H29">
-        <v>-3.0257106270708798</v>
+        <v>0.55232103205249916</v>
       </c>
       <c r="I29">
-        <v>-1.0837756072611269</v>
+        <v>-0.20120831129878847</v>
       </c>
       <c r="J29">
-        <v>-0.21236638750602463</v>
+        <v>-8.2220943973203894E-3</v>
       </c>
       <c r="K29">
-        <v>-1.3715921938561799</v>
+        <v>0.359684734721199</v>
       </c>
       <c r="L29">
-        <v>0.47330958212523672</v>
+        <v>1.1239103337784271</v>
       </c>
       <c r="M29">
-        <v>0.46908127530407334</v>
+        <v>-0.5207202248208076</v>
       </c>
       <c r="N29">
         <v>-0.19187549229736398</v>
@@ -2982,43 +2982,43 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>7.8852104089547019</v>
+        <v>4.7336359727182469</v>
       </c>
       <c r="B30">
-        <v>-1.7063725976986595</v>
+        <v>1.8842333706498102</v>
       </c>
       <c r="C30">
-        <v>-3.0146746395591397</v>
+        <v>-0.68293979031226892</v>
       </c>
       <c r="D30">
-        <v>3.0731506149052765</v>
+        <v>1.8823255659496987</v>
       </c>
       <c r="E30">
-        <v>-2.7304518002597824</v>
+        <v>1.8870671564630612</v>
       </c>
       <c r="F30">
-        <v>-0.80714678786176242</v>
+        <v>0.92532029074176447</v>
       </c>
       <c r="G30">
-        <v>0.92274069408435766</v>
+        <v>-6.213644695610724E-2</v>
       </c>
       <c r="H30">
-        <v>-1.8045616360612644</v>
+        <v>0.34330900247762064</v>
       </c>
       <c r="I30">
-        <v>-0.28048231188608214</v>
+        <v>0.40704455038919507</v>
       </c>
       <c r="J30">
-        <v>1.149183657182514</v>
+        <v>0.31807583068754169</v>
       </c>
       <c r="K30">
-        <v>-1.0875763185794201</v>
+        <v>-1.5589235492246731E-2</v>
       </c>
       <c r="L30">
-        <v>0.67966550872640896</v>
+        <v>-0.23914851127429287</v>
       </c>
       <c r="M30">
-        <v>1.0547258849787997</v>
+        <v>0.19600965201476436</v>
       </c>
       <c r="N30">
         <v>-0.60173616646771044</v>
@@ -3071,43 +3071,43 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>6.6241355388540564</v>
+        <v>5.3375523744066609</v>
       </c>
       <c r="B31">
-        <v>0.99876806045646449</v>
+        <v>0.50983533202217068</v>
       </c>
       <c r="C31">
-        <v>1.0959459680056707</v>
+        <v>0.54046965585803441</v>
       </c>
       <c r="D31">
-        <v>1.1797593860390743</v>
+        <v>0.43793785723953238</v>
       </c>
       <c r="E31">
-        <v>1.1224575360496147</v>
+        <v>-1.3815460590274899</v>
       </c>
       <c r="F31">
-        <v>0.48886538421862658</v>
+        <v>2.0131206192612381</v>
       </c>
       <c r="G31">
-        <v>2.260546565480209</v>
+        <v>-2.3086485705966431</v>
       </c>
       <c r="H31">
-        <v>-0.67902553823930689</v>
+        <v>0.28392682761518501</v>
       </c>
       <c r="I31">
-        <v>-0.11482939392666104</v>
+        <v>-0.56425095359006816</v>
       </c>
       <c r="J31">
-        <v>0.9096466015965804</v>
+        <v>-1.1679976049906375</v>
       </c>
       <c r="K31">
-        <v>-0.43332897199874537</v>
+        <v>0.26968381273027903</v>
       </c>
       <c r="L31">
-        <v>3.6099319345468457E-2</v>
+        <v>0.36303158611216735</v>
       </c>
       <c r="M31">
-        <v>-4.6931125951637363E-2</v>
+        <v>0.51911912632765866</v>
       </c>
       <c r="N31">
         <v>-0.16439842766547655</v>
@@ -3160,43 +3160,43 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>7.7998502329143289</v>
+        <v>5.5456267991679491</v>
       </c>
       <c r="B32">
-        <v>1.0634563591202739</v>
+        <v>0.68375389017592625</v>
       </c>
       <c r="C32">
-        <v>3.7608062050267117</v>
+        <v>1.021818400733769</v>
       </c>
       <c r="D32">
-        <v>1.1582895715029302</v>
+        <v>1.4827204638234435</v>
       </c>
       <c r="E32">
-        <v>-0.82067569117322325</v>
+        <v>-1.0414449532286647</v>
       </c>
       <c r="F32">
-        <v>2.0333378656257888</v>
+        <v>3.1775589240055937</v>
       </c>
       <c r="G32">
-        <v>-0.47653531466633203</v>
+        <v>0.25573894058554597</v>
       </c>
       <c r="H32">
-        <v>-0.19709699596452246</v>
+        <v>-0.68598816844771604</v>
       </c>
       <c r="I32">
-        <v>0.42141213256902949</v>
+        <v>-1.0063825151443619</v>
       </c>
       <c r="J32">
-        <v>-0.29075199395947599</v>
+        <v>0.30284290776589545</v>
       </c>
       <c r="K32">
-        <v>0.79485720301440144</v>
+        <v>-8.2274446060977488E-2</v>
       </c>
       <c r="L32">
-        <v>-0.92612498406910115</v>
+        <v>0.26813776103969006</v>
       </c>
       <c r="M32">
-        <v>0.31554487064250814</v>
+        <v>0.29345290698871068</v>
       </c>
       <c r="N32">
         <v>0.31651620939067432</v>
@@ -3249,43 +3249,43 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>7.9648884925614016</v>
+        <v>7.475586993741909</v>
       </c>
       <c r="B33">
-        <v>3.9424650160574357</v>
+        <v>-5.1664239557841807</v>
       </c>
       <c r="C33">
-        <v>3.062968103381476</v>
+        <v>-2.707821290822725</v>
       </c>
       <c r="D33">
-        <v>1.5679724977244993</v>
+        <v>-1.9217441088413885</v>
       </c>
       <c r="E33">
-        <v>0.93063813701442244</v>
+        <v>-1.0100452997659499</v>
       </c>
       <c r="F33">
-        <v>-0.14847648930952315</v>
+        <v>0.80782438259670275</v>
       </c>
       <c r="G33">
-        <v>0.93360201388396802</v>
+        <v>1.0680836762924368</v>
       </c>
       <c r="H33">
-        <v>-0.16984109181090856</v>
+        <v>0.89724932880066077</v>
       </c>
       <c r="I33">
-        <v>-0.21333344102291832</v>
+        <v>5.3332113166008645E-2</v>
       </c>
       <c r="J33">
-        <v>0.14721942003265748</v>
+        <v>-0.54011249336767031</v>
       </c>
       <c r="K33">
-        <v>-2.1414706730099972E-2</v>
+        <v>-0.48887480072447348</v>
       </c>
       <c r="L33">
-        <v>-0.4538691392549859</v>
+        <v>-0.44420501383161054</v>
       </c>
       <c r="M33">
-        <v>-0.38164591500548206</v>
+        <v>-0.20589531531415697</v>
       </c>
       <c r="N33">
         <v>4.164743271598504E-2</v>
@@ -3338,43 +3338,43 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>7.9632941851649672</v>
+        <v>6.9519917573460788</v>
       </c>
       <c r="B34">
-        <v>3.5562267046059537</v>
+        <v>-5.4928745737214699</v>
       </c>
       <c r="C34">
-        <v>-1.6136613299327225</v>
+        <v>-3.0335548767367593</v>
       </c>
       <c r="D34">
-        <v>1.5541379051207875</v>
+        <v>-2.6920774905115152</v>
       </c>
       <c r="E34">
-        <v>3.0751852746929651</v>
+        <v>-0.59753640939585373</v>
       </c>
       <c r="F34">
-        <v>-0.1031480377589306</v>
+        <v>1.3385636556619371</v>
       </c>
       <c r="G34">
-        <v>-0.82357755329326454</v>
+        <v>8.2648319268988028E-3</v>
       </c>
       <c r="H34">
-        <v>-0.35694889064912638</v>
+        <v>0.49568702162137229</v>
       </c>
       <c r="I34">
-        <v>0.48277421529500797</v>
+        <v>-6.7536089457753745E-2</v>
       </c>
       <c r="J34">
-        <v>0.29388246634312776</v>
+        <v>-0.95528104993385821</v>
       </c>
       <c r="K34">
-        <v>-1.1616588703758</v>
+        <v>-0.71758291979949429</v>
       </c>
       <c r="L34">
-        <v>1.4353773576481769E-2</v>
+        <v>-0.60812107858256947</v>
       </c>
       <c r="M34">
-        <v>0.61839699763318534</v>
+        <v>-0.13422951382867807</v>
       </c>
       <c r="N34">
         <v>7.5719404301357721E-2</v>
@@ -3427,43 +3427,43 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>8.0433116124888375</v>
+        <v>7.3347616640913058</v>
       </c>
       <c r="B35">
-        <v>3.1257707617139028</v>
+        <v>-3.6560157527458346</v>
       </c>
       <c r="C35">
-        <v>-1.782264624199503</v>
+        <v>-1.4198597356366387</v>
       </c>
       <c r="D35">
-        <v>-2.4853834104306629</v>
+        <v>-1.9385494251627848</v>
       </c>
       <c r="E35">
-        <v>-1.4942014619909538</v>
+        <v>-0.57077092755567316</v>
       </c>
       <c r="F35">
-        <v>0.30227374539341867</v>
+        <v>0.67870873143766508</v>
       </c>
       <c r="G35">
-        <v>1.2904518110642067</v>
+        <v>0.49209604162529397</v>
       </c>
       <c r="H35">
-        <v>0.91243556968686668</v>
+        <v>-0.20637197505435531</v>
       </c>
       <c r="I35">
-        <v>-0.31536428465267341</v>
+        <v>0.33521144786653018</v>
       </c>
       <c r="J35">
-        <v>-1.2375113309882095</v>
+        <v>0.31222623091039481</v>
       </c>
       <c r="K35">
-        <v>-1.1485085833100526</v>
+        <v>-0.82671686142333967</v>
       </c>
       <c r="L35">
-        <v>-0.26043966290286413</v>
+        <v>7.3282439069097441E-2</v>
       </c>
       <c r="M35">
-        <v>0.60305647632001036</v>
+        <v>-0.10881719549599293</v>
       </c>
       <c r="N35">
         <v>0.811652589027135</v>
@@ -3516,43 +3516,43 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>6.7975664980586732</v>
+        <v>7.2161630144595641</v>
       </c>
       <c r="B36">
-        <v>-2.0215230359924496</v>
+        <v>-1.1863083500469949</v>
       </c>
       <c r="C36">
-        <v>-1.6736360047684335</v>
+        <v>-4.758492926782818</v>
       </c>
       <c r="D36">
-        <v>-0.75454413212094051</v>
+        <v>-2.7581353052637891</v>
       </c>
       <c r="E36">
-        <v>-0.14578923068885125</v>
+        <v>0.16178665383703777</v>
       </c>
       <c r="F36">
-        <v>0.54495175311083743</v>
+        <v>1.2580598301729191</v>
       </c>
       <c r="G36">
-        <v>0.59701341130542629</v>
+        <v>-0.44754767686711883</v>
       </c>
       <c r="H36">
-        <v>0.91138660608114808</v>
+        <v>1.1358586023998201</v>
       </c>
       <c r="I36">
-        <v>0.83873889603696938</v>
+        <v>0.82131223110280571</v>
       </c>
       <c r="J36">
-        <v>0.58025936680020418</v>
+        <v>0.34554892357478478</v>
       </c>
       <c r="K36">
-        <v>0.31875329862722412</v>
+        <v>-0.79017518335711212</v>
       </c>
       <c r="L36">
-        <v>9.3171237993260062E-2</v>
+        <v>8.8275322226729389E-2</v>
       </c>
       <c r="M36">
-        <v>3.2410863249249654E-2</v>
+        <v>-0.24721374771104007</v>
       </c>
       <c r="N36">
         <v>0.24891504735335582</v>
@@ -3605,43 +3605,43 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>8.1335566593649418</v>
+        <v>7.3132826744032835</v>
       </c>
       <c r="B37">
-        <v>-1.0462361821152641</v>
+        <v>-1.2807582396323705</v>
       </c>
       <c r="C37">
-        <v>-2.7238012740145212</v>
+        <v>-4.5997301652995732</v>
       </c>
       <c r="D37">
-        <v>-1.6413774421743981</v>
+        <v>0.47249520036173015</v>
       </c>
       <c r="E37">
-        <v>-1.0822857659888456E-3</v>
+        <v>-2.9867199098172241</v>
       </c>
       <c r="F37">
-        <v>-4.11569967544972E-3</v>
+        <v>-1.7252471169867716</v>
       </c>
       <c r="G37">
-        <v>6.3756529379175753E-2</v>
+        <v>0.19980337838923656</v>
       </c>
       <c r="H37">
-        <v>0.95651014841423931</v>
+        <v>1.1350764015074846</v>
       </c>
       <c r="I37">
-        <v>0.83321390240261184</v>
+        <v>0.84068126191811687</v>
       </c>
       <c r="J37">
-        <v>0.2405052677070601</v>
+        <v>-0.22353662969912397</v>
       </c>
       <c r="K37">
-        <v>5.7186406420087696E-2</v>
+        <v>-0.41968765009980297</v>
       </c>
       <c r="L37">
-        <v>0.74116907455829939</v>
+        <v>-3.2335559730701166E-2</v>
       </c>
       <c r="M37">
-        <v>1.0755334577720228</v>
+        <v>-1.0333119182131405</v>
       </c>
       <c r="N37">
         <v>0.60901089514305706</v>
@@ -3694,43 +3694,43 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>8.1335567793154269</v>
+        <v>7.874401341794858</v>
       </c>
       <c r="B38">
-        <v>-1.048732431497055</v>
+        <v>4.6295220236599803</v>
       </c>
       <c r="C38">
-        <v>-2.7258318195697058</v>
+        <v>-2.6714988371448904</v>
       </c>
       <c r="D38">
-        <v>-1.6442412290634492</v>
+        <v>-1.4284060626741535</v>
       </c>
       <c r="E38">
-        <v>-2.1035952628763728E-3</v>
+        <v>-1.1116139318267262</v>
       </c>
       <c r="F38">
-        <v>-5.5610515208152234E-3</v>
+        <v>-2.3370771174610696</v>
       </c>
       <c r="G38">
-        <v>6.4442553889700258E-2</v>
+        <v>-2.0700685550387026</v>
       </c>
       <c r="H38">
-        <v>0.95725086326669884</v>
+        <v>-0.13677734456198382</v>
       </c>
       <c r="I38">
-        <v>0.83496756138156203</v>
+        <v>9.9172073426786037E-2</v>
       </c>
       <c r="J38">
-        <v>0.24306657171456841</v>
+        <v>-1.0476749560440373</v>
       </c>
       <c r="K38">
-        <v>6.1138026651240872E-2</v>
+        <v>-0.67577166998402816</v>
       </c>
       <c r="L38">
-        <v>0.74306087375464203</v>
+        <v>0.89143181655897308</v>
       </c>
       <c r="M38">
-        <v>1.0784197869430772</v>
+        <v>0.88209106765251089</v>
       </c>
       <c r="N38">
         <v>0.61037930957414244</v>
@@ -3783,43 +3783,43 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>6.6018539133853453</v>
+        <v>8.1786843194554368</v>
       </c>
       <c r="B39">
-        <v>0.54794757548959072</v>
+        <v>1.8036363625134746</v>
       </c>
       <c r="C39">
-        <v>-1.7042843281859719</v>
+        <v>-1.0722395940680562</v>
       </c>
       <c r="D39">
-        <v>-1.7569073075256805</v>
+        <v>-1.1361891168573623</v>
       </c>
       <c r="E39">
-        <v>-1.1711852935998397</v>
+        <v>-0.90939413651455325</v>
       </c>
       <c r="F39">
-        <v>-0.21857530401420708</v>
+        <v>-0.66339682542505418</v>
       </c>
       <c r="G39">
-        <v>0.41004820868522368</v>
+        <v>-1.111514185205883</v>
       </c>
       <c r="H39">
-        <v>0.97277414633744308</v>
+        <v>-0.24245365291878879</v>
       </c>
       <c r="I39">
-        <v>0.21552783158420247</v>
+        <v>-0.94921901283021226</v>
       </c>
       <c r="J39">
-        <v>-0.83470872990699918</v>
+        <v>0.34389859544674234</v>
       </c>
       <c r="K39">
-        <v>-0.97731147664578955</v>
+        <v>-0.48472489298982102</v>
       </c>
       <c r="L39">
-        <v>-8.9201299054527602E-2</v>
+        <v>-0.21418978810168054</v>
       </c>
       <c r="M39">
-        <v>0.43818745241756407</v>
+        <v>0.17466417375049759</v>
       </c>
       <c r="N39">
         <v>0.31317955311370299</v>
@@ -3872,43 +3872,43 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>6.9714441301523822</v>
+        <v>8.0728070541582877</v>
       </c>
       <c r="B40">
-        <v>-1.5675375452116938</v>
+        <v>0.5596318720386152</v>
       </c>
       <c r="C40">
-        <v>-2.1806784995673434</v>
+        <v>-3.3309203075636242</v>
       </c>
       <c r="D40">
-        <v>-1.0661117824656294</v>
+        <v>2.5941347904557932</v>
       </c>
       <c r="E40">
-        <v>0.2334197386752124</v>
+        <v>-2.4440853461105894</v>
       </c>
       <c r="F40">
-        <v>0.34646172152908006</v>
+        <v>-2.1274569721039192</v>
       </c>
       <c r="G40">
-        <v>0.59279398954598395</v>
+        <v>1.2734357522364201</v>
       </c>
       <c r="H40">
-        <v>1.1647267274311479</v>
+        <v>-1.4926806855681753</v>
       </c>
       <c r="I40">
-        <v>1.0764535582179902</v>
+        <v>-1.1750163869436758</v>
       </c>
       <c r="J40">
-        <v>0.25726373952387666</v>
+        <v>1.4809321036330749</v>
       </c>
       <c r="K40">
-        <v>-0.38819675077535026</v>
+        <v>-1.0188123347187423</v>
       </c>
       <c r="L40">
-        <v>0.17407290160103131</v>
+        <v>6.8565189233198168E-2</v>
       </c>
       <c r="M40">
-        <v>0.64042161590567581</v>
+        <v>0.88406431529569962</v>
       </c>
       <c r="N40">
         <v>0.45527252915538491</v>
@@ -3961,43 +3961,43 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>6.8537300387176154</v>
+        <v>7.5533476488074163</v>
       </c>
       <c r="B41">
-        <v>-0.89690105930986086</v>
+        <v>-0.25203304761085477</v>
       </c>
       <c r="C41">
-        <v>-2.3572221416687644</v>
+        <v>-3.964034340978186</v>
       </c>
       <c r="D41">
-        <v>-2.2865105812100164</v>
+        <v>0.33270629974116944</v>
       </c>
       <c r="E41">
-        <v>-0.85374116961821689</v>
+        <v>-2.8701021142576355</v>
       </c>
       <c r="F41">
-        <v>-0.11250558674614899</v>
+        <v>-1.3182776525972684</v>
       </c>
       <c r="G41">
-        <v>1.2750704901225443</v>
+        <v>-0.44397088123800565</v>
       </c>
       <c r="H41">
-        <v>2.2366068408333066</v>
+        <v>-1.0350747608226898</v>
       </c>
       <c r="I41">
-        <v>1.2452795793741318</v>
+        <v>-0.25115917945744931</v>
       </c>
       <c r="J41">
-        <v>-0.20976960274026257</v>
+        <v>-0.36524822658770145</v>
       </c>
       <c r="K41">
-        <v>-0.4499575587781045</v>
+        <v>-0.37139495519972726</v>
       </c>
       <c r="L41">
-        <v>0.60096579264194228</v>
+        <v>-0.22953710840840885</v>
       </c>
       <c r="M41">
-        <v>0.91500706563784828</v>
+        <v>-0.47795191252128505</v>
       </c>
       <c r="N41">
         <v>0.73484001113860931</v>
@@ -4050,43 +4050,43 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8.4033294011678379</v>
+        <v>8.5279406555946231</v>
       </c>
       <c r="B42">
-        <v>-1.8158486968206711</v>
+        <v>3.3976049286222882</v>
       </c>
       <c r="C42">
-        <v>-2.4303301647115947</v>
+        <v>-0.93919007255975528</v>
       </c>
       <c r="D42">
-        <v>-1.3990477629192128</v>
+        <v>-2.0563794134268623</v>
       </c>
       <c r="E42">
-        <v>-0.36318818250769264</v>
+        <v>-1.0109975247301668</v>
       </c>
       <c r="F42">
-        <v>-0.10906496645917231</v>
+        <v>-1.0768920046580694</v>
       </c>
       <c r="G42">
-        <v>0.31219150056229933</v>
+        <v>-1.6450789274932749</v>
       </c>
       <c r="H42">
-        <v>1.4660113578166658</v>
+        <v>0.14968869926349396</v>
       </c>
       <c r="I42">
-        <v>1.5982861321876038</v>
+        <v>-0.4217980462107927</v>
       </c>
       <c r="J42">
-        <v>0.64386240966784458</v>
+        <v>0.14268934328652069</v>
       </c>
       <c r="K42">
-        <v>0.52235642752549716</v>
+        <v>-0.90698506480594232</v>
       </c>
       <c r="L42">
-        <v>1.0305189048685701</v>
+        <v>-0.21145360121647258</v>
       </c>
       <c r="M42">
-        <v>0.6464557308868516</v>
+        <v>0.25187391196604392</v>
       </c>
       <c r="N42">
         <v>0.33283022615966606</v>
@@ -4139,43 +4139,43 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>7.2769286249046017</v>
+        <v>8.0801390144090952</v>
       </c>
       <c r="B43">
-        <v>5.0132426850720435</v>
+        <v>0.40931078717220765</v>
       </c>
       <c r="C43">
-        <v>1.8999170149196771</v>
+        <v>-2.0255567821742226</v>
       </c>
       <c r="D43">
-        <v>2.2438811970381471</v>
+        <v>-1.4316961333381291</v>
       </c>
       <c r="E43">
-        <v>0.13044091113982076</v>
+        <v>-0.71464758276023055</v>
       </c>
       <c r="F43">
-        <v>0.75825194800790774</v>
+        <v>-0.27373401609936338</v>
       </c>
       <c r="G43">
-        <v>0.9151692288913359</v>
+        <v>-3.592584154519646</v>
       </c>
       <c r="H43">
-        <v>-0.58435492073245665</v>
+        <v>0.17526291969684268</v>
       </c>
       <c r="I43">
-        <v>0.41750322446390958</v>
+        <v>-0.4578242984074038</v>
       </c>
       <c r="J43">
-        <v>0.35266947022159251</v>
+        <v>0.1755913580630846</v>
       </c>
       <c r="K43">
-        <v>-0.70446234984298295</v>
+        <v>0.23656884822500357</v>
       </c>
       <c r="L43">
-        <v>0.71252493777487835</v>
+        <v>8.5794932358519135E-2</v>
       </c>
       <c r="M43">
-        <v>0.45372126298963295</v>
+        <v>0.96973334524656996</v>
       </c>
       <c r="N43">
         <v>-0.49469434148476982</v>
@@ -4228,43 +4228,43 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>7.7116543491460074</v>
+        <v>7.3681698011478041</v>
       </c>
       <c r="B44">
-        <v>4.2329143593363332</v>
+        <v>-1.3609375935115202</v>
       </c>
       <c r="C44">
-        <v>0.9127897978555487</v>
+        <v>0.53090771864922837</v>
       </c>
       <c r="D44">
-        <v>1.150551692867219</v>
+        <v>2.6287456175804116</v>
       </c>
       <c r="E44">
-        <v>1.4153595013729172</v>
+        <v>-3.5192266514454213</v>
       </c>
       <c r="F44">
-        <v>0.57722514789760071</v>
+        <v>-1.9034768632107828</v>
       </c>
       <c r="G44">
-        <v>-7.4369790147379558E-2</v>
+        <v>-0.37336116321295792</v>
       </c>
       <c r="H44">
-        <v>0.68974799264605857</v>
+        <v>-3.0257106270708798</v>
       </c>
       <c r="I44">
-        <v>0.49185127705302467</v>
+        <v>-1.0837756072611269</v>
       </c>
       <c r="J44">
-        <v>-0.18419236232792791</v>
+        <v>-0.21236638750602463</v>
       </c>
       <c r="K44">
-        <v>-0.14440912283253271</v>
+        <v>-1.3715921938561799</v>
       </c>
       <c r="L44">
-        <v>0.32037246466320285</v>
+        <v>0.47330958212523672</v>
       </c>
       <c r="M44">
-        <v>0.32274539305514938</v>
+        <v>0.46908127530407334</v>
       </c>
       <c r="N44">
         <v>-0.1484350654696549</v>
@@ -4317,43 +4317,43 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>7.6141438061978954</v>
+        <v>7.8852104089547019</v>
       </c>
       <c r="B45">
-        <v>3.4147065720593641</v>
+        <v>-1.7063725976986595</v>
       </c>
       <c r="C45">
-        <v>-1.5900051905540902</v>
+        <v>-3.0146746395591397</v>
       </c>
       <c r="D45">
-        <v>0.4223590524400907</v>
+        <v>3.0731506149052765</v>
       </c>
       <c r="E45">
-        <v>1.4887235701529606</v>
+        <v>-2.7304518002597824</v>
       </c>
       <c r="F45">
-        <v>1.1767628952322129</v>
+        <v>-0.80714678786176242</v>
       </c>
       <c r="G45">
-        <v>-0.2848294059623464</v>
+        <v>0.92274069408435766</v>
       </c>
       <c r="H45">
-        <v>-0.73895730730892717</v>
+        <v>-1.8045616360612644</v>
       </c>
       <c r="I45">
-        <v>1.3731508236825854E-2</v>
+        <v>-0.28048231188608214</v>
       </c>
       <c r="J45">
-        <v>-0.55095212143594696</v>
+        <v>1.149183657182514</v>
       </c>
       <c r="K45">
-        <v>-0.68620842324824249</v>
+        <v>-1.0875763185794201</v>
       </c>
       <c r="L45">
-        <v>0.69986955207994272</v>
+        <v>0.67966550872640896</v>
       </c>
       <c r="M45">
-        <v>0.39043413924178128</v>
+        <v>1.0547258849787997</v>
       </c>
       <c r="N45">
         <v>-0.3522256975771193</v>
@@ -4406,43 +4406,43 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>3.4911349770034432</v>
+        <v>7.3190449062287337</v>
       </c>
       <c r="B46">
-        <v>2.7279048466672648</v>
+        <v>1.4453477841526576</v>
       </c>
       <c r="C46">
-        <v>1.8581799541214208E-2</v>
+        <v>0.75801074160892035</v>
       </c>
       <c r="D46">
-        <v>0.91006332407709989</v>
+        <v>-0.69549651603942597</v>
       </c>
       <c r="E46">
-        <v>-1.6140720614822035</v>
+        <v>5.5501874007252471E-3</v>
       </c>
       <c r="F46">
-        <v>-0.47862384169292366</v>
+        <v>-0.26661008247479551</v>
       </c>
       <c r="G46">
-        <v>-1.0406594025891409</v>
+        <v>-0.57909692982957195</v>
       </c>
       <c r="H46">
-        <v>-0.34984399476237577</v>
+        <v>9.7242732964411965E-2</v>
       </c>
       <c r="I46">
-        <v>8.2943413111136122E-2</v>
+        <v>-1.046740435337026</v>
       </c>
       <c r="J46">
-        <v>0.42785657443789155</v>
+        <v>0.42196562042210306</v>
       </c>
       <c r="K46">
-        <v>5.3897621847479225E-2</v>
+        <v>-0.45091756008226652</v>
       </c>
       <c r="L46">
-        <v>-0.128518941916866</v>
+        <v>0.46208972478278093</v>
       </c>
       <c r="M46">
-        <v>0.23144554979281845</v>
+        <v>-0.63745714260046182</v>
       </c>
       <c r="N46">
         <v>-7.7729137069300278E-2</v>
@@ -4495,43 +4495,43 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4.465649716499799</v>
+        <v>7.5832175741569552</v>
       </c>
       <c r="B47">
-        <v>1.7760749625890799</v>
+        <v>2.9716637462046807</v>
       </c>
       <c r="C47">
-        <v>-0.79338998736701016</v>
+        <v>1.6874654584270095</v>
       </c>
       <c r="D47">
-        <v>0.76220239025220715</v>
+        <v>0.37324202576742926</v>
       </c>
       <c r="E47">
-        <v>-1.5384439387223288</v>
+        <v>-0.43949980882596823</v>
       </c>
       <c r="F47">
-        <v>-0.14325651802115044</v>
+        <v>-0.32070096983071789</v>
       </c>
       <c r="G47">
-        <v>-1.136174229060043</v>
+        <v>-0.98426505568819589</v>
       </c>
       <c r="H47">
-        <v>-0.25718470775360308</v>
+        <v>-0.45713270558148339</v>
       </c>
       <c r="I47">
-        <v>-0.46574702223824582</v>
+        <v>-0.91493586922522496</v>
       </c>
       <c r="J47">
-        <v>-6.6141877439076124E-2</v>
+        <v>0.42207601227708785</v>
       </c>
       <c r="K47">
-        <v>0.13258559605089068</v>
+        <v>-0.99662650264796993</v>
       </c>
       <c r="L47">
-        <v>-0.36492206445826536</v>
+        <v>0.40658084341037559</v>
       </c>
       <c r="M47">
-        <v>-1.775808205915955E-2</v>
+        <v>-0.10335290233136797</v>
       </c>
       <c r="N47">
         <v>-0.20878831996433631</v>
@@ -4584,43 +4584,43 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>6.1649430018671181</v>
+        <v>6.5607988747557755</v>
       </c>
       <c r="B48">
-        <v>0.76872708095906117</v>
+        <v>3.8334124490708921</v>
       </c>
       <c r="C48">
-        <v>-1.6085294223353681</v>
+        <v>1.3794634229256002</v>
       </c>
       <c r="D48">
-        <v>0.76715163906308648</v>
+        <v>-0.5648292094233246</v>
       </c>
       <c r="E48">
-        <v>0.20113502525797422</v>
+        <v>-0.20251047909900177</v>
       </c>
       <c r="F48">
-        <v>0.9523654450244412</v>
+        <v>-0.21151469217863805</v>
       </c>
       <c r="G48">
-        <v>-0.27076064060266564</v>
+        <v>-0.91405214401008228</v>
       </c>
       <c r="H48">
-        <v>-5.2943727877707162E-3</v>
+        <v>0.18287960708320217</v>
       </c>
       <c r="I48">
-        <v>-0.2302767230944264</v>
+        <v>-0.80218375741543291</v>
       </c>
       <c r="J48">
-        <v>-0.35020428454561597</v>
+        <v>0.72934667270465292</v>
       </c>
       <c r="K48">
-        <v>0.18258107063055395</v>
+        <v>-0.32697162801318441</v>
       </c>
       <c r="L48">
-        <v>8.0325603830373789E-3</v>
+        <v>-9.0735967807405671E-2</v>
       </c>
       <c r="M48">
-        <v>-0.24009226114438686</v>
+        <v>-0.45351590261453284</v>
       </c>
       <c r="N48">
         <v>-0.35210780653776924</v>
@@ -4673,43 +4673,43 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>5.8994484812142138</v>
+        <v>7.7580552436255594</v>
       </c>
       <c r="B49">
-        <v>2.5211734319432364</v>
+        <v>1.6528970044587559</v>
       </c>
       <c r="C49">
-        <v>-0.4589539756805297</v>
+        <v>1.4050276353977593</v>
       </c>
       <c r="D49">
-        <v>0.87497172630994724</v>
+        <v>-0.31039088366602813</v>
       </c>
       <c r="E49">
-        <v>-1.3372532280107459</v>
+        <v>-0.5902600814535961</v>
       </c>
       <c r="F49">
-        <v>-0.51794336865107427</v>
+        <v>-0.24002523995569314</v>
       </c>
       <c r="G49">
-        <v>-1.2958415517036359</v>
+        <v>-0.39286276589778196</v>
       </c>
       <c r="H49">
-        <v>-0.45047824606202974</v>
+        <v>0.19408231255537767</v>
       </c>
       <c r="I49">
-        <v>-0.33784709837164517</v>
+        <v>-0.5798489718226647</v>
       </c>
       <c r="J49">
-        <v>-8.4602644286274828E-2</v>
+        <v>0.94845780541024249</v>
       </c>
       <c r="K49">
-        <v>-3.7930999229184435E-2</v>
+        <v>-1.4823251494519922</v>
       </c>
       <c r="L49">
-        <v>-0.37138959453115944</v>
+        <v>0.20974185651448543</v>
       </c>
       <c r="M49">
-        <v>1.0807206610061177E-2</v>
+        <v>-7.1330256551733945E-2</v>
       </c>
       <c r="N49">
         <v>-0.17513209254193415</v>
@@ -4762,43 +4762,43 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>4.9659151281152809</v>
+        <v>6.6924268047812268</v>
       </c>
       <c r="B50">
-        <v>1.7564983591149106</v>
+        <v>2.4037196190152947</v>
       </c>
       <c r="C50">
-        <v>-0.84015651839415662</v>
+        <v>1.2135836099706332</v>
       </c>
       <c r="D50">
-        <v>0.86373390040727638</v>
+        <v>-0.77797715620591879</v>
       </c>
       <c r="E50">
-        <v>-2.0336495843671254</v>
+        <v>-0.40934678605468822</v>
       </c>
       <c r="F50">
-        <v>-0.58739930960924713</v>
+        <v>3.4577989282968735E-2</v>
       </c>
       <c r="G50">
-        <v>-1.4212916301862679</v>
+        <v>-1.10185826565413</v>
       </c>
       <c r="H50">
-        <v>-0.42744046701887961</v>
+        <v>-0.26532012059870613</v>
       </c>
       <c r="I50">
-        <v>-0.14766232968614687</v>
+        <v>-1.2383043911327727</v>
       </c>
       <c r="J50">
-        <v>-0.27770120842918677</v>
+        <v>0.10677014105029928</v>
       </c>
       <c r="K50">
-        <v>0.35697972636027042</v>
+        <v>-0.81210472594551553</v>
       </c>
       <c r="L50">
-        <v>-0.28031413308027114</v>
+        <v>-2.3687809482224806E-2</v>
       </c>
       <c r="M50">
-        <v>-4.2996236530941721E-2</v>
+        <v>-0.39591412818089372</v>
       </c>
       <c r="N50">
         <v>-9.0897433307262313E-2</v>
@@ -4851,43 +4851,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>4.8975373535075626</v>
-      </c>
-      <c r="B51">
-        <v>-0.71295725474065974</v>
-      </c>
-      <c r="C51">
-        <v>-1.4512460854149125</v>
-      </c>
-      <c r="D51">
-        <v>0.11936363734133183</v>
-      </c>
-      <c r="E51">
-        <v>-1.5300991532572152</v>
-      </c>
-      <c r="F51">
-        <v>-0.52509784401493831</v>
-      </c>
-      <c r="G51">
-        <v>-1.885015236608317</v>
-      </c>
-      <c r="H51">
-        <v>-0.88816015426883355</v>
-      </c>
-      <c r="I51">
-        <v>-0.41944918930761027</v>
-      </c>
-      <c r="J51">
-        <v>0.27204171615479594</v>
-      </c>
-      <c r="K51">
-        <v>-0.83454875719508015</v>
-      </c>
-      <c r="L51">
-        <v>-0.46655777648074692</v>
-      </c>
-      <c r="M51">
-        <v>-0.23813671338927891</v>
+        <v>8.3630814357182697</v>
       </c>
       <c r="N51">
         <v>-0.66436700956613681</v>
@@ -4940,43 +4904,43 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4.2268337208362574</v>
+        <v>8.9167879562488785</v>
       </c>
       <c r="B52">
-        <v>0.35343689099926695</v>
+        <v>-3.8147778783658191</v>
       </c>
       <c r="C52">
-        <v>-1.2371619962467681</v>
+        <v>-5.3043776017901161</v>
       </c>
       <c r="D52">
-        <v>0.73587891020650298</v>
+        <v>-0.53373077758201637</v>
       </c>
       <c r="E52">
-        <v>-1.3783537609575511</v>
+        <v>0.38749268908325329</v>
       </c>
       <c r="F52">
-        <v>0.19804056216273327</v>
+        <v>0.92615518699278643</v>
       </c>
       <c r="G52">
-        <v>-0.47474452568366154</v>
+        <v>0.50451602911908477</v>
       </c>
       <c r="H52">
-        <v>-0.43306388643413746</v>
+        <v>0.18406472936743987</v>
       </c>
       <c r="I52">
-        <v>0.74389677904612594</v>
+        <v>-1.7399870933286563</v>
       </c>
       <c r="J52">
-        <v>0.14445972584474676</v>
+        <v>1.3932332416370072E-2</v>
       </c>
       <c r="K52">
-        <v>3.7995273454158394E-2</v>
+        <v>1.2560961156276196</v>
       </c>
       <c r="L52">
-        <v>0.37503513315868059</v>
+        <v>-0.47954719339771801</v>
       </c>
       <c r="M52">
-        <v>-0.57213489945120766</v>
+        <v>-1.799532442568446E-2</v>
       </c>
       <c r="N52">
         <v>-0.4408193140708046</v>
@@ -5029,43 +4993,43 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>4.567371309297636</v>
+        <v>8.3363780071141402</v>
       </c>
       <c r="B53">
-        <v>-1.0184299499659193</v>
+        <v>-3.0218980546574143</v>
       </c>
       <c r="C53">
-        <v>-1.6423029292846465</v>
+        <v>-3.219492605702353</v>
       </c>
       <c r="D53">
-        <v>0.31685768395013963</v>
+        <v>-1.0902101380367888</v>
       </c>
       <c r="E53">
-        <v>-2.871737573584217</v>
+        <v>-0.57816341586671327</v>
       </c>
       <c r="F53">
-        <v>-0.2439174839088947</v>
+        <v>2.5283860690543536</v>
       </c>
       <c r="G53">
-        <v>-1.5358771327483056</v>
+        <v>0.17358291065793952</v>
       </c>
       <c r="H53">
-        <v>-1.9263092324873903</v>
+        <v>0.52587598940730773</v>
       </c>
       <c r="I53">
-        <v>-0.23852624472727185</v>
+        <v>-2.6305729012823811</v>
       </c>
       <c r="J53">
-        <v>-0.45055871560208433</v>
+        <v>-0.12343122586111853</v>
       </c>
       <c r="K53">
-        <v>-0.47377445396174894</v>
+        <v>1.7800921293048753</v>
       </c>
       <c r="L53">
-        <v>0.2724507028960787</v>
+        <v>0.32122498126296845</v>
       </c>
       <c r="M53">
-        <v>-0.21371368376607133</v>
+        <v>-1.3533494285749494</v>
       </c>
       <c r="N53">
         <v>-0.29573073230138608</v>
@@ -5118,43 +5082,43 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>5.3283275822390621</v>
+        <v>8.4197445163111464</v>
       </c>
       <c r="B54">
-        <v>0.71151056175496774</v>
+        <v>2.5111838907290331</v>
       </c>
       <c r="C54">
-        <v>-1.5135753352951267</v>
+        <v>-3.2827834737114494</v>
       </c>
       <c r="D54">
-        <v>-9.6379437613291707E-2</v>
+        <v>-1.4283786379656047</v>
       </c>
       <c r="E54">
-        <v>-0.82387379645084657</v>
+        <v>0.5361352840209006</v>
       </c>
       <c r="F54">
-        <v>1.5657624596872623E-2</v>
+        <v>1.5509896496402025</v>
       </c>
       <c r="G54">
-        <v>-0.69942282238046549</v>
+        <v>-2.7382270528470847E-2</v>
       </c>
       <c r="H54">
-        <v>-0.29857069048696405</v>
+        <v>-0.90209749207149692</v>
       </c>
       <c r="I54">
-        <v>2.196013501760348E-2</v>
+        <v>-0.16858846962515669</v>
       </c>
       <c r="J54">
-        <v>-9.2619037462916887E-2</v>
+        <v>0.21698622533166212</v>
       </c>
       <c r="K54">
-        <v>-0.5146496660628016</v>
+        <v>0.57927738509899607</v>
       </c>
       <c r="L54">
-        <v>-0.15592647339953286</v>
+        <v>0.11574459567704078</v>
       </c>
       <c r="M54">
-        <v>-0.14675155685832394</v>
+        <v>-0.63553660016611446</v>
       </c>
       <c r="N54">
         <v>-0.19259198234532068</v>
@@ -5207,43 +5171,43 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>5.7624104505873097</v>
+        <v>8.2118712554466704</v>
       </c>
       <c r="B55">
-        <v>2.1719814338518169</v>
+        <v>1.4585287953783741</v>
       </c>
       <c r="C55">
-        <v>-0.64508432068964527</v>
+        <v>-3.3302543219565406</v>
       </c>
       <c r="D55">
-        <v>0.26536468793469858</v>
+        <v>-2.8689205303099907</v>
       </c>
       <c r="E55">
-        <v>-0.65138678586286114</v>
+        <v>-0.6211350936757366</v>
       </c>
       <c r="F55">
-        <v>0.1034687720216862</v>
+        <v>1.4660259152903872</v>
       </c>
       <c r="G55">
-        <v>-1.1359500895866135</v>
+        <v>1.2333626324814881</v>
       </c>
       <c r="H55">
-        <v>-0.45941942034039368</v>
+        <v>-0.42286588957110272</v>
       </c>
       <c r="I55">
-        <v>0.35013979576103388</v>
+        <v>-1.5282578851389161</v>
       </c>
       <c r="J55">
-        <v>0.29970405490879337</v>
+        <v>-0.8752081861107438</v>
       </c>
       <c r="K55">
-        <v>-0.26790405474887996</v>
+        <v>0.24303185448812159</v>
       </c>
       <c r="L55">
-        <v>-0.32235691243339398</v>
+        <v>0.41397180955460378</v>
       </c>
       <c r="M55">
-        <v>-3.9276855083088251E-2</v>
+        <v>-0.59437917758719594</v>
       </c>
       <c r="N55">
         <v>-0.27027482871035358</v>
@@ -5296,43 +5260,43 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>5.312246103956145</v>
+        <v>9.0330729131316136</v>
       </c>
       <c r="B56">
-        <v>-4.1869155456304004</v>
+        <v>3.5728557969279828</v>
       </c>
       <c r="C56">
-        <v>1.1212690463799027</v>
+        <v>-3.2143731637822834</v>
       </c>
       <c r="D56">
-        <v>-2.1112580363810656</v>
+        <v>-2.2052770638622636</v>
       </c>
       <c r="E56">
-        <v>1.2625189149589267</v>
+        <v>0.4091674859957195</v>
       </c>
       <c r="F56">
-        <v>-0.25591491690130624</v>
+        <v>1.6424694788960443</v>
       </c>
       <c r="G56">
-        <v>0.18903294077097713</v>
+        <v>0.42221609009661681</v>
       </c>
       <c r="H56">
-        <v>0.29921910687018932</v>
+        <v>-0.90451160399613595</v>
       </c>
       <c r="I56">
-        <v>-0.7354894935184344</v>
+        <v>-0.81442177560525619</v>
       </c>
       <c r="J56">
-        <v>-8.5578442475187672E-2</v>
+        <v>0.23529361586954994</v>
       </c>
       <c r="K56">
-        <v>2.8721651823389475E-2</v>
+        <v>0.6805582966558108</v>
       </c>
       <c r="L56">
-        <v>-5.4385583317802182E-2</v>
+        <v>0.20130498015806339</v>
       </c>
       <c r="M56">
-        <v>0.22778173689073811</v>
+        <v>-0.34544304825480854</v>
       </c>
       <c r="N56">
         <v>-2.6394970720665038E-2</v>
@@ -5385,43 +5349,43 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>6.7291600463018018</v>
+        <v>8.4450526985095529</v>
       </c>
       <c r="B57">
-        <v>0.76242574609829428</v>
+        <v>-0.83444041036185934</v>
       </c>
       <c r="C57">
-        <v>-0.72411066995190354</v>
+        <v>-4.3418261228676345</v>
       </c>
       <c r="D57">
-        <v>0.71692117717952786</v>
+        <v>-1.7332037864265102</v>
       </c>
       <c r="E57">
-        <v>-0.42817234173395385</v>
+        <v>0.83549521684381334</v>
       </c>
       <c r="F57">
-        <v>-6.1175863380787766E-2</v>
+        <v>1.6181771558951699</v>
       </c>
       <c r="G57">
-        <v>-0.65437481828267274</v>
+        <v>0.15471768310122333</v>
       </c>
       <c r="H57">
-        <v>-0.19554354822136935</v>
+        <v>-0.79748168957906174</v>
       </c>
       <c r="I57">
-        <v>3.6274717251105711E-2</v>
+        <v>-0.17420678744037735</v>
       </c>
       <c r="J57">
-        <v>-0.44201578375021355</v>
+        <v>0.72338510809628098</v>
       </c>
       <c r="K57">
-        <v>-0.20356912805813845</v>
+        <v>0.83346228202466754</v>
       </c>
       <c r="L57">
-        <v>-0.62243533655779093</v>
+        <v>0.11446190335539087</v>
       </c>
       <c r="M57">
-        <v>-0.77177009423192167</v>
+        <v>-0.44100577305335054</v>
       </c>
       <c r="N57">
         <v>-0.47962942333950037</v>
@@ -5474,43 +5438,43 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>7.0091831903401989</v>
+        <v>8.4280190711110166</v>
       </c>
       <c r="B58">
-        <v>0.82958184159369341</v>
+        <v>-0.36086253032990023</v>
       </c>
       <c r="C58">
-        <v>-1.0678522466038882</v>
+        <v>-3.1300443167929841</v>
       </c>
       <c r="D58">
-        <v>1.9177469455642335</v>
+        <v>-2.8656112977467316</v>
       </c>
       <c r="E58">
-        <v>-0.59949640311107744</v>
+        <v>-1.9789718165262815</v>
       </c>
       <c r="F58">
-        <v>1.0650521791675194</v>
+        <v>-1.5743248417929634</v>
       </c>
       <c r="G58">
-        <v>-0.20898544891079554</v>
+        <v>0.99787695548640187</v>
       </c>
       <c r="H58">
-        <v>-0.39592231337624251</v>
+        <v>-0.70821631869961077</v>
       </c>
       <c r="I58">
-        <v>0.44555815540552063</v>
+        <v>-1.5017824865686451</v>
       </c>
       <c r="J58">
-        <v>-0.75624111790437065</v>
+        <v>0.58688955485848582</v>
       </c>
       <c r="K58">
-        <v>-0.34720821979531119</v>
+        <v>0.75152731364214931</v>
       </c>
       <c r="L58">
-        <v>-0.51301958314311769</v>
+        <v>0.58889627746184825</v>
       </c>
       <c r="M58">
-        <v>0.19105999080987815</v>
+        <v>-1.4902238776718864</v>
       </c>
       <c r="N58">
         <v>-0.15915711211965422</v>
@@ -5563,43 +5527,43 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>6.8501430683817093</v>
+        <v>7.7268735081418658</v>
       </c>
       <c r="B59">
-        <v>-0.11009213785627259</v>
+        <v>4.4628715030855624</v>
       </c>
       <c r="C59">
-        <v>-2.1884103280043639</v>
+        <v>-4.1392328635017508</v>
       </c>
       <c r="D59">
-        <v>2.8439158541474279</v>
+        <v>-1.5892136728548227</v>
       </c>
       <c r="E59">
-        <v>-0.92246834111479559</v>
+        <v>0.84023487597188917</v>
       </c>
       <c r="F59">
-        <v>0.18542502059774002</v>
+        <v>1.6242325326104632</v>
       </c>
       <c r="G59">
-        <v>0.52603853044870019</v>
+        <v>-0.18349756001961154</v>
       </c>
       <c r="H59">
-        <v>-0.45361784828530094</v>
+        <v>-1.1609116502468333</v>
       </c>
       <c r="I59">
-        <v>0.28544020457836694</v>
+        <v>-0.52808657535254</v>
       </c>
       <c r="J59">
-        <v>-0.37577370071205718</v>
+        <v>0.740623571647541</v>
       </c>
       <c r="K59">
-        <v>0.1885025131582623</v>
+        <v>0.67000844089207345</v>
       </c>
       <c r="L59">
-        <v>0.18793259003131441</v>
+        <v>-0.2572064242650674</v>
       </c>
       <c r="M59">
-        <v>-0.56376281199677603</v>
+        <v>-0.68321035437607369</v>
       </c>
       <c r="N59">
         <v>-0.23401724668709625</v>
@@ -5652,43 +5616,43 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>6.5459979302005973</v>
+        <v>7.6976808314123799</v>
       </c>
       <c r="B60">
-        <v>0.47570819700318329</v>
+        <v>0.37093601821186939</v>
       </c>
       <c r="C60">
-        <v>-3.0616805566904284</v>
+        <v>-3.054260096886285</v>
       </c>
       <c r="D60">
-        <v>0.65866420172904594</v>
+        <v>-1.3131765345598068</v>
       </c>
       <c r="E60">
-        <v>0.68591026460575477</v>
+        <v>1.9233243738648951</v>
       </c>
       <c r="F60">
-        <v>0.69055906245271803</v>
+        <v>0.69310483546005452</v>
       </c>
       <c r="G60">
-        <v>-1.3363626245658211</v>
+        <v>-1.4256660597499344</v>
       </c>
       <c r="H60">
-        <v>-7.8251431737902735E-3</v>
+        <v>-0.35348034184150595</v>
       </c>
       <c r="I60">
-        <v>0.92235241036009774</v>
+        <v>0.22450776493910349</v>
       </c>
       <c r="J60">
-        <v>-0.32907053606823694</v>
+        <v>1.490291896720696</v>
       </c>
       <c r="K60">
-        <v>-0.49725023977288135</v>
+        <v>-0.83173610436716683</v>
       </c>
       <c r="L60">
-        <v>0.53761445507982342</v>
+        <v>-0.1266766896750951</v>
       </c>
       <c r="M60">
-        <v>7.9574773471055363E-2</v>
+        <v>-0.23051917108237069</v>
       </c>
       <c r="N60">
         <v>-5.1549479806740864E-2</v>
@@ -5741,43 +5705,43 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5.5564798991598146</v>
+        <v>6.6241355388540564</v>
       </c>
       <c r="B61">
-        <v>-5.2328025870289769</v>
+        <v>0.99876806045646449</v>
       </c>
       <c r="C61">
-        <v>-3.2680770847523353</v>
+        <v>1.0959459680056707</v>
       </c>
       <c r="D61">
-        <v>-0.45028831042430906</v>
+        <v>1.1797593860390743</v>
       </c>
       <c r="E61">
-        <v>0.46205057459181748</v>
+        <v>1.1224575360496147</v>
       </c>
       <c r="F61">
-        <v>0.803357318085271</v>
+        <v>0.48886538421862658</v>
       </c>
       <c r="G61">
-        <v>0.38905344566951183</v>
+        <v>2.260546565480209</v>
       </c>
       <c r="H61">
-        <v>-2.7048364945646479E-3</v>
+        <v>-0.67902553823930689</v>
       </c>
       <c r="I61">
-        <v>-0.7575554705184625</v>
+        <v>-0.11482939392666104</v>
       </c>
       <c r="J61">
-        <v>-6.9132336906406137E-3</v>
+        <v>0.9096466015965804</v>
       </c>
       <c r="K61">
-        <v>3.162984141478322E-2</v>
+        <v>-0.43332897199874537</v>
       </c>
       <c r="L61">
-        <v>1.8786949591193293E-2</v>
+        <v>3.6099319345468457E-2</v>
       </c>
       <c r="M61">
-        <v>-3.5747075357089697E-3</v>
+        <v>-4.6931125951637363E-2</v>
       </c>
       <c r="N61">
         <v>0.30445668917677621</v>
@@ -5830,43 +5794,43 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>6.918086387610189</v>
+        <v>7.7998502329143289</v>
       </c>
       <c r="B62">
-        <v>-5.3270494578744021</v>
+        <v>1.0634563591202739</v>
       </c>
       <c r="C62">
-        <v>-2.9631696306788764</v>
+        <v>3.7608062050267117</v>
       </c>
       <c r="D62">
-        <v>0.82722294961348264</v>
+        <v>1.1582895715029302</v>
       </c>
       <c r="E62">
-        <v>1.1299461942436899</v>
+        <v>-0.82067569117322325</v>
       </c>
       <c r="F62">
-        <v>0.38067045403106842</v>
+        <v>2.0333378656257888</v>
       </c>
       <c r="G62">
-        <v>-1.1726767995502148</v>
+        <v>-0.47653531466633203</v>
       </c>
       <c r="H62">
-        <v>-0.24872776625142129</v>
+        <v>-0.19709699596452246</v>
       </c>
       <c r="I62">
-        <v>0.98695262207945755</v>
+        <v>0.42141213256902949</v>
       </c>
       <c r="J62">
-        <v>-0.10079042374067103</v>
+        <v>-0.29075199395947599</v>
       </c>
       <c r="K62">
-        <v>-0.13792027217164515</v>
+        <v>0.79485720301440144</v>
       </c>
       <c r="L62">
-        <v>0.2118393824110647</v>
+        <v>-0.92612498406910115</v>
       </c>
       <c r="M62">
-        <v>0.1965017108962058</v>
+        <v>0.31554487064250814</v>
       </c>
       <c r="N62">
         <v>0.20865394567065462</v>
@@ -5919,43 +5883,43 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>4.4371885282251684</v>
+        <v>7.9648884925614016</v>
       </c>
       <c r="B63">
-        <v>-0.73564568421423782</v>
+        <v>3.9424650160574357</v>
       </c>
       <c r="C63">
-        <v>-0.35358524346110332</v>
+        <v>3.062968103381476</v>
       </c>
       <c r="D63">
-        <v>-2.78840143819655E-2</v>
+        <v>1.5679724977244993</v>
       </c>
       <c r="E63">
-        <v>0.14971975451004416</v>
+        <v>0.93063813701442244</v>
       </c>
       <c r="F63">
-        <v>0.52054454094453328</v>
+        <v>-0.14847648930952315</v>
       </c>
       <c r="G63">
-        <v>0.4575629530183522</v>
+        <v>0.93360201388396802</v>
       </c>
       <c r="H63">
-        <v>0.72038465152747222</v>
+        <v>-0.16984109181090856</v>
       </c>
       <c r="I63">
-        <v>-0.25092390293196076</v>
+        <v>-0.21333344102291832</v>
       </c>
       <c r="J63">
-        <v>-0.13796533974691699</v>
+        <v>0.14721942003265748</v>
       </c>
       <c r="K63">
-        <v>-0.23573849581765732</v>
+        <v>-2.1414706730099972E-2</v>
       </c>
       <c r="L63">
-        <v>-0.34413951080050814</v>
+        <v>-0.4538691392549859</v>
       </c>
       <c r="M63">
-        <v>-1.5785697047120181E-2</v>
+        <v>-0.38164591500548206</v>
       </c>
       <c r="N63">
         <v>0.52452292032585246</v>
@@ -6008,43 +5972,43 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>6.179765030800314</v>
+        <v>7.9632941851649672</v>
       </c>
       <c r="B64">
-        <v>-3.0354245340855819</v>
+        <v>3.5562267046059537</v>
       </c>
       <c r="C64">
-        <v>-0.57743145256625539</v>
+        <v>-1.6136613299327225</v>
       </c>
       <c r="D64">
-        <v>-0.29792031149001713</v>
+        <v>1.5541379051207875</v>
       </c>
       <c r="E64">
-        <v>-3.6592965275783269E-2</v>
+        <v>3.0751852746929651</v>
       </c>
       <c r="F64">
-        <v>-0.20049595468978465</v>
+        <v>-0.1031480377589306</v>
       </c>
       <c r="G64">
-        <v>-0.52796764822391684</v>
+        <v>-0.82357755329326454</v>
       </c>
       <c r="H64">
-        <v>-0.11656469635143904</v>
+        <v>-0.35694889064912638</v>
       </c>
       <c r="I64">
-        <v>-0.1826528531469476</v>
+        <v>0.48277421529500797</v>
       </c>
       <c r="J64">
-        <v>-6.4930529276207141E-2</v>
+        <v>0.29388246634312776</v>
       </c>
       <c r="K64">
-        <v>6.4901856578420763E-2</v>
+        <v>-1.1616588703758</v>
       </c>
       <c r="L64">
-        <v>0.2231985893256507</v>
+        <v>1.4353773576481769E-2</v>
       </c>
       <c r="M64">
-        <v>-0.2677379814824396</v>
+        <v>0.61839699763318534</v>
       </c>
       <c r="N64">
         <v>-0.14399624199843894</v>
@@ -6097,43 +6061,43 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>7.8125104677148229</v>
+        <v>8.0433116124888375</v>
       </c>
       <c r="B65">
-        <v>4.4976086588664224</v>
+        <v>3.1257707617139028</v>
       </c>
       <c r="C65">
-        <v>1.1723497013082842</v>
+        <v>-1.782264624199503</v>
       </c>
       <c r="D65">
-        <v>1.1529678576379661</v>
+        <v>-2.4853834104306629</v>
       </c>
       <c r="E65">
-        <v>1.0418618622900953</v>
+        <v>-1.4942014619909538</v>
       </c>
       <c r="F65">
-        <v>1.0348791902735743</v>
+        <v>0.30227374539341867</v>
       </c>
       <c r="G65">
-        <v>0.72633240898913876</v>
+        <v>1.2904518110642067</v>
       </c>
       <c r="H65">
-        <v>0.47016337243099121</v>
+        <v>0.91243556968686668</v>
       </c>
       <c r="I65">
-        <v>0.15725288360918602</v>
+        <v>-0.31536428465267341</v>
       </c>
       <c r="J65">
-        <v>-2.7989426877133378E-2</v>
+        <v>-1.2375113309882095</v>
       </c>
       <c r="K65">
-        <v>-5.6633235156555994E-2</v>
+        <v>-1.1485085833100526</v>
       </c>
       <c r="L65">
-        <v>0.23009299406361344</v>
+        <v>-0.26043966290286413</v>
       </c>
       <c r="M65">
-        <v>0.16370281164792821</v>
+        <v>0.60305647632001036</v>
       </c>
       <c r="N65">
         <v>3.8847917935454376E-2</v>
@@ -6186,43 +6150,43 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>6.4900679845879043</v>
+        <v>6.7975664980586732</v>
       </c>
       <c r="B66">
-        <v>1.5377561025262927</v>
+        <v>-2.0215230359924496</v>
       </c>
       <c r="C66">
-        <v>1.5920536370610692</v>
+        <v>-1.6736360047684335</v>
       </c>
       <c r="D66">
-        <v>1.696186038381537</v>
+        <v>-0.75454413212094051</v>
       </c>
       <c r="E66">
-        <v>-0.20012332172583724</v>
+        <v>-0.14578923068885125</v>
       </c>
       <c r="F66">
-        <v>1.181762392340036</v>
+        <v>0.54495175311083743</v>
       </c>
       <c r="G66">
-        <v>-8.1517767362178625E-2</v>
+        <v>0.59701341130542629</v>
       </c>
       <c r="H66">
-        <v>1.1447827163719375</v>
+        <v>0.91138660608114808</v>
       </c>
       <c r="I66">
-        <v>-0.54085839538544656</v>
+        <v>0.83873889603696938</v>
       </c>
       <c r="J66">
-        <v>-8.960285090065764E-3</v>
+        <v>0.58025936680020418</v>
       </c>
       <c r="K66">
-        <v>0.81923815496241525</v>
+        <v>0.31875329862722412</v>
       </c>
       <c r="L66">
-        <v>-0.32040965013059919</v>
+        <v>9.3171237993260062E-2</v>
       </c>
       <c r="M66">
-        <v>0.22015775364266801</v>
+        <v>3.2410863249249654E-2</v>
       </c>
       <c r="N66">
         <v>-5.7971294877202255E-2</v>
@@ -6275,43 +6239,43 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1.5396152819952365</v>
+        <v>8.1335566593649418</v>
       </c>
       <c r="B67">
-        <v>1.2999231547893972</v>
+        <v>-1.0462361821152641</v>
       </c>
       <c r="C67">
-        <v>0.23649917434283335</v>
+        <v>-2.7238012740145212</v>
       </c>
       <c r="D67">
-        <v>2.2882060863466798</v>
+        <v>-1.6413774421743981</v>
       </c>
       <c r="E67">
-        <v>1.0147741885392085</v>
+        <v>-1.0822857659888456E-3</v>
       </c>
       <c r="F67">
-        <v>0.52983574826611246</v>
+        <v>-4.11569967544972E-3</v>
       </c>
       <c r="G67">
-        <v>0.68080949657503398</v>
+        <v>6.3756529379175753E-2</v>
       </c>
       <c r="H67">
-        <v>0.2483269144804725</v>
+        <v>0.95651014841423931</v>
       </c>
       <c r="I67">
-        <v>0.27750149067564278</v>
+        <v>0.83321390240261184</v>
       </c>
       <c r="J67">
-        <v>4.3400634208116051E-3</v>
+        <v>0.2405052677070601</v>
       </c>
       <c r="K67">
-        <v>0.12308996661469143</v>
+        <v>5.7186406420087696E-2</v>
       </c>
       <c r="L67">
-        <v>0.26472802800085293</v>
+        <v>0.74116907455829939</v>
       </c>
       <c r="M67">
-        <v>0.40401480183474558</v>
+        <v>1.0755334577720228</v>
       </c>
       <c r="N67">
         <v>-0.11870336823660135</v>
@@ -6364,43 +6328,43 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>6.8024013863956236</v>
+        <v>8.1335567793154269</v>
       </c>
       <c r="B68">
-        <v>1.0923320265843477</v>
+        <v>-1.048732431497055</v>
       </c>
       <c r="C68">
-        <v>-1.7275807990770362</v>
+        <v>-2.7258318195697058</v>
       </c>
       <c r="D68">
-        <v>-0.6462505434893614</v>
+        <v>-1.6442412290634492</v>
       </c>
       <c r="E68">
-        <v>-0.73082383433524256</v>
+        <v>-2.1035952628763728E-3</v>
       </c>
       <c r="F68">
-        <v>0.18441593800507286</v>
+        <v>-5.5610515208152234E-3</v>
       </c>
       <c r="G68">
-        <v>0.24520368251763694</v>
+        <v>6.4442553889700258E-2</v>
       </c>
       <c r="H68">
-        <v>-0.40617277280114744</v>
+        <v>0.95725086326669884</v>
       </c>
       <c r="I68">
-        <v>1.3478541751421567E-2</v>
+        <v>0.83496756138156203</v>
       </c>
       <c r="J68">
-        <v>-0.67238200591139563</v>
+        <v>0.24306657171456841</v>
       </c>
       <c r="K68">
-        <v>-0.31567961260066096</v>
+        <v>6.1138026651240872E-2</v>
       </c>
       <c r="L68">
-        <v>-7.0587940513921463E-2</v>
+        <v>0.74306087375464203</v>
       </c>
       <c r="M68">
-        <v>0.24357096103309556</v>
+        <v>1.0784197869430772</v>
       </c>
       <c r="N68">
         <v>0.28032345070780662</v>
@@ -6453,43 +6417,43 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>7.1846730346256731</v>
+        <v>6.6018539133853453</v>
       </c>
       <c r="B69">
-        <v>1.7370490304570734</v>
+        <v>0.54794757548959072</v>
       </c>
       <c r="C69">
-        <v>0.62615226219342723</v>
+        <v>-1.7042843281859719</v>
       </c>
       <c r="D69">
-        <v>-0.32037526246409637</v>
+        <v>-1.7569073075256805</v>
       </c>
       <c r="E69">
-        <v>-0.59815433260124595</v>
+        <v>-1.1711852935998397</v>
       </c>
       <c r="F69">
-        <v>-1.007443097125287</v>
+        <v>-0.21857530401420708</v>
       </c>
       <c r="G69">
-        <v>-0.95654036239712248</v>
+        <v>0.41004820868522368</v>
       </c>
       <c r="H69">
-        <v>-1.439302053425223</v>
+        <v>0.97277414633744308</v>
       </c>
       <c r="I69">
-        <v>-1.5385948213485097</v>
+        <v>0.21552783158420247</v>
       </c>
       <c r="J69">
-        <v>-0.22016597078797717</v>
+        <v>-0.83470872990699918</v>
       </c>
       <c r="K69">
-        <v>-0.72777897004114822</v>
+        <v>-0.97731147664578955</v>
       </c>
       <c r="L69">
-        <v>0.5440892590781452</v>
+        <v>-8.9201299054527602E-2</v>
       </c>
       <c r="M69">
-        <v>-6.1525791944427255E-2</v>
+        <v>0.43818745241756407</v>
       </c>
       <c r="N69">
         <v>0.39688105734869872</v>
@@ -6542,43 +6506,43 @@
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>5.8845270903957561</v>
+        <v>6.9714441301523822</v>
       </c>
       <c r="B70">
-        <v>-1.4630038431539607</v>
+        <v>-1.5675375452116938</v>
       </c>
       <c r="C70">
-        <v>-2.6489158061665425</v>
+        <v>-2.1806784995673434</v>
       </c>
       <c r="D70">
-        <v>-6.5247634278637473E-2</v>
+        <v>-1.0661117824656294</v>
       </c>
       <c r="E70">
-        <v>0.7395949311493949</v>
+        <v>0.2334197386752124</v>
       </c>
       <c r="F70">
-        <v>0.27543003299468655</v>
+        <v>0.34646172152908006</v>
       </c>
       <c r="G70">
-        <v>1.0941556539208654</v>
+        <v>0.59279398954598395</v>
       </c>
       <c r="H70">
-        <v>-0.69972336156351977</v>
+        <v>1.1647267274311479</v>
       </c>
       <c r="I70">
-        <v>-0.62983759979422715</v>
+        <v>1.0764535582179902</v>
       </c>
       <c r="J70">
-        <v>0.22487133816962399</v>
+        <v>0.25726373952387666</v>
       </c>
       <c r="K70">
-        <v>0.73978822694420754</v>
+        <v>-0.38819675077535026</v>
       </c>
       <c r="L70">
-        <v>-0.19849500182513169</v>
+        <v>0.17407290160103131</v>
       </c>
       <c r="M70">
-        <v>-0.82515980702165992</v>
+        <v>0.64042161590567581</v>
       </c>
       <c r="N70">
         <v>-0.17813656381984252</v>
@@ -6631,43 +6595,43 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>6.0174244582082794</v>
+        <v>6.8537300387176154</v>
       </c>
       <c r="B71">
-        <v>1.9046296189068885</v>
+        <v>-0.89690105930986086</v>
       </c>
       <c r="C71">
-        <v>1.2006741187661252</v>
+        <v>-2.3572221416687644</v>
       </c>
       <c r="D71">
-        <v>0.51570782427992412</v>
+        <v>-2.2865105812100164</v>
       </c>
       <c r="E71">
-        <v>0.52491156425045737</v>
+        <v>-0.85374116961821689</v>
       </c>
       <c r="F71">
-        <v>0.8417576585047003</v>
+        <v>-0.11250558674614899</v>
       </c>
       <c r="G71">
-        <v>0.46314050222124786</v>
+        <v>1.2750704901225443</v>
       </c>
       <c r="H71">
-        <v>-0.30996617178374802</v>
+        <v>2.2366068408333066</v>
       </c>
       <c r="I71">
-        <v>-0.29917076260138553</v>
+        <v>1.2452795793741318</v>
       </c>
       <c r="J71">
-        <v>-0.30456529170030594</v>
+        <v>-0.20976960274026257</v>
       </c>
       <c r="K71">
-        <v>-0.16516564556243182</v>
+        <v>-0.4499575587781045</v>
       </c>
       <c r="L71">
-        <v>-0.12283400018676431</v>
+        <v>0.60096579264194228</v>
       </c>
       <c r="M71">
-        <v>0.11239103756540128</v>
+        <v>0.91500706563784828</v>
       </c>
       <c r="N71">
         <v>-0.21774671989954772</v>
@@ -6720,43 +6684,43 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>6.2098627410367166</v>
+        <v>8.4033294011678379</v>
       </c>
       <c r="B72">
-        <v>-0.21063689765620119</v>
+        <v>-1.8158486968206711</v>
       </c>
       <c r="C72">
-        <v>-1.370192447328364</v>
+        <v>-2.4303301647115947</v>
       </c>
       <c r="D72">
-        <v>-0.84887844051040218</v>
+        <v>-1.3990477629192128</v>
       </c>
       <c r="E72">
-        <v>-4.8931700186480985E-2</v>
+        <v>-0.36318818250769264</v>
       </c>
       <c r="F72">
-        <v>0.57186918221178451</v>
+        <v>-0.10906496645917231</v>
       </c>
       <c r="G72">
-        <v>-0.13774776864740526</v>
+        <v>0.31219150056229933</v>
       </c>
       <c r="H72">
-        <v>-0.45637385917520484</v>
+        <v>1.4660113578166658</v>
       </c>
       <c r="I72">
-        <v>-0.32336006554088187</v>
+        <v>1.5982861321876038</v>
       </c>
       <c r="J72">
-        <v>-0.4194173754525044</v>
+        <v>0.64386240966784458</v>
       </c>
       <c r="K72">
-        <v>-0.22584345975083714</v>
+        <v>0.52235642752549716</v>
       </c>
       <c r="L72">
-        <v>0.26809883573587651</v>
+        <v>1.0305189048685701</v>
       </c>
       <c r="M72">
-        <v>-0.32959840886643732</v>
+        <v>0.6464557308868516</v>
       </c>
       <c r="N72">
         <v>-0.59093730646698883</v>
@@ -6809,43 +6773,43 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>4.3988107439550923</v>
+        <v>7.2769286249046017</v>
       </c>
       <c r="B73">
-        <v>-3.9224824693888038</v>
+        <v>5.0132426850720435</v>
       </c>
       <c r="C73">
-        <v>-3.2512351757241751</v>
+        <v>1.8999170149196771</v>
       </c>
       <c r="D73">
-        <v>2.1284776558237364</v>
+        <v>2.2438811970381471</v>
       </c>
       <c r="E73">
-        <v>-0.57342544969585429</v>
+        <v>0.13044091113982076</v>
       </c>
       <c r="F73">
-        <v>5.8583486340814526E-2</v>
+        <v>0.75825194800790774</v>
       </c>
       <c r="G73">
-        <v>0.29539355656182564</v>
+        <v>0.9151692288913359</v>
       </c>
       <c r="H73">
-        <v>8.2154698670005119E-2</v>
+        <v>-0.58435492073245665</v>
       </c>
       <c r="I73">
-        <v>-0.83328030147300836</v>
+        <v>0.41750322446390958</v>
       </c>
       <c r="J73">
-        <v>0.33873931586527029</v>
+        <v>0.35266947022159251</v>
       </c>
       <c r="K73">
-        <v>0.36977583099050193</v>
+        <v>-0.70446234984298295</v>
       </c>
       <c r="L73">
-        <v>-0.31673523074388277</v>
+        <v>0.71252493777487835</v>
       </c>
       <c r="M73">
-        <v>3.7439664969409229E-3</v>
+        <v>0.45372126298963295</v>
       </c>
       <c r="N73">
         <v>-0.12706384293961373</v>
@@ -6898,43 +6862,43 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>6.6752958086959211</v>
+        <v>7.7116543491460074</v>
       </c>
       <c r="B74">
-        <v>-5.6811879971357611</v>
+        <v>4.2329143593363332</v>
       </c>
       <c r="C74">
-        <v>-1.7878377798288585</v>
+        <v>0.9127897978555487</v>
       </c>
       <c r="D74">
-        <v>1.7601031196399719</v>
+        <v>1.150551692867219</v>
       </c>
       <c r="E74">
-        <v>-0.74109973503995008</v>
+        <v>1.4153595013729172</v>
       </c>
       <c r="F74">
-        <v>2.3169995808848216E-2</v>
+        <v>0.57722514789760071</v>
       </c>
       <c r="G74">
-        <v>-9.4804575140565506E-2</v>
+        <v>-7.4369790147379558E-2</v>
       </c>
       <c r="H74">
-        <v>0.53662763391245261</v>
+        <v>0.68974799264605857</v>
       </c>
       <c r="I74">
-        <v>-1.004199503615181</v>
+        <v>0.49185127705302467</v>
       </c>
       <c r="J74">
-        <v>0.98309982010817365</v>
+        <v>-0.18419236232792791</v>
       </c>
       <c r="K74">
-        <v>5.486273678109675E-3</v>
+        <v>-0.14440912283253271</v>
       </c>
       <c r="L74">
-        <v>-0.54629282925006473</v>
+        <v>0.32037246466320285</v>
       </c>
       <c r="M74">
-        <v>-0.42885775757814842</v>
+        <v>0.32274539305514938</v>
       </c>
       <c r="N74">
         <v>0.97650312058589328</v>
@@ -6987,43 +6951,43 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>6.1745448820278863</v>
+        <v>7.6141438061978954</v>
       </c>
       <c r="B75">
-        <v>-6.2068913846709206</v>
+        <v>3.4147065720593641</v>
       </c>
       <c r="C75">
-        <v>-3.9022999946664849</v>
+        <v>-1.5900051905540902</v>
       </c>
       <c r="D75">
-        <v>2.6312168499107229</v>
+        <v>0.4223590524400907</v>
       </c>
       <c r="E75">
-        <v>-1.7278193673320037</v>
+        <v>1.4887235701529606</v>
       </c>
       <c r="F75">
-        <v>-5.1155515543705239E-2</v>
+        <v>1.1767628952322129</v>
       </c>
       <c r="G75">
-        <v>-7.6009484362449919E-2</v>
+        <v>-0.2848294059623464</v>
       </c>
       <c r="H75">
-        <v>-0.18168243234455178</v>
+        <v>-0.73895730730892717</v>
       </c>
       <c r="I75">
-        <v>-0.69585850341701772</v>
+        <v>1.3731508236825854E-2</v>
       </c>
       <c r="J75">
-        <v>0.12782670448526534</v>
+        <v>-0.55095212143594696</v>
       </c>
       <c r="K75">
-        <v>0.43659976979246923</v>
+        <v>-0.68620842324824249</v>
       </c>
       <c r="L75">
-        <v>0.80763402934231265</v>
+        <v>0.69986955207994272</v>
       </c>
       <c r="M75">
-        <v>-1.0430182097657761</v>
+        <v>0.39043413924178128</v>
       </c>
       <c r="N75">
         <v>6.4219058901042578E-4</v>
@@ -7076,43 +7040,43 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>6.2098627410367166</v>
+        <v>6.6211013510302825</v>
       </c>
       <c r="B76">
-        <v>-0.21063689765620119</v>
+        <v>3.505032857922433</v>
       </c>
       <c r="C76">
-        <v>-1.370192447328364</v>
+        <v>-0.20461105614613886</v>
       </c>
       <c r="D76">
-        <v>-0.84887844051040218</v>
+        <v>2.5206550931990135</v>
       </c>
       <c r="E76">
-        <v>-4.8931700186480985E-2</v>
+        <v>3.2265053042487981</v>
       </c>
       <c r="F76">
-        <v>0.57186918221178451</v>
+        <v>0.74544152866180846</v>
       </c>
       <c r="G76">
-        <v>-0.13774776864740526</v>
+        <v>-0.87160923323953943</v>
       </c>
       <c r="H76">
-        <v>-0.45637385917520484</v>
+        <v>0.24483528634560797</v>
       </c>
       <c r="I76">
-        <v>-0.32336006554088187</v>
+        <v>1.0148319752040622</v>
       </c>
       <c r="J76">
-        <v>-0.4194173754525044</v>
+        <v>-0.12637145459252841</v>
       </c>
       <c r="K76">
-        <v>-0.22584345975083714</v>
+        <v>-0.92208260676377229</v>
       </c>
       <c r="L76">
-        <v>0.26809883573587651</v>
+        <v>-0.19683564638614151</v>
       </c>
       <c r="M76">
-        <v>-0.32959840886643732</v>
+        <v>0.30160079124074135</v>
       </c>
       <c r="N76">
         <v>0.14926109581446481</v>
@@ -7156,43 +7120,43 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>4.3988107439550923</v>
+        <v>6.7179576657487434</v>
       </c>
       <c r="B77">
-        <v>-3.9224824693888038</v>
+        <v>2.3944355883596931</v>
       </c>
       <c r="C77">
-        <v>-3.2512351757241751</v>
+        <v>-2.8802753403766701</v>
       </c>
       <c r="D77">
-        <v>2.1284776558237364</v>
+        <v>2.6617742495307057</v>
       </c>
       <c r="E77">
-        <v>-0.57342544969585429</v>
+        <v>3.0000797392644802</v>
       </c>
       <c r="F77">
-        <v>5.8583486340814526E-2</v>
+        <v>-0.37785496146611541</v>
       </c>
       <c r="G77">
-        <v>0.29539355656182564</v>
+        <v>-1.0687152260422295</v>
       </c>
       <c r="H77">
-        <v>8.2154698670005119E-2</v>
+        <v>1.5013967404204305</v>
       </c>
       <c r="I77">
-        <v>-0.83328030147300836</v>
+        <v>1.2426846340957263</v>
       </c>
       <c r="J77">
-        <v>0.33873931586527029</v>
+        <v>-1.3675357691650345</v>
       </c>
       <c r="K77">
-        <v>0.36977583099050193</v>
+        <v>-0.57740778068116072</v>
       </c>
       <c r="L77">
-        <v>-0.31673523074388277</v>
+        <v>1.3700561689990762</v>
       </c>
       <c r="M77">
-        <v>3.7439664969409229E-3</v>
+        <v>0.1320698382049989</v>
       </c>
       <c r="N77">
         <v>0.17266829637743461</v>
@@ -7236,43 +7200,43 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>6.6752958086959211</v>
+        <v>6.7590829400743653</v>
       </c>
       <c r="B78">
-        <v>-5.6811879971357611</v>
+        <v>1.5973229146576027</v>
       </c>
       <c r="C78">
-        <v>-1.7878377798288585</v>
+        <v>2.9279233879434705</v>
       </c>
       <c r="D78">
-        <v>1.7601031196399719</v>
+        <v>1.3125619021125254</v>
       </c>
       <c r="E78">
-        <v>-0.74109973503995008</v>
+        <v>-9.0873196152470997E-2</v>
       </c>
       <c r="F78">
-        <v>2.3169995808848216E-2</v>
+        <v>3.0632145122085112E-2</v>
       </c>
       <c r="G78">
-        <v>-9.4804575140565506E-2</v>
+        <v>-1.8212896933865481</v>
       </c>
       <c r="H78">
-        <v>0.53662763391245261</v>
+        <v>0.56132393985725726</v>
       </c>
       <c r="I78">
-        <v>-1.004199503615181</v>
+        <v>-1.246747243927709</v>
       </c>
       <c r="J78">
-        <v>0.98309982010817365</v>
+        <v>0.74316611863865567</v>
       </c>
       <c r="K78">
-        <v>5.486273678109675E-3</v>
+        <v>-0.14552638156601777</v>
       </c>
       <c r="L78">
-        <v>-0.54629282925006473</v>
+        <v>-0.35015102331904113</v>
       </c>
       <c r="M78">
-        <v>-0.42885775757814842</v>
+        <v>6.6975360707229301E-2</v>
       </c>
       <c r="N78">
         <v>-0.20365101888706491</v>
@@ -7316,43 +7280,43 @@
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>6.1745448820278863</v>
+        <v>7.4135150630848852</v>
       </c>
       <c r="B79">
-        <v>-6.2068913846709206</v>
+        <v>0.32473278815363482</v>
       </c>
       <c r="C79">
-        <v>-3.9022999946664849</v>
+        <v>2.9240311610884531</v>
       </c>
       <c r="D79">
-        <v>2.6312168499107229</v>
+        <v>1.8439153400646631</v>
       </c>
       <c r="E79">
-        <v>-1.7278193673320037</v>
+        <v>-7.7714833168328154E-2</v>
       </c>
       <c r="F79">
-        <v>-5.1155515543705239E-2</v>
+        <v>0.90592812214813023</v>
       </c>
       <c r="G79">
-        <v>-7.6009484362449919E-2</v>
+        <v>-1.830582802208063</v>
       </c>
       <c r="H79">
-        <v>-0.18168243234455178</v>
+        <v>0.62832523216524339</v>
       </c>
       <c r="I79">
-        <v>-0.69585850341701772</v>
+        <v>-0.78157217880588137</v>
       </c>
       <c r="J79">
-        <v>0.12782670448526534</v>
+        <v>-7.2017885477065974E-2</v>
       </c>
       <c r="K79">
-        <v>0.43659976979246923</v>
+        <v>-7.566917734131054E-2</v>
       </c>
       <c r="L79">
-        <v>0.80763402934231265</v>
+        <v>-1.6302575995724287E-2</v>
       </c>
       <c r="M79">
-        <v>-1.0430182097657761</v>
+        <v>-0.24593866209852946</v>
       </c>
       <c r="N79">
         <v>-1.4194466354636618E-2</v>
@@ -7396,43 +7360,43 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>2.7156900536869877</v>
+        <v>7.5969560792011324</v>
       </c>
       <c r="B80">
-        <v>1.7529324208448611</v>
+        <v>0.45888999517248436</v>
       </c>
       <c r="C80">
-        <v>-1.8665463334255123</v>
+        <v>-2.3486872056711414</v>
       </c>
       <c r="D80">
-        <v>-0.53171216903513796</v>
+        <v>1.2596694098487056</v>
       </c>
       <c r="E80">
-        <v>5.9988193998202585E-2</v>
+        <v>1.8776743377888214</v>
       </c>
       <c r="F80">
-        <v>0.91586102162647298</v>
+        <v>0.16153881956546307</v>
       </c>
       <c r="G80">
-        <v>0.4450457266556952</v>
+        <v>-1.7542803443558574</v>
       </c>
       <c r="H80">
-        <v>-0.24521364271057428</v>
+        <v>0.52853788652807199</v>
       </c>
       <c r="I80">
-        <v>0.92027882711550535</v>
+        <v>4.1371116300934305E-2</v>
       </c>
       <c r="J80">
-        <v>0.30281541866059608</v>
+        <v>-0.40098588900655352</v>
       </c>
       <c r="K80">
-        <v>0.23933590338446598</v>
+        <v>-0.68941582924706257</v>
       </c>
       <c r="L80">
-        <v>0.31569152863045924</v>
+        <v>0.29532681849387765</v>
       </c>
       <c r="M80">
-        <v>-0.26669156530070481</v>
+        <v>0.88077796829201105</v>
       </c>
       <c r="N80">
         <v>-0.18224965850908897</v>
@@ -7476,43 +7440,43 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>4.3988107439550923</v>
+        <v>6.6260264740332362</v>
       </c>
       <c r="B81">
-        <v>-3.9224824693888038</v>
+        <v>1.1314491372449007</v>
       </c>
       <c r="C81">
-        <v>-3.2512351757241751</v>
+        <v>0.85787771575127525</v>
       </c>
       <c r="D81">
-        <v>2.1284776558237364</v>
+        <v>4.8481650590918718E-2</v>
       </c>
       <c r="E81">
-        <v>-0.57342544969585429</v>
+        <v>1.2256930312635317</v>
       </c>
       <c r="F81">
-        <v>5.8583486340814526E-2</v>
+        <v>1.1852385040172582</v>
       </c>
       <c r="G81">
-        <v>0.29539355656182564</v>
+        <v>1.06629431266272</v>
       </c>
       <c r="H81">
-        <v>8.2154698670005119E-2</v>
+        <v>-0.7561117471753257</v>
       </c>
       <c r="I81">
-        <v>-0.83328030147300836</v>
+        <v>-0.10194807472031314</v>
       </c>
       <c r="J81">
-        <v>0.33873931586527029</v>
+        <v>0.17788445641431078</v>
       </c>
       <c r="K81">
-        <v>0.36977583099050193</v>
+        <v>-0.22942281971604281</v>
       </c>
       <c r="L81">
-        <v>-0.31673523074388277</v>
+        <v>0.11221605991188337</v>
       </c>
       <c r="M81">
-        <v>3.7439664969409229E-3</v>
+        <v>-7.6545006217119571E-2</v>
       </c>
       <c r="N81">
         <v>0.36948530212218383</v>
@@ -7556,43 +7520,43 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>6.6752958086959211</v>
+        <v>7.0823981618169709</v>
       </c>
       <c r="B82">
-        <v>-5.6811879971357611</v>
+        <v>-0.74801555886743409</v>
       </c>
       <c r="C82">
-        <v>-1.7878377798288585</v>
+        <v>-7.7391708065905158E-3</v>
       </c>
       <c r="D82">
-        <v>1.7601031196399719</v>
+        <v>2.7399928568415124</v>
       </c>
       <c r="E82">
-        <v>-0.74109973503995008</v>
+        <v>1.3013583871539378</v>
       </c>
       <c r="F82">
-        <v>2.3169995808848216E-2</v>
+        <v>1.7464185605479456</v>
       </c>
       <c r="G82">
-        <v>-9.4804575140565506E-2</v>
+        <v>-2.4540096419011919</v>
       </c>
       <c r="H82">
-        <v>0.53662763391245261</v>
+        <v>1.2978882380540047</v>
       </c>
       <c r="I82">
-        <v>-1.004199503615181</v>
+        <v>1.1336293548389724</v>
       </c>
       <c r="J82">
-        <v>0.98309982010817365</v>
+        <v>-0.85627141554525421</v>
       </c>
       <c r="K82">
-        <v>5.486273678109675E-3</v>
+        <v>-0.10368038040085577</v>
       </c>
       <c r="L82">
-        <v>-0.54629282925006473</v>
+        <v>-0.9292312392810782</v>
       </c>
       <c r="M82">
-        <v>-0.42885775757814842</v>
+        <v>1.2118616741268526</v>
       </c>
       <c r="N82">
         <v>0.58877518063384859</v>
@@ -7636,43 +7600,43 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>6.1745448820278863</v>
+        <v>7.513068831037355</v>
       </c>
       <c r="B83">
-        <v>-6.2068913846709206</v>
+        <v>2.2930154035062937</v>
       </c>
       <c r="C83">
-        <v>-3.9022999946664849</v>
+        <v>-3.4242663270619325</v>
       </c>
       <c r="D83">
-        <v>2.6312168499107229</v>
+        <v>-2.2031324170929545</v>
       </c>
       <c r="E83">
-        <v>-1.7278193673320037</v>
+        <v>-0.53685251417042901</v>
       </c>
       <c r="F83">
-        <v>-5.1155515543705239E-2</v>
+        <v>-0.69964042467180054</v>
       </c>
       <c r="G83">
-        <v>-7.6009484362449919E-2</v>
+        <v>0.51177974876315346</v>
       </c>
       <c r="H83">
-        <v>-0.18168243234455178</v>
+        <v>0.15927181175241326</v>
       </c>
       <c r="I83">
-        <v>-0.69585850341701772</v>
+        <v>0.6183735435361204</v>
       </c>
       <c r="J83">
-        <v>0.12782670448526534</v>
+        <v>0.16665356512749097</v>
       </c>
       <c r="K83">
-        <v>0.43659976979246923</v>
+        <v>0.24922217059283261</v>
       </c>
       <c r="L83">
-        <v>0.80763402934231265</v>
+        <v>-0.16788823454606783</v>
       </c>
       <c r="M83">
-        <v>-1.0430182097657761</v>
+        <v>3.3588685081434345E-2</v>
       </c>
       <c r="N83">
         <v>0.19813675305578407</v>
@@ -7716,43 +7680,43 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>2.7156900536869877</v>
+        <v>7.9933135231358481</v>
       </c>
       <c r="B84">
-        <v>1.7529324208448611</v>
+        <v>3.1169932173845987</v>
       </c>
       <c r="C84">
-        <v>-1.8665463334255123</v>
+        <v>1.759909336933168</v>
       </c>
       <c r="D84">
-        <v>-0.53171216903513796</v>
+        <v>0.29730665880222595</v>
       </c>
       <c r="E84">
-        <v>5.9988193998202585E-2</v>
+        <v>0.65310653822954423</v>
       </c>
       <c r="F84">
-        <v>0.91586102162647298</v>
+        <v>-0.53051165314565585</v>
       </c>
       <c r="G84">
-        <v>0.4450457266556952</v>
+        <v>3.1948217014416087E-2</v>
       </c>
       <c r="H84">
-        <v>-0.24521364271057428</v>
+        <v>3.92317884151753E-2</v>
       </c>
       <c r="I84">
-        <v>0.92027882711550535</v>
+        <v>-0.35853788802088954</v>
       </c>
       <c r="J84">
-        <v>0.30281541866059608</v>
+        <v>-0.25811241903972965</v>
       </c>
       <c r="K84">
-        <v>0.23933590338446598</v>
+        <v>-0.43264957872930537</v>
       </c>
       <c r="L84">
-        <v>0.31569152863045924</v>
+        <v>-0.23404810992431418</v>
       </c>
       <c r="M84">
-        <v>-0.26669156530070481</v>
+        <v>-0.49071658938877261</v>
       </c>
       <c r="N84">
         <v>-3.5345751552870869E-2</v>
@@ -7796,43 +7760,43 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>5.2245018140118349</v>
+        <v>7.5095903814184934</v>
       </c>
       <c r="B85">
-        <v>1.3478538778114693</v>
+        <v>2.4863824684754876</v>
       </c>
       <c r="C85">
-        <v>0.38139434061318156</v>
+        <v>-0.14394720486881699</v>
       </c>
       <c r="D85">
-        <v>3.5156730478015259</v>
+        <v>0.87995837723432302</v>
       </c>
       <c r="E85">
-        <v>0.46855541743494672</v>
+        <v>0.85666338581790458</v>
       </c>
       <c r="F85">
-        <v>0.57977206825760619</v>
+        <v>-0.54507202871949301</v>
       </c>
       <c r="G85">
-        <v>0.30648016076600687</v>
+        <v>1.1370153672648882</v>
       </c>
       <c r="H85">
-        <v>0.17128645452943492</v>
+        <v>-0.54089398220200358</v>
       </c>
       <c r="I85">
-        <v>-1.0645346889563587</v>
+        <v>-0.1698031707407176</v>
       </c>
       <c r="J85">
-        <v>-0.30871754638322252</v>
+        <v>0.60147973375998154</v>
       </c>
       <c r="K85">
-        <v>6.556885397645551E-2</v>
+        <v>-1.2444845137090539</v>
       </c>
       <c r="L85">
-        <v>-0.27175801828161245</v>
+        <v>-0.13010835781228655</v>
       </c>
       <c r="M85">
-        <v>-0.23366108666756749</v>
+        <v>-0.15777263249851864</v>
       </c>
       <c r="N85">
         <v>0.21748581312343948</v>
@@ -7876,43 +7840,43 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>6.6752958086959211</v>
+        <v>8.499442251615406</v>
       </c>
       <c r="B86">
-        <v>-5.6811879971357611</v>
+        <v>1.2929774338942484</v>
       </c>
       <c r="C86">
-        <v>-1.7878377798288585</v>
+        <v>-1.9430679354281446</v>
       </c>
       <c r="D86">
-        <v>1.7601031196399719</v>
+        <v>1.3187050425670201</v>
       </c>
       <c r="E86">
-        <v>-0.74109973503995008</v>
+        <v>0.4465948070143016</v>
       </c>
       <c r="F86">
-        <v>2.3169995808848216E-2</v>
+        <v>1.0054042417544597</v>
       </c>
       <c r="G86">
-        <v>-9.4804575140565506E-2</v>
+        <v>-1.2283530544054255</v>
       </c>
       <c r="H86">
-        <v>0.53662763391245261</v>
+        <v>-0.25157442864297286</v>
       </c>
       <c r="I86">
-        <v>-1.004199503615181</v>
+        <v>1.3529084403749507</v>
       </c>
       <c r="J86">
-        <v>0.98309982010817365</v>
+        <v>-0.43015636238966032</v>
       </c>
       <c r="K86">
-        <v>5.486273678109675E-3</v>
+        <v>-0.66346901196358132</v>
       </c>
       <c r="L86">
-        <v>-0.54629282925006473</v>
+        <v>0.50507238578266733</v>
       </c>
       <c r="M86">
-        <v>-0.42885775757814842</v>
+        <v>0.34476857750065659</v>
       </c>
       <c r="N86">
         <v>-5.829810645199432E-4</v>
@@ -7956,43 +7920,43 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>6.1745448820278863</v>
+        <v>8.480805331583154</v>
       </c>
       <c r="B87">
-        <v>-6.2068913846709206</v>
+        <v>2.3879142214995936</v>
       </c>
       <c r="C87">
-        <v>-3.9022999946664849</v>
+        <v>-2.0747120664304006</v>
       </c>
       <c r="D87">
-        <v>2.6312168499107229</v>
+        <v>0.73203914683841287</v>
       </c>
       <c r="E87">
-        <v>-1.7278193673320037</v>
+        <v>1.6880551173674581</v>
       </c>
       <c r="F87">
-        <v>-5.1155515543705239E-2</v>
+        <v>0.72687062147184289</v>
       </c>
       <c r="G87">
-        <v>-7.6009484362449919E-2</v>
+        <v>-1.6803703044657101</v>
       </c>
       <c r="H87">
-        <v>-0.18168243234455178</v>
+        <v>0.23549841404407992</v>
       </c>
       <c r="I87">
-        <v>-0.69585850341701772</v>
+        <v>1.3107868871192743</v>
       </c>
       <c r="J87">
-        <v>0.12782670448526534</v>
+        <v>9.9093161482024281E-2</v>
       </c>
       <c r="K87">
-        <v>0.43659976979246923</v>
+        <v>-0.6221174482737587</v>
       </c>
       <c r="L87">
-        <v>0.80763402934231265</v>
+        <v>0.12700947690331132</v>
       </c>
       <c r="M87">
-        <v>-1.0430182097657761</v>
+        <v>1.0744250394153168</v>
       </c>
       <c r="N87">
         <v>0.21666049372455737</v>
@@ -8036,43 +8000,43 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>2.7156900536869877</v>
+        <v>8.2981999635341488</v>
       </c>
       <c r="B88">
-        <v>1.7529324208448611</v>
+        <v>2.6933277133713025</v>
       </c>
       <c r="C88">
-        <v>-1.8665463334255123</v>
+        <v>-1.2917306524163676</v>
       </c>
       <c r="D88">
-        <v>-0.53171216903513796</v>
+        <v>0.57774805294216258</v>
       </c>
       <c r="E88">
-        <v>5.9988193998202585E-2</v>
+        <v>0.66189078606270513</v>
       </c>
       <c r="F88">
-        <v>0.91586102162647298</v>
+        <v>1.7568895856110827</v>
       </c>
       <c r="G88">
-        <v>0.4450457266556952</v>
+        <v>-0.19557888901801199</v>
       </c>
       <c r="H88">
-        <v>-0.24521364271057428</v>
+        <v>-0.20327991168952589</v>
       </c>
       <c r="I88">
-        <v>0.92027882711550535</v>
+        <v>0.29813447101872481</v>
       </c>
       <c r="J88">
-        <v>0.30281541866059608</v>
+        <v>0.50440042704719901</v>
       </c>
       <c r="K88">
-        <v>0.23933590338446598</v>
+        <v>0.66768943098410494</v>
       </c>
       <c r="L88">
-        <v>0.31569152863045924</v>
+        <v>-0.41879176048434957</v>
       </c>
       <c r="M88">
-        <v>-0.26669156530070481</v>
+        <v>-5.2997296402739286E-2</v>
       </c>
       <c r="N88">
         <v>-0.65993150394586131</v>
@@ -8116,43 +8080,43 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>5.2245018140118349</v>
+        <v>8.8142316622802444</v>
       </c>
       <c r="B89">
-        <v>1.3478538778114693</v>
+        <v>-0.28633004987765048</v>
       </c>
       <c r="C89">
-        <v>0.38139434061318156</v>
+        <v>-1.6592230599701423</v>
       </c>
       <c r="D89">
-        <v>3.5156730478015259</v>
+        <v>1.9298255469144392</v>
       </c>
       <c r="E89">
-        <v>0.46855541743494672</v>
+        <v>-1.9772266962755798</v>
       </c>
       <c r="F89">
-        <v>0.57977206825760619</v>
+        <v>0.80289746254308014</v>
       </c>
       <c r="G89">
-        <v>0.30648016076600687</v>
+        <v>0.34528252678076171</v>
       </c>
       <c r="H89">
-        <v>0.17128645452943492</v>
+        <v>-0.14188373439969779</v>
       </c>
       <c r="I89">
-        <v>-1.0645346889563587</v>
+        <v>0.82647119763584431</v>
       </c>
       <c r="J89">
-        <v>-0.30871754638322252</v>
+        <v>8.6172198718330359E-2</v>
       </c>
       <c r="K89">
-        <v>6.556885397645551E-2</v>
+        <v>0.19437416838258134</v>
       </c>
       <c r="L89">
-        <v>-0.27175801828161245</v>
+        <v>0.34419778921202371</v>
       </c>
       <c r="M89">
-        <v>-0.23366108666756749</v>
+        <v>0.76309271514233179</v>
       </c>
       <c r="N89">
         <v>-0.5008439067958399</v>
@@ -8196,43 +8160,43 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>3.8454815215745546</v>
+        <v>8.4221861205841382</v>
       </c>
       <c r="B90">
-        <v>2.1137526488450331</v>
+        <v>-0.29901699109316382</v>
       </c>
       <c r="C90">
-        <v>-0.7798390062073165</v>
+        <v>-1.6595767411148621</v>
       </c>
       <c r="D90">
-        <v>-0.1331344734162469</v>
+        <v>1.945322413432915</v>
       </c>
       <c r="E90">
-        <v>-0.1161635155594158</v>
+        <v>-1.9950163043909843</v>
       </c>
       <c r="F90">
-        <v>0.18135559268779852</v>
+        <v>0.81378726657280354</v>
       </c>
       <c r="G90">
-        <v>2.1059375545036271E-2</v>
+        <v>0.35091637999752506</v>
       </c>
       <c r="H90">
-        <v>-1.1703425096951062E-3</v>
+        <v>-0.15633256063393663</v>
       </c>
       <c r="I90">
-        <v>-9.4694492007746947E-2</v>
+        <v>0.84350831458873177</v>
       </c>
       <c r="J90">
-        <v>-0.13371820597132877</v>
+        <v>7.6849373922827965E-2</v>
       </c>
       <c r="K90">
-        <v>0.17162774632160979</v>
+        <v>0.18955445093697587</v>
       </c>
       <c r="L90">
-        <v>9.4429047734299554E-2</v>
+        <v>0.35956756277876939</v>
       </c>
       <c r="M90">
-        <v>-9.7054786969422865E-2</v>
+        <v>0.74449761442716356</v>
       </c>
       <c r="N90">
         <v>-0.36212415618570482</v>
@@ -8276,412 +8240,1232 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>6.0174244582082794</v>
+        <v>5.5564798991598146</v>
       </c>
       <c r="B91">
-        <v>1.9046296189068885</v>
+        <v>-5.2328025870289769</v>
       </c>
       <c r="C91">
-        <v>1.2006741187661252</v>
+        <v>-3.2680770847523353</v>
       </c>
       <c r="D91">
-        <v>0.51570782427992412</v>
+        <v>-0.45028831042430906</v>
       </c>
       <c r="E91">
-        <v>0.52491156425045737</v>
+        <v>0.46205057459181748</v>
       </c>
       <c r="F91">
-        <v>0.8417576585047003</v>
+        <v>0.803357318085271</v>
       </c>
       <c r="G91">
-        <v>0.46314050222124786</v>
+        <v>0.38905344566951183</v>
       </c>
       <c r="H91">
-        <v>-0.30996617178374802</v>
+        <v>-2.7048364945646479E-3</v>
       </c>
       <c r="I91">
-        <v>-0.29917076260138553</v>
+        <v>-0.7575554705184625</v>
       </c>
       <c r="J91">
-        <v>-0.30456529170030594</v>
+        <v>-6.9132336906406137E-3</v>
       </c>
       <c r="K91">
-        <v>-0.16516564556243182</v>
+        <v>3.162984141478322E-2</v>
       </c>
       <c r="L91">
-        <v>-0.12283400018676431</v>
+        <v>1.8786949591193293E-2</v>
       </c>
       <c r="M91">
-        <v>0.11239103756540128</v>
+        <v>-3.5747075357089697E-3</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>6.2098627410367166</v>
+        <v>6.918086387610189</v>
       </c>
       <c r="B92">
-        <v>-0.21063689765620119</v>
+        <v>-5.3270494578744021</v>
       </c>
       <c r="C92">
-        <v>-1.370192447328364</v>
+        <v>-2.9631696306788764</v>
       </c>
       <c r="D92">
-        <v>-0.84887844051040218</v>
+        <v>0.82722294961348264</v>
       </c>
       <c r="E92">
-        <v>-4.8931700186480985E-2</v>
+        <v>1.1299461942436899</v>
       </c>
       <c r="F92">
-        <v>0.57186918221178451</v>
+        <v>0.38067045403106842</v>
       </c>
       <c r="G92">
-        <v>-0.13774776864740526</v>
+        <v>-1.1726767995502148</v>
       </c>
       <c r="H92">
-        <v>-0.45637385917520484</v>
+        <v>-0.24872776625142129</v>
       </c>
       <c r="I92">
-        <v>-0.32336006554088187</v>
+        <v>0.98695262207945755</v>
       </c>
       <c r="J92">
-        <v>-0.4194173754525044</v>
+        <v>-0.10079042374067103</v>
       </c>
       <c r="K92">
-        <v>-0.22584345975083714</v>
+        <v>-0.13792027217164515</v>
       </c>
       <c r="L92">
-        <v>0.26809883573587651</v>
+        <v>0.2118393824110647</v>
       </c>
       <c r="M92">
-        <v>-0.32959840886643732</v>
+        <v>0.1965017108962058</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>4.3988107439550923</v>
+        <v>4.4371885282251684</v>
       </c>
       <c r="B93">
-        <v>-3.9224824693888038</v>
+        <v>-0.73564568421423782</v>
       </c>
       <c r="C93">
-        <v>-3.2512351757241751</v>
+        <v>-0.35358524346110332</v>
       </c>
       <c r="D93">
-        <v>2.1284776558237364</v>
+        <v>-2.78840143819655E-2</v>
       </c>
       <c r="E93">
-        <v>-0.57342544969585429</v>
+        <v>0.14971975451004416</v>
       </c>
       <c r="F93">
-        <v>5.8583486340814526E-2</v>
+        <v>0.52054454094453328</v>
       </c>
       <c r="G93">
-        <v>0.29539355656182564</v>
+        <v>0.4575629530183522</v>
       </c>
       <c r="H93">
-        <v>8.2154698670005119E-2</v>
+        <v>0.72038465152747222</v>
       </c>
       <c r="I93">
-        <v>-0.83328030147300836</v>
+        <v>-0.25092390293196076</v>
       </c>
       <c r="J93">
-        <v>0.33873931586527029</v>
+        <v>-0.13796533974691699</v>
       </c>
       <c r="K93">
-        <v>0.36977583099050193</v>
+        <v>-0.23573849581765732</v>
       </c>
       <c r="L93">
-        <v>-0.31673523074388277</v>
+        <v>-0.34413951080050814</v>
       </c>
       <c r="M93">
-        <v>3.7439664969409229E-3</v>
+        <v>-1.5785697047120181E-2</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>6.6752958086959211</v>
+        <v>6.179765030800314</v>
       </c>
       <c r="B94">
-        <v>-5.6811879971357611</v>
+        <v>-3.0354245340855819</v>
       </c>
       <c r="C94">
-        <v>-1.7878377798288585</v>
+        <v>-0.57743145256625539</v>
       </c>
       <c r="D94">
-        <v>1.7601031196399719</v>
+        <v>-0.29792031149001713</v>
       </c>
       <c r="E94">
-        <v>-0.74109973503995008</v>
+        <v>-3.6592965275783269E-2</v>
       </c>
       <c r="F94">
-        <v>2.3169995808848216E-2</v>
+        <v>-0.20049595468978465</v>
       </c>
       <c r="G94">
-        <v>-9.4804575140565506E-2</v>
+        <v>-0.52796764822391684</v>
       </c>
       <c r="H94">
-        <v>0.53662763391245261</v>
+        <v>-0.11656469635143904</v>
       </c>
       <c r="I94">
-        <v>-1.004199503615181</v>
+        <v>-0.1826528531469476</v>
       </c>
       <c r="J94">
-        <v>0.98309982010817365</v>
+        <v>-6.4930529276207141E-2</v>
       </c>
       <c r="K94">
-        <v>5.486273678109675E-3</v>
+        <v>6.4901856578420763E-2</v>
       </c>
       <c r="L94">
-        <v>-0.54629282925006473</v>
+        <v>0.2231985893256507</v>
       </c>
       <c r="M94">
-        <v>-0.42885775757814842</v>
+        <v>-0.2677379814824396</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>6.1745448820278863</v>
+        <v>7.8125104677148229</v>
       </c>
       <c r="B95">
-        <v>-6.2068913846709206</v>
+        <v>4.4976086588664224</v>
       </c>
       <c r="C95">
-        <v>-3.9022999946664849</v>
+        <v>1.1723497013082842</v>
       </c>
       <c r="D95">
-        <v>2.6312168499107229</v>
+        <v>1.1529678576379661</v>
       </c>
       <c r="E95">
-        <v>-1.7278193673320037</v>
+        <v>1.0418618622900953</v>
       </c>
       <c r="F95">
-        <v>-5.1155515543705239E-2</v>
+        <v>1.0348791902735743</v>
       </c>
       <c r="G95">
-        <v>-7.6009484362449919E-2</v>
+        <v>0.72633240898913876</v>
       </c>
       <c r="H95">
-        <v>-0.18168243234455178</v>
+        <v>0.47016337243099121</v>
       </c>
       <c r="I95">
-        <v>-0.69585850341701772</v>
+        <v>0.15725288360918602</v>
       </c>
       <c r="J95">
-        <v>0.12782670448526534</v>
+        <v>-2.7989426877133378E-2</v>
       </c>
       <c r="K95">
-        <v>0.43659976979246923</v>
+        <v>-5.6633235156555994E-2</v>
       </c>
       <c r="L95">
-        <v>0.80763402934231265</v>
+        <v>0.23009299406361344</v>
       </c>
       <c r="M95">
-        <v>-1.0430182097657761</v>
+        <v>0.16370281164792821</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>2.7156900536869877</v>
+        <v>6.4900679845879043</v>
       </c>
       <c r="B96">
-        <v>1.7529324208448611</v>
+        <v>1.5377561025262927</v>
       </c>
       <c r="C96">
-        <v>-1.8665463334255123</v>
+        <v>1.5920536370610692</v>
       </c>
       <c r="D96">
-        <v>-0.53171216903513796</v>
+        <v>1.696186038381537</v>
       </c>
       <c r="E96">
-        <v>5.9988193998202585E-2</v>
+        <v>-0.20012332172583724</v>
       </c>
       <c r="F96">
-        <v>0.91586102162647298</v>
+        <v>1.181762392340036</v>
       </c>
       <c r="G96">
-        <v>0.4450457266556952</v>
+        <v>-8.1517767362178625E-2</v>
       </c>
       <c r="H96">
-        <v>-0.24521364271057428</v>
+        <v>1.1447827163719375</v>
       </c>
       <c r="I96">
-        <v>0.92027882711550535</v>
+        <v>-0.54085839538544656</v>
       </c>
       <c r="J96">
-        <v>0.30281541866059608</v>
+        <v>-8.960285090065764E-3</v>
       </c>
       <c r="K96">
-        <v>0.23933590338446598</v>
+        <v>0.81923815496241525</v>
       </c>
       <c r="L96">
-        <v>0.31569152863045924</v>
+        <v>-0.32040965013059919</v>
       </c>
       <c r="M96">
-        <v>-0.26669156530070481</v>
+        <v>0.22015775364266801</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>5.2245018140118349</v>
+        <v>1.5396152819952365</v>
       </c>
       <c r="B97">
-        <v>1.3478538778114693</v>
+        <v>1.2999231547893972</v>
       </c>
       <c r="C97">
-        <v>0.38139434061318156</v>
+        <v>0.23649917434283335</v>
       </c>
       <c r="D97">
-        <v>3.5156730478015259</v>
+        <v>2.2882060863466798</v>
       </c>
       <c r="E97">
-        <v>0.46855541743494672</v>
+        <v>1.0147741885392085</v>
       </c>
       <c r="F97">
-        <v>0.57977206825760619</v>
+        <v>0.52983574826611246</v>
       </c>
       <c r="G97">
-        <v>0.30648016076600687</v>
+        <v>0.68080949657503398</v>
       </c>
       <c r="H97">
-        <v>0.17128645452943492</v>
+        <v>0.2483269144804725</v>
       </c>
       <c r="I97">
-        <v>-1.0645346889563587</v>
+        <v>0.27750149067564278</v>
       </c>
       <c r="J97">
-        <v>-0.30871754638322252</v>
+        <v>4.3400634208116051E-3</v>
       </c>
       <c r="K97">
-        <v>6.556885397645551E-2</v>
+        <v>0.12308996661469143</v>
       </c>
       <c r="L97">
-        <v>-0.27175801828161245</v>
+        <v>0.26472802800085293</v>
       </c>
       <c r="M97">
-        <v>-0.23366108666756749</v>
+        <v>0.40401480183474558</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>3.8454815215745546</v>
+        <v>6.8024013863956236</v>
       </c>
       <c r="B98">
-        <v>2.1137526488450331</v>
+        <v>1.0923320265843477</v>
       </c>
       <c r="C98">
-        <v>-0.7798390062073165</v>
+        <v>-1.7275807990770362</v>
       </c>
       <c r="D98">
-        <v>-0.1331344734162469</v>
+        <v>-0.6462505434893614</v>
       </c>
       <c r="E98">
-        <v>-0.1161635155594158</v>
+        <v>-0.73082383433524256</v>
       </c>
       <c r="F98">
-        <v>0.18135559268779852</v>
+        <v>0.18441593800507286</v>
       </c>
       <c r="G98">
-        <v>2.1059375545036271E-2</v>
+        <v>0.24520368251763694</v>
       </c>
       <c r="H98">
-        <v>-1.1703425096951062E-3</v>
+        <v>-0.40617277280114744</v>
       </c>
       <c r="I98">
-        <v>-9.4694492007746947E-2</v>
+        <v>1.3478541751421567E-2</v>
       </c>
       <c r="J98">
-        <v>-0.13371820597132877</v>
+        <v>-0.67238200591139563</v>
       </c>
       <c r="K98">
-        <v>0.17162774632160979</v>
+        <v>-0.31567961260066096</v>
       </c>
       <c r="L98">
-        <v>9.4429047734299554E-2</v>
+        <v>-7.0587940513921463E-2</v>
       </c>
       <c r="M98">
-        <v>-9.7054786969422865E-2</v>
+        <v>0.24357096103309556</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>6.3486088620706873</v>
+        <v>7.1846730346256731</v>
       </c>
       <c r="B99">
-        <v>-4.0362502027905949</v>
+        <v>1.7370490304570734</v>
       </c>
       <c r="C99">
-        <v>-3.2292812229350587</v>
+        <v>0.62615226219342723</v>
       </c>
       <c r="D99">
-        <v>1.4081450160660804</v>
+        <v>-0.32037526246409637</v>
       </c>
       <c r="E99">
-        <v>-0.71792661250552958</v>
+        <v>-0.59815433260124595</v>
       </c>
       <c r="F99">
-        <v>0.91387240709242401</v>
+        <v>-1.007443097125287</v>
       </c>
       <c r="G99">
-        <v>-0.18627899368094014</v>
+        <v>-0.95654036239712248</v>
       </c>
       <c r="H99">
-        <v>-0.16380801706529877</v>
+        <v>-1.439302053425223</v>
       </c>
       <c r="I99">
-        <v>-0.78936581436678099</v>
+        <v>-1.5385948213485097</v>
       </c>
       <c r="J99">
-        <v>0.63654364045263578</v>
+        <v>-0.22016597078797717</v>
       </c>
       <c r="K99">
-        <v>0.18125081414857169</v>
+        <v>-0.72777897004114822</v>
       </c>
       <c r="L99">
-        <v>0.97817445996526831</v>
+        <v>0.5440892590781452</v>
       </c>
       <c r="M99">
-        <v>-1.5707314645980117</v>
+        <v>-6.1525791944427255E-2</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
+        <v>5.8845270903957561</v>
+      </c>
+      <c r="B100">
+        <v>-1.4630038431539607</v>
+      </c>
+      <c r="C100">
+        <v>-2.6489158061665425</v>
+      </c>
+      <c r="D100">
+        <v>-6.5247634278637473E-2</v>
+      </c>
+      <c r="E100">
+        <v>0.7395949311493949</v>
+      </c>
+      <c r="F100">
+        <v>0.27543003299468655</v>
+      </c>
+      <c r="G100">
+        <v>1.0941556539208654</v>
+      </c>
+      <c r="H100">
+        <v>-0.69972336156351977</v>
+      </c>
+      <c r="I100">
+        <v>-0.62983759979422715</v>
+      </c>
+      <c r="J100">
+        <v>0.22487133816962399</v>
+      </c>
+      <c r="K100">
+        <v>0.73978822694420754</v>
+      </c>
+      <c r="L100">
+        <v>-0.19849500182513169</v>
+      </c>
+      <c r="M100">
+        <v>-0.82515980702165992</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>6.0174244582082794</v>
+      </c>
+      <c r="B101">
+        <v>1.9046296189068885</v>
+      </c>
+      <c r="C101">
+        <v>1.2006741187661252</v>
+      </c>
+      <c r="D101">
+        <v>0.51570782427992412</v>
+      </c>
+      <c r="E101">
+        <v>0.52491156425045737</v>
+      </c>
+      <c r="F101">
+        <v>0.8417576585047003</v>
+      </c>
+      <c r="G101">
+        <v>0.46314050222124786</v>
+      </c>
+      <c r="H101">
+        <v>-0.30996617178374802</v>
+      </c>
+      <c r="I101">
+        <v>-0.29917076260138553</v>
+      </c>
+      <c r="J101">
+        <v>-0.30456529170030594</v>
+      </c>
+      <c r="K101">
+        <v>-0.16516564556243182</v>
+      </c>
+      <c r="L101">
+        <v>-0.12283400018676431</v>
+      </c>
+      <c r="M101">
+        <v>0.11239103756540128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>6.2098627410367166</v>
+      </c>
+      <c r="B102">
+        <v>-0.21063689765620119</v>
+      </c>
+      <c r="C102">
+        <v>-1.370192447328364</v>
+      </c>
+      <c r="D102">
+        <v>-0.84887844051040218</v>
+      </c>
+      <c r="E102">
+        <v>-4.8931700186480985E-2</v>
+      </c>
+      <c r="F102">
+        <v>0.57186918221178451</v>
+      </c>
+      <c r="G102">
+        <v>-0.13774776864740526</v>
+      </c>
+      <c r="H102">
+        <v>-0.45637385917520484</v>
+      </c>
+      <c r="I102">
+        <v>-0.32336006554088187</v>
+      </c>
+      <c r="J102">
+        <v>-0.4194173754525044</v>
+      </c>
+      <c r="K102">
+        <v>-0.22584345975083714</v>
+      </c>
+      <c r="L102">
+        <v>0.26809883573587651</v>
+      </c>
+      <c r="M102">
+        <v>-0.32959840886643732</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>4.3988107439550923</v>
+      </c>
+      <c r="B103">
+        <v>-3.9224824693888038</v>
+      </c>
+      <c r="C103">
+        <v>-3.2512351757241751</v>
+      </c>
+      <c r="D103">
+        <v>2.1284776558237364</v>
+      </c>
+      <c r="E103">
+        <v>-0.57342544969585429</v>
+      </c>
+      <c r="F103">
+        <v>5.8583486340814526E-2</v>
+      </c>
+      <c r="G103">
+        <v>0.29539355656182564</v>
+      </c>
+      <c r="H103">
+        <v>8.2154698670005119E-2</v>
+      </c>
+      <c r="I103">
+        <v>-0.83328030147300836</v>
+      </c>
+      <c r="J103">
+        <v>0.33873931586527029</v>
+      </c>
+      <c r="K103">
+        <v>0.36977583099050193</v>
+      </c>
+      <c r="L103">
+        <v>-0.31673523074388277</v>
+      </c>
+      <c r="M103">
+        <v>3.7439664969409229E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>6.6752958086959211</v>
+      </c>
+      <c r="B104">
+        <v>-5.6811879971357611</v>
+      </c>
+      <c r="C104">
+        <v>-1.7878377798288585</v>
+      </c>
+      <c r="D104">
+        <v>1.7601031196399719</v>
+      </c>
+      <c r="E104">
+        <v>-0.74109973503995008</v>
+      </c>
+      <c r="F104">
+        <v>2.3169995808848216E-2</v>
+      </c>
+      <c r="G104">
+        <v>-9.4804575140565506E-2</v>
+      </c>
+      <c r="H104">
+        <v>0.53662763391245261</v>
+      </c>
+      <c r="I104">
+        <v>-1.004199503615181</v>
+      </c>
+      <c r="J104">
+        <v>0.98309982010817365</v>
+      </c>
+      <c r="K104">
+        <v>5.486273678109675E-3</v>
+      </c>
+      <c r="L104">
+        <v>-0.54629282925006473</v>
+      </c>
+      <c r="M104">
+        <v>-0.42885775757814842</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>6.1745448820278863</v>
+      </c>
+      <c r="B105">
+        <v>-6.2068913846709206</v>
+      </c>
+      <c r="C105">
+        <v>-3.9022999946664849</v>
+      </c>
+      <c r="D105">
+        <v>2.6312168499107229</v>
+      </c>
+      <c r="E105">
+        <v>-1.7278193673320037</v>
+      </c>
+      <c r="F105">
+        <v>-5.1155515543705239E-2</v>
+      </c>
+      <c r="G105">
+        <v>-7.6009484362449919E-2</v>
+      </c>
+      <c r="H105">
+        <v>-0.18168243234455178</v>
+      </c>
+      <c r="I105">
+        <v>-0.69585850341701772</v>
+      </c>
+      <c r="J105">
+        <v>0.12782670448526534</v>
+      </c>
+      <c r="K105">
+        <v>0.43659976979246923</v>
+      </c>
+      <c r="L105">
+        <v>0.80763402934231265</v>
+      </c>
+      <c r="M105">
+        <v>-1.0430182097657761</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2.7156900536869877</v>
+      </c>
+      <c r="B106">
+        <v>1.7529324208448611</v>
+      </c>
+      <c r="C106">
+        <v>-1.8665463334255123</v>
+      </c>
+      <c r="D106">
+        <v>-0.53171216903513796</v>
+      </c>
+      <c r="E106">
+        <v>5.9988193998202585E-2</v>
+      </c>
+      <c r="F106">
+        <v>0.91586102162647298</v>
+      </c>
+      <c r="G106">
+        <v>0.4450457266556952</v>
+      </c>
+      <c r="H106">
+        <v>-0.24521364271057428</v>
+      </c>
+      <c r="I106">
+        <v>0.92027882711550535</v>
+      </c>
+      <c r="J106">
+        <v>0.30281541866059608</v>
+      </c>
+      <c r="K106">
+        <v>0.23933590338446598</v>
+      </c>
+      <c r="L106">
+        <v>0.31569152863045924</v>
+      </c>
+      <c r="M106">
+        <v>-0.26669156530070481</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>5.2245018140118349</v>
+      </c>
+      <c r="B107">
+        <v>1.3478538778114693</v>
+      </c>
+      <c r="C107">
+        <v>0.38139434061318156</v>
+      </c>
+      <c r="D107">
+        <v>3.5156730478015259</v>
+      </c>
+      <c r="E107">
+        <v>0.46855541743494672</v>
+      </c>
+      <c r="F107">
+        <v>0.57977206825760619</v>
+      </c>
+      <c r="G107">
+        <v>0.30648016076600687</v>
+      </c>
+      <c r="H107">
+        <v>0.17128645452943492</v>
+      </c>
+      <c r="I107">
+        <v>-1.0645346889563587</v>
+      </c>
+      <c r="J107">
+        <v>-0.30871754638322252</v>
+      </c>
+      <c r="K107">
+        <v>6.556885397645551E-2</v>
+      </c>
+      <c r="L107">
+        <v>-0.27175801828161245</v>
+      </c>
+      <c r="M107">
+        <v>-0.23366108666756749</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>3.8454815215745546</v>
+      </c>
+      <c r="B108">
+        <v>2.1137526488450331</v>
+      </c>
+      <c r="C108">
+        <v>-0.7798390062073165</v>
+      </c>
+      <c r="D108">
+        <v>-0.1331344734162469</v>
+      </c>
+      <c r="E108">
+        <v>-0.1161635155594158</v>
+      </c>
+      <c r="F108">
+        <v>0.18135559268779852</v>
+      </c>
+      <c r="G108">
+        <v>2.1059375545036271E-2</v>
+      </c>
+      <c r="H108">
+        <v>-1.1703425096951062E-3</v>
+      </c>
+      <c r="I108">
+        <v>-9.4694492007746947E-2</v>
+      </c>
+      <c r="J108">
+        <v>-0.13371820597132877</v>
+      </c>
+      <c r="K108">
+        <v>0.17162774632160979</v>
+      </c>
+      <c r="L108">
+        <v>9.4429047734299554E-2</v>
+      </c>
+      <c r="M108">
+        <v>-9.7054786969422865E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>6.3486088620706873</v>
+      </c>
+      <c r="B109">
+        <v>-4.0362502027905949</v>
+      </c>
+      <c r="C109">
+        <v>-3.2292812229350587</v>
+      </c>
+      <c r="D109">
+        <v>1.4081450160660804</v>
+      </c>
+      <c r="E109">
+        <v>-0.71792661250552958</v>
+      </c>
+      <c r="F109">
+        <v>0.91387240709242401</v>
+      </c>
+      <c r="G109">
+        <v>-0.18627899368094014</v>
+      </c>
+      <c r="H109">
+        <v>-0.16380801706529877</v>
+      </c>
+      <c r="I109">
+        <v>-0.78936581436678099</v>
+      </c>
+      <c r="J109">
+        <v>0.63654364045263578</v>
+      </c>
+      <c r="K109">
+        <v>0.18125081414857169</v>
+      </c>
+      <c r="L109">
+        <v>0.97817445996526831</v>
+      </c>
+      <c r="M109">
+        <v>-1.5707314645980117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>6.1449720378378911</v>
       </c>
-      <c r="B100">
+      <c r="B110">
         <v>-1.580448620056276</v>
       </c>
-      <c r="C100">
+      <c r="C110">
         <v>-1.8959135568158028</v>
       </c>
-      <c r="D100">
+      <c r="D110">
         <v>-2.4557827519763022</v>
       </c>
-      <c r="E100">
+      <c r="E110">
         <v>-1.0472462239346532</v>
       </c>
-      <c r="F100">
+      <c r="F110">
         <v>-3.8234838381616024E-2</v>
       </c>
-      <c r="G100">
+      <c r="G110">
         <v>1.0288468758871423</v>
       </c>
-      <c r="H100">
+      <c r="H110">
         <v>0.66682154331565402</v>
       </c>
-      <c r="I100">
+      <c r="I110">
         <v>-0.12377891608038143</v>
       </c>
-      <c r="J100">
+      <c r="J110">
         <v>-2.0053550095708906E-2</v>
       </c>
-      <c r="K100">
+      <c r="K110">
         <v>-0.81136694422724398</v>
       </c>
-      <c r="L100">
+      <c r="L110">
         <v>0.27073588284452299</v>
       </c>
-      <c r="M100">
+      <c r="M110">
         <v>-0.14092330930837321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>6.3540764760813939</v>
+      </c>
+      <c r="B111">
+        <v>-4.0472802928282823</v>
+      </c>
+      <c r="C111">
+        <v>1.4136638644431241</v>
+      </c>
+      <c r="D111">
+        <v>-1.3661178339132889</v>
+      </c>
+      <c r="E111">
+        <v>1.4074539961289332</v>
+      </c>
+      <c r="F111">
+        <v>-0.32567928360932119</v>
+      </c>
+      <c r="G111">
+        <v>3.4573222592906488E-2</v>
+      </c>
+      <c r="H111">
+        <v>0.25615376283895086</v>
+      </c>
+      <c r="I111">
+        <v>-0.29392406309714569</v>
+      </c>
+      <c r="J111">
+        <v>0.18920180342119478</v>
+      </c>
+      <c r="K111">
+        <v>7.763531598309803E-2</v>
+      </c>
+      <c r="L111">
+        <v>-0.4576358402055446</v>
+      </c>
+      <c r="M111">
+        <v>4.3386108943891555E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>7.1419713770245616</v>
+      </c>
+      <c r="B112">
+        <v>-1.4017301809759761</v>
+      </c>
+      <c r="C112">
+        <v>-2.508130202434518</v>
+      </c>
+      <c r="D112">
+        <v>-1.5990789283925655</v>
+      </c>
+      <c r="E112">
+        <v>-1.0009258533194172</v>
+      </c>
+      <c r="F112">
+        <v>2.095284610698223</v>
+      </c>
+      <c r="G112">
+        <v>-0.43962104693532683</v>
+      </c>
+      <c r="H112">
+        <v>6.7628283569059797E-2</v>
+      </c>
+      <c r="I112">
+        <v>-0.5118544711620131</v>
+      </c>
+      <c r="J112">
+        <v>0.71704952179766646</v>
+      </c>
+      <c r="K112">
+        <v>-0.31849007964949083</v>
+      </c>
+      <c r="L112">
+        <v>-0.71149263936563645</v>
+      </c>
+      <c r="M112">
+        <v>0.21565104228128579</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>7.9304806629781419</v>
+      </c>
+      <c r="B113">
+        <v>-1.0613808103024196</v>
+      </c>
+      <c r="C113">
+        <v>-1.9308892234025785</v>
+      </c>
+      <c r="D113">
+        <v>-1.8643223190579379</v>
+      </c>
+      <c r="E113">
+        <v>-0.85395095100756213</v>
+      </c>
+      <c r="F113">
+        <v>1.2675882892757544</v>
+      </c>
+      <c r="G113">
+        <v>-1.1896067157449171</v>
+      </c>
+      <c r="H113">
+        <v>0.26214564790240069</v>
+      </c>
+      <c r="I113">
+        <v>-1.1260375544841794</v>
+      </c>
+      <c r="J113">
+        <v>6.5790484370510008E-2</v>
+      </c>
+      <c r="K113">
+        <v>0.40642460449025075</v>
+      </c>
+      <c r="L113">
+        <v>-0.67287524280497824</v>
+      </c>
+      <c r="M113">
+        <v>0.40893844274310676</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>8.1664356395730415</v>
+      </c>
+      <c r="B114">
+        <v>-1.0768075556193806</v>
+      </c>
+      <c r="C114">
+        <v>-1.929249062441333</v>
+      </c>
+      <c r="D114">
+        <v>-1.8789518395054086</v>
+      </c>
+      <c r="E114">
+        <v>-0.85326579404059244</v>
+      </c>
+      <c r="F114">
+        <v>1.2557122538059515</v>
+      </c>
+      <c r="G114">
+        <v>-1.1902836342187013</v>
+      </c>
+      <c r="H114">
+        <v>0.25604557477720225</v>
+      </c>
+      <c r="I114">
+        <v>-1.128497257177614</v>
+      </c>
+      <c r="J114">
+        <v>6.3546024252374086E-2</v>
+      </c>
+      <c r="K114">
+        <v>0.40402411452715276</v>
+      </c>
+      <c r="L114">
+        <v>-0.67417237891724102</v>
+      </c>
+      <c r="M114">
+        <v>0.40685027357268322</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>6.6484015600854001</v>
+      </c>
+      <c r="B115">
+        <v>-1.9202148227169773</v>
+      </c>
+      <c r="C115">
+        <v>-1.6789203177627825</v>
+      </c>
+      <c r="D115">
+        <v>0.9270742867248094</v>
+      </c>
+      <c r="E115">
+        <v>-1.3464496490627056</v>
+      </c>
+      <c r="F115">
+        <v>-0.96548069694983663</v>
+      </c>
+      <c r="G115">
+        <v>-1.4096436648741844</v>
+      </c>
+      <c r="H115">
+        <v>3.1092799791416562E-2</v>
+      </c>
+      <c r="I115">
+        <v>-0.57625604278462006</v>
+      </c>
+      <c r="J115">
+        <v>-0.26226423733842136</v>
+      </c>
+      <c r="K115">
+        <v>0.48575156451376483</v>
+      </c>
+      <c r="L115">
+        <v>0.47447724291543714</v>
+      </c>
+      <c r="M115">
+        <v>-0.70214997658403677</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>5.8131973450903258</v>
+      </c>
+      <c r="B116">
+        <v>-4.9302101737854915</v>
+      </c>
+      <c r="C116">
+        <v>0.14860769514569303</v>
+      </c>
+      <c r="D116">
+        <v>-2.4037369153748402</v>
+      </c>
+      <c r="E116">
+        <v>-0.11448508099330477</v>
+      </c>
+      <c r="F116">
+        <v>-1.3353645081869772</v>
+      </c>
+      <c r="G116">
+        <v>-0.88597842249290526</v>
+      </c>
+      <c r="H116">
+        <v>-0.44778555795563296</v>
+      </c>
+      <c r="I116">
+        <v>-0.90087156345786767</v>
+      </c>
+      <c r="J116">
+        <v>-0.61830716929715446</v>
+      </c>
+      <c r="K116">
+        <v>-0.33530508888350508</v>
+      </c>
+      <c r="L116">
+        <v>-0.54610451441452268</v>
+      </c>
+      <c r="M116">
+        <v>-0.4517354184828502</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>5.5977275137776763</v>
+      </c>
+      <c r="B117">
+        <v>-1.6026229381757331</v>
+      </c>
+      <c r="C117">
+        <v>-1.3331991795804208</v>
+      </c>
+      <c r="D117">
+        <v>1.3992877289795858</v>
+      </c>
+      <c r="E117">
+        <v>-1.3403274046057176</v>
+      </c>
+      <c r="F117">
+        <v>-0.18374750979291687</v>
+      </c>
+      <c r="G117">
+        <v>-1.7325803059353129</v>
+      </c>
+      <c r="H117">
+        <v>-0.85741471574737393</v>
+      </c>
+      <c r="I117">
+        <v>-0.35387621806805541</v>
+      </c>
+      <c r="J117">
+        <v>-0.64641135406153516</v>
+      </c>
+      <c r="K117">
+        <v>-0.23359724617195582</v>
+      </c>
+      <c r="L117">
+        <v>7.3148353515127454E-2</v>
+      </c>
+      <c r="M117">
+        <v>0.11290866703018473</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>5.477839851304509</v>
+      </c>
+      <c r="B118">
+        <v>-4.357174051598359</v>
+      </c>
+      <c r="C118">
+        <v>0.90500428233133434</v>
+      </c>
+      <c r="D118">
+        <v>-2.3569174624571549</v>
+      </c>
+      <c r="E118">
+        <v>1.2228883886158401</v>
+      </c>
+      <c r="F118">
+        <v>-0.80293544096533209</v>
+      </c>
+      <c r="G118">
+        <v>-0.37363878499152897</v>
+      </c>
+      <c r="H118">
+        <v>0.33421408181361295</v>
+      </c>
+      <c r="I118">
+        <v>-0.4673628828342074</v>
+      </c>
+      <c r="J118">
+        <v>9.5796154808865552E-2</v>
+      </c>
+      <c r="K118">
+        <v>-1.0763137091730015E-2</v>
+      </c>
+      <c r="L118">
+        <v>-0.50566542541253767</v>
+      </c>
+      <c r="M118">
+        <v>-0.19806770984673172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>8.0760067464423653</v>
+      </c>
+      <c r="B119">
+        <v>-3.8954823570537349</v>
+      </c>
+      <c r="C119">
+        <v>1.8930939881291167</v>
+      </c>
+      <c r="D119">
+        <v>-1.2871201568843014</v>
+      </c>
+      <c r="E119">
+        <v>1.4574170036521907</v>
+      </c>
+      <c r="F119">
+        <v>-0.5170021839706036</v>
+      </c>
+      <c r="G119">
+        <v>-0.26131661307748838</v>
+      </c>
+      <c r="H119">
+        <v>0.52483114453589863</v>
+      </c>
+      <c r="I119">
+        <v>-9.6676554716373056E-2</v>
+      </c>
+      <c r="J119">
+        <v>-9.5177143508138301E-2</v>
+      </c>
+      <c r="K119">
+        <v>0.16035878659781513</v>
+      </c>
+      <c r="L119">
+        <v>-0.17627694605868002</v>
+      </c>
+      <c r="M119">
+        <v>0.17114216886022443</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>6.2290781880093524</v>
+      </c>
+      <c r="B120">
+        <v>-0.5337260139140908</v>
+      </c>
+      <c r="C120">
+        <v>-2.3208555727433335</v>
+      </c>
+      <c r="D120">
+        <v>0.60549219381565722</v>
+      </c>
+      <c r="E120">
+        <v>-1.5343153285161069</v>
+      </c>
+      <c r="F120">
+        <v>-1.3717979828682401</v>
+      </c>
+      <c r="G120">
+        <v>-0.90978335985422421</v>
+      </c>
+      <c r="H120">
+        <v>-0.5462975516482147</v>
+      </c>
+      <c r="I120">
+        <v>-0.66354624016159058</v>
+      </c>
+      <c r="J120">
+        <v>0.6576838715040082</v>
+      </c>
+      <c r="K120">
+        <v>-0.5250946140168592</v>
+      </c>
+      <c r="L120">
+        <v>0.11092548038307465</v>
+      </c>
+      <c r="M120">
+        <v>0.21075810888663182</v>
       </c>
     </row>
   </sheetData>

--- a/audio_database/Feature.xlsx
+++ b/audio_database/Feature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Documents\MATLAB\Project\audio_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF006537-85FF-4964-9AD0-9B4D490C4461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1914507A-A4E9-4525-8333-D7640EEAF49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{F98F55DE-6286-4433-92DF-1F34DB2F1572}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{F98F55DE-6286-4433-92DF-1F34DB2F1572}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:AC120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M120"/>
+      <selection sqref="A1:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,52 +440,52 @@
         <v>1.3186665216587095E-3</v>
       </c>
       <c r="N1">
-        <v>0.13047666451077583</v>
+        <v>0.14926109581446481</v>
       </c>
       <c r="O1">
-        <v>0.44243644414244343</v>
+        <v>-0.23751499028699927</v>
       </c>
       <c r="P1">
-        <v>8.0513318864572941E-2</v>
+        <v>-0.37646978770885298</v>
       </c>
       <c r="Q1">
-        <v>-8.6276269658019891E-2</v>
+        <v>1.4981055865000363E-2</v>
       </c>
       <c r="R1">
-        <v>-8.711313155311276E-2</v>
+        <v>0.15930649145053366</v>
       </c>
       <c r="S1">
-        <v>-0.29211005037661403</v>
+        <v>0.27182574567188389</v>
       </c>
       <c r="T1">
-        <v>-5.0491024282313578E-2</v>
+        <v>0.36702232803282275</v>
       </c>
       <c r="U1">
-        <v>-5.851060987771721E-2</v>
+        <v>0.12260966859967759</v>
       </c>
       <c r="V1">
-        <v>-4.7052783785379977E-2</v>
+        <v>4.4416317042608879E-2</v>
       </c>
       <c r="W1">
-        <v>-0.12992068192294992</v>
+        <v>9.2830571522076855E-2</v>
       </c>
       <c r="X1">
-        <v>-0.18066900070736991</v>
+        <v>-8.8484907313098778E-3</v>
       </c>
       <c r="Y1">
-        <v>-5.3336075759138547E-2</v>
+        <v>0.37760016688927628</v>
       </c>
       <c r="Z1">
-        <v>0.14247396748820057</v>
+        <v>0.1300593934084609</v>
       </c>
       <c r="AA1">
-        <v>7.5633522755776478E-2</v>
+        <v>3.8761959742039116E-2</v>
       </c>
       <c r="AB1">
-        <v>-1.2003473801069298E-2</v>
+        <v>-3.036748462404067E-2</v>
       </c>
       <c r="AC1">
-        <v>4.8442449559498203E-2</v>
+        <v>6.7120081253325192E-2</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -529,52 +529,52 @@
         <v>0.13718563573437342</v>
       </c>
       <c r="N2">
-        <v>-0.35314543160586054</v>
+        <v>0.17266829637743461</v>
       </c>
       <c r="O2">
-        <v>-0.13251001714233043</v>
+        <v>0.45997882858000044</v>
       </c>
       <c r="P2">
-        <v>9.9253039373584401E-2</v>
+        <v>0.11583196417238616</v>
       </c>
       <c r="Q2">
-        <v>5.7174019922107945E-2</v>
+        <v>1.8742271304221503E-2</v>
       </c>
       <c r="R2">
-        <v>-1.7140619609797767E-2</v>
+        <v>-0.25143990848768638</v>
       </c>
       <c r="S2">
-        <v>1.7546109079877283E-2</v>
+        <v>-0.3332680535216957</v>
       </c>
       <c r="T2">
-        <v>0.11544003477511021</v>
+        <v>5.586682300923166E-2</v>
       </c>
       <c r="U2">
-        <v>0.15562094055558282</v>
+        <v>0.11032172267505484</v>
       </c>
       <c r="V2">
-        <v>0.32596279350594148</v>
+        <v>2.9716368007445412E-2</v>
       </c>
       <c r="W2">
-        <v>0.19059824697822256</v>
+        <v>8.8734944892306031E-3</v>
       </c>
       <c r="X2">
-        <v>0.16334146480794837</v>
+        <v>9.9234487590823636E-2</v>
       </c>
       <c r="Y2">
-        <v>-0.40707868591724633</v>
+        <v>0.10104402934604302</v>
       </c>
       <c r="Z2">
-        <v>-0.1858613327163598</v>
+        <v>-4.5340511212256787E-3</v>
       </c>
       <c r="AA2">
-        <v>-5.150730329281162E-2</v>
+        <v>-0.14045372312411705</v>
       </c>
       <c r="AB2">
-        <v>6.3512861773581952E-2</v>
+        <v>-0.10500759269700181</v>
       </c>
       <c r="AC2">
-        <v>-5.5351821370128305E-2</v>
+        <v>-0.17276601167760486</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -618,52 +618,52 @@
         <v>-9.6932376841417534E-2</v>
       </c>
       <c r="N3">
-        <v>-0.13118946249636898</v>
+        <v>-0.20365101888706491</v>
       </c>
       <c r="O3">
-        <v>-1.8571386920254722E-2</v>
+        <v>0.22607407051497774</v>
       </c>
       <c r="P3">
-        <v>-0.13191855758505902</v>
+        <v>-9.2220019141812076E-2</v>
       </c>
       <c r="Q3">
-        <v>6.8465574104240423E-2</v>
+        <v>-9.1701934534963794E-2</v>
       </c>
       <c r="R3">
-        <v>9.3774683765134897E-2</v>
+        <v>-7.9348132501293855E-2</v>
       </c>
       <c r="S3">
-        <v>2.6019800523564229E-2</v>
+        <v>-0.20054107087050824</v>
       </c>
       <c r="T3">
-        <v>4.6006932592196473E-2</v>
+        <v>2.2410445609770208E-2</v>
       </c>
       <c r="U3">
-        <v>-0.16149368694517252</v>
+        <v>0.73323489705853939</v>
       </c>
       <c r="V3">
-        <v>8.5398586550842578E-2</v>
+        <v>-4.4857702046914694E-2</v>
       </c>
       <c r="W3">
-        <v>8.993923471251869E-2</v>
+        <v>-0.16115571610999324</v>
       </c>
       <c r="X3">
-        <v>-4.9278493028768043E-2</v>
+        <v>-0.17356746975658327</v>
       </c>
       <c r="Y3">
-        <v>0.11059015886117275</v>
+        <v>-0.38467093537852032</v>
       </c>
       <c r="Z3">
-        <v>0.18384431888586628</v>
+        <v>1.1154292143552137E-2</v>
       </c>
       <c r="AA3">
-        <v>7.5417299416751529E-2</v>
+        <v>6.3072713909052308E-2</v>
       </c>
       <c r="AB3">
-        <v>0.17040300551471324</v>
+        <v>1.6626899277501158E-2</v>
       </c>
       <c r="AC3">
-        <v>0.30892317951245762</v>
+        <v>0.22306726190796755</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
@@ -707,52 +707,52 @@
         <v>0.1953516919519761</v>
       </c>
       <c r="N4">
-        <v>0.1027936095919167</v>
+        <v>-1.4194466354636618E-2</v>
       </c>
       <c r="O4">
-        <v>3.9441651296640061E-2</v>
+        <v>-0.15946370202036378</v>
       </c>
       <c r="P4">
-        <v>-0.17459024875706866</v>
+        <v>-0.23030602622234156</v>
       </c>
       <c r="Q4">
-        <v>-0.19188945765581594</v>
+        <v>-0.40791355969652437</v>
       </c>
       <c r="R4">
-        <v>0.10596151810785484</v>
+        <v>-0.35474954855492635</v>
       </c>
       <c r="S4">
-        <v>-0.18236618880806935</v>
+        <v>-0.41028100283965802</v>
       </c>
       <c r="T4">
-        <v>-9.9944625698280193E-2</v>
+        <v>-0.37324469343558792</v>
       </c>
       <c r="U4">
-        <v>0.12410900921013729</v>
+        <v>-4.680106968455737E-2</v>
       </c>
       <c r="V4">
-        <v>-0.24302376799666459</v>
+        <v>0.15410592722926594</v>
       </c>
       <c r="W4">
-        <v>-0.34130774920787976</v>
+        <v>-2.8232234460595671E-2</v>
       </c>
       <c r="X4">
-        <v>-0.11970139126145124</v>
+        <v>-0.13834539518414257</v>
       </c>
       <c r="Y4">
-        <v>5.8189591957313387E-2</v>
+        <v>3.4692445198354634E-2</v>
       </c>
       <c r="Z4">
-        <v>-3.8034768289925983E-2</v>
+        <v>3.7347205667917292E-2</v>
       </c>
       <c r="AA4">
-        <v>-2.2205886473895663E-2</v>
+        <v>-2.6669718794347354E-2</v>
       </c>
       <c r="AB4">
-        <v>-5.1680790818715176E-2</v>
+        <v>9.8993299048025132E-2</v>
       </c>
       <c r="AC4">
-        <v>-6.2546097767217909E-2</v>
+        <v>-6.3148872541733903E-2</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
@@ -796,52 +796,52 @@
         <v>0.27739670508292036</v>
       </c>
       <c r="N5">
-        <v>-7.433415148183449E-2</v>
+        <v>-0.18224965850908897</v>
       </c>
       <c r="O5">
-        <v>-0.27135220958081041</v>
+        <v>-0.2639736305025846</v>
       </c>
       <c r="P5">
-        <v>2.8459905033495676E-4</v>
+        <v>0.60028847659801243</v>
       </c>
       <c r="Q5">
-        <v>9.5882197010404326E-3</v>
+        <v>0.20539845379473978</v>
       </c>
       <c r="R5">
-        <v>-5.3659736673327824E-2</v>
+        <v>0.16125105028419601</v>
       </c>
       <c r="S5">
-        <v>-0.37607900155694146</v>
+        <v>-9.4017460129239935E-2</v>
       </c>
       <c r="T5">
-        <v>-0.28960576838350238</v>
+        <v>-6.9829610236659583E-3</v>
       </c>
       <c r="U5">
-        <v>-0.13450007890462526</v>
+        <v>4.1227809984508423E-2</v>
       </c>
       <c r="V5">
-        <v>6.547186963496647E-2</v>
+        <v>0.1952778225325055</v>
       </c>
       <c r="W5">
-        <v>-7.7754475119491309E-2</v>
+        <v>-8.9703128414136343E-2</v>
       </c>
       <c r="X5">
-        <v>3.5635094413111641E-2</v>
+        <v>8.6905162834416835E-2</v>
       </c>
       <c r="Y5">
-        <v>7.2858580960281194E-2</v>
+        <v>-0.27334594097499393</v>
       </c>
       <c r="Z5">
-        <v>-0.1383377138231599</v>
+        <v>-0.11545282307373166</v>
       </c>
       <c r="AA5">
-        <v>-0.25019975922847265</v>
+        <v>-0.10546085122810249</v>
       </c>
       <c r="AB5">
-        <v>4.0855958763070993E-2</v>
+        <v>6.4707597809996589E-2</v>
       </c>
       <c r="AC5">
-        <v>3.4218350481499592E-2</v>
+        <v>-8.2633159757044092E-2</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
@@ -885,52 +885,52 @@
         <v>-0.17570861157819587</v>
       </c>
       <c r="N6">
-        <v>-0.43723558196888107</v>
+        <v>0.36948530212218383</v>
       </c>
       <c r="O6">
-        <v>-0.12360482843804829</v>
+        <v>-0.44387617534555668</v>
       </c>
       <c r="P6">
-        <v>-2.8821682444788835E-2</v>
+        <v>9.2804260796099422E-2</v>
       </c>
       <c r="Q6">
-        <v>5.8930211750417121E-2</v>
+        <v>-0.34626763082410433</v>
       </c>
       <c r="R6">
-        <v>0.22262402518527655</v>
+        <v>0.15215106049485569</v>
       </c>
       <c r="S6">
-        <v>0.38804484475517587</v>
+        <v>1.430234400099635E-2</v>
       </c>
       <c r="T6">
-        <v>0.28546285504216418</v>
+        <v>0.16099848158795901</v>
       </c>
       <c r="U6">
-        <v>-0.31028561410443006</v>
+        <v>3.228365191924297E-2</v>
       </c>
       <c r="V6">
-        <v>0.21231513581169315</v>
+        <v>-4.5224398617658187E-2</v>
       </c>
       <c r="W6">
-        <v>-0.21602007340255139</v>
+        <v>0.15699715287375976</v>
       </c>
       <c r="X6">
-        <v>-0.24347386712183708</v>
+        <v>-5.4559764240248401E-2</v>
       </c>
       <c r="Y6">
-        <v>-0.20469032587641514</v>
+        <v>-0.11061186946879011</v>
       </c>
       <c r="Z6">
-        <v>-9.4804460085001763E-2</v>
+        <v>-0.16656977028997411</v>
       </c>
       <c r="AA6">
-        <v>-1.1372256996764651E-2</v>
+        <v>-3.3327965134059917E-2</v>
       </c>
       <c r="AB6">
-        <v>-0.41143189164290372</v>
+        <v>9.9172494464164124E-2</v>
       </c>
       <c r="AC6">
-        <v>-6.5635529133414749E-2</v>
+        <v>0.23615621003519738</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
@@ -974,52 +974,52 @@
         <v>-0.15417956008774739</v>
       </c>
       <c r="N7">
-        <v>-0.29638558523165281</v>
+        <v>0.58877518063384859</v>
       </c>
       <c r="O7">
-        <v>-0.31834513461185826</v>
+        <v>4.2467462914724731E-2</v>
       </c>
       <c r="P7">
-        <v>-4.1575734698464595E-2</v>
+        <v>0.31221926349312751</v>
       </c>
       <c r="Q7">
-        <v>-0.10380888260239539</v>
+        <v>-0.20655319219568569</v>
       </c>
       <c r="R7">
-        <v>-0.30091683963050986</v>
+        <v>0.68887671163274178</v>
       </c>
       <c r="S7">
-        <v>-0.29757747728018352</v>
+        <v>5.1085000462112416E-2</v>
       </c>
       <c r="T7">
-        <v>-0.21450164057877541</v>
+        <v>0.20893923183160948</v>
       </c>
       <c r="U7">
-        <v>2.6887098127264711E-2</v>
+        <v>0.16940818181303469</v>
       </c>
       <c r="V7">
-        <v>0.16773953451643853</v>
+        <v>-0.39659573643088547</v>
       </c>
       <c r="W7">
-        <v>0.10532952888077231</v>
+        <v>-0.39034152787822551</v>
       </c>
       <c r="X7">
-        <v>3.6120878567899133E-2</v>
+        <v>-0.24864319804764343</v>
       </c>
       <c r="Y7">
-        <v>-0.17727590458666415</v>
+        <v>-0.34065091829077743</v>
       </c>
       <c r="Z7">
-        <v>-0.19440434569067389</v>
+        <v>-9.6388520645940043E-2</v>
       </c>
       <c r="AA7">
-        <v>-0.13023498616240939</v>
+        <v>-3.3939224208940036E-2</v>
       </c>
       <c r="AB7">
-        <v>-3.6343840849854814E-2</v>
+        <v>9.1354159211782929E-2</v>
       </c>
       <c r="AC7">
-        <v>-5.0796808854083025E-2</v>
+        <v>-0.14654700442189955</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
@@ -1063,52 +1063,52 @@
         <v>-0.2990486902432809</v>
       </c>
       <c r="N8">
-        <v>-0.26123711114212295</v>
+        <v>0.19813675305578407</v>
       </c>
       <c r="O8">
-        <v>-0.51138802546988427</v>
+        <v>-0.6137403861156433</v>
       </c>
       <c r="P8">
-        <v>-8.3490186298152011E-2</v>
+        <v>0.51101825893401664</v>
       </c>
       <c r="Q8">
-        <v>-9.7700714125691188E-2</v>
+        <v>-1.7874326773918231E-2</v>
       </c>
       <c r="R8">
-        <v>0.11350064284748915</v>
+        <v>-0.16275727009943131</v>
       </c>
       <c r="S8">
-        <v>0.32856066431164599</v>
+        <v>0.38113710838543519</v>
       </c>
       <c r="T8">
-        <v>-1.3082047542962071E-2</v>
+        <v>-0.51352188370628205</v>
       </c>
       <c r="U8">
-        <v>0.15169343504112115</v>
+        <v>0.38585298339761959</v>
       </c>
       <c r="V8">
-        <v>2.6199439768886553E-2</v>
+        <v>-0.49065567946915628</v>
       </c>
       <c r="W8">
-        <v>-0.17154253577518341</v>
+        <v>0.32626288224859851</v>
       </c>
       <c r="X8">
-        <v>8.6800686784135828E-2</v>
+        <v>-2.7003984852373244E-3</v>
       </c>
       <c r="Y8">
-        <v>-0.16465059511920033</v>
+        <v>-6.3019698523543471E-2</v>
       </c>
       <c r="Z8">
-        <v>-0.12597260064432517</v>
+        <v>1.5814656474405719E-2</v>
       </c>
       <c r="AA8">
-        <v>-2.9090517165957584E-2</v>
+        <v>-4.225352299216574E-2</v>
       </c>
       <c r="AB8">
-        <v>-4.7339734371255743E-2</v>
+        <v>-8.5300943496401341E-2</v>
       </c>
       <c r="AC8">
-        <v>0.21017534382972652</v>
+        <v>-0.1609781869961816</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
@@ -1152,52 +1152,52 @@
         <v>-8.4963665066341856E-2</v>
       </c>
       <c r="N9">
-        <v>-9.4706275022567996E-2</v>
+        <v>-3.5345751552870869E-2</v>
       </c>
       <c r="O9">
-        <v>-0.10133104541633181</v>
+        <v>-0.12007084440746661</v>
       </c>
       <c r="P9">
-        <v>0.66459384052204085</v>
+        <v>-8.5487919803886009E-2</v>
       </c>
       <c r="Q9">
-        <v>0.27922629354772355</v>
+        <v>0.11280254170823507</v>
       </c>
       <c r="R9">
-        <v>-0.55021763984183081</v>
+        <v>-6.9293530109320309E-2</v>
       </c>
       <c r="S9">
-        <v>9.2599486910982062E-2</v>
+        <v>-0.14387451919254954</v>
       </c>
       <c r="T9">
-        <v>-0.23923131165244954</v>
+        <v>-7.7745600265193185E-2</v>
       </c>
       <c r="U9">
-        <v>-0.2595147589848692</v>
+        <v>-0.23197348327995654</v>
       </c>
       <c r="V9">
-        <v>0.2311640446846574</v>
+        <v>-0.27019735775150233</v>
       </c>
       <c r="W9">
-        <v>-1.7031667038930432E-2</v>
+        <v>-0.22427704612156008</v>
       </c>
       <c r="X9">
-        <v>-6.4364717440196159E-2</v>
+        <v>-0.13788874441684412</v>
       </c>
       <c r="Y9">
-        <v>0.13624087249519637</v>
+        <v>-5.4521444923940621E-2</v>
       </c>
       <c r="Z9">
-        <v>0.10910543613307265</v>
+        <v>-7.9291600899984133E-2</v>
       </c>
       <c r="AA9">
-        <v>-8.242578741522108E-3</v>
+        <v>-0.12258616474558617</v>
       </c>
       <c r="AB9">
-        <v>-4.2357872696248543E-2</v>
+        <v>-0.18506712579406337</v>
       </c>
       <c r="AC9">
-        <v>-5.6234225023866796E-2</v>
+        <v>-0.10752518130620187</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
@@ -1241,52 +1241,52 @@
         <v>-0.25424746341715732</v>
       </c>
       <c r="N10">
-        <v>0.14433419495054009</v>
+        <v>0.21748581312343948</v>
       </c>
       <c r="O10">
-        <v>-0.13887609916898222</v>
+        <v>-1.0374854102276228</v>
       </c>
       <c r="P10">
-        <v>0.11520553851969483</v>
+        <v>-0.38655104407285251</v>
       </c>
       <c r="Q10">
-        <v>-0.31478061487788767</v>
+        <v>4.2077179184392424E-2</v>
       </c>
       <c r="R10">
-        <v>-0.12902591280352549</v>
+        <v>0.25812730006834878</v>
       </c>
       <c r="S10">
-        <v>0.39113330741979646</v>
+        <v>6.8030134605549242E-2</v>
       </c>
       <c r="T10">
-        <v>-0.2460490869007905</v>
+        <v>-6.6689930421445415E-2</v>
       </c>
       <c r="U10">
-        <v>-0.24313422057764428</v>
+        <v>9.3786140608827749E-3</v>
       </c>
       <c r="V10">
-        <v>0.51361585394989784</v>
+        <v>2.5372264055440498E-3</v>
       </c>
       <c r="W10">
-        <v>-0.11736216236161359</v>
+        <v>-6.8592680343860499E-2</v>
       </c>
       <c r="X10">
-        <v>-0.36613350817261875</v>
+        <v>-0.19506279913554994</v>
       </c>
       <c r="Y10">
-        <v>3.0599623385912971E-2</v>
+        <v>-1.8818576933909349E-2</v>
       </c>
       <c r="Z10">
-        <v>-0.35266942447163929</v>
+        <v>-1.8682345425693237E-2</v>
       </c>
       <c r="AA10">
-        <v>-0.37901895197426644</v>
+        <v>-0.11886878568140258</v>
       </c>
       <c r="AB10">
-        <v>0.12777653403398226</v>
+        <v>8.7248370393401848E-3</v>
       </c>
       <c r="AC10">
-        <v>9.2428991362448337E-2</v>
+        <v>-4.9140362736194931E-2</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
@@ -1330,52 +1330,52 @@
         <v>-0.51306210703490207</v>
       </c>
       <c r="N11">
-        <v>-0.66231466447464915</v>
+        <v>-5.829810645199432E-4</v>
       </c>
       <c r="O11">
-        <v>-0.49294604276147236</v>
+        <v>-0.11648229803663811</v>
       </c>
       <c r="P11">
-        <v>0.21278486158635274</v>
+        <v>-0.15436630553111252</v>
       </c>
       <c r="Q11">
-        <v>-0.15518428710380863</v>
+        <v>-0.23561598373019416</v>
       </c>
       <c r="R11">
-        <v>-0.28288413557008862</v>
+        <v>-7.3600054491374925E-2</v>
       </c>
       <c r="S11">
-        <v>0.13061181732855839</v>
+        <v>0.16029482931216199</v>
       </c>
       <c r="T11">
-        <v>-0.34226320597327187</v>
+        <v>0.22248486625451139</v>
       </c>
       <c r="U11">
-        <v>-0.30977640165012221</v>
+        <v>5.3265974177368246E-2</v>
       </c>
       <c r="V11">
-        <v>0.15176175870994105</v>
+        <v>0.13736957285656484</v>
       </c>
       <c r="W11">
-        <v>7.0905860576516641E-2</v>
+        <v>1.2899842418710056E-2</v>
       </c>
       <c r="X11">
-        <v>3.5155819605292425E-2</v>
+        <v>-0.19714515082185902</v>
       </c>
       <c r="Y11">
-        <v>-0.10274312619268035</v>
+        <v>0.18573043680942306</v>
       </c>
       <c r="Z11">
-        <v>-0.20499756404349445</v>
+        <v>0.22024514467129661</v>
       </c>
       <c r="AA11">
-        <v>-0.18634755567494407</v>
+        <v>-5.933362009808045E-2</v>
       </c>
       <c r="AB11">
-        <v>-7.4238866175429782E-2</v>
+        <v>-4.8351234470647472E-2</v>
       </c>
       <c r="AC11">
-        <v>1.1768255493800721E-2</v>
+        <v>-1.9670223305289839E-2</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
@@ -1419,52 +1419,52 @@
         <v>-0.16074996996290092</v>
       </c>
       <c r="N12">
-        <v>0.2790265217198567</v>
+        <v>0.21666049372455737</v>
       </c>
       <c r="O12">
-        <v>-0.20484327216600939</v>
+        <v>-0.17039127616133198</v>
       </c>
       <c r="P12">
-        <v>-1.3965485124666511E-2</v>
+        <v>-0.22947582697713892</v>
       </c>
       <c r="Q12">
-        <v>-1.6669944654452496E-3</v>
+        <v>0.33727439536223003</v>
       </c>
       <c r="R12">
-        <v>0.15890593101303574</v>
+        <v>6.794975759765623E-2</v>
       </c>
       <c r="S12">
-        <v>0.27668921089135234</v>
+        <v>-0.37802108819416341</v>
       </c>
       <c r="T12">
-        <v>0.32163486098380278</v>
+        <v>8.2626419754637068E-2</v>
       </c>
       <c r="U12">
-        <v>-0.43183182442482271</v>
+        <v>0.32741036139131585</v>
       </c>
       <c r="V12">
-        <v>-2.960717296640231E-2</v>
+        <v>-3.9360286752677484E-2</v>
       </c>
       <c r="W12">
-        <v>-0.23353827403746624</v>
+        <v>-1.1270905473110085E-2</v>
       </c>
       <c r="X12">
-        <v>-0.67292327201864266</v>
+        <v>0.33938686868071238</v>
       </c>
       <c r="Y12">
-        <v>-0.3355435034664937</v>
+        <v>0.34425032031756531</v>
       </c>
       <c r="Z12">
-        <v>-0.25853474038174468</v>
+        <v>-7.80292844177672E-2</v>
       </c>
       <c r="AA12">
-        <v>1.8988317678626347E-2</v>
+        <v>-0.14668881131259559</v>
       </c>
       <c r="AB12">
-        <v>2.2504715882848456E-2</v>
+        <v>-3.869540634694292E-2</v>
       </c>
       <c r="AC12">
-        <v>0.11587591876671857</v>
+        <v>-0.15028018231612947</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
@@ -1508,52 +1508,52 @@
         <v>0.17675881676142366</v>
       </c>
       <c r="N13">
-        <v>-0.13201362457728277</v>
+        <v>-0.65993150394586131</v>
       </c>
       <c r="O13">
-        <v>-0.15325527952907489</v>
+        <v>9.5018584084217747E-2</v>
       </c>
       <c r="P13">
-        <v>-8.7269639617126457E-2</v>
+        <v>-1.5088706432128837E-2</v>
       </c>
       <c r="Q13">
-        <v>-9.9432879089831443E-3</v>
+        <v>-0.54370810441823869</v>
       </c>
       <c r="R13">
-        <v>5.5692495691106771E-2</v>
+        <v>1.5035313760269181E-2</v>
       </c>
       <c r="S13">
-        <v>0.13438060882470379</v>
+        <v>-0.1975983766464916</v>
       </c>
       <c r="T13">
-        <v>3.4994163634611407E-2</v>
+        <v>-0.30126638575750414</v>
       </c>
       <c r="U13">
-        <v>-0.15796984361731828</v>
+        <v>0.33421252883535507</v>
       </c>
       <c r="V13">
-        <v>0.36256871575114463</v>
+        <v>3.4194386669343227E-2</v>
       </c>
       <c r="W13">
-        <v>0.11611895499901212</v>
+        <v>0.15331808871899386</v>
       </c>
       <c r="X13">
-        <v>-0.47155925143095806</v>
+        <v>0.50796914353292244</v>
       </c>
       <c r="Y13">
-        <v>-0.22379593444669635</v>
+        <v>9.5219535585383507E-3</v>
       </c>
       <c r="Z13">
-        <v>0.14670505168581341</v>
+        <v>-0.1362925654382795</v>
       </c>
       <c r="AA13">
-        <v>8.937822823207893E-2</v>
+        <v>-0.12991020884902696</v>
       </c>
       <c r="AB13">
-        <v>6.9181167246608902E-2</v>
+        <v>-0.34530449813207004</v>
       </c>
       <c r="AC13">
-        <v>-1.8223803011231755E-2</v>
+        <v>-0.30313504864530116</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -1597,52 +1597,52 @@
         <v>-0.18113744425487122</v>
       </c>
       <c r="N14">
-        <v>-0.14833372814134854</v>
+        <v>-0.5008439067958399</v>
       </c>
       <c r="O14">
-        <v>-1.5095370499216287E-2</v>
+        <v>-0.29169224666914861</v>
       </c>
       <c r="P14">
-        <v>-6.964147116439709E-2</v>
+        <v>-0.13040135732665109</v>
       </c>
       <c r="Q14">
-        <v>-5.1376382611927812E-2</v>
+        <v>-0.40125495221750923</v>
       </c>
       <c r="R14">
-        <v>3.6165726816331505E-2</v>
+        <v>-0.49226333628748892</v>
       </c>
       <c r="S14">
-        <v>-4.5579425637835652E-2</v>
+        <v>-0.20741526875049288</v>
       </c>
       <c r="T14">
-        <v>-0.2065472875429632</v>
+        <v>0.16416599431774681</v>
       </c>
       <c r="U14">
-        <v>0.18061520763067856</v>
+        <v>-7.6683541806892488E-3</v>
       </c>
       <c r="V14">
-        <v>0.29124062824664365</v>
+        <v>-0.19620153021426698</v>
       </c>
       <c r="W14">
-        <v>4.6195106369146886E-2</v>
+        <v>-0.18626934574692819</v>
       </c>
       <c r="X14">
-        <v>-0.26419575787096894</v>
+        <v>-0.15839259760045318</v>
       </c>
       <c r="Y14">
-        <v>-0.206737291121976</v>
+        <v>-0.14726578926256448</v>
       </c>
       <c r="Z14">
-        <v>7.0805972080918461E-2</v>
+        <v>-1.0800963179541047E-2</v>
       </c>
       <c r="AA14">
-        <v>-4.548245312218477E-3</v>
+        <v>0.22901728637711094</v>
       </c>
       <c r="AB14">
-        <v>0.11415634840701076</v>
+        <v>0.18796982844670465</v>
       </c>
       <c r="AC14">
-        <v>0.15501713461584285</v>
+        <v>-0.12243629233407986</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -1686,4062 +1686,4098 @@
         <v>-0.26369192472331604</v>
       </c>
       <c r="N15">
-        <v>-0.23981413076802865</v>
+        <v>-0.36212415618570482</v>
       </c>
       <c r="O15">
-        <v>-0.29493253373505107</v>
+        <v>-8.9502925684927431E-2</v>
       </c>
       <c r="P15">
-        <v>-0.25447982084416798</v>
+        <v>0.19721032311166481</v>
       </c>
       <c r="Q15">
-        <v>-7.6387604198236134E-2</v>
+        <v>-3.8677556008552848E-2</v>
       </c>
       <c r="R15">
-        <v>-0.20550591325779666</v>
+        <v>-0.11063491060381156</v>
       </c>
       <c r="S15">
-        <v>-0.1821590470922973</v>
+        <v>-4.2358448309846169E-2</v>
       </c>
       <c r="T15">
-        <v>-0.18932014981095313</v>
+        <v>0.10792621567660751</v>
       </c>
       <c r="U15">
-        <v>-1.2646066520096042E-2</v>
+        <v>-5.3209479397198702E-2</v>
       </c>
       <c r="V15">
-        <v>-0.14131088549499787</v>
+        <v>-0.14616397095940592</v>
       </c>
       <c r="W15">
-        <v>-0.23081832881694403</v>
+        <v>5.7918425540925064E-2</v>
       </c>
       <c r="X15">
-        <v>6.8288008717195967E-2</v>
+        <v>5.8502294659751181E-2</v>
       </c>
       <c r="Y15">
-        <v>-0.18086388818569102</v>
+        <v>6.8380803880917565E-2</v>
       </c>
       <c r="Z15">
-        <v>-0.28489160874806019</v>
+        <v>0.21012766143441672</v>
       </c>
       <c r="AA15">
-        <v>-6.6687719382675778E-3</v>
+        <v>0.27028574605145966</v>
       </c>
       <c r="AB15">
-        <v>-0.15979183571763367</v>
+        <v>-7.4570707902657671E-2</v>
       </c>
       <c r="AC15">
-        <v>-0.1265817242727372</v>
+        <v>6.0971670385580233E-2</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3.7815736122608201</v>
+        <v>5.3375523744066609</v>
       </c>
       <c r="B16">
-        <v>3.0619818273253632</v>
+        <v>0.50983533202217068</v>
       </c>
       <c r="C16">
-        <v>-2.0159250922436738</v>
+        <v>0.54046965585803441</v>
       </c>
       <c r="D16">
-        <v>-0.23907705930529791</v>
+        <v>0.43793785723953238</v>
       </c>
       <c r="E16">
-        <v>-5.9453855605034696E-2</v>
+        <v>-1.3815460590274899</v>
       </c>
       <c r="F16">
-        <v>0.2981693293086079</v>
+        <v>2.0131206192612381</v>
       </c>
       <c r="G16">
-        <v>0.41689663535001314</v>
+        <v>-2.3086485705966431</v>
       </c>
       <c r="H16">
-        <v>-0.17393049132474919</v>
+        <v>0.28392682761518501</v>
       </c>
       <c r="I16">
-        <v>-0.15941048340834971</v>
+        <v>-0.56425095359006816</v>
       </c>
       <c r="J16">
-        <v>2.300704029825406E-2</v>
+        <v>-1.1679976049906375</v>
       </c>
       <c r="K16">
-        <v>-3.5699526373195095E-2</v>
+        <v>0.26968381273027903</v>
       </c>
       <c r="L16">
-        <v>0.6281422947518519</v>
+        <v>0.36303158611216735</v>
       </c>
       <c r="M16">
-        <v>0.33574155370067738</v>
+        <v>0.51911912632765866</v>
       </c>
       <c r="N16">
-        <v>-0.79193546322526298</v>
+        <v>0.46093962992373122</v>
       </c>
       <c r="O16">
-        <v>6.3674269076637296E-3</v>
+        <v>0.5744627212386052</v>
       </c>
       <c r="P16">
-        <v>-0.17977401618804381</v>
+        <v>0.25904595954830717</v>
       </c>
       <c r="Q16">
-        <v>0.31078916549506352</v>
+        <v>0.63476223364571782</v>
       </c>
       <c r="R16">
-        <v>-0.41910797963745572</v>
+        <v>0.33408995359383259</v>
       </c>
       <c r="S16">
-        <v>0.23947241066498506</v>
+        <v>3.7518061896965195E-2</v>
       </c>
       <c r="T16">
-        <v>-0.17074969242366383</v>
+        <v>0.53250860617115447</v>
       </c>
       <c r="U16">
-        <v>-1.03146346075356</v>
+        <v>0.17840326052051056</v>
       </c>
       <c r="V16">
-        <v>7.8080448896175533E-2</v>
+        <v>-0.21308242791214979</v>
       </c>
       <c r="W16">
-        <v>-5.0675218241022633E-2</v>
+        <v>0.13433077350616282</v>
       </c>
       <c r="X16">
-        <v>9.8699860221691249E-3</v>
+        <v>-0.1816685816387692</v>
       </c>
       <c r="Y16">
-        <v>-0.118675783836523</v>
+        <v>-0.12578677163976579</v>
       </c>
       <c r="Z16">
-        <v>0.5816440569062149</v>
+        <v>0.1944754845649028</v>
       </c>
       <c r="AA16">
-        <v>-0.20810000417605568</v>
+        <v>0.10977242057023454</v>
       </c>
       <c r="AB16">
-        <v>-6.0537820518456041E-2</v>
+        <v>0.34796649791439932</v>
       </c>
       <c r="AC16">
-        <v>1.7851991443201078E-2</v>
+        <v>0.12095342029121314</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2.7095408126740144</v>
+        <v>5.5456267991679491</v>
       </c>
       <c r="B17">
-        <v>-3.2278644737349462</v>
+        <v>0.68375389017592625</v>
       </c>
       <c r="C17">
-        <v>-4.6779335980541754</v>
+        <v>1.021818400733769</v>
       </c>
       <c r="D17">
-        <v>1.2687434088804814</v>
+        <v>1.4827204638234435</v>
       </c>
       <c r="E17">
-        <v>-0.50091617545458444</v>
+        <v>-1.0414449532286647</v>
       </c>
       <c r="F17">
-        <v>-1.3857838880930615</v>
+        <v>3.1775589240055937</v>
       </c>
       <c r="G17">
-        <v>-0.116593205518823</v>
+        <v>0.25573894058554597</v>
       </c>
       <c r="H17">
-        <v>0.63435041262786196</v>
+        <v>-0.68598816844771604</v>
       </c>
       <c r="I17">
-        <v>0.65516265063040013</v>
+        <v>-1.0063825151443619</v>
       </c>
       <c r="J17">
-        <v>-0.31741477510048449</v>
+        <v>0.30284290776589545</v>
       </c>
       <c r="K17">
-        <v>-0.24456236801446196</v>
+        <v>-8.2274446060977488E-2</v>
       </c>
       <c r="L17">
-        <v>0.55604090370359682</v>
+        <v>0.26813776103969006</v>
       </c>
       <c r="M17">
-        <v>-0.46587146174873983</v>
+        <v>0.29345290698871068</v>
       </c>
       <c r="N17">
-        <v>-0.87367675154224533</v>
+        <v>-0.61394102755165081</v>
       </c>
       <c r="O17">
-        <v>0.21795907855977792</v>
+        <v>0.33944478767150443</v>
       </c>
       <c r="P17">
-        <v>-0.35581325694158145</v>
+        <v>0.48748489816662766</v>
       </c>
       <c r="Q17">
-        <v>-0.40014892298776883</v>
+        <v>-7.1815549999415335E-2</v>
       </c>
       <c r="R17">
-        <v>0.4317207579378799</v>
+        <v>-0.22402965087351548</v>
       </c>
       <c r="S17">
-        <v>-0.23190662130849193</v>
+        <v>0.33539188116615132</v>
       </c>
       <c r="T17">
-        <v>-0.29408272120501439</v>
+        <v>0.48046369312855908</v>
       </c>
       <c r="U17">
-        <v>-0.14649522371121407</v>
+        <v>-0.51342898179061214</v>
       </c>
       <c r="V17">
-        <v>5.2292996960679947E-2</v>
+        <v>-0.21472096815879216</v>
       </c>
       <c r="W17">
-        <v>-3.6892329378167665E-2</v>
+        <v>0.33928783374909993</v>
       </c>
       <c r="X17">
-        <v>0.33986970881390977</v>
+        <v>-0.25002576158499312</v>
       </c>
       <c r="Y17">
-        <v>-0.16467258880760949</v>
+        <v>-0.14695378276613452</v>
       </c>
       <c r="Z17">
-        <v>-0.23591292241075359</v>
+        <v>8.5992629051596062E-2</v>
       </c>
       <c r="AA17">
-        <v>-7.6448759602950722E-2</v>
+        <v>-0.20416410045581268</v>
       </c>
       <c r="AB17">
-        <v>0.1287247496088347</v>
+        <v>0.10036575990587682</v>
       </c>
       <c r="AC17">
-        <v>0.11510236170737342</v>
+        <v>6.478872445843227E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3.4498153627264014</v>
+        <v>7.475586993741909</v>
       </c>
       <c r="B18">
-        <v>3.6499529480254744</v>
+        <v>-5.1664239557841807</v>
       </c>
       <c r="C18">
-        <v>0.55855886958243783</v>
+        <v>-2.707821290822725</v>
       </c>
       <c r="D18">
-        <v>3.4326398416086001</v>
+        <v>-1.9217441088413885</v>
       </c>
       <c r="E18">
-        <v>-0.23010843045354323</v>
+        <v>-1.0100452997659499</v>
       </c>
       <c r="F18">
-        <v>0.29466937701109652</v>
+        <v>0.80782438259670275</v>
       </c>
       <c r="G18">
-        <v>0.50502226242650505</v>
+        <v>1.0680836762924368</v>
       </c>
       <c r="H18">
-        <v>-0.16552537006459184</v>
+        <v>0.89724932880066077</v>
       </c>
       <c r="I18">
-        <v>0.445689095633933</v>
+        <v>5.3332113166008645E-2</v>
       </c>
       <c r="J18">
-        <v>-0.59762268179774847</v>
+        <v>-0.54011249336767031</v>
       </c>
       <c r="K18">
-        <v>6.4823452591875372E-2</v>
+        <v>-0.48887480072447348</v>
       </c>
       <c r="L18">
-        <v>-0.50479895680480746</v>
+        <v>-0.44420501383161054</v>
       </c>
       <c r="M18">
-        <v>-0.21262393216358094</v>
+        <v>-0.20589531531415697</v>
       </c>
       <c r="N18">
-        <v>0.5480615419819912</v>
+        <v>0.27765998120703916</v>
       </c>
       <c r="O18">
-        <v>0.355380686430811</v>
+        <v>-0.54768609588757444</v>
       </c>
       <c r="P18">
-        <v>0.16790955918372216</v>
+        <v>-0.76159210884811623</v>
       </c>
       <c r="Q18">
-        <v>-8.8289061869416346E-2</v>
+        <v>0.15210746847695417</v>
       </c>
       <c r="R18">
-        <v>-0.24504163472564583</v>
+        <v>-0.40134333484916523</v>
       </c>
       <c r="S18">
-        <v>-8.8498764766502841E-2</v>
+        <v>-0.45503862444730536</v>
       </c>
       <c r="T18">
-        <v>-1.4321122967496158E-2</v>
+        <v>-2.2505146467787698E-2</v>
       </c>
       <c r="U18">
-        <v>6.9155658592642569E-2</v>
+        <v>-0.40083466069036994</v>
       </c>
       <c r="V18">
-        <v>5.2162608948937664E-2</v>
+        <v>9.0999946141815211E-2</v>
       </c>
       <c r="W18">
-        <v>-1.7607668884336364E-2</v>
+        <v>0.2448597310749854</v>
       </c>
       <c r="X18">
-        <v>0.12962402382892035</v>
+        <v>-0.53927717760571126</v>
       </c>
       <c r="Y18">
-        <v>2.0481959842650506E-2</v>
+        <v>-4.7327660121278932E-2</v>
       </c>
       <c r="Z18">
-        <v>-2.9697104717018405E-2</v>
+        <v>0.21414617912373271</v>
       </c>
       <c r="AA18">
-        <v>3.9947975517555852E-3</v>
+        <v>0.13837238890963185</v>
       </c>
       <c r="AB18">
-        <v>-0.16025990690782646</v>
+        <v>-8.0520949544825304E-2</v>
       </c>
       <c r="AC18">
-        <v>-0.15740166980842102</v>
+        <v>3.1232341555101294E-3</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9.3277733374388525</v>
+        <v>6.9519917573460788</v>
       </c>
       <c r="B19">
-        <v>4.405702283140859</v>
+        <v>-5.4928745737214699</v>
       </c>
       <c r="C19">
-        <v>1.1731043250917943</v>
+        <v>-3.0335548767367593</v>
       </c>
       <c r="D19">
-        <v>0.8241541074424158</v>
+        <v>-2.6920774905115152</v>
       </c>
       <c r="E19">
-        <v>0.37400597765693788</v>
+        <v>-0.59753640939585373</v>
       </c>
       <c r="F19">
-        <v>0.37635187571193957</v>
+        <v>1.3385636556619371</v>
       </c>
       <c r="G19">
-        <v>0.24993955659853781</v>
+        <v>8.2648319268988028E-3</v>
       </c>
       <c r="H19">
-        <v>0.23257538784116238</v>
+        <v>0.49568702162137229</v>
       </c>
       <c r="I19">
-        <v>0.15330914502616255</v>
+        <v>-6.7536089457753745E-2</v>
       </c>
       <c r="J19">
-        <v>9.008124846155327E-2</v>
+        <v>-0.95528104993385821</v>
       </c>
       <c r="K19">
-        <v>-5.5170798802507533E-2</v>
+        <v>-0.71758291979949429</v>
       </c>
       <c r="L19">
-        <v>-3.7212141054520309E-2</v>
+        <v>-0.60812107858256947</v>
       </c>
       <c r="M19">
-        <v>1.0666065107064438E-2</v>
+        <v>-0.13422951382867807</v>
       </c>
       <c r="N19">
-        <v>0.39611147518722328</v>
+        <v>6.2253348656864244E-2</v>
       </c>
       <c r="O19">
-        <v>0.26804916679214719</v>
+        <v>6.6620165023544634E-2</v>
       </c>
       <c r="P19">
-        <v>0.30629792760696795</v>
+        <v>1.1900022838029781E-2</v>
       </c>
       <c r="Q19">
-        <v>-0.18814677129629581</v>
+        <v>4.5837089474532487E-2</v>
       </c>
       <c r="R19">
-        <v>-0.16381493000094871</v>
+        <v>-7.2625134360699423E-2</v>
       </c>
       <c r="S19">
-        <v>-0.31009726584556752</v>
+        <v>-0.14935628464101097</v>
       </c>
       <c r="T19">
-        <v>-0.19687198471767409</v>
+        <v>-0.23295131951381451</v>
       </c>
       <c r="U19">
-        <v>-9.7387297110271293E-3</v>
+        <v>-0.28485037815797015</v>
       </c>
       <c r="V19">
-        <v>0.2645565992801156</v>
+        <v>-0.22903655272448792</v>
       </c>
       <c r="W19">
-        <v>5.2759653212351841E-2</v>
+        <v>-0.20776591623186649</v>
       </c>
       <c r="X19">
-        <v>0.27886951328522186</v>
+        <v>-0.18540094776268215</v>
       </c>
       <c r="Y19">
-        <v>-0.10686277111941603</v>
+        <v>-0.14072443236581889</v>
       </c>
       <c r="Z19">
-        <v>-0.26323697118414846</v>
+        <v>-8.9752035458791332E-2</v>
       </c>
       <c r="AA19">
-        <v>-0.20734409788929337</v>
+        <v>-7.8586088993644054E-2</v>
       </c>
       <c r="AB19">
-        <v>-0.20927232129450846</v>
+        <v>-8.7963040124663869E-2</v>
       </c>
       <c r="AC19">
-        <v>-0.12224919940132009</v>
+        <v>-4.7347044169339589E-2</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>6.7522993129175051</v>
+        <v>7.3347616640913058</v>
       </c>
       <c r="B20">
-        <v>4.8281286884421162</v>
+        <v>-3.6560157527458346</v>
       </c>
       <c r="C20">
-        <v>0.9096453924811656</v>
+        <v>-1.4198597356366387</v>
       </c>
       <c r="D20">
-        <v>1.1976194435015333</v>
+        <v>-1.9385494251627848</v>
       </c>
       <c r="E20">
-        <v>-0.40898622970776372</v>
+        <v>-0.57077092755567316</v>
       </c>
       <c r="F20">
-        <v>-0.35339466214516363</v>
+        <v>0.67870873143766508</v>
       </c>
       <c r="G20">
-        <v>-0.58589101826589229</v>
+        <v>0.49209604162529397</v>
       </c>
       <c r="H20">
-        <v>-0.65907675149341971</v>
+        <v>-0.20637197505435531</v>
       </c>
       <c r="I20">
-        <v>-0.52729270189467048</v>
+        <v>0.33521144786653018</v>
       </c>
       <c r="J20">
-        <v>-0.63207669426929214</v>
+        <v>0.31222623091039481</v>
       </c>
       <c r="K20">
-        <v>3.414782450755513E-2</v>
+        <v>-0.82671686142333967</v>
       </c>
       <c r="L20">
-        <v>-1.7798746324806658E-2</v>
+        <v>7.3282439069097441E-2</v>
       </c>
       <c r="M20">
-        <v>-0.1060068521801683</v>
+        <v>-0.10881719549599293</v>
       </c>
       <c r="N20">
-        <v>-0.1629061587571965</v>
+        <v>-0.15121329557355828</v>
       </c>
       <c r="O20">
-        <v>0.38396294219542937</v>
+        <v>-0.66555473659342324</v>
       </c>
       <c r="P20">
-        <v>6.691135497965868E-2</v>
+        <v>-0.54866385247770788</v>
       </c>
       <c r="Q20">
-        <v>-0.15917511991972341</v>
+        <v>0.21302904565574038</v>
       </c>
       <c r="R20">
-        <v>0.17551033101711658</v>
+        <v>-1.2405829275580703E-2</v>
       </c>
       <c r="S20">
-        <v>-0.22603710700661719</v>
+        <v>-1.7824393893874661E-3</v>
       </c>
       <c r="T20">
-        <v>-0.28732129773377069</v>
+        <v>-0.18748939527849762</v>
       </c>
       <c r="U20">
-        <v>-0.15576237616363717</v>
+        <v>-0.3733722383389273</v>
       </c>
       <c r="V20">
-        <v>-7.5140436673352448E-2</v>
+        <v>-0.2048343762837524</v>
       </c>
       <c r="W20">
-        <v>-1.6386037210793271E-2</v>
+        <v>0.22468154828590534</v>
       </c>
       <c r="X20">
-        <v>0.17116991803297296</v>
+        <v>0.1106831960155908</v>
       </c>
       <c r="Y20">
-        <v>-4.7243478430813599E-2</v>
+        <v>-7.2390027945208463E-2</v>
       </c>
       <c r="Z20">
-        <v>-0.25166240136946294</v>
+        <v>-2.9118818446363399E-2</v>
       </c>
       <c r="AA20">
-        <v>-0.19226687514175486</v>
+        <v>2.0596560226096908E-2</v>
       </c>
       <c r="AB20">
-        <v>4.9716433892403105E-3</v>
+        <v>-0.22217824002684061</v>
       </c>
       <c r="AC20">
-        <v>2.4055797653996059E-2</v>
+        <v>-0.11889012882294168</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>6.5051104985903061</v>
+        <v>7.2161630144595641</v>
       </c>
       <c r="B21">
-        <v>-4.6555852416121768</v>
+        <v>-1.1863083500469949</v>
       </c>
       <c r="C21">
-        <v>0.86348440866027176</v>
+        <v>-4.758492926782818</v>
       </c>
       <c r="D21">
-        <v>-1.7055175066018631</v>
+        <v>-2.7581353052637891</v>
       </c>
       <c r="E21">
-        <v>1.4184367185504245</v>
+        <v>0.16178665383703777</v>
       </c>
       <c r="F21">
-        <v>-0.34838467953061647</v>
+        <v>1.2580598301729191</v>
       </c>
       <c r="G21">
-        <v>0.2087243420166516</v>
+        <v>-0.44754767686711883</v>
       </c>
       <c r="H21">
-        <v>0.61413120196282756</v>
+        <v>1.1358586023998201</v>
       </c>
       <c r="I21">
-        <v>-0.12389127261393472</v>
+        <v>0.82131223110280571</v>
       </c>
       <c r="J21">
-        <v>0.28529623670218851</v>
+        <v>0.34554892357478478</v>
       </c>
       <c r="K21">
-        <v>9.1431464653664099E-2</v>
+        <v>-0.79017518335711212</v>
       </c>
       <c r="L21">
-        <v>-0.30582680828512593</v>
+        <v>8.8275322226729389E-2</v>
       </c>
       <c r="M21">
-        <v>0.13280698782987338</v>
+        <v>-0.24721374771104007</v>
       </c>
       <c r="N21">
-        <v>0.29857850686245524</v>
+        <v>-0.79193546322526298</v>
       </c>
       <c r="O21">
-        <v>0.4996091883901207</v>
+        <v>6.3674269076637296E-3</v>
       </c>
       <c r="P21">
-        <v>-9.1276251088573644E-3</v>
+        <v>-0.17977401618804381</v>
       </c>
       <c r="Q21">
-        <v>0.43243263428033923</v>
+        <v>0.31078916549506352</v>
       </c>
       <c r="R21">
-        <v>-0.19895263420778384</v>
+        <v>-0.41910797963745572</v>
       </c>
       <c r="S21">
-        <v>0.43618023889009305</v>
+        <v>0.23947241066498506</v>
       </c>
       <c r="T21">
-        <v>-8.8326610948921372E-2</v>
+        <v>-0.17074969242366383</v>
       </c>
       <c r="U21">
-        <v>-0.21334047062248745</v>
+        <v>-1.03146346075356</v>
       </c>
       <c r="V21">
-        <v>0.11432615083544058</v>
+        <v>7.8080448896175533E-2</v>
       </c>
       <c r="W21">
-        <v>7.0325320734144894E-2</v>
+        <v>-5.0675218241022633E-2</v>
       </c>
       <c r="X21">
-        <v>0.19765048424894766</v>
+        <v>9.8699860221691249E-3</v>
       </c>
       <c r="Y21">
-        <v>9.1901590763416117E-3</v>
+        <v>-0.118675783836523</v>
       </c>
       <c r="Z21">
-        <v>-4.9216618366928588E-2</v>
+        <v>0.5816440569062149</v>
       </c>
       <c r="AA21">
-        <v>1.8412404971732799E-2</v>
+        <v>-0.20810000417605568</v>
       </c>
       <c r="AB21">
-        <v>-5.7701836679014934E-2</v>
+        <v>-6.0537820518456041E-2</v>
       </c>
       <c r="AC21">
-        <v>0.12921452255985749</v>
+        <v>1.7851991443201078E-2</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>6.8699017694337812</v>
+        <v>7.3132826744032835</v>
       </c>
       <c r="B22">
-        <v>-0.59984418494895086</v>
+        <v>-1.2807582396323705</v>
       </c>
       <c r="C22">
-        <v>-2.7604556220043137</v>
+        <v>-4.5997301652995732</v>
       </c>
       <c r="D22">
-        <v>-1.4900106302059286</v>
+        <v>0.47249520036173015</v>
       </c>
       <c r="E22">
-        <v>-1.5628921807655873</v>
+        <v>-2.9867199098172241</v>
       </c>
       <c r="F22">
-        <v>-1.7435943875928857</v>
+        <v>-1.7252471169867716</v>
       </c>
       <c r="G22">
-        <v>-0.41853263595652529</v>
+        <v>0.19980337838923656</v>
       </c>
       <c r="H22">
-        <v>-0.13201040218708537</v>
+        <v>1.1350764015074846</v>
       </c>
       <c r="I22">
-        <v>0.10627838508008776</v>
+        <v>0.84068126191811687</v>
       </c>
       <c r="J22">
-        <v>0.65153819773783173</v>
+        <v>-0.22353662969912397</v>
       </c>
       <c r="K22">
-        <v>0.32344787893529792</v>
+        <v>-0.41968765009980297</v>
       </c>
       <c r="L22">
-        <v>0.17172792941331777</v>
+        <v>-3.2335559730701166E-2</v>
       </c>
       <c r="M22">
-        <v>0.44651288407833817</v>
+        <v>-1.0333119182131405</v>
       </c>
       <c r="N22">
-        <v>7.5078262335494764E-2</v>
+        <v>-0.87367675154224533</v>
       </c>
       <c r="O22">
-        <v>0.93449097875846321</v>
+        <v>0.21795907855977792</v>
       </c>
       <c r="P22">
-        <v>-3.2795556999671099E-2</v>
+        <v>-0.35581325694158145</v>
       </c>
       <c r="Q22">
-        <v>2.3746870171889513E-2</v>
+        <v>-0.40014892298776883</v>
       </c>
       <c r="R22">
-        <v>0.22963653061053943</v>
+        <v>0.4317207579378799</v>
       </c>
       <c r="S22">
-        <v>0.23271727214648552</v>
+        <v>-0.23190662130849193</v>
       </c>
       <c r="T22">
-        <v>-0.19773927836983843</v>
+        <v>-0.29408272120501439</v>
       </c>
       <c r="U22">
-        <v>-6.924287271787484E-2</v>
+        <v>-0.14649522371121407</v>
       </c>
       <c r="V22">
-        <v>0.17131114666750963</v>
+        <v>5.2292996960679947E-2</v>
       </c>
       <c r="W22">
-        <v>-7.8600964706015283E-2</v>
+        <v>-3.6892329378167665E-2</v>
       </c>
       <c r="X22">
-        <v>6.1090667054894174E-2</v>
+        <v>0.33986970881390977</v>
       </c>
       <c r="Y22">
-        <v>-7.0215991414160614E-2</v>
+        <v>-0.16467258880760949</v>
       </c>
       <c r="Z22">
-        <v>4.318667443041628E-2</v>
+        <v>-0.23591292241075359</v>
       </c>
       <c r="AA22">
-        <v>4.9550828637134024E-2</v>
+        <v>-7.6448759602950722E-2</v>
       </c>
       <c r="AB22">
-        <v>-5.601962206283622E-2</v>
+        <v>0.1287247496088347</v>
       </c>
       <c r="AC22">
-        <v>-3.2226963041208999E-2</v>
+        <v>0.11510236170737342</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>6.3655783321669697</v>
+        <v>7.874401341794858</v>
       </c>
       <c r="B23">
-        <v>0.81798462021631879</v>
+        <v>4.6295220236599803</v>
       </c>
       <c r="C23">
-        <v>-3.2422270767690803E-2</v>
+        <v>-2.6714988371448904</v>
       </c>
       <c r="D23">
-        <v>-0.12988591130198057</v>
+        <v>-1.4284060626741535</v>
       </c>
       <c r="E23">
-        <v>1.0301888224971993</v>
+        <v>-1.1116139318267262</v>
       </c>
       <c r="F23">
-        <v>0.70494758951350833</v>
+        <v>-2.3370771174610696</v>
       </c>
       <c r="G23">
-        <v>-0.11737215512410337</v>
+        <v>-2.0700685550387026</v>
       </c>
       <c r="H23">
-        <v>-0.35283251881449162</v>
+        <v>-0.13677734456198382</v>
       </c>
       <c r="I23">
-        <v>-0.56648750745707133</v>
+        <v>9.9172073426786037E-2</v>
       </c>
       <c r="J23">
-        <v>-0.63596738054955348</v>
+        <v>-1.0476749560440373</v>
       </c>
       <c r="K23">
-        <v>-0.40036556024684672</v>
+        <v>-0.67577166998402816</v>
       </c>
       <c r="L23">
-        <v>-4.4737133919173118E-2</v>
+        <v>0.89143181655897308</v>
       </c>
       <c r="M23">
-        <v>-0.22206779697986972</v>
+        <v>0.88209106765251089</v>
       </c>
       <c r="N23">
-        <v>-0.51788593424144513</v>
+        <v>0.5480615419819912</v>
       </c>
       <c r="O23">
-        <v>-1.0693572565023433</v>
+        <v>0.355380686430811</v>
       </c>
       <c r="P23">
-        <v>-0.30690578295857746</v>
+        <v>0.16790955918372216</v>
       </c>
       <c r="Q23">
-        <v>8.0946616906157287E-2</v>
+        <v>-8.8289061869416346E-2</v>
       </c>
       <c r="R23">
-        <v>5.7376244728527703E-2</v>
+        <v>-0.24504163472564583</v>
       </c>
       <c r="S23">
-        <v>0.2410115298776204</v>
+        <v>-8.8498764766502841E-2</v>
       </c>
       <c r="T23">
-        <v>0.34284111542998363</v>
+        <v>-1.4321122967496158E-2</v>
       </c>
       <c r="U23">
-        <v>-0.11462394023522322</v>
+        <v>6.9155658592642569E-2</v>
       </c>
       <c r="V23">
-        <v>-0.43502599825917548</v>
+        <v>5.2162608948937664E-2</v>
       </c>
       <c r="W23">
-        <v>-0.1067717538106657</v>
+        <v>-1.7607668884336364E-2</v>
       </c>
       <c r="X23">
-        <v>9.1134503329119196E-2</v>
+        <v>0.12962402382892035</v>
       </c>
       <c r="Y23">
-        <v>-0.24211720704974088</v>
+        <v>2.0481959842650506E-2</v>
       </c>
       <c r="Z23">
-        <v>-0.37410367762590052</v>
+        <v>-2.9697104717018405E-2</v>
       </c>
       <c r="AA23">
-        <v>-4.3987104121763716E-2</v>
+        <v>3.9947975517555852E-3</v>
       </c>
       <c r="AB23">
-        <v>0.28125065045491088</v>
+        <v>-0.16025990690782646</v>
       </c>
       <c r="AC23">
-        <v>0.22684940643489207</v>
+        <v>-0.15740166980842102</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>5.6870721364537342</v>
+        <v>8.1786843194554368</v>
       </c>
       <c r="B24">
-        <v>3.2728202312587165</v>
+        <v>1.8036363625134746</v>
       </c>
       <c r="C24">
-        <v>-0.16255049720112744</v>
+        <v>-1.0722395940680562</v>
       </c>
       <c r="D24">
-        <v>6.5494019528827413E-2</v>
+        <v>-1.1361891168573623</v>
       </c>
       <c r="E24">
-        <v>0.69945902892891643</v>
+        <v>-0.90939413651455325</v>
       </c>
       <c r="F24">
-        <v>7.0016316522531707E-2</v>
+        <v>-0.66339682542505418</v>
       </c>
       <c r="G24">
-        <v>-0.55081074344108261</v>
+        <v>-1.111514185205883</v>
       </c>
       <c r="H24">
-        <v>-0.212372079533972</v>
+        <v>-0.24245365291878879</v>
       </c>
       <c r="I24">
-        <v>-0.20248118906163659</v>
+        <v>-0.94921901283021226</v>
       </c>
       <c r="J24">
-        <v>-3.1521159172016325E-2</v>
+        <v>0.34389859544674234</v>
       </c>
       <c r="K24">
-        <v>-0.40965852773781503</v>
+        <v>-0.48472489298982102</v>
       </c>
       <c r="L24">
-        <v>-0.47512055991646218</v>
+        <v>-0.21418978810168054</v>
       </c>
       <c r="M24">
-        <v>-0.21382118089466351</v>
+        <v>0.17466417375049759</v>
       </c>
       <c r="N24">
-        <v>-4.6605630225354973E-2</v>
+        <v>0.39611147518722328</v>
       </c>
       <c r="O24">
-        <v>0.41338554347112544</v>
+        <v>0.26804916679214719</v>
       </c>
       <c r="P24">
-        <v>-0.20448690384558793</v>
+        <v>0.30629792760696795</v>
       </c>
       <c r="Q24">
-        <v>-0.15538191969745574</v>
+        <v>-0.18814677129629581</v>
       </c>
       <c r="R24">
-        <v>3.8343424992663772E-2</v>
+        <v>-0.16381493000094871</v>
       </c>
       <c r="S24">
-        <v>-2.0113024187270147E-2</v>
+        <v>-0.31009726584556752</v>
       </c>
       <c r="T24">
-        <v>-2.0310502921228331E-2</v>
+        <v>-0.19687198471767409</v>
       </c>
       <c r="U24">
-        <v>0.29699505812506166</v>
+        <v>-9.7387297110271293E-3</v>
       </c>
       <c r="V24">
-        <v>0.39005799584814616</v>
+        <v>0.2645565992801156</v>
       </c>
       <c r="W24">
-        <v>0.2327826484416578</v>
+        <v>5.2759653212351841E-2</v>
       </c>
       <c r="X24">
-        <v>5.0402042809384331E-2</v>
+        <v>0.27886951328522186</v>
       </c>
       <c r="Y24">
-        <v>7.845155152126651E-2</v>
+        <v>-0.10686277111941603</v>
       </c>
       <c r="Z24">
-        <v>0.21048124882898581</v>
+        <v>-0.26323697118414846</v>
       </c>
       <c r="AA24">
-        <v>6.5234460548133505E-2</v>
+        <v>-0.20734409788929337</v>
       </c>
       <c r="AB24">
-        <v>-6.5810490274726116E-2</v>
+        <v>-0.20927232129450846</v>
       </c>
       <c r="AC24">
-        <v>2.0902395701531146E-2</v>
+        <v>-0.12224919940132009</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>6.0838035870398048</v>
+        <v>8.0728070541582877</v>
       </c>
       <c r="B25">
-        <v>-0.54908717699027765</v>
+        <v>0.5596318720386152</v>
       </c>
       <c r="C25">
-        <v>-1.4386608353857691</v>
+        <v>-3.3309203075636242</v>
       </c>
       <c r="D25">
-        <v>0.17198705103637027</v>
+        <v>2.5941347904557932</v>
       </c>
       <c r="E25">
-        <v>1.3823286141335436</v>
+        <v>-2.4440853461105894</v>
       </c>
       <c r="F25">
-        <v>1.4501397092731292</v>
+        <v>-2.1274569721039192</v>
       </c>
       <c r="G25">
-        <v>0.9215327018810926</v>
+        <v>1.2734357522364201</v>
       </c>
       <c r="H25">
-        <v>0.47842364596851478</v>
+        <v>-1.4926806855681753</v>
       </c>
       <c r="I25">
-        <v>-9.6984802722478503E-2</v>
+        <v>-1.1750163869436758</v>
       </c>
       <c r="J25">
-        <v>-7.3589700098092625E-2</v>
+        <v>1.4809321036330749</v>
       </c>
       <c r="K25">
-        <v>-0.5507782620174948</v>
+        <v>-1.0188123347187423</v>
       </c>
       <c r="L25">
-        <v>-0.4866073601667385</v>
+        <v>6.8565189233198168E-2</v>
       </c>
       <c r="M25">
-        <v>-0.53111381727357643</v>
+        <v>0.88406431529569962</v>
       </c>
       <c r="N25">
-        <v>-0.41602074813740803</v>
+        <v>-0.1629061587571965</v>
       </c>
       <c r="O25">
-        <v>0.31798402283989075</v>
+        <v>0.38396294219542937</v>
       </c>
       <c r="P25">
-        <v>0.1896019306678412</v>
+        <v>6.691135497965868E-2</v>
       </c>
       <c r="Q25">
-        <v>-1.462996576469716E-2</v>
+        <v>-0.15917511991972341</v>
       </c>
       <c r="R25">
-        <v>-0.38088279552725224</v>
+        <v>0.17551033101711658</v>
       </c>
       <c r="S25">
-        <v>1.2529504895783935E-2</v>
+        <v>-0.22603710700661719</v>
       </c>
       <c r="T25">
-        <v>0.18753472486126421</v>
+        <v>-0.28732129773377069</v>
       </c>
       <c r="U25">
-        <v>-0.38448978173806125</v>
+        <v>-0.15576237616363717</v>
       </c>
       <c r="V25">
-        <v>-2.908270671413369E-2</v>
+        <v>-7.5140436673352448E-2</v>
       </c>
       <c r="W25">
-        <v>0.32404864462395683</v>
+        <v>-1.6386037210793271E-2</v>
       </c>
       <c r="X25">
-        <v>-0.41609619938267906</v>
+        <v>0.17116991803297296</v>
       </c>
       <c r="Y25">
-        <v>-0.20048297563257825</v>
+        <v>-4.7243478430813599E-2</v>
       </c>
       <c r="Z25">
-        <v>0.28553897685940388</v>
+        <v>-0.25166240136946294</v>
       </c>
       <c r="AA25">
-        <v>-0.28267490780420285</v>
+        <v>-0.19226687514175486</v>
       </c>
       <c r="AB25">
-        <v>-0.112195721688561</v>
+        <v>4.9716433892403105E-3</v>
       </c>
       <c r="AC25">
-        <v>9.6794238903818997E-2</v>
+        <v>2.4055797653996059E-2</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>6.4836350662459861</v>
+        <v>7.5533476488074163</v>
       </c>
       <c r="B26">
-        <v>-4.2718295893937039</v>
+        <v>-0.25203304761085477</v>
       </c>
       <c r="C26">
-        <v>1.2272237268278354</v>
+        <v>-3.964034340978186</v>
       </c>
       <c r="D26">
-        <v>-1.3956276520788429</v>
+        <v>0.33270629974116944</v>
       </c>
       <c r="E26">
-        <v>0.77110726472237223</v>
+        <v>-2.8701021142576355</v>
       </c>
       <c r="F26">
-        <v>-0.74977782995770559</v>
+        <v>-1.3182776525972684</v>
       </c>
       <c r="G26">
-        <v>-5.7532062283339284E-2</v>
+        <v>-0.44397088123800565</v>
       </c>
       <c r="H26">
-        <v>0.19402251199852749</v>
+        <v>-1.0350747608226898</v>
       </c>
       <c r="I26">
-        <v>-0.34055272979525858</v>
+        <v>-0.25115917945744931</v>
       </c>
       <c r="J26">
-        <v>8.7128981687534281E-3</v>
+        <v>-0.36524822658770145</v>
       </c>
       <c r="K26">
-        <v>-6.9352255078259248E-2</v>
+        <v>-0.37139495519972726</v>
       </c>
       <c r="L26">
-        <v>-0.36882636400517738</v>
+        <v>-0.22953710840840885</v>
       </c>
       <c r="M26">
-        <v>-0.33933360756671499</v>
+        <v>-0.47795191252128505</v>
       </c>
       <c r="N26">
-        <v>0.2183993549200447</v>
+        <v>0.29857850686245524</v>
       </c>
       <c r="O26">
-        <v>-0.13632797801325647</v>
+        <v>0.4996091883901207</v>
       </c>
       <c r="P26">
-        <v>-4.0403830920147085E-2</v>
+        <v>-9.1276251088573644E-3</v>
       </c>
       <c r="Q26">
-        <v>-0.20244837745086788</v>
+        <v>0.43243263428033923</v>
       </c>
       <c r="R26">
-        <v>-0.61585892502559469</v>
+        <v>-0.19895263420778384</v>
       </c>
       <c r="S26">
-        <v>-7.6697742276442327E-2</v>
+        <v>0.43618023889009305</v>
       </c>
       <c r="T26">
-        <v>-0.14876500662418468</v>
+        <v>-8.8326610948921372E-2</v>
       </c>
       <c r="U26">
-        <v>-0.24616346288633639</v>
+        <v>-0.21334047062248745</v>
       </c>
       <c r="V26">
-        <v>-0.27736630099275411</v>
+        <v>0.11432615083544058</v>
       </c>
       <c r="W26">
-        <v>-0.16191266270923316</v>
+        <v>7.0325320734144894E-2</v>
       </c>
       <c r="X26">
-        <v>6.2617641538161174E-3</v>
+        <v>0.19765048424894766</v>
       </c>
       <c r="Y26">
-        <v>-0.16487794921569018</v>
+        <v>9.1901590763416117E-3</v>
       </c>
       <c r="Z26">
-        <v>-0.24366405864284935</v>
+        <v>-4.9216618366928588E-2</v>
       </c>
       <c r="AA26">
-        <v>0.12324986684940045</v>
+        <v>1.8412404971732799E-2</v>
       </c>
       <c r="AB26">
-        <v>-6.5753894993967596E-2</v>
+        <v>-5.7701836679014934E-2</v>
       </c>
       <c r="AC26">
-        <v>-0.19636523680680376</v>
+        <v>0.12921452255985749</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>6.0553401540115361</v>
+        <v>8.5279406555946231</v>
       </c>
       <c r="B27">
-        <v>6.1403947264156873</v>
+        <v>3.3976049286222882</v>
       </c>
       <c r="C27">
-        <v>2.9605541235795947</v>
+        <v>-0.93919007255975528</v>
       </c>
       <c r="D27">
-        <v>1.9811947932244007</v>
+        <v>-2.0563794134268623</v>
       </c>
       <c r="E27">
-        <v>0.85226187169285939</v>
+        <v>-1.0109975247301668</v>
       </c>
       <c r="F27">
-        <v>0.69743803672908367</v>
+        <v>-1.0768920046580694</v>
       </c>
       <c r="G27">
-        <v>-4.283857929016089E-2</v>
+        <v>-1.6450789274932749</v>
       </c>
       <c r="H27">
-        <v>-0.4879843221283241</v>
+        <v>0.14968869926349396</v>
       </c>
       <c r="I27">
-        <v>-0.52297153897988169</v>
+        <v>-0.4217980462107927</v>
       </c>
       <c r="J27">
-        <v>-0.37764657541428409</v>
+        <v>0.14268934328652069</v>
       </c>
       <c r="K27">
-        <v>-0.58516811603189045</v>
+        <v>-0.90698506480594232</v>
       </c>
       <c r="L27">
-        <v>-0.18818943344578404</v>
+        <v>-0.21145360121647258</v>
       </c>
       <c r="M27">
-        <v>-0.48134002816563176</v>
+        <v>0.25187391196604392</v>
       </c>
       <c r="N27">
-        <v>8.6067514744485193E-2</v>
+        <v>7.5078262335494764E-2</v>
       </c>
       <c r="O27">
-        <v>-0.71151575238023101</v>
+        <v>0.93449097875846321</v>
       </c>
       <c r="P27">
-        <v>0.30422685561692075</v>
+        <v>-3.2795556999671099E-2</v>
       </c>
       <c r="Q27">
-        <v>-0.20853541484616722</v>
+        <v>2.3746870171889513E-2</v>
       </c>
       <c r="R27">
-        <v>0.47785530650696073</v>
+        <v>0.22963653061053943</v>
       </c>
       <c r="S27">
-        <v>-0.34237949242636984</v>
+        <v>0.23271727214648552</v>
       </c>
       <c r="T27">
-        <v>0.13712178645750742</v>
+        <v>-0.19773927836983843</v>
       </c>
       <c r="U27">
-        <v>6.3470508531860315E-2</v>
+        <v>-6.924287271787484E-2</v>
       </c>
       <c r="V27">
-        <v>-0.22752174303563855</v>
+        <v>0.17131114666750963</v>
       </c>
       <c r="W27">
-        <v>0.1061859801284028</v>
+        <v>-7.8600964706015283E-2</v>
       </c>
       <c r="X27">
-        <v>-0.33687450263221574</v>
+        <v>6.1090667054894174E-2</v>
       </c>
       <c r="Y27">
-        <v>3.163700195728323E-2</v>
+        <v>-7.0215991414160614E-2</v>
       </c>
       <c r="Z27">
-        <v>-6.4774850569603391E-3</v>
+        <v>4.318667443041628E-2</v>
       </c>
       <c r="AA27">
-        <v>-4.0059169391712106E-2</v>
+        <v>4.9550828637134024E-2</v>
       </c>
       <c r="AB27">
-        <v>0.13372954656588279</v>
+        <v>-5.601962206283622E-2</v>
       </c>
       <c r="AC27">
-        <v>0.22015075708826151</v>
+        <v>-3.2226963041208999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3.7012281056843732</v>
+        <v>8.0801390144090952</v>
       </c>
       <c r="B28">
-        <v>3.8502756112995287</v>
+        <v>0.40931078717220765</v>
       </c>
       <c r="C28">
-        <v>0.17887836108689434</v>
+        <v>-2.0255567821742226</v>
       </c>
       <c r="D28">
-        <v>7.4269643959814863E-2</v>
+        <v>-1.4316961333381291</v>
       </c>
       <c r="E28">
-        <v>-0.63001748862251794</v>
+        <v>-0.71464758276023055</v>
       </c>
       <c r="F28">
-        <v>0.55213792524446204</v>
+        <v>-0.27373401609936338</v>
       </c>
       <c r="G28">
-        <v>0.37685559950140257</v>
+        <v>-3.592584154519646</v>
       </c>
       <c r="H28">
-        <v>-0.55189409022340097</v>
+        <v>0.17526291969684268</v>
       </c>
       <c r="I28">
-        <v>-0.2787459793719691</v>
+        <v>-0.4578242984074038</v>
       </c>
       <c r="J28">
-        <v>-0.40368796974527038</v>
+        <v>0.1755913580630846</v>
       </c>
       <c r="K28">
-        <v>-0.2658857920270481</v>
+        <v>0.23656884822500357</v>
       </c>
       <c r="L28">
-        <v>0.39503506524821774</v>
+        <v>8.5794932358519135E-2</v>
       </c>
       <c r="M28">
-        <v>-0.4036044518499588</v>
+        <v>0.96973334524656996</v>
       </c>
       <c r="N28">
-        <v>2.0422126424174295E-2</v>
+        <v>-0.51788593424144513</v>
       </c>
       <c r="O28">
-        <v>0.50960943105918111</v>
+        <v>-1.0693572565023433</v>
       </c>
       <c r="P28">
-        <v>0.24552139080238727</v>
+        <v>-0.30690578295857746</v>
       </c>
       <c r="Q28">
-        <v>-0.74664518130905144</v>
+        <v>8.0946616906157287E-2</v>
       </c>
       <c r="R28">
-        <v>0.3534903842330408</v>
+        <v>5.7376244728527703E-2</v>
       </c>
       <c r="S28">
-        <v>-0.20209541106404016</v>
+        <v>0.2410115298776204</v>
       </c>
       <c r="T28">
-        <v>-5.7100273176013606E-2</v>
+        <v>0.34284111542998363</v>
       </c>
       <c r="U28">
-        <v>-1.6237898131153641E-2</v>
+        <v>-0.11462394023522322</v>
       </c>
       <c r="V28">
-        <v>-0.47398681745965721</v>
+        <v>-0.43502599825917548</v>
       </c>
       <c r="W28">
-        <v>0.21373281728643831</v>
+        <v>-0.1067717538106657</v>
       </c>
       <c r="X28">
-        <v>-0.5117221809180813</v>
+        <v>9.1134503329119196E-2</v>
       </c>
       <c r="Y28">
-        <v>-1.6730705826092096E-2</v>
+        <v>-0.24211720704974088</v>
       </c>
       <c r="Z28">
-        <v>-0.28460012741263102</v>
+        <v>-0.37410367762590052</v>
       </c>
       <c r="AA28">
-        <v>-9.6823127569391584E-2</v>
+        <v>-4.3987104121763716E-2</v>
       </c>
       <c r="AB28">
-        <v>6.0062215334408062E-3</v>
+        <v>0.28125065045491088</v>
       </c>
       <c r="AC28">
-        <v>0.1747928078804048</v>
+        <v>0.22684940643489207</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>5.7471513777296028</v>
+        <v>7.3681698011478041</v>
       </c>
       <c r="B29">
-        <v>-4.8873820571466391</v>
+        <v>-1.3609375935115202</v>
       </c>
       <c r="C29">
-        <v>-3.5249037211353214</v>
+        <v>0.53090771864922837</v>
       </c>
       <c r="D29">
-        <v>4.4753084976646784</v>
+        <v>2.6287456175804116</v>
       </c>
       <c r="E29">
-        <v>-9.9738192101090861E-2</v>
+        <v>-3.5192266514454213</v>
       </c>
       <c r="F29">
-        <v>0.90884486871295644</v>
+        <v>-1.9034768632107828</v>
       </c>
       <c r="G29">
-        <v>0.4367162981463022</v>
+        <v>-0.37336116321295792</v>
       </c>
       <c r="H29">
-        <v>0.55232103205249916</v>
+        <v>-3.0257106270708798</v>
       </c>
       <c r="I29">
-        <v>-0.20120831129878847</v>
+        <v>-1.0837756072611269</v>
       </c>
       <c r="J29">
-        <v>-8.2220943973203894E-3</v>
+        <v>-0.21236638750602463</v>
       </c>
       <c r="K29">
-        <v>0.359684734721199</v>
+        <v>-1.3715921938561799</v>
       </c>
       <c r="L29">
-        <v>1.1239103337784271</v>
+        <v>0.47330958212523672</v>
       </c>
       <c r="M29">
-        <v>-0.5207202248208076</v>
+        <v>0.46908127530407334</v>
       </c>
       <c r="N29">
-        <v>-0.19187549229736398</v>
+        <v>-4.6605630225354973E-2</v>
       </c>
       <c r="O29">
-        <v>0.80431074165615335</v>
+        <v>0.41338554347112544</v>
       </c>
       <c r="P29">
-        <v>0.27951946928643751</v>
+        <v>-0.20448690384558793</v>
       </c>
       <c r="Q29">
-        <v>-0.14240646272296453</v>
+        <v>-0.15538191969745574</v>
       </c>
       <c r="R29">
-        <v>0.24433478167247738</v>
+        <v>3.8343424992663772E-2</v>
       </c>
       <c r="S29">
-        <v>-0.22276734888227961</v>
+        <v>-2.0113024187270147E-2</v>
       </c>
       <c r="T29">
-        <v>-0.27200216369059527</v>
+        <v>-2.0310502921228331E-2</v>
       </c>
       <c r="U29">
-        <v>-0.12129641365801934</v>
+        <v>0.29699505812506166</v>
       </c>
       <c r="V29">
-        <v>-0.26582374356653105</v>
+        <v>0.39005799584814616</v>
       </c>
       <c r="W29">
-        <v>-0.186630124501482</v>
+        <v>0.2327826484416578</v>
       </c>
       <c r="X29">
-        <v>-0.14679508250689849</v>
+        <v>5.0402042809384331E-2</v>
       </c>
       <c r="Y29">
-        <v>-0.11668069165632942</v>
+        <v>7.845155152126651E-2</v>
       </c>
       <c r="Z29">
-        <v>-0.11363823261180757</v>
+        <v>0.21048124882898581</v>
       </c>
       <c r="AA29">
-        <v>-0.10801308258337701</v>
+        <v>6.5234460548133505E-2</v>
       </c>
       <c r="AB29">
-        <v>3.1411253833763274E-2</v>
+        <v>-6.5810490274726116E-2</v>
       </c>
       <c r="AC29">
-        <v>-8.4646409915375184E-2</v>
+        <v>2.0902395701531146E-2</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4.7336359727182469</v>
+        <v>7.8852104089547019</v>
       </c>
       <c r="B30">
-        <v>1.8842333706498102</v>
+        <v>-1.7063725976986595</v>
       </c>
       <c r="C30">
-        <v>-0.68293979031226892</v>
+        <v>-3.0146746395591397</v>
       </c>
       <c r="D30">
-        <v>1.8823255659496987</v>
+        <v>3.0731506149052765</v>
       </c>
       <c r="E30">
-        <v>1.8870671564630612</v>
+        <v>-2.7304518002597824</v>
       </c>
       <c r="F30">
-        <v>0.92532029074176447</v>
+        <v>-0.80714678786176242</v>
       </c>
       <c r="G30">
-        <v>-6.213644695610724E-2</v>
+        <v>0.92274069408435766</v>
       </c>
       <c r="H30">
-        <v>0.34330900247762064</v>
+        <v>-1.8045616360612644</v>
       </c>
       <c r="I30">
-        <v>0.40704455038919507</v>
+        <v>-0.28048231188608214</v>
       </c>
       <c r="J30">
-        <v>0.31807583068754169</v>
+        <v>1.149183657182514</v>
       </c>
       <c r="K30">
-        <v>-1.5589235492246731E-2</v>
+        <v>-1.0875763185794201</v>
       </c>
       <c r="L30">
-        <v>-0.23914851127429287</v>
+        <v>0.67966550872640896</v>
       </c>
       <c r="M30">
-        <v>0.19600965201476436</v>
+        <v>1.0547258849787997</v>
       </c>
       <c r="N30">
-        <v>-0.60173616646771044</v>
+        <v>-0.41602074813740803</v>
       </c>
       <c r="O30">
-        <v>0.66218792561808293</v>
+        <v>0.31798402283989075</v>
       </c>
       <c r="P30">
-        <v>0.57154744131900059</v>
+        <v>0.1896019306678412</v>
       </c>
       <c r="Q30">
-        <v>-0.7671745470810738</v>
+        <v>-1.462996576469716E-2</v>
       </c>
       <c r="R30">
-        <v>0.39273120929878164</v>
+        <v>-0.38088279552725224</v>
       </c>
       <c r="S30">
-        <v>3.9458355618291245E-2</v>
+        <v>1.2529504895783935E-2</v>
       </c>
       <c r="T30">
-        <v>-0.68033051927976562</v>
+        <v>0.18753472486126421</v>
       </c>
       <c r="U30">
-        <v>0.27071756802919544</v>
+        <v>-0.38448978173806125</v>
       </c>
       <c r="V30">
-        <v>-4.3472492155536842E-2</v>
+        <v>-2.908270671413369E-2</v>
       </c>
       <c r="W30">
-        <v>-0.4045179601933877</v>
+        <v>0.32404864462395683</v>
       </c>
       <c r="X30">
-        <v>0.27265287409880573</v>
+        <v>-0.41609619938267906</v>
       </c>
       <c r="Y30">
-        <v>-6.5835848440306474E-2</v>
+        <v>-0.20048297563257825</v>
       </c>
       <c r="Z30">
-        <v>-0.18173783027095514</v>
+        <v>0.28553897685940388</v>
       </c>
       <c r="AA30">
-        <v>0.14836535089242708</v>
+        <v>-0.28267490780420285</v>
       </c>
       <c r="AB30">
-        <v>-3.1594375313917192E-2</v>
+        <v>-0.112195721688561</v>
       </c>
       <c r="AC30">
-        <v>-4.0697050425791519E-2</v>
+        <v>9.6794238903818997E-2</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>5.3375523744066609</v>
+        <v>6.6241355388540564</v>
       </c>
       <c r="B31">
-        <v>0.50983533202217068</v>
+        <v>0.99876806045646449</v>
       </c>
       <c r="C31">
-        <v>0.54046965585803441</v>
+        <v>1.0959459680056707</v>
       </c>
       <c r="D31">
-        <v>0.43793785723953238</v>
+        <v>1.1797593860390743</v>
       </c>
       <c r="E31">
-        <v>-1.3815460590274899</v>
+        <v>1.1224575360496147</v>
       </c>
       <c r="F31">
-        <v>2.0131206192612381</v>
+        <v>0.48886538421862658</v>
       </c>
       <c r="G31">
-        <v>-2.3086485705966431</v>
+        <v>2.260546565480209</v>
       </c>
       <c r="H31">
-        <v>0.28392682761518501</v>
+        <v>-0.67902553823930689</v>
       </c>
       <c r="I31">
-        <v>-0.56425095359006816</v>
+        <v>-0.11482939392666104</v>
       </c>
       <c r="J31">
-        <v>-1.1679976049906375</v>
+        <v>0.9096466015965804</v>
       </c>
       <c r="K31">
-        <v>0.26968381273027903</v>
+        <v>-0.43332897199874537</v>
       </c>
       <c r="L31">
-        <v>0.36303158611216735</v>
+        <v>3.6099319345468457E-2</v>
       </c>
       <c r="M31">
-        <v>0.51911912632765866</v>
+        <v>-4.6931125951637363E-2</v>
       </c>
       <c r="N31">
-        <v>-0.16439842766547655</v>
+        <v>0.2183993549200447</v>
       </c>
       <c r="O31">
-        <v>4.6413225951141591E-3</v>
+        <v>-0.13632797801325647</v>
       </c>
       <c r="P31">
-        <v>0.28112202187475449</v>
+        <v>-4.0403830920147085E-2</v>
       </c>
       <c r="Q31">
-        <v>-0.79408074028480735</v>
+        <v>-0.20244837745086788</v>
       </c>
       <c r="R31">
-        <v>-0.79312508169868301</v>
+        <v>-0.61585892502559469</v>
       </c>
       <c r="S31">
-        <v>-0.42791278784771675</v>
+        <v>-7.6697742276442327E-2</v>
       </c>
       <c r="T31">
-        <v>-0.36263749389950534</v>
+        <v>-0.14876500662418468</v>
       </c>
       <c r="U31">
-        <v>0.37081601672395309</v>
+        <v>-0.24616346288633639</v>
       </c>
       <c r="V31">
-        <v>0.21404819943284109</v>
+        <v>-0.27736630099275411</v>
       </c>
       <c r="W31">
-        <v>-3.6313278564457159E-2</v>
+        <v>-0.16191266270923316</v>
       </c>
       <c r="X31">
-        <v>-0.12168615398693614</v>
+        <v>6.2617641538161174E-3</v>
       </c>
       <c r="Y31">
-        <v>-0.25786800293095563</v>
+        <v>-0.16487794921569018</v>
       </c>
       <c r="Z31">
-        <v>-0.37220530958622233</v>
+        <v>-0.24366405864284935</v>
       </c>
       <c r="AA31">
-        <v>-0.33131685862835442</v>
+        <v>0.12324986684940045</v>
       </c>
       <c r="AB31">
-        <v>-0.12583358403545869</v>
+        <v>-6.5753894993967596E-2</v>
       </c>
       <c r="AC31">
-        <v>0.2599527778664002</v>
+        <v>-0.19636523680680376</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>5.5456267991679491</v>
+        <v>7.7998502329143289</v>
       </c>
       <c r="B32">
-        <v>0.68375389017592625</v>
+        <v>1.0634563591202739</v>
       </c>
       <c r="C32">
-        <v>1.021818400733769</v>
+        <v>3.7608062050267117</v>
       </c>
       <c r="D32">
-        <v>1.4827204638234435</v>
+        <v>1.1582895715029302</v>
       </c>
       <c r="E32">
-        <v>-1.0414449532286647</v>
+        <v>-0.82067569117322325</v>
       </c>
       <c r="F32">
-        <v>3.1775589240055937</v>
+        <v>2.0333378656257888</v>
       </c>
       <c r="G32">
-        <v>0.25573894058554597</v>
+        <v>-0.47653531466633203</v>
       </c>
       <c r="H32">
-        <v>-0.68598816844771604</v>
+        <v>-0.19709699596452246</v>
       </c>
       <c r="I32">
-        <v>-1.0063825151443619</v>
+        <v>0.42141213256902949</v>
       </c>
       <c r="J32">
-        <v>0.30284290776589545</v>
+        <v>-0.29075199395947599</v>
       </c>
       <c r="K32">
-        <v>-8.2274446060977488E-2</v>
+        <v>0.79485720301440144</v>
       </c>
       <c r="L32">
-        <v>0.26813776103969006</v>
+        <v>-0.92612498406910115</v>
       </c>
       <c r="M32">
-        <v>0.29345290698871068</v>
+        <v>0.31554487064250814</v>
       </c>
       <c r="N32">
-        <v>0.31651620939067432</v>
+        <v>8.6067514744485193E-2</v>
       </c>
       <c r="O32">
-        <v>-0.83651131759652164</v>
+        <v>-0.71151575238023101</v>
       </c>
       <c r="P32">
-        <v>0.45226337090098762</v>
+        <v>0.30422685561692075</v>
       </c>
       <c r="Q32">
-        <v>-0.44969257352698044</v>
+        <v>-0.20853541484616722</v>
       </c>
       <c r="R32">
-        <v>-0.50296922616348472</v>
+        <v>0.47785530650696073</v>
       </c>
       <c r="S32">
-        <v>0.61286782397473982</v>
+        <v>-0.34237949242636984</v>
       </c>
       <c r="T32">
-        <v>-0.41809338035023647</v>
+        <v>0.13712178645750742</v>
       </c>
       <c r="U32">
-        <v>-0.13864521152376205</v>
+        <v>6.3470508531860315E-2</v>
       </c>
       <c r="V32">
-        <v>0.11384297893299269</v>
+        <v>-0.22752174303563855</v>
       </c>
       <c r="W32">
-        <v>6.669489153847559E-2</v>
+        <v>0.1061859801284028</v>
       </c>
       <c r="X32">
-        <v>-0.15253467905695159</v>
+        <v>-0.33687450263221574</v>
       </c>
       <c r="Y32">
-        <v>-0.38775868652846418</v>
+        <v>3.163700195728323E-2</v>
       </c>
       <c r="Z32">
-        <v>-2.6951662427618052E-3</v>
+        <v>-6.4774850569603391E-3</v>
       </c>
       <c r="AA32">
-        <v>-0.12867302695814872</v>
+        <v>-4.0059169391712106E-2</v>
       </c>
       <c r="AB32">
-        <v>-0.37326961923852664</v>
+        <v>0.13372954656588279</v>
       </c>
       <c r="AC32">
-        <v>-0.23281429508865539</v>
+        <v>0.22015075708826151</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>7.475586993741909</v>
+        <v>7.9648884925614016</v>
       </c>
       <c r="B33">
-        <v>-5.1664239557841807</v>
+        <v>3.9424650160574357</v>
       </c>
       <c r="C33">
-        <v>-2.707821290822725</v>
+        <v>3.062968103381476</v>
       </c>
       <c r="D33">
-        <v>-1.9217441088413885</v>
+        <v>1.5679724977244993</v>
       </c>
       <c r="E33">
-        <v>-1.0100452997659499</v>
+        <v>0.93063813701442244</v>
       </c>
       <c r="F33">
-        <v>0.80782438259670275</v>
+        <v>-0.14847648930952315</v>
       </c>
       <c r="G33">
-        <v>1.0680836762924368</v>
+        <v>0.93360201388396802</v>
       </c>
       <c r="H33">
-        <v>0.89724932880066077</v>
+        <v>-0.16984109181090856</v>
       </c>
       <c r="I33">
-        <v>5.3332113166008645E-2</v>
+        <v>-0.21333344102291832</v>
       </c>
       <c r="J33">
-        <v>-0.54011249336767031</v>
+        <v>0.14721942003265748</v>
       </c>
       <c r="K33">
-        <v>-0.48887480072447348</v>
+        <v>-2.1414706730099972E-2</v>
       </c>
       <c r="L33">
-        <v>-0.44420501383161054</v>
+        <v>-0.4538691392549859</v>
       </c>
       <c r="M33">
-        <v>-0.20589531531415697</v>
+        <v>-0.38164591500548206</v>
       </c>
       <c r="N33">
-        <v>4.164743271598504E-2</v>
+        <v>2.0422126424174295E-2</v>
       </c>
       <c r="O33">
-        <v>-0.60335400216597457</v>
+        <v>0.50960943105918111</v>
       </c>
       <c r="P33">
-        <v>-0.59855469480281576</v>
+        <v>0.24552139080238727</v>
       </c>
       <c r="Q33">
-        <v>-5.5317648409139275E-2</v>
+        <v>-0.74664518130905144</v>
       </c>
       <c r="R33">
-        <v>-0.6264844872261629</v>
+        <v>0.3534903842330408</v>
       </c>
       <c r="S33">
-        <v>-0.26967053388679524</v>
+        <v>-0.20209541106404016</v>
       </c>
       <c r="T33">
-        <v>-0.35714706756446535</v>
+        <v>-5.7100273176013606E-2</v>
       </c>
       <c r="U33">
-        <v>3.9319930893843232E-2</v>
+        <v>-1.6237898131153641E-2</v>
       </c>
       <c r="V33">
-        <v>-6.7915074242564178E-3</v>
+        <v>-0.47398681745965721</v>
       </c>
       <c r="W33">
-        <v>0.19352695823946192</v>
+        <v>0.21373281728643831</v>
       </c>
       <c r="X33">
-        <v>5.1079722444665777E-3</v>
+        <v>-0.5117221809180813</v>
       </c>
       <c r="Y33">
-        <v>-6.6129218607587428E-2</v>
+        <v>-1.6730705826092096E-2</v>
       </c>
       <c r="Z33">
-        <v>-4.8282080476684038E-2</v>
+        <v>-0.28460012741263102</v>
       </c>
       <c r="AA33">
-        <v>0.11256955472456265</v>
+        <v>-9.6823127569391584E-2</v>
       </c>
       <c r="AB33">
-        <v>-4.3909702372232677E-2</v>
+        <v>6.0062215334408062E-3</v>
       </c>
       <c r="AC33">
-        <v>-0.15015392841805733</v>
+        <v>0.1747928078804048</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>6.9519917573460788</v>
+        <v>7.9632941851649672</v>
       </c>
       <c r="B34">
-        <v>-5.4928745737214699</v>
+        <v>3.5562267046059537</v>
       </c>
       <c r="C34">
-        <v>-3.0335548767367593</v>
+        <v>-1.6136613299327225</v>
       </c>
       <c r="D34">
-        <v>-2.6920774905115152</v>
+        <v>1.5541379051207875</v>
       </c>
       <c r="E34">
-        <v>-0.59753640939585373</v>
+        <v>3.0751852746929651</v>
       </c>
       <c r="F34">
-        <v>1.3385636556619371</v>
+        <v>-0.1031480377589306</v>
       </c>
       <c r="G34">
-        <v>8.2648319268988028E-3</v>
+        <v>-0.82357755329326454</v>
       </c>
       <c r="H34">
-        <v>0.49568702162137229</v>
+        <v>-0.35694889064912638</v>
       </c>
       <c r="I34">
-        <v>-6.7536089457753745E-2</v>
+        <v>0.48277421529500797</v>
       </c>
       <c r="J34">
-        <v>-0.95528104993385821</v>
+        <v>0.29388246634312776</v>
       </c>
       <c r="K34">
-        <v>-0.71758291979949429</v>
+        <v>-1.1616588703758</v>
       </c>
       <c r="L34">
-        <v>-0.60812107858256947</v>
+        <v>1.4353773576481769E-2</v>
       </c>
       <c r="M34">
-        <v>-0.13422951382867807</v>
+        <v>0.61839699763318534</v>
       </c>
       <c r="N34">
-        <v>7.5719404301357721E-2</v>
+        <v>-0.19187549229736398</v>
       </c>
       <c r="O34">
-        <v>-0.67750666009373661</v>
+        <v>0.80431074165615335</v>
       </c>
       <c r="P34">
-        <v>0.15944243777645739</v>
+        <v>0.27951946928643751</v>
       </c>
       <c r="Q34">
-        <v>-4.7025111918806844E-2</v>
+        <v>-0.14240646272296453</v>
       </c>
       <c r="R34">
-        <v>-0.32011654156394553</v>
+        <v>0.24433478167247738</v>
       </c>
       <c r="S34">
-        <v>-0.21627728831075554</v>
+        <v>-0.22276734888227961</v>
       </c>
       <c r="T34">
-        <v>-0.37449747454994065</v>
+        <v>-0.27200216369059527</v>
       </c>
       <c r="U34">
-        <v>0.20709472303924609</v>
+        <v>-0.12129641365801934</v>
       </c>
       <c r="V34">
-        <v>0.40318133610586637</v>
+        <v>-0.26582374356653105</v>
       </c>
       <c r="W34">
-        <v>2.0339797304309078E-2</v>
+        <v>-0.186630124501482</v>
       </c>
       <c r="X34">
-        <v>0.12559166691060797</v>
+        <v>-0.14679508250689849</v>
       </c>
       <c r="Y34">
-        <v>0.3281492770020441</v>
+        <v>-0.11668069165632942</v>
       </c>
       <c r="Z34">
-        <v>-0.23547366631175148</v>
+        <v>-0.11363823261180757</v>
       </c>
       <c r="AA34">
-        <v>-0.14328319549039598</v>
+        <v>-0.10801308258337701</v>
       </c>
       <c r="AB34">
-        <v>-8.1086350253592232E-2</v>
+        <v>3.1411253833763274E-2</v>
       </c>
       <c r="AC34">
-        <v>-0.17612237908437542</v>
+        <v>-8.4646409915375184E-2</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>7.3347616640913058</v>
+        <v>8.0433116124888375</v>
       </c>
       <c r="B35">
-        <v>-3.6560157527458346</v>
+        <v>3.1257707617139028</v>
       </c>
       <c r="C35">
-        <v>-1.4198597356366387</v>
+        <v>-1.782264624199503</v>
       </c>
       <c r="D35">
-        <v>-1.9385494251627848</v>
+        <v>-2.4853834104306629</v>
       </c>
       <c r="E35">
-        <v>-0.57077092755567316</v>
+        <v>-1.4942014619909538</v>
       </c>
       <c r="F35">
-        <v>0.67870873143766508</v>
+        <v>0.30227374539341867</v>
       </c>
       <c r="G35">
-        <v>0.49209604162529397</v>
+        <v>1.2904518110642067</v>
       </c>
       <c r="H35">
-        <v>-0.20637197505435531</v>
+        <v>0.91243556968686668</v>
       </c>
       <c r="I35">
-        <v>0.33521144786653018</v>
+        <v>-0.31536428465267341</v>
       </c>
       <c r="J35">
-        <v>0.31222623091039481</v>
+        <v>-1.2375113309882095</v>
       </c>
       <c r="K35">
-        <v>-0.82671686142333967</v>
+        <v>-1.1485085833100526</v>
       </c>
       <c r="L35">
-        <v>7.3282439069097441E-2</v>
+        <v>-0.26043966290286413</v>
       </c>
       <c r="M35">
-        <v>-0.10881719549599293</v>
+        <v>0.60305647632001036</v>
       </c>
       <c r="N35">
-        <v>0.811652589027135</v>
+        <v>-0.60173616646771044</v>
       </c>
       <c r="O35">
-        <v>0.351370512785941</v>
+        <v>0.66218792561808293</v>
       </c>
       <c r="P35">
-        <v>-0.2424629526489224</v>
+        <v>0.57154744131900059</v>
       </c>
       <c r="Q35">
-        <v>-0.44842277334445546</v>
+        <v>-0.7671745470810738</v>
       </c>
       <c r="R35">
-        <v>-0.17848916866971781</v>
+        <v>0.39273120929878164</v>
       </c>
       <c r="S35">
-        <v>0.25453475882933962</v>
+        <v>3.9458355618291245E-2</v>
       </c>
       <c r="T35">
-        <v>0.43802995421526975</v>
+        <v>-0.68033051927976562</v>
       </c>
       <c r="U35">
-        <v>0.24729782467027303</v>
+        <v>0.27071756802919544</v>
       </c>
       <c r="V35">
-        <v>-6.314918727718416E-2</v>
+        <v>-4.3472492155536842E-2</v>
       </c>
       <c r="W35">
-        <v>-0.26098081196382117</v>
+        <v>-0.4045179601933877</v>
       </c>
       <c r="X35">
-        <v>-0.21951016991653691</v>
+        <v>0.27265287409880573</v>
       </c>
       <c r="Y35">
-        <v>-5.3632767175592184E-2</v>
+        <v>-6.5835848440306474E-2</v>
       </c>
       <c r="Z35">
-        <v>4.5787268754595677E-2</v>
+        <v>-0.18173783027095514</v>
       </c>
       <c r="AA35">
-        <v>3.6267027125775148E-2</v>
+        <v>0.14836535089242708</v>
       </c>
       <c r="AB35">
-        <v>-2.8004578454706056E-2</v>
+        <v>-3.1594375313917192E-2</v>
       </c>
       <c r="AC35">
-        <v>-5.4540674421668968E-2</v>
+        <v>-4.0697050425791519E-2</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>7.2161630144595641</v>
+        <v>6.7975664980586732</v>
       </c>
       <c r="B36">
-        <v>-1.1863083500469949</v>
+        <v>-2.0215230359924496</v>
       </c>
       <c r="C36">
-        <v>-4.758492926782818</v>
+        <v>-1.6736360047684335</v>
       </c>
       <c r="D36">
-        <v>-2.7581353052637891</v>
+        <v>-0.75454413212094051</v>
       </c>
       <c r="E36">
-        <v>0.16178665383703777</v>
+        <v>-0.14578923068885125</v>
       </c>
       <c r="F36">
-        <v>1.2580598301729191</v>
+        <v>0.54495175311083743</v>
       </c>
       <c r="G36">
-        <v>-0.44754767686711883</v>
+        <v>0.59701341130542629</v>
       </c>
       <c r="H36">
-        <v>1.1358586023998201</v>
+        <v>0.91138660608114808</v>
       </c>
       <c r="I36">
-        <v>0.82131223110280571</v>
+        <v>0.83873889603696938</v>
       </c>
       <c r="J36">
-        <v>0.34554892357478478</v>
+        <v>0.58025936680020418</v>
       </c>
       <c r="K36">
-        <v>-0.79017518335711212</v>
+        <v>0.31875329862722412</v>
       </c>
       <c r="L36">
-        <v>8.8275322226729389E-2</v>
+        <v>9.3171237993260062E-2</v>
       </c>
       <c r="M36">
-        <v>-0.24721374771104007</v>
+        <v>3.2410863249249654E-2</v>
       </c>
       <c r="N36">
-        <v>0.24891504735335582</v>
+        <v>-9.9203637574635545E-2</v>
       </c>
       <c r="O36">
-        <v>-5.5976770096362309E-2</v>
+        <v>-0.44705801914214838</v>
       </c>
       <c r="P36">
-        <v>0.45141894089619766</v>
+        <v>-0.32986542842435368</v>
       </c>
       <c r="Q36">
-        <v>0.8105190433501871</v>
+        <v>-5.0386310872897841E-2</v>
       </c>
       <c r="R36">
-        <v>0.82550146020764015</v>
+        <v>0.21911949250880736</v>
       </c>
       <c r="S36">
-        <v>0.53467311762213543</v>
+        <v>-0.12227833432488855</v>
       </c>
       <c r="T36">
-        <v>7.7640535072959441E-2</v>
+        <v>0.1262844834250694</v>
       </c>
       <c r="U36">
-        <v>-4.6961539140487783E-3</v>
+        <v>0.14312427835080205</v>
       </c>
       <c r="V36">
-        <v>-0.11691635953728628</v>
+        <v>-0.32731988865905581</v>
       </c>
       <c r="W36">
-        <v>-4.6311489113029056E-2</v>
+        <v>-0.36059285845759476</v>
       </c>
       <c r="X36">
-        <v>0.1170277190661406</v>
+        <v>-7.3067784483599865E-2</v>
       </c>
       <c r="Y36">
-        <v>0.15751990050338283</v>
+        <v>-0.37405663533965217</v>
       </c>
       <c r="Z36">
-        <v>0.31392403173080896</v>
+        <v>-0.13179927297532101</v>
       </c>
       <c r="AA36">
-        <v>0.17329687704886237</v>
+        <v>-0.34381458046804031</v>
       </c>
       <c r="AB36">
-        <v>0.29536650269902187</v>
+        <v>0.22033495610649939</v>
       </c>
       <c r="AC36">
-        <v>7.8496451259609482E-2</v>
+        <v>-0.10915601942389304</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>7.3132826744032835</v>
+        <v>8.1335566593649418</v>
       </c>
       <c r="B37">
-        <v>-1.2807582396323705</v>
+        <v>-1.0462361821152641</v>
       </c>
       <c r="C37">
-        <v>-4.5997301652995732</v>
+        <v>-2.7238012740145212</v>
       </c>
       <c r="D37">
-        <v>0.47249520036173015</v>
+        <v>-1.6413774421743981</v>
       </c>
       <c r="E37">
-        <v>-2.9867199098172241</v>
+        <v>-1.0822857659888456E-3</v>
       </c>
       <c r="F37">
-        <v>-1.7252471169867716</v>
+        <v>-4.11569967544972E-3</v>
       </c>
       <c r="G37">
-        <v>0.19980337838923656</v>
+        <v>6.3756529379175753E-2</v>
       </c>
       <c r="H37">
-        <v>1.1350764015074846</v>
+        <v>0.95651014841423931</v>
       </c>
       <c r="I37">
-        <v>0.84068126191811687</v>
+        <v>0.83321390240261184</v>
       </c>
       <c r="J37">
-        <v>-0.22353662969912397</v>
+        <v>0.2405052677070601</v>
       </c>
       <c r="K37">
-        <v>-0.41968765009980297</v>
+        <v>5.7186406420087696E-2</v>
       </c>
       <c r="L37">
-        <v>-3.2335559730701166E-2</v>
+        <v>0.74116907455829939</v>
       </c>
       <c r="M37">
-        <v>-1.0333119182131405</v>
+        <v>1.0755334577720228</v>
       </c>
       <c r="N37">
-        <v>0.60901089514305706</v>
+        <v>-9.5895127665191066E-2</v>
       </c>
       <c r="O37">
-        <v>0.16139998424660076</v>
+        <v>0.27736841482563424</v>
       </c>
       <c r="P37">
-        <v>0.37956368340575591</v>
+        <v>0.14696380746636806</v>
       </c>
       <c r="Q37">
-        <v>0.61918514054499085</v>
+        <v>-0.11998866641922844</v>
       </c>
       <c r="R37">
-        <v>0.73064122987720703</v>
+        <v>-6.7776353681667664E-2</v>
       </c>
       <c r="S37">
-        <v>0.52852918832444107</v>
+        <v>6.7066483293155621E-2</v>
       </c>
       <c r="T37">
-        <v>0.2283515725429261</v>
+        <v>-0.24878489941440934</v>
       </c>
       <c r="U37">
-        <v>0.22437764415777103</v>
+        <v>0.68125359210105596</v>
       </c>
       <c r="V37">
-        <v>0.18991068751303988</v>
+        <v>-0.58264578298621861</v>
       </c>
       <c r="W37">
-        <v>0.13083641389876935</v>
+        <v>-0.29893781180148343</v>
       </c>
       <c r="X37">
-        <v>0.25839137933532208</v>
+        <v>-0.19608531798067461</v>
       </c>
       <c r="Y37">
-        <v>0.15223762164951832</v>
+        <v>-0.43146822419112224</v>
       </c>
       <c r="Z37">
-        <v>0.23052404908831126</v>
+        <v>-0.17014479003879657</v>
       </c>
       <c r="AA37">
-        <v>0.13673879218540055</v>
+        <v>-0.13447076884609552</v>
       </c>
       <c r="AB37">
-        <v>-6.9794430768584007E-2</v>
+        <v>-0.13300321647360058</v>
       </c>
       <c r="AC37">
-        <v>-8.5505146080733591E-2</v>
+        <v>4.5919266878060722E-3</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>7.874401341794858</v>
+        <v>8.1335567793154269</v>
       </c>
       <c r="B38">
-        <v>4.6295220236599803</v>
+        <v>-1.048732431497055</v>
       </c>
       <c r="C38">
-        <v>-2.6714988371448904</v>
+        <v>-2.7258318195697058</v>
       </c>
       <c r="D38">
-        <v>-1.4284060626741535</v>
+        <v>-1.6442412290634492</v>
       </c>
       <c r="E38">
-        <v>-1.1116139318267262</v>
+        <v>-2.1035952628763728E-3</v>
       </c>
       <c r="F38">
-        <v>-2.3370771174610696</v>
+        <v>-5.5610515208152234E-3</v>
       </c>
       <c r="G38">
-        <v>-2.0700685550387026</v>
+        <v>6.4442553889700258E-2</v>
       </c>
       <c r="H38">
-        <v>-0.13677734456198382</v>
+        <v>0.95725086326669884</v>
       </c>
       <c r="I38">
-        <v>9.9172073426786037E-2</v>
+        <v>0.83496756138156203</v>
       </c>
       <c r="J38">
-        <v>-1.0476749560440373</v>
+        <v>0.24306657171456841</v>
       </c>
       <c r="K38">
-        <v>-0.67577166998402816</v>
+        <v>6.1138026651240872E-2</v>
       </c>
       <c r="L38">
-        <v>0.89143181655897308</v>
+        <v>0.74306087375464203</v>
       </c>
       <c r="M38">
-        <v>0.88209106765251089</v>
+        <v>1.0784197869430772</v>
       </c>
       <c r="N38">
-        <v>0.61037930957414244</v>
+        <v>-0.15450277159779191</v>
       </c>
       <c r="O38">
-        <v>0.16398551105059986</v>
+        <v>-0.11572627226506355</v>
       </c>
       <c r="P38">
-        <v>0.3792376743172805</v>
+        <v>0.10504295834728998</v>
       </c>
       <c r="Q38">
-        <v>0.62037895349157013</v>
+        <v>0.15184174504423187</v>
       </c>
       <c r="R38">
-        <v>0.72869864515275951</v>
+        <v>-0.16449000871593464</v>
       </c>
       <c r="S38">
-        <v>0.5275839522623389</v>
+        <v>0.23852106366139261</v>
       </c>
       <c r="T38">
-        <v>0.22648052635393945</v>
+        <v>-0.37105371367402795</v>
       </c>
       <c r="U38">
-        <v>0.22219905116668159</v>
+        <v>4.855621873732844E-3</v>
       </c>
       <c r="V38">
-        <v>0.18689043046816753</v>
+        <v>-0.55424795357641843</v>
       </c>
       <c r="W38">
-        <v>0.12712900707258901</v>
+        <v>-7.4005257709302524E-2</v>
       </c>
       <c r="X38">
-        <v>0.25598655371657553</v>
+        <v>-0.19437654459258291</v>
       </c>
       <c r="Y38">
-        <v>0.14911029592340821</v>
+        <v>-6.7190084298782399E-2</v>
       </c>
       <c r="Z38">
-        <v>0.22828456997256719</v>
+        <v>-4.1470597584018477E-2</v>
       </c>
       <c r="AA38">
-        <v>0.13429760709704699</v>
+        <v>-0.2876779465763748</v>
       </c>
       <c r="AB38">
-        <v>-7.0871092013569212E-2</v>
+        <v>4.5965837709980049E-2</v>
       </c>
       <c r="AC38">
-        <v>-8.6479004567750581E-2</v>
+        <v>-0.26749252202360757</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8.1786843194554368</v>
+        <v>6.6018539133853453</v>
       </c>
       <c r="B39">
-        <v>1.8036363625134746</v>
+        <v>0.54794757548959072</v>
       </c>
       <c r="C39">
-        <v>-1.0722395940680562</v>
+        <v>-1.7042843281859719</v>
       </c>
       <c r="D39">
-        <v>-1.1361891168573623</v>
+        <v>-1.7569073075256805</v>
       </c>
       <c r="E39">
-        <v>-0.90939413651455325</v>
+        <v>-1.1711852935998397</v>
       </c>
       <c r="F39">
-        <v>-0.66339682542505418</v>
+        <v>-0.21857530401420708</v>
       </c>
       <c r="G39">
-        <v>-1.111514185205883</v>
+        <v>0.41004820868522368</v>
       </c>
       <c r="H39">
-        <v>-0.24245365291878879</v>
+        <v>0.97277414633744308</v>
       </c>
       <c r="I39">
-        <v>-0.94921901283021226</v>
+        <v>0.21552783158420247</v>
       </c>
       <c r="J39">
-        <v>0.34389859544674234</v>
+        <v>-0.83470872990699918</v>
       </c>
       <c r="K39">
-        <v>-0.48472489298982102</v>
+        <v>-0.97731147664578955</v>
       </c>
       <c r="L39">
-        <v>-0.21418978810168054</v>
+        <v>-8.9201299054527602E-2</v>
       </c>
       <c r="M39">
-        <v>0.17466417375049759</v>
+        <v>0.43818745241756407</v>
       </c>
       <c r="N39">
-        <v>0.31317955311370299</v>
+        <v>-7.6903750038751273E-2</v>
       </c>
       <c r="O39">
-        <v>-0.41603365912927021</v>
+        <v>0.52995413364440191</v>
       </c>
       <c r="P39">
-        <v>-0.10191366332505931</v>
+        <v>2.112860050397267E-2</v>
       </c>
       <c r="Q39">
-        <v>-0.33562299621457914</v>
+        <v>0.13426772481302895</v>
       </c>
       <c r="R39">
-        <v>-0.23522092994385227</v>
+        <v>-0.32645716289015225</v>
       </c>
       <c r="S39">
-        <v>3.0829057068282026E-2</v>
+        <v>7.9312570947602162E-2</v>
       </c>
       <c r="T39">
-        <v>0.11814662125439136</v>
+        <v>-0.49539354321584089</v>
       </c>
       <c r="U39">
-        <v>-1.9198248651972283E-2</v>
+        <v>0.3649227449838035</v>
       </c>
       <c r="V39">
-        <v>2.1432485160066288E-2</v>
+        <v>-0.43926140896916344</v>
       </c>
       <c r="W39">
-        <v>-0.27171015906627877</v>
+        <v>-2.8088456375411228E-2</v>
       </c>
       <c r="X39">
-        <v>-2.5284905287279041E-2</v>
+        <v>6.6566015649645663E-2</v>
       </c>
       <c r="Y39">
-        <v>-0.14772745401409323</v>
+        <v>-0.41339207819610907</v>
       </c>
       <c r="Z39">
-        <v>-3.6449778256065976E-2</v>
+        <v>-2.4566893998911279E-2</v>
       </c>
       <c r="AA39">
-        <v>0.12149267987725591</v>
+        <v>-0.29387392186053735</v>
       </c>
       <c r="AB39">
-        <v>-1.3081166890383508E-2</v>
+        <v>-0.11485255494377854</v>
       </c>
       <c r="AC39">
-        <v>-0.17695252728179461</v>
+        <v>1.7084870920585601E-3</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8.0728070541582877</v>
+        <v>6.9714441301523822</v>
       </c>
       <c r="B40">
-        <v>0.5596318720386152</v>
+        <v>-1.5675375452116938</v>
       </c>
       <c r="C40">
-        <v>-3.3309203075636242</v>
+        <v>-2.1806784995673434</v>
       </c>
       <c r="D40">
-        <v>2.5941347904557932</v>
+        <v>-1.0661117824656294</v>
       </c>
       <c r="E40">
-        <v>-2.4440853461105894</v>
+        <v>0.2334197386752124</v>
       </c>
       <c r="F40">
-        <v>-2.1274569721039192</v>
+        <v>0.34646172152908006</v>
       </c>
       <c r="G40">
-        <v>1.2734357522364201</v>
+        <v>0.59279398954598395</v>
       </c>
       <c r="H40">
-        <v>-1.4926806855681753</v>
+        <v>1.1647267274311479</v>
       </c>
       <c r="I40">
-        <v>-1.1750163869436758</v>
+        <v>1.0764535582179902</v>
       </c>
       <c r="J40">
-        <v>1.4809321036330749</v>
+        <v>0.25726373952387666</v>
       </c>
       <c r="K40">
-        <v>-1.0188123347187423</v>
+        <v>-0.38819675077535026</v>
       </c>
       <c r="L40">
-        <v>6.8565189233198168E-2</v>
+        <v>0.17407290160103131</v>
       </c>
       <c r="M40">
-        <v>0.88406431529569962</v>
+        <v>0.64042161590567581</v>
       </c>
       <c r="N40">
-        <v>0.45527252915538491</v>
+        <v>0.17330796230279982</v>
       </c>
       <c r="O40">
-        <v>0.40648758434788967</v>
+        <v>-0.13922488008173367</v>
       </c>
       <c r="P40">
-        <v>0.71987578003069574</v>
+        <v>-6.4325177851051074E-2</v>
       </c>
       <c r="Q40">
-        <v>0.662843430146004</v>
+        <v>-8.6572161837079331E-3</v>
       </c>
       <c r="R40">
-        <v>0.16887010256211807</v>
+        <v>-0.3412271989112427</v>
       </c>
       <c r="S40">
-        <v>-2.0890357874537867E-2</v>
+        <v>0.37613525074567739</v>
       </c>
       <c r="T40">
-        <v>0.1851061304966953</v>
+        <v>-0.15741292872928953</v>
       </c>
       <c r="U40">
-        <v>7.2586572562713364E-2</v>
+        <v>0.41071995676754641</v>
       </c>
       <c r="V40">
-        <v>2.4255277592077441E-2</v>
+        <v>-0.33339844313770767</v>
       </c>
       <c r="W40">
-        <v>0.25795501619086958</v>
+        <v>7.4270739422886367E-2</v>
       </c>
       <c r="X40">
-        <v>4.0126617424352432E-2</v>
+        <v>4.87476144865608E-2</v>
       </c>
       <c r="Y40">
-        <v>7.7254567406348909E-2</v>
+        <v>-0.20224809749556097</v>
       </c>
       <c r="Z40">
-        <v>0.23682657521872957</v>
+        <v>-0.11567580956488467</v>
       </c>
       <c r="AA40">
-        <v>0.15287929312878715</v>
+        <v>-0.21637699665077842</v>
       </c>
       <c r="AB40">
-        <v>-4.5467521326853652E-2</v>
+        <v>5.3662588685848209E-2</v>
       </c>
       <c r="AC40">
-        <v>-6.7954629321162627E-2</v>
+        <v>-9.938439986478205E-2</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>7.5533476488074163</v>
+        <v>6.8537300387176154</v>
       </c>
       <c r="B41">
-        <v>-0.25203304761085477</v>
+        <v>-0.89690105930986086</v>
       </c>
       <c r="C41">
-        <v>-3.964034340978186</v>
+        <v>-2.3572221416687644</v>
       </c>
       <c r="D41">
-        <v>0.33270629974116944</v>
+        <v>-2.2865105812100164</v>
       </c>
       <c r="E41">
-        <v>-2.8701021142576355</v>
+        <v>-0.85374116961821689</v>
       </c>
       <c r="F41">
-        <v>-1.3182776525972684</v>
+        <v>-0.11250558674614899</v>
       </c>
       <c r="G41">
-        <v>-0.44397088123800565</v>
+        <v>1.2750704901225443</v>
       </c>
       <c r="H41">
-        <v>-1.0350747608226898</v>
+        <v>2.2366068408333066</v>
       </c>
       <c r="I41">
-        <v>-0.25115917945744931</v>
+        <v>1.2452795793741318</v>
       </c>
       <c r="J41">
-        <v>-0.36524822658770145</v>
+        <v>-0.20976960274026257</v>
       </c>
       <c r="K41">
-        <v>-0.37139495519972726</v>
+        <v>-0.4499575587781045</v>
       </c>
       <c r="L41">
-        <v>-0.22953710840840885</v>
+        <v>0.60096579264194228</v>
       </c>
       <c r="M41">
-        <v>-0.47795191252128505</v>
+        <v>0.91500706563784828</v>
       </c>
       <c r="N41">
-        <v>0.73484001113860931</v>
+        <v>-0.16439842766547655</v>
       </c>
       <c r="O41">
-        <v>0.52545480194167882</v>
+        <v>4.6413225951141591E-3</v>
       </c>
       <c r="P41">
-        <v>0.13761519916380896</v>
+        <v>0.28112202187475449</v>
       </c>
       <c r="Q41">
-        <v>-0.50039047458849673</v>
+        <v>-0.79408074028480735</v>
       </c>
       <c r="R41">
-        <v>5.423651876289827E-2</v>
+        <v>-0.79312508169868301</v>
       </c>
       <c r="S41">
-        <v>0.38610502542178926</v>
+        <v>-0.42791278784771675</v>
       </c>
       <c r="T41">
-        <v>0.78529482213004675</v>
+        <v>-0.36263749389950534</v>
       </c>
       <c r="U41">
-        <v>0.61053137492966791</v>
+        <v>0.37081601672395309</v>
       </c>
       <c r="V41">
-        <v>0.1490077801640112</v>
+        <v>0.21404819943284109</v>
       </c>
       <c r="W41">
-        <v>-0.14034138748541508</v>
+        <v>-3.6313278564457159E-2</v>
       </c>
       <c r="X41">
-        <v>-8.4549270893766612E-2</v>
+        <v>-0.12168615398693614</v>
       </c>
       <c r="Y41">
-        <v>0.42702276184534183</v>
+        <v>-0.25786800293095563</v>
       </c>
       <c r="Z41">
-        <v>0.30412685180568405</v>
+        <v>-0.37220530958622233</v>
       </c>
       <c r="AA41">
-        <v>0.2318660056192326</v>
+        <v>-0.33131685862835442</v>
       </c>
       <c r="AB41">
-        <v>-7.6032113703111581E-2</v>
+        <v>-0.12583358403545869</v>
       </c>
       <c r="AC41">
-        <v>-0.19241129960518644</v>
+        <v>0.2599527778664002</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8.5279406555946231</v>
+        <v>8.4033294011678379</v>
       </c>
       <c r="B42">
-        <v>3.3976049286222882</v>
+        <v>-1.8158486968206711</v>
       </c>
       <c r="C42">
-        <v>-0.93919007255975528</v>
+        <v>-2.4303301647115947</v>
       </c>
       <c r="D42">
-        <v>-2.0563794134268623</v>
+        <v>-1.3990477629192128</v>
       </c>
       <c r="E42">
-        <v>-1.0109975247301668</v>
+        <v>-0.36318818250769264</v>
       </c>
       <c r="F42">
-        <v>-1.0768920046580694</v>
+        <v>-0.10906496645917231</v>
       </c>
       <c r="G42">
-        <v>-1.6450789274932749</v>
+        <v>0.31219150056229933</v>
       </c>
       <c r="H42">
-        <v>0.14968869926349396</v>
+        <v>1.4660113578166658</v>
       </c>
       <c r="I42">
-        <v>-0.4217980462107927</v>
+        <v>1.5982861321876038</v>
       </c>
       <c r="J42">
-        <v>0.14268934328652069</v>
+        <v>0.64386240966784458</v>
       </c>
       <c r="K42">
-        <v>-0.90698506480594232</v>
+        <v>0.52235642752549716</v>
       </c>
       <c r="L42">
-        <v>-0.21145360121647258</v>
+        <v>1.0305189048685701</v>
       </c>
       <c r="M42">
-        <v>0.25187391196604392</v>
+        <v>0.6464557308868516</v>
       </c>
       <c r="N42">
-        <v>0.33283022615966606</v>
+        <v>0.31651620939067432</v>
       </c>
       <c r="O42">
-        <v>0.68699355055802203</v>
+        <v>-0.83651131759652164</v>
       </c>
       <c r="P42">
-        <v>0.49970100289725999</v>
+        <v>0.45226337090098762</v>
       </c>
       <c r="Q42">
-        <v>1.135832242878743E-2</v>
+        <v>-0.44969257352698044</v>
       </c>
       <c r="R42">
-        <v>-0.12909378313153413</v>
+        <v>-0.50296922616348472</v>
       </c>
       <c r="S42">
-        <v>4.1191539789736255E-2</v>
+        <v>0.61286782397473982</v>
       </c>
       <c r="T42">
-        <v>0.37020211435183786</v>
+        <v>-0.41809338035023647</v>
       </c>
       <c r="U42">
-        <v>0.25414322320769034</v>
+        <v>-0.13864521152376205</v>
       </c>
       <c r="V42">
-        <v>0.33375315642772624</v>
+        <v>0.11384297893299269</v>
       </c>
       <c r="W42">
-        <v>0.38948264981121578</v>
+        <v>6.669489153847559E-2</v>
       </c>
       <c r="X42">
-        <v>0.39148883186799677</v>
+        <v>-0.15253467905695159</v>
       </c>
       <c r="Y42">
-        <v>0.32778704031287514</v>
+        <v>-0.38775868652846418</v>
       </c>
       <c r="Z42">
-        <v>0.22379042992251055</v>
+        <v>-2.6951662427618052E-3</v>
       </c>
       <c r="AA42">
-        <v>7.2299848711515458E-2</v>
+        <v>-0.12867302695814872</v>
       </c>
       <c r="AB42">
-        <v>1.8068404053448176E-2</v>
+        <v>-0.37326961923852664</v>
       </c>
       <c r="AC42">
-        <v>2.8931457106447265E-2</v>
+        <v>-0.23281429508865539</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>8.0801390144090952</v>
+        <v>7.2769286249046017</v>
       </c>
       <c r="B43">
-        <v>0.40931078717220765</v>
+        <v>5.0132426850720435</v>
       </c>
       <c r="C43">
-        <v>-2.0255567821742226</v>
+        <v>1.8999170149196771</v>
       </c>
       <c r="D43">
-        <v>-1.4316961333381291</v>
+        <v>2.2438811970381471</v>
       </c>
       <c r="E43">
-        <v>-0.71464758276023055</v>
+        <v>0.13044091113982076</v>
       </c>
       <c r="F43">
-        <v>-0.27373401609936338</v>
+        <v>0.75825194800790774</v>
       </c>
       <c r="G43">
-        <v>-3.592584154519646</v>
+        <v>0.9151692288913359</v>
       </c>
       <c r="H43">
-        <v>0.17526291969684268</v>
+        <v>-0.58435492073245665</v>
       </c>
       <c r="I43">
-        <v>-0.4578242984074038</v>
+        <v>0.41750322446390958</v>
       </c>
       <c r="J43">
-        <v>0.1755913580630846</v>
+        <v>0.35266947022159251</v>
       </c>
       <c r="K43">
-        <v>0.23656884822500357</v>
+        <v>-0.70446234984298295</v>
       </c>
       <c r="L43">
-        <v>8.5794932358519135E-2</v>
+        <v>0.71252493777487835</v>
       </c>
       <c r="M43">
-        <v>0.96973334524656996</v>
+        <v>0.45372126298963295</v>
       </c>
       <c r="N43">
-        <v>-0.49469434148476982</v>
+        <v>4.164743271598504E-2</v>
       </c>
       <c r="O43">
-        <v>0.41847017762538619</v>
+        <v>-0.60335400216597457</v>
       </c>
       <c r="P43">
-        <v>-3.5498933576777664E-2</v>
+        <v>-0.59855469480281576</v>
       </c>
       <c r="Q43">
-        <v>-0.23999268319966829</v>
+        <v>-5.5317648409139275E-2</v>
       </c>
       <c r="R43">
-        <v>0.648804128474742</v>
+        <v>-0.6264844872261629</v>
       </c>
       <c r="S43">
-        <v>-6.5272629842755239E-2</v>
+        <v>-0.26967053388679524</v>
       </c>
       <c r="T43">
-        <v>-0.16133713912365971</v>
+        <v>-0.35714706756446535</v>
       </c>
       <c r="U43">
-        <v>0.47240060444268517</v>
+        <v>3.9319930893843232E-2</v>
       </c>
       <c r="V43">
-        <v>-0.14239994668196393</v>
+        <v>-6.7915074242564178E-3</v>
       </c>
       <c r="W43">
-        <v>-1.8422257490407167E-2</v>
+        <v>0.19352695823946192</v>
       </c>
       <c r="X43">
-        <v>0.23918679048922209</v>
+        <v>5.1079722444665777E-3</v>
       </c>
       <c r="Y43">
-        <v>-0.3572236599108139</v>
+        <v>-6.6129218607587428E-2</v>
       </c>
       <c r="Z43">
-        <v>-0.13656052783617462</v>
+        <v>-4.8282080476684038E-2</v>
       </c>
       <c r="AA43">
-        <v>-8.284899328929915E-2</v>
+        <v>0.11256955472456265</v>
       </c>
       <c r="AB43">
-        <v>-0.29902323221786792</v>
+        <v>-4.3909702372232677E-2</v>
       </c>
       <c r="AC43">
-        <v>0.20675338898868906</v>
+        <v>-0.15015392841805733</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>7.3681698011478041</v>
+        <v>7.7116543491460074</v>
       </c>
       <c r="B44">
-        <v>-1.3609375935115202</v>
+        <v>4.2329143593363332</v>
       </c>
       <c r="C44">
-        <v>0.53090771864922837</v>
+        <v>0.9127897978555487</v>
       </c>
       <c r="D44">
-        <v>2.6287456175804116</v>
+        <v>1.150551692867219</v>
       </c>
       <c r="E44">
-        <v>-3.5192266514454213</v>
+        <v>1.4153595013729172</v>
       </c>
       <c r="F44">
-        <v>-1.9034768632107828</v>
+        <v>0.57722514789760071</v>
       </c>
       <c r="G44">
-        <v>-0.37336116321295792</v>
+        <v>-7.4369790147379558E-2</v>
       </c>
       <c r="H44">
-        <v>-3.0257106270708798</v>
+        <v>0.68974799264605857</v>
       </c>
       <c r="I44">
-        <v>-1.0837756072611269</v>
+        <v>0.49185127705302467</v>
       </c>
       <c r="J44">
-        <v>-0.21236638750602463</v>
+        <v>-0.18419236232792791</v>
       </c>
       <c r="K44">
-        <v>-1.3715921938561799</v>
+        <v>-0.14440912283253271</v>
       </c>
       <c r="L44">
-        <v>0.47330958212523672</v>
+        <v>0.32037246466320285</v>
       </c>
       <c r="M44">
-        <v>0.46908127530407334</v>
+        <v>0.32274539305514938</v>
       </c>
       <c r="N44">
-        <v>-0.1484350654696549</v>
+        <v>7.5719404301357721E-2</v>
       </c>
       <c r="O44">
-        <v>-1.3438240708475654E-2</v>
+        <v>-0.67750666009373661</v>
       </c>
       <c r="P44">
-        <v>0.1419060043838728</v>
+        <v>0.15944243777645739</v>
       </c>
       <c r="Q44">
-        <v>-0.20217540644470719</v>
+        <v>-4.7025111918806844E-2</v>
       </c>
       <c r="R44">
-        <v>-0.23324298638117935</v>
+        <v>-0.32011654156394553</v>
       </c>
       <c r="S44">
-        <v>-2.3030347292929503E-2</v>
+        <v>-0.21627728831075554</v>
       </c>
       <c r="T44">
-        <v>-3.284768298668736E-2</v>
+        <v>-0.37449747454994065</v>
       </c>
       <c r="U44">
-        <v>-0.26334110533147931</v>
+        <v>0.20709472303924609</v>
       </c>
       <c r="V44">
-        <v>-0.33254589288773961</v>
+        <v>0.40318133610586637</v>
       </c>
       <c r="W44">
-        <v>-2.9404161573258508E-2</v>
+        <v>2.0339797304309078E-2</v>
       </c>
       <c r="X44">
-        <v>-0.22451253008787561</v>
+        <v>0.12559166691060797</v>
       </c>
       <c r="Y44">
-        <v>-0.35389083443911651</v>
+        <v>0.3281492770020441</v>
       </c>
       <c r="Z44">
-        <v>-3.9176314488783635E-2</v>
+        <v>-0.23547366631175148</v>
       </c>
       <c r="AA44">
-        <v>0.13703736200315089</v>
+        <v>-0.14328319549039598</v>
       </c>
       <c r="AB44">
-        <v>7.3082937441717233E-2</v>
+        <v>-8.1086350253592232E-2</v>
       </c>
       <c r="AC44">
-        <v>-0.22312516518041917</v>
+        <v>-0.17612237908437542</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>7.8852104089547019</v>
+        <v>7.6141438061978954</v>
       </c>
       <c r="B45">
-        <v>-1.7063725976986595</v>
+        <v>3.4147065720593641</v>
       </c>
       <c r="C45">
-        <v>-3.0146746395591397</v>
+        <v>-1.5900051905540902</v>
       </c>
       <c r="D45">
-        <v>3.0731506149052765</v>
+        <v>0.4223590524400907</v>
       </c>
       <c r="E45">
-        <v>-2.7304518002597824</v>
+        <v>1.4887235701529606</v>
       </c>
       <c r="F45">
-        <v>-0.80714678786176242</v>
+        <v>1.1767628952322129</v>
       </c>
       <c r="G45">
-        <v>0.92274069408435766</v>
+        <v>-0.2848294059623464</v>
       </c>
       <c r="H45">
-        <v>-1.8045616360612644</v>
+        <v>-0.73895730730892717</v>
       </c>
       <c r="I45">
-        <v>-0.28048231188608214</v>
+        <v>1.3731508236825854E-2</v>
       </c>
       <c r="J45">
-        <v>1.149183657182514</v>
+        <v>-0.55095212143594696</v>
       </c>
       <c r="K45">
-        <v>-1.0875763185794201</v>
+        <v>-0.68620842324824249</v>
       </c>
       <c r="L45">
-        <v>0.67966550872640896</v>
+        <v>0.69986955207994272</v>
       </c>
       <c r="M45">
-        <v>1.0547258849787997</v>
+        <v>0.39043413924178128</v>
       </c>
       <c r="N45">
-        <v>-0.3522256975771193</v>
+        <v>0.811652589027135</v>
       </c>
       <c r="O45">
-        <v>-0.14577327196908454</v>
+        <v>0.351370512785941</v>
       </c>
       <c r="P45">
-        <v>-8.2769487671329967E-2</v>
+        <v>-0.2424629526489224</v>
       </c>
       <c r="Q45">
-        <v>0.24699900064495464</v>
+        <v>-0.44842277334445546</v>
       </c>
       <c r="R45">
-        <v>0.22594932680910387</v>
+        <v>-0.17848916866971781</v>
       </c>
       <c r="S45">
-        <v>-0.20787222272135611</v>
+        <v>0.25453475882933962</v>
       </c>
       <c r="T45">
-        <v>0.1727714248058434</v>
+        <v>0.43802995421526975</v>
       </c>
       <c r="U45">
-        <v>9.669057543259818E-2</v>
+        <v>0.24729782467027303</v>
       </c>
       <c r="V45">
-        <v>-0.30059387450236913</v>
+        <v>-6.314918727718416E-2</v>
       </c>
       <c r="W45">
-        <v>0.15712998719470547</v>
+        <v>-0.26098081196382117</v>
       </c>
       <c r="X45">
-        <v>0.17695186340708347</v>
+        <v>-0.21951016991653691</v>
       </c>
       <c r="Y45">
-        <v>-0.17834173708601517</v>
+        <v>-5.3632767175592184E-2</v>
       </c>
       <c r="Z45">
-        <v>7.0681327998524016E-2</v>
+        <v>4.5787268754595677E-2</v>
       </c>
       <c r="AA45">
-        <v>6.6162117458071198E-2</v>
+        <v>3.6267027125775148E-2</v>
       </c>
       <c r="AB45">
-        <v>-0.13280292211909384</v>
+        <v>-2.8004578454706056E-2</v>
       </c>
       <c r="AC45">
-        <v>1.1373994401400316E-2</v>
+        <v>-5.4540674421668968E-2</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>7.3190449062287337</v>
+        <v>5.5564798991598146</v>
       </c>
       <c r="B46">
-        <v>1.4453477841526576</v>
+        <v>-5.2328025870289769</v>
       </c>
       <c r="C46">
-        <v>0.75801074160892035</v>
+        <v>-3.2680770847523353</v>
       </c>
       <c r="D46">
-        <v>-0.69549651603942597</v>
+        <v>-0.45028831042430906</v>
       </c>
       <c r="E46">
-        <v>5.5501874007252471E-3</v>
+        <v>0.46205057459181748</v>
       </c>
       <c r="F46">
-        <v>-0.26661008247479551</v>
+        <v>0.803357318085271</v>
       </c>
       <c r="G46">
-        <v>-0.57909692982957195</v>
+        <v>0.38905344566951183</v>
       </c>
       <c r="H46">
-        <v>9.7242732964411965E-2</v>
+        <v>-2.7048364945646479E-3</v>
       </c>
       <c r="I46">
-        <v>-1.046740435337026</v>
+        <v>-0.7575554705184625</v>
       </c>
       <c r="J46">
-        <v>0.42196562042210306</v>
+        <v>-6.9132336906406137E-3</v>
       </c>
       <c r="K46">
-        <v>-0.45091756008226652</v>
+        <v>3.162984141478322E-2</v>
       </c>
       <c r="L46">
-        <v>0.46208972478278093</v>
+        <v>1.8786949591193293E-2</v>
       </c>
       <c r="M46">
-        <v>-0.63745714260046182</v>
+        <v>-3.5747075357089697E-3</v>
       </c>
       <c r="N46">
-        <v>-7.7729137069300278E-2</v>
+        <v>0.24891504735335582</v>
       </c>
       <c r="O46">
-        <v>-3.3376653425614945E-2</v>
+        <v>-5.5976770096362309E-2</v>
       </c>
       <c r="P46">
-        <v>-4.3879840250172705E-2</v>
+        <v>0.45141894089619766</v>
       </c>
       <c r="Q46">
-        <v>-0.31210609129147893</v>
+        <v>0.8105190433501871</v>
       </c>
       <c r="R46">
-        <v>3.5350564459681835E-2</v>
+        <v>0.82550146020764015</v>
       </c>
       <c r="S46">
-        <v>0.18618564903662907</v>
+        <v>0.53467311762213543</v>
       </c>
       <c r="T46">
-        <v>6.5324978117856439E-2</v>
+        <v>7.7640535072959441E-2</v>
       </c>
       <c r="U46">
-        <v>0.27756780471534526</v>
+        <v>-4.6961539140487783E-3</v>
       </c>
       <c r="V46">
-        <v>9.6339245201132961E-2</v>
+        <v>-0.11691635953728628</v>
       </c>
       <c r="W46">
-        <v>-0.22703684972591742</v>
+        <v>-4.6311489113029056E-2</v>
       </c>
       <c r="X46">
-        <v>-0.1228669230207888</v>
+        <v>0.1170277190661406</v>
       </c>
       <c r="Y46">
-        <v>0.11750558159002515</v>
+        <v>0.15751990050338283</v>
       </c>
       <c r="Z46">
-        <v>-0.1637655249972079</v>
+        <v>0.31392403173080896</v>
       </c>
       <c r="AA46">
-        <v>4.4347348255364016E-2</v>
+        <v>0.17329687704886237</v>
       </c>
       <c r="AB46">
-        <v>0.11110090807028118</v>
+        <v>0.29536650269902187</v>
       </c>
       <c r="AC46">
-        <v>2.9054634332121802E-3</v>
+        <v>7.8496451259609482E-2</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>7.5832175741569552</v>
+        <v>6.918086387610189</v>
       </c>
       <c r="B47">
-        <v>2.9716637462046807</v>
+        <v>-5.3270494578744021</v>
       </c>
       <c r="C47">
-        <v>1.6874654584270095</v>
+        <v>-2.9631696306788764</v>
       </c>
       <c r="D47">
-        <v>0.37324202576742926</v>
+        <v>0.82722294961348264</v>
       </c>
       <c r="E47">
-        <v>-0.43949980882596823</v>
+        <v>1.1299461942436899</v>
       </c>
       <c r="F47">
-        <v>-0.32070096983071789</v>
+        <v>0.38067045403106842</v>
       </c>
       <c r="G47">
-        <v>-0.98426505568819589</v>
+        <v>-1.1726767995502148</v>
       </c>
       <c r="H47">
-        <v>-0.45713270558148339</v>
+        <v>-0.24872776625142129</v>
       </c>
       <c r="I47">
-        <v>-0.91493586922522496</v>
+        <v>0.98695262207945755</v>
       </c>
       <c r="J47">
-        <v>0.42207601227708785</v>
+        <v>-0.10079042374067103</v>
       </c>
       <c r="K47">
-        <v>-0.99662650264796993</v>
+        <v>-0.13792027217164515</v>
       </c>
       <c r="L47">
-        <v>0.40658084341037559</v>
+        <v>0.2118393824110647</v>
       </c>
       <c r="M47">
-        <v>-0.10335290233136797</v>
+        <v>0.1965017108962058</v>
       </c>
       <c r="N47">
-        <v>-0.20878831996433631</v>
+        <v>0.60901089514305706</v>
       </c>
       <c r="O47">
-        <v>0.18727980505167327</v>
+        <v>0.16139998424660076</v>
       </c>
       <c r="P47">
-        <v>0.42983992555932538</v>
+        <v>0.37956368340575591</v>
       </c>
       <c r="Q47">
-        <v>-0.30678271937357138</v>
+        <v>0.61918514054499085</v>
       </c>
       <c r="R47">
-        <v>-0.34024529842141266</v>
+        <v>0.73064122987720703</v>
       </c>
       <c r="S47">
-        <v>0.31588328805376475</v>
+        <v>0.52852918832444107</v>
       </c>
       <c r="T47">
-        <v>0.50266309979212154</v>
+        <v>0.2283515725429261</v>
       </c>
       <c r="U47">
-        <v>0.4111222717081337</v>
+        <v>0.22437764415777103</v>
       </c>
       <c r="V47">
-        <v>0.4874955135559767</v>
+        <v>0.18991068751303988</v>
       </c>
       <c r="W47">
-        <v>9.0449079735979432E-2</v>
+        <v>0.13083641389876935</v>
       </c>
       <c r="X47">
-        <v>5.3319544904020195E-2</v>
+        <v>0.25839137933532208</v>
       </c>
       <c r="Y47">
-        <v>0.427312652743148</v>
+        <v>0.15223762164951832</v>
       </c>
       <c r="Z47">
-        <v>0.14779638262801836</v>
+        <v>0.23052404908831126</v>
       </c>
       <c r="AA47">
-        <v>-0.12649336060721542</v>
+        <v>0.13673879218540055</v>
       </c>
       <c r="AB47">
-        <v>-0.14501220142044091</v>
+        <v>-6.9794430768584007E-2</v>
       </c>
       <c r="AC47">
-        <v>-0.1582854888907673</v>
+        <v>-8.5505146080733591E-2</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>6.5607988747557755</v>
+        <v>4.4371885282251684</v>
       </c>
       <c r="B48">
-        <v>3.8334124490708921</v>
+        <v>-0.73564568421423782</v>
       </c>
       <c r="C48">
-        <v>1.3794634229256002</v>
+        <v>-0.35358524346110332</v>
       </c>
       <c r="D48">
-        <v>-0.5648292094233246</v>
+        <v>-2.78840143819655E-2</v>
       </c>
       <c r="E48">
-        <v>-0.20251047909900177</v>
+        <v>0.14971975451004416</v>
       </c>
       <c r="F48">
-        <v>-0.21151469217863805</v>
+        <v>0.52054454094453328</v>
       </c>
       <c r="G48">
-        <v>-0.91405214401008228</v>
+        <v>0.4575629530183522</v>
       </c>
       <c r="H48">
-        <v>0.18287960708320217</v>
+        <v>0.72038465152747222</v>
       </c>
       <c r="I48">
-        <v>-0.80218375741543291</v>
+        <v>-0.25092390293196076</v>
       </c>
       <c r="J48">
-        <v>0.72934667270465292</v>
+        <v>-0.13796533974691699</v>
       </c>
       <c r="K48">
-        <v>-0.32697162801318441</v>
+        <v>-0.23573849581765732</v>
       </c>
       <c r="L48">
-        <v>-9.0735967807405671E-2</v>
+        <v>-0.34413951080050814</v>
       </c>
       <c r="M48">
-        <v>-0.45351590261453284</v>
+        <v>-1.5785697047120181E-2</v>
       </c>
       <c r="N48">
-        <v>-0.35210780653776924</v>
+        <v>0.61037930957414244</v>
       </c>
       <c r="O48">
-        <v>-0.37313302960495731</v>
+        <v>0.16398551105059986</v>
       </c>
       <c r="P48">
-        <v>0.16872576433331521</v>
+        <v>0.3792376743172805</v>
       </c>
       <c r="Q48">
-        <v>-0.17634315870155259</v>
+        <v>0.62037895349157013</v>
       </c>
       <c r="R48">
-        <v>0.292494868460484</v>
+        <v>0.72869864515275951</v>
       </c>
       <c r="S48">
-        <v>5.6788624571816819E-2</v>
+        <v>0.5275839522623389</v>
       </c>
       <c r="T48">
-        <v>-0.12208606843898524</v>
+        <v>0.22648052635393945</v>
       </c>
       <c r="U48">
-        <v>0.34528553505156417</v>
+        <v>0.22219905116668159</v>
       </c>
       <c r="V48">
-        <v>0.43138063641638558</v>
+        <v>0.18689043046816753</v>
       </c>
       <c r="W48">
-        <v>0.15813751617783209</v>
+        <v>0.12712900707258901</v>
       </c>
       <c r="X48">
-        <v>-6.5538662838879755E-2</v>
+        <v>0.25598655371657553</v>
       </c>
       <c r="Y48">
-        <v>-9.270160350606356E-2</v>
+        <v>0.14911029592340821</v>
       </c>
       <c r="Z48">
-        <v>-5.9915851412299957E-2</v>
+        <v>0.22828456997256719</v>
       </c>
       <c r="AA48">
-        <v>7.0291106251508584E-2</v>
+        <v>0.13429760709704699</v>
       </c>
       <c r="AB48">
-        <v>-2.3474724176583313E-2</v>
+        <v>-7.0871092013569212E-2</v>
       </c>
       <c r="AC48">
-        <v>-8.6677990160058824E-2</v>
+        <v>-8.6479004567750581E-2</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>7.7580552436255594</v>
+        <v>6.179765030800314</v>
       </c>
       <c r="B49">
-        <v>1.6528970044587559</v>
+        <v>-3.0354245340855819</v>
       </c>
       <c r="C49">
-        <v>1.4050276353977593</v>
+        <v>-0.57743145256625539</v>
       </c>
       <c r="D49">
-        <v>-0.31039088366602813</v>
+        <v>-0.29792031149001713</v>
       </c>
       <c r="E49">
-        <v>-0.5902600814535961</v>
+        <v>-3.6592965275783269E-2</v>
       </c>
       <c r="F49">
-        <v>-0.24002523995569314</v>
+        <v>-0.20049595468978465</v>
       </c>
       <c r="G49">
-        <v>-0.39286276589778196</v>
+        <v>-0.52796764822391684</v>
       </c>
       <c r="H49">
-        <v>0.19408231255537767</v>
+        <v>-0.11656469635143904</v>
       </c>
       <c r="I49">
-        <v>-0.5798489718226647</v>
+        <v>-0.1826528531469476</v>
       </c>
       <c r="J49">
-        <v>0.94845780541024249</v>
+        <v>-6.4930529276207141E-2</v>
       </c>
       <c r="K49">
-        <v>-1.4823251494519922</v>
+        <v>6.4901856578420763E-2</v>
       </c>
       <c r="L49">
-        <v>0.20974185651448543</v>
+        <v>0.2231985893256507</v>
       </c>
       <c r="M49">
-        <v>-7.1330256551733945E-2</v>
+        <v>-0.2677379814824396</v>
       </c>
       <c r="N49">
-        <v>-0.17513209254193415</v>
+        <v>0.31317955311370299</v>
       </c>
       <c r="O49">
-        <v>8.9956093778705032E-2</v>
+        <v>-0.41603365912927021</v>
       </c>
       <c r="P49">
-        <v>0.2048485050990026</v>
+        <v>-0.10191366332505931</v>
       </c>
       <c r="Q49">
-        <v>-0.20081765880425054</v>
+        <v>-0.33562299621457914</v>
       </c>
       <c r="R49">
-        <v>-0.10112990113107748</v>
+        <v>-0.23522092994385227</v>
       </c>
       <c r="S49">
-        <v>0.40752103303893494</v>
+        <v>3.0829057068282026E-2</v>
       </c>
       <c r="T49">
-        <v>8.3289522598995441E-2</v>
+        <v>0.11814662125439136</v>
       </c>
       <c r="U49">
-        <v>3.0202269054322023E-2</v>
+        <v>-1.9198248651972283E-2</v>
       </c>
       <c r="V49">
-        <v>-5.2635130059652466E-2</v>
+        <v>2.1432485160066288E-2</v>
       </c>
       <c r="W49">
-        <v>-0.1356211364624389</v>
+        <v>-0.27171015906627877</v>
       </c>
       <c r="X49">
-        <v>-5.9040333853914322E-2</v>
+        <v>-2.5284905287279041E-2</v>
       </c>
       <c r="Y49">
-        <v>0.19141179816547599</v>
+        <v>-0.14772745401409323</v>
       </c>
       <c r="Z49">
-        <v>-2.6806209388334432E-2</v>
+        <v>-3.6449778256065976E-2</v>
       </c>
       <c r="AA49">
-        <v>-3.8554152754966604E-2</v>
+        <v>0.12149267987725591</v>
       </c>
       <c r="AB49">
-        <v>0.11745729358801205</v>
+        <v>-1.3081166890383508E-2</v>
       </c>
       <c r="AC49">
-        <v>0.1872282774704371</v>
+        <v>-0.17695252728179461</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>6.6924268047812268</v>
+        <v>7.8125104677148229</v>
       </c>
       <c r="B50">
-        <v>2.4037196190152947</v>
+        <v>4.4976086588664224</v>
       </c>
       <c r="C50">
-        <v>1.2135836099706332</v>
+        <v>1.1723497013082842</v>
       </c>
       <c r="D50">
-        <v>-0.77797715620591879</v>
+        <v>1.1529678576379661</v>
       </c>
       <c r="E50">
-        <v>-0.40934678605468822</v>
+        <v>1.0418618622900953</v>
       </c>
       <c r="F50">
-        <v>3.4577989282968735E-2</v>
+        <v>1.0348791902735743</v>
       </c>
       <c r="G50">
-        <v>-1.10185826565413</v>
+        <v>0.72633240898913876</v>
       </c>
       <c r="H50">
-        <v>-0.26532012059870613</v>
+        <v>0.47016337243099121</v>
       </c>
       <c r="I50">
-        <v>-1.2383043911327727</v>
+        <v>0.15725288360918602</v>
       </c>
       <c r="J50">
-        <v>0.10677014105029928</v>
+        <v>-2.7989426877133378E-2</v>
       </c>
       <c r="K50">
-        <v>-0.81210472594551553</v>
+        <v>-5.6633235156555994E-2</v>
       </c>
       <c r="L50">
-        <v>-2.3687809482224806E-2</v>
+        <v>0.23009299406361344</v>
       </c>
       <c r="M50">
-        <v>-0.39591412818089372</v>
+        <v>0.16370281164792821</v>
       </c>
       <c r="N50">
-        <v>-9.0897433307262313E-2</v>
+        <v>0.45527252915538491</v>
       </c>
       <c r="O50">
-        <v>2.1255258647965142E-2</v>
+        <v>0.40648758434788967</v>
       </c>
       <c r="P50">
-        <v>0.57489212648897248</v>
+        <v>0.71987578003069574</v>
       </c>
       <c r="Q50">
-        <v>0.17476152540828166</v>
+        <v>0.662843430146004</v>
       </c>
       <c r="R50">
-        <v>0.13832455149966519</v>
+        <v>0.16887010256211807</v>
       </c>
       <c r="S50">
-        <v>0.46873313691483093</v>
+        <v>-2.0890357874537867E-2</v>
       </c>
       <c r="T50">
-        <v>5.4129311954762345E-2</v>
+        <v>0.1851061304966953</v>
       </c>
       <c r="U50">
-        <v>0.29898182404891249</v>
+        <v>7.2586572562713364E-2</v>
       </c>
       <c r="V50">
-        <v>0.19826657423903477</v>
+        <v>2.4255277592077441E-2</v>
       </c>
       <c r="W50">
-        <v>-5.5617369299709951E-2</v>
+        <v>0.25795501619086958</v>
       </c>
       <c r="X50">
-        <v>2.9183488231732328E-2</v>
+        <v>4.0126617424352432E-2</v>
       </c>
       <c r="Y50">
-        <v>-8.0019705751042974E-2</v>
+        <v>7.7254567406348909E-2</v>
       </c>
       <c r="Z50">
-        <v>-0.12081293985455324</v>
+        <v>0.23682657521872957</v>
       </c>
       <c r="AA50">
-        <v>-6.2482577321827083E-2</v>
+        <v>0.15287929312878715</v>
       </c>
       <c r="AB50">
-        <v>0.11477324834702628</v>
+        <v>-4.5467521326853652E-2</v>
       </c>
       <c r="AC50">
-        <v>4.6462543374315372E-2</v>
+        <v>-6.7954629321162627E-2</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>8.3630814357182697</v>
+        <v>6.4900679845879043</v>
+      </c>
+      <c r="B51">
+        <v>1.5377561025262927</v>
+      </c>
+      <c r="C51">
+        <v>1.5920536370610692</v>
+      </c>
+      <c r="D51">
+        <v>1.696186038381537</v>
+      </c>
+      <c r="E51">
+        <v>-0.20012332172583724</v>
+      </c>
+      <c r="F51">
+        <v>1.181762392340036</v>
+      </c>
+      <c r="G51">
+        <v>-8.1517767362178625E-2</v>
+      </c>
+      <c r="H51">
+        <v>1.1447827163719375</v>
+      </c>
+      <c r="I51">
+        <v>-0.54085839538544656</v>
+      </c>
+      <c r="J51">
+        <v>-8.960285090065764E-3</v>
+      </c>
+      <c r="K51">
+        <v>0.81923815496241525</v>
+      </c>
+      <c r="L51">
+        <v>-0.32040965013059919</v>
+      </c>
+      <c r="M51">
+        <v>0.22015775364266801</v>
       </c>
       <c r="N51">
-        <v>-0.66436700956613681</v>
+        <v>0.73484001113860931</v>
       </c>
       <c r="O51">
-        <v>-0.41881082270594527</v>
+        <v>0.52545480194167882</v>
       </c>
       <c r="P51">
-        <v>1.6538949337105001E-2</v>
+        <v>0.13761519916380896</v>
       </c>
       <c r="Q51">
-        <v>-0.22885698683718728</v>
+        <v>-0.50039047458849673</v>
       </c>
       <c r="R51">
-        <v>-0.34368157648818831</v>
+        <v>5.423651876289827E-2</v>
       </c>
       <c r="S51">
-        <v>-0.47481978586940488</v>
+        <v>0.38610502542178926</v>
       </c>
       <c r="T51">
-        <v>-0.23858404944769304</v>
+        <v>0.78529482213004675</v>
       </c>
       <c r="U51">
-        <v>-0.18549744741261306</v>
+        <v>0.61053137492966791</v>
       </c>
       <c r="V51">
-        <v>4.5864501313022769E-2</v>
+        <v>0.1490077801640112</v>
       </c>
       <c r="W51">
-        <v>-0.11586411051653692</v>
+        <v>-0.14034138748541508</v>
       </c>
       <c r="X51">
-        <v>-5.6101944607241293E-2</v>
+        <v>-8.4549270893766612E-2</v>
       </c>
       <c r="Y51">
-        <v>8.5951783801237885E-2</v>
+        <v>0.42702276184534183</v>
       </c>
       <c r="Z51">
-        <v>-0.31170528124903923</v>
+        <v>0.30412685180568405</v>
       </c>
       <c r="AA51">
-        <v>0.11584985025852265</v>
+        <v>0.2318660056192326</v>
       </c>
       <c r="AB51">
-        <v>-0.12148490345367838</v>
+        <v>-7.6032113703111581E-2</v>
       </c>
       <c r="AC51">
-        <v>1.6389075889222691E-2</v>
+        <v>-0.19241129960518644</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>8.9167879562488785</v>
+        <v>1.5396152819952365</v>
       </c>
       <c r="B52">
-        <v>-3.8147778783658191</v>
+        <v>1.2999231547893972</v>
       </c>
       <c r="C52">
-        <v>-5.3043776017901161</v>
+        <v>0.23649917434283335</v>
       </c>
       <c r="D52">
-        <v>-0.53373077758201637</v>
+        <v>2.2882060863466798</v>
       </c>
       <c r="E52">
-        <v>0.38749268908325329</v>
+        <v>1.0147741885392085</v>
       </c>
       <c r="F52">
-        <v>0.92615518699278643</v>
+        <v>0.52983574826611246</v>
       </c>
       <c r="G52">
-        <v>0.50451602911908477</v>
+        <v>0.68080949657503398</v>
       </c>
       <c r="H52">
-        <v>0.18406472936743987</v>
+        <v>0.2483269144804725</v>
       </c>
       <c r="I52">
-        <v>-1.7399870933286563</v>
+        <v>0.27750149067564278</v>
       </c>
       <c r="J52">
-        <v>1.3932332416370072E-2</v>
+        <v>4.3400634208116051E-3</v>
       </c>
       <c r="K52">
-        <v>1.2560961156276196</v>
+        <v>0.12308996661469143</v>
       </c>
       <c r="L52">
-        <v>-0.47954719339771801</v>
+        <v>0.26472802800085293</v>
       </c>
       <c r="M52">
-        <v>-1.799532442568446E-2</v>
+        <v>0.40401480183474558</v>
       </c>
       <c r="N52">
-        <v>-0.4408193140708046</v>
+        <v>0.33283022615966606</v>
       </c>
       <c r="O52">
-        <v>4.9050531583821735E-2</v>
+        <v>0.68699355055802203</v>
       </c>
       <c r="P52">
-        <v>7.4128208237667689E-3</v>
+        <v>0.49970100289725999</v>
       </c>
       <c r="Q52">
-        <v>0.33599962951473128</v>
+        <v>1.135832242878743E-2</v>
       </c>
       <c r="R52">
-        <v>0.14937744938092193</v>
+        <v>-0.12909378313153413</v>
       </c>
       <c r="S52">
-        <v>0.23659145040781082</v>
+        <v>4.1191539789736255E-2</v>
       </c>
       <c r="T52">
-        <v>-0.18064201689463397</v>
+        <v>0.37020211435183786</v>
       </c>
       <c r="U52">
-        <v>-0.19066273338280976</v>
+        <v>0.25414322320769034</v>
       </c>
       <c r="V52">
-        <v>0.13653567554212193</v>
+        <v>0.33375315642772624</v>
       </c>
       <c r="W52">
-        <v>0.3532735150941777</v>
+        <v>0.38948264981121578</v>
       </c>
       <c r="X52">
-        <v>-0.11513577817851142</v>
+        <v>0.39148883186799677</v>
       </c>
       <c r="Y52">
-        <v>-3.5539479591263738E-2</v>
+        <v>0.32778704031287514</v>
       </c>
       <c r="Z52">
-        <v>-0.22979763373837458</v>
+        <v>0.22379042992251055</v>
       </c>
       <c r="AA52">
-        <v>-8.6090615139907782E-3</v>
+        <v>7.2299848711515458E-2</v>
       </c>
       <c r="AB52">
-        <v>0.16807769106142775</v>
+        <v>1.8068404053448176E-2</v>
       </c>
       <c r="AC52">
-        <v>2.7278257821262256E-2</v>
+        <v>2.8931457106447265E-2</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>8.3363780071141402</v>
+        <v>6.8024013863956236</v>
       </c>
       <c r="B53">
-        <v>-3.0218980546574143</v>
+        <v>1.0923320265843477</v>
       </c>
       <c r="C53">
-        <v>-3.219492605702353</v>
+        <v>-1.7275807990770362</v>
       </c>
       <c r="D53">
-        <v>-1.0902101380367888</v>
+        <v>-0.6462505434893614</v>
       </c>
       <c r="E53">
-        <v>-0.57816341586671327</v>
+        <v>-0.73082383433524256</v>
       </c>
       <c r="F53">
-        <v>2.5283860690543536</v>
+        <v>0.18441593800507286</v>
       </c>
       <c r="G53">
-        <v>0.17358291065793952</v>
+        <v>0.24520368251763694</v>
       </c>
       <c r="H53">
-        <v>0.52587598940730773</v>
+        <v>-0.40617277280114744</v>
       </c>
       <c r="I53">
-        <v>-2.6305729012823811</v>
+        <v>1.3478541751421567E-2</v>
       </c>
       <c r="J53">
-        <v>-0.12343122586111853</v>
+        <v>-0.67238200591139563</v>
       </c>
       <c r="K53">
-        <v>1.7800921293048753</v>
+        <v>-0.31567961260066096</v>
       </c>
       <c r="L53">
-        <v>0.32122498126296845</v>
+        <v>-7.0587940513921463E-2</v>
       </c>
       <c r="M53">
-        <v>-1.3533494285749494</v>
+        <v>0.24357096103309556</v>
       </c>
       <c r="N53">
-        <v>-0.29573073230138608</v>
+        <v>-0.49469434148476982</v>
       </c>
       <c r="O53">
-        <v>0.53251873606177469</v>
+        <v>0.41847017762538619</v>
       </c>
       <c r="P53">
-        <v>3.3096640025797451E-2</v>
+        <v>-3.5498933576777664E-2</v>
       </c>
       <c r="Q53">
-        <v>0.41615235906216369</v>
+        <v>-0.23999268319966829</v>
       </c>
       <c r="R53">
-        <v>0.32804999215543468</v>
+        <v>0.648804128474742</v>
       </c>
       <c r="S53">
-        <v>-0.40732650138956655</v>
+        <v>-6.5272629842755239E-2</v>
       </c>
       <c r="T53">
-        <v>0.37903525543609995</v>
+        <v>-0.16133713912365971</v>
       </c>
       <c r="U53">
-        <v>-0.19764322180686611</v>
+        <v>0.47240060444268517</v>
       </c>
       <c r="V53">
-        <v>-0.23074256542705601</v>
+        <v>-0.14239994668196393</v>
       </c>
       <c r="W53">
-        <v>8.5188981954738632E-2</v>
+        <v>-1.8422257490407167E-2</v>
       </c>
       <c r="X53">
-        <v>-0.36915261287206141</v>
+        <v>0.23918679048922209</v>
       </c>
       <c r="Y53">
-        <v>-0.21306071086956815</v>
+        <v>-0.3572236599108139</v>
       </c>
       <c r="Z53">
-        <v>-4.2785422880298372E-2</v>
+        <v>-0.13656052783617462</v>
       </c>
       <c r="AA53">
-        <v>-0.30453908539636265</v>
+        <v>-8.284899328929915E-2</v>
       </c>
       <c r="AB53">
-        <v>-4.7085705434914873E-2</v>
+        <v>-0.29902323221786792</v>
       </c>
       <c r="AC53">
-        <v>-5.809819459991572E-2</v>
+        <v>0.20675338898868906</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>8.4197445163111464</v>
+        <v>7.1846730346256731</v>
       </c>
       <c r="B54">
-        <v>2.5111838907290331</v>
+        <v>1.7370490304570734</v>
       </c>
       <c r="C54">
-        <v>-3.2827834737114494</v>
+        <v>0.62615226219342723</v>
       </c>
       <c r="D54">
-        <v>-1.4283786379656047</v>
+        <v>-0.32037526246409637</v>
       </c>
       <c r="E54">
-        <v>0.5361352840209006</v>
+        <v>-0.59815433260124595</v>
       </c>
       <c r="F54">
-        <v>1.5509896496402025</v>
+        <v>-1.007443097125287</v>
       </c>
       <c r="G54">
-        <v>-2.7382270528470847E-2</v>
+        <v>-0.95654036239712248</v>
       </c>
       <c r="H54">
-        <v>-0.90209749207149692</v>
+        <v>-1.439302053425223</v>
       </c>
       <c r="I54">
-        <v>-0.16858846962515669</v>
+        <v>-1.5385948213485097</v>
       </c>
       <c r="J54">
-        <v>0.21698622533166212</v>
+        <v>-0.22016597078797717</v>
       </c>
       <c r="K54">
-        <v>0.57927738509899607</v>
+        <v>-0.72777897004114822</v>
       </c>
       <c r="L54">
-        <v>0.11574459567704078</v>
+        <v>0.5440892590781452</v>
       </c>
       <c r="M54">
-        <v>-0.63553660016611446</v>
+        <v>-6.1525791944427255E-2</v>
       </c>
       <c r="N54">
-        <v>-0.19259198234532068</v>
+        <v>-0.1484350654696549</v>
       </c>
       <c r="O54">
-        <v>0.1432262633748117</v>
+        <v>-1.3438240708475654E-2</v>
       </c>
       <c r="P54">
-        <v>0.1122482950571478</v>
+        <v>0.1419060043838728</v>
       </c>
       <c r="Q54">
-        <v>-0.1132278499820424</v>
+        <v>-0.20217540644470719</v>
       </c>
       <c r="R54">
-        <v>-5.3140031066957723E-3</v>
+        <v>-0.23324298638117935</v>
       </c>
       <c r="S54">
-        <v>1.464755744246643E-2</v>
+        <v>-2.3030347292929503E-2</v>
       </c>
       <c r="T54">
-        <v>-0.22265892185150088</v>
+        <v>-3.284768298668736E-2</v>
       </c>
       <c r="U54">
-        <v>-6.6756369617284622E-2</v>
+        <v>-0.26334110533147931</v>
       </c>
       <c r="V54">
-        <v>-6.5490905335326657E-2</v>
+        <v>-0.33254589288773961</v>
       </c>
       <c r="W54">
-        <v>-8.9455761324902766E-2</v>
+        <v>-2.9404161573258508E-2</v>
       </c>
       <c r="X54">
-        <v>-9.3873416592512818E-2</v>
+        <v>-0.22451253008787561</v>
       </c>
       <c r="Y54">
-        <v>1.8383374898938175E-2</v>
+        <v>-0.35389083443911651</v>
       </c>
       <c r="Z54">
-        <v>-0.1149118251314635</v>
+        <v>-3.9176314488783635E-2</v>
       </c>
       <c r="AA54">
-        <v>3.4684286855206845E-2</v>
+        <v>0.13703736200315089</v>
       </c>
       <c r="AB54">
-        <v>-7.9210570584683268E-2</v>
+        <v>7.3082937441717233E-2</v>
       </c>
       <c r="AC54">
-        <v>-0.23296965266206676</v>
+        <v>-0.22312516518041917</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>8.2118712554466704</v>
+        <v>5.8845270903957561</v>
       </c>
       <c r="B55">
-        <v>1.4585287953783741</v>
+        <v>-1.4630038431539607</v>
       </c>
       <c r="C55">
-        <v>-3.3302543219565406</v>
+        <v>-2.6489158061665425</v>
       </c>
       <c r="D55">
-        <v>-2.8689205303099907</v>
+        <v>-6.5247634278637473E-2</v>
       </c>
       <c r="E55">
-        <v>-0.6211350936757366</v>
+        <v>0.7395949311493949</v>
       </c>
       <c r="F55">
-        <v>1.4660259152903872</v>
+        <v>0.27543003299468655</v>
       </c>
       <c r="G55">
-        <v>1.2333626324814881</v>
+        <v>1.0941556539208654</v>
       </c>
       <c r="H55">
-        <v>-0.42286588957110272</v>
+        <v>-0.69972336156351977</v>
       </c>
       <c r="I55">
-        <v>-1.5282578851389161</v>
+        <v>-0.62983759979422715</v>
       </c>
       <c r="J55">
-        <v>-0.8752081861107438</v>
+        <v>0.22487133816962399</v>
       </c>
       <c r="K55">
-        <v>0.24303185448812159</v>
+        <v>0.73978822694420754</v>
       </c>
       <c r="L55">
-        <v>0.41397180955460378</v>
+        <v>-0.19849500182513169</v>
       </c>
       <c r="M55">
-        <v>-0.59437917758719594</v>
+        <v>-0.82515980702165992</v>
       </c>
       <c r="N55">
-        <v>-0.27027482871035358</v>
+        <v>-0.3522256975771193</v>
       </c>
       <c r="O55">
-        <v>0.15748357489709408</v>
+        <v>-0.14577327196908454</v>
       </c>
       <c r="P55">
-        <v>0.14064386758484959</v>
+        <v>-8.2769487671329967E-2</v>
       </c>
       <c r="Q55">
-        <v>-5.977779853981452E-2</v>
+        <v>0.24699900064495464</v>
       </c>
       <c r="R55">
-        <v>6.318447872869018E-2</v>
+        <v>0.22594932680910387</v>
       </c>
       <c r="S55">
-        <v>0.1371997928327631</v>
+        <v>-0.20787222272135611</v>
       </c>
       <c r="T55">
-        <v>0.34886066423264972</v>
+        <v>0.1727714248058434</v>
       </c>
       <c r="U55">
-        <v>0.32953572186115138</v>
+        <v>9.669057543259818E-2</v>
       </c>
       <c r="V55">
-        <v>-0.25938325087486763</v>
+        <v>-0.30059387450236913</v>
       </c>
       <c r="W55">
-        <v>-0.27695114890826783</v>
+        <v>0.15712998719470547</v>
       </c>
       <c r="X55">
-        <v>-0.12692330050672623</v>
+        <v>0.17695186340708347</v>
       </c>
       <c r="Y55">
-        <v>3.2126567482994514E-2</v>
+        <v>-0.17834173708601517</v>
       </c>
       <c r="Z55">
-        <v>1.2864119257483847E-2</v>
+        <v>7.0681327998524016E-2</v>
       </c>
       <c r="AA55">
-        <v>8.7197250430974399E-3</v>
+        <v>6.6162117458071198E-2</v>
       </c>
       <c r="AB55">
-        <v>-0.14551543960701288</v>
+        <v>-0.13280292211909384</v>
       </c>
       <c r="AC55">
-        <v>-8.3737818437239361E-2</v>
+        <v>1.1373994401400316E-2</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>9.0330729131316136</v>
+        <v>6.0174244582082794</v>
       </c>
       <c r="B56">
-        <v>3.5728557969279828</v>
+        <v>1.9046296189068885</v>
       </c>
       <c r="C56">
-        <v>-3.2143731637822834</v>
+        <v>1.2006741187661252</v>
       </c>
       <c r="D56">
-        <v>-2.2052770638622636</v>
+        <v>0.51570782427992412</v>
       </c>
       <c r="E56">
-        <v>0.4091674859957195</v>
+        <v>0.52491156425045737</v>
       </c>
       <c r="F56">
-        <v>1.6424694788960443</v>
+        <v>0.8417576585047003</v>
       </c>
       <c r="G56">
-        <v>0.42221609009661681</v>
+        <v>0.46314050222124786</v>
       </c>
       <c r="H56">
-        <v>-0.90451160399613595</v>
+        <v>-0.30996617178374802</v>
       </c>
       <c r="I56">
-        <v>-0.81442177560525619</v>
+        <v>-0.29917076260138553</v>
       </c>
       <c r="J56">
-        <v>0.23529361586954994</v>
+        <v>-0.30456529170030594</v>
       </c>
       <c r="K56">
-        <v>0.6805582966558108</v>
+        <v>-0.16516564556243182</v>
       </c>
       <c r="L56">
-        <v>0.20130498015806339</v>
+        <v>-0.12283400018676431</v>
       </c>
       <c r="M56">
-        <v>-0.34544304825480854</v>
+        <v>0.11239103756540128</v>
       </c>
       <c r="N56">
-        <v>-2.6394970720665038E-2</v>
+        <v>-0.311836767857888</v>
       </c>
       <c r="O56">
-        <v>9.0216493137093803E-2</v>
+        <v>-0.56497129952740621</v>
       </c>
       <c r="P56">
-        <v>0.25087328711299989</v>
+        <v>2.625079131790433E-2</v>
       </c>
       <c r="Q56">
-        <v>7.8538263413014731E-2</v>
+        <v>0.32126903247062699</v>
       </c>
       <c r="R56">
-        <v>2.444571607044357E-2</v>
+        <v>-8.4005955354828396E-2</v>
       </c>
       <c r="S56">
-        <v>9.101885363596833E-2</v>
+        <v>-0.23660369624789171</v>
       </c>
       <c r="T56">
-        <v>-2.9328730304982634E-2</v>
+        <v>4.448688658966489E-2</v>
       </c>
       <c r="U56">
-        <v>0.25232946597456224</v>
+        <v>0.14188305017579431</v>
       </c>
       <c r="V56">
-        <v>3.4131036463762865E-2</v>
+        <v>-1.6098003339266649E-2</v>
       </c>
       <c r="W56">
-        <v>-0.23399935040845279</v>
+        <v>-5.3188546971333912E-2</v>
       </c>
       <c r="X56">
-        <v>-0.14592670525861101</v>
+        <v>0.11955905919634978</v>
       </c>
       <c r="Y56">
-        <v>-0.34456137732170572</v>
+        <v>0.1742664187078356</v>
       </c>
       <c r="Z56">
-        <v>-8.7194863990830481E-3</v>
+        <v>5.4652396748467225E-2</v>
       </c>
       <c r="AA56">
-        <v>3.3450202113131031E-2</v>
+        <v>6.4725955979902522E-2</v>
       </c>
       <c r="AB56">
-        <v>7.6870179283379636E-2</v>
+        <v>0.1269940442803405</v>
       </c>
       <c r="AC56">
-        <v>0.19069271229977641</v>
+        <v>7.0490194084562738E-2</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>8.4450526985095529</v>
+        <v>6.2098627410367166</v>
       </c>
       <c r="B57">
-        <v>-0.83444041036185934</v>
+        <v>-0.21063689765620119</v>
       </c>
       <c r="C57">
-        <v>-4.3418261228676345</v>
+        <v>-1.370192447328364</v>
       </c>
       <c r="D57">
-        <v>-1.7332037864265102</v>
+        <v>-0.84887844051040218</v>
       </c>
       <c r="E57">
-        <v>0.83549521684381334</v>
+        <v>-4.8931700186480985E-2</v>
       </c>
       <c r="F57">
-        <v>1.6181771558951699</v>
+        <v>0.57186918221178451</v>
       </c>
       <c r="G57">
-        <v>0.15471768310122333</v>
+        <v>-0.13774776864740526</v>
       </c>
       <c r="H57">
-        <v>-0.79748168957906174</v>
+        <v>-0.45637385917520484</v>
       </c>
       <c r="I57">
-        <v>-0.17420678744037735</v>
+        <v>-0.32336006554088187</v>
       </c>
       <c r="J57">
-        <v>0.72338510809628098</v>
+        <v>-0.4194173754525044</v>
       </c>
       <c r="K57">
-        <v>0.83346228202466754</v>
+        <v>-0.22584345975083714</v>
       </c>
       <c r="L57">
-        <v>0.11446190335539087</v>
+        <v>0.26809883573587651</v>
       </c>
       <c r="M57">
-        <v>-0.44100577305335054</v>
+        <v>-0.32959840886643732</v>
       </c>
       <c r="N57">
-        <v>-0.47962942333950037</v>
+        <v>-0.90308869567403427</v>
       </c>
       <c r="O57">
-        <v>-0.66905359697701039</v>
+        <v>0.10689115236429336</v>
       </c>
       <c r="P57">
-        <v>-0.46619709815816429</v>
+        <v>0.57717132842202046</v>
       </c>
       <c r="Q57">
-        <v>-0.56278632909290527</v>
+        <v>3.298611989351239E-2</v>
       </c>
       <c r="R57">
-        <v>-0.31291362704138698</v>
+        <v>-0.38636493526320598</v>
       </c>
       <c r="S57">
-        <v>-1.7621735952294312E-3</v>
+        <v>-1.9784870318074726E-2</v>
       </c>
       <c r="T57">
-        <v>-1.5301477894437195E-2</v>
+        <v>0.41079320675181791</v>
       </c>
       <c r="U57">
-        <v>-0.20536481107442203</v>
+        <v>-0.10128263080301798</v>
       </c>
       <c r="V57">
-        <v>-0.45363642434277585</v>
+        <v>-0.35676502355390655</v>
       </c>
       <c r="W57">
-        <v>-8.5622375477414234E-2</v>
+        <v>0.18173099379550572</v>
       </c>
       <c r="X57">
-        <v>8.1499403500358586E-2</v>
+        <v>9.7658476591285084E-2</v>
       </c>
       <c r="Y57">
-        <v>0.26330574184131345</v>
+        <v>-0.21883506164301597</v>
       </c>
       <c r="Z57">
-        <v>0.22118817486492393</v>
+        <v>-2.4183059584419294E-2</v>
       </c>
       <c r="AA57">
-        <v>-0.16553125707480806</v>
+        <v>-3.0207089511582987E-2</v>
       </c>
       <c r="AB57">
-        <v>3.0148286680561475E-2</v>
+        <v>-6.499501268954383E-2</v>
       </c>
       <c r="AC57">
-        <v>-3.0954397344027221E-2</v>
+        <v>0.15001506457779565</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>8.4280190711110166</v>
+        <v>4.3988107439550923</v>
       </c>
       <c r="B58">
-        <v>-0.36086253032990023</v>
+        <v>-3.9224824693888038</v>
       </c>
       <c r="C58">
-        <v>-3.1300443167929841</v>
+        <v>-3.2512351757241751</v>
       </c>
       <c r="D58">
-        <v>-2.8656112977467316</v>
+        <v>2.1284776558237364</v>
       </c>
       <c r="E58">
-        <v>-1.9789718165262815</v>
+        <v>-0.57342544969585429</v>
       </c>
       <c r="F58">
-        <v>-1.5743248417929634</v>
+        <v>5.8583486340814526E-2</v>
       </c>
       <c r="G58">
-        <v>0.99787695548640187</v>
+        <v>0.29539355656182564</v>
       </c>
       <c r="H58">
-        <v>-0.70821631869961077</v>
+        <v>8.2154698670005119E-2</v>
       </c>
       <c r="I58">
-        <v>-1.5017824865686451</v>
+        <v>-0.83328030147300836</v>
       </c>
       <c r="J58">
-        <v>0.58688955485848582</v>
+        <v>0.33873931586527029</v>
       </c>
       <c r="K58">
-        <v>0.75152731364214931</v>
+        <v>0.36977583099050193</v>
       </c>
       <c r="L58">
-        <v>0.58889627746184825</v>
+        <v>-0.31673523074388277</v>
       </c>
       <c r="M58">
-        <v>-1.4902238776718864</v>
+        <v>3.7439664969409229E-3</v>
       </c>
       <c r="N58">
-        <v>-0.15915711211965422</v>
+        <v>-0.10351454044310904</v>
       </c>
       <c r="O58">
-        <v>-0.68782893561600666</v>
+        <v>-0.82452495489315247</v>
       </c>
       <c r="P58">
-        <v>-0.29129208351866698</v>
+        <v>-3.9930010753063107E-2</v>
       </c>
       <c r="Q58">
-        <v>-0.31321814033047513</v>
+        <v>-0.20899200297118167</v>
       </c>
       <c r="R58">
-        <v>-0.13238013814911223</v>
+        <v>-5.7983317718590232E-3</v>
       </c>
       <c r="S58">
-        <v>-0.1816965706815645</v>
+        <v>-0.34577431286438109</v>
       </c>
       <c r="T58">
-        <v>-0.11741535553395031</v>
+        <v>-0.1048632578042738</v>
       </c>
       <c r="U58">
-        <v>9.9000610470551795E-2</v>
+        <v>0.16814334999986838</v>
       </c>
       <c r="V58">
-        <v>-0.24247076990260655</v>
+        <v>-0.17523987726673798</v>
       </c>
       <c r="W58">
-        <v>-2.6186600454259547E-2</v>
+        <v>-0.29627559406117088</v>
       </c>
       <c r="X58">
-        <v>-3.4358016369537579E-2</v>
+        <v>-6.0064982195518049E-2</v>
       </c>
       <c r="Y58">
-        <v>-0.21437957251131162</v>
+        <v>2.9464160947036685E-2</v>
       </c>
       <c r="Z58">
-        <v>6.9602256941514534E-2</v>
+        <v>-6.7887889191764108E-3</v>
       </c>
       <c r="AA58">
-        <v>-7.9169093375056673E-4</v>
+        <v>0.17976306092208119</v>
       </c>
       <c r="AB58">
-        <v>0.11047499912976394</v>
+        <v>0.15356961640906974</v>
       </c>
       <c r="AC58">
-        <v>8.2870553386366202E-2</v>
+        <v>0.15658096000572297</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>7.7268735081418658</v>
+        <v>6.6752958086959211</v>
       </c>
       <c r="B59">
-        <v>4.4628715030855624</v>
+        <v>-5.6811879971357611</v>
       </c>
       <c r="C59">
-        <v>-4.1392328635017508</v>
+        <v>-1.7878377798288585</v>
       </c>
       <c r="D59">
-        <v>-1.5892136728548227</v>
+        <v>1.7601031196399719</v>
       </c>
       <c r="E59">
-        <v>0.84023487597188917</v>
+        <v>-0.74109973503995008</v>
       </c>
       <c r="F59">
-        <v>1.6242325326104632</v>
+        <v>2.3169995808848216E-2</v>
       </c>
       <c r="G59">
-        <v>-0.18349756001961154</v>
+        <v>-9.4804575140565506E-2</v>
       </c>
       <c r="H59">
-        <v>-1.1609116502468333</v>
+        <v>0.53662763391245261</v>
       </c>
       <c r="I59">
-        <v>-0.52808657535254</v>
+        <v>-1.004199503615181</v>
       </c>
       <c r="J59">
-        <v>0.740623571647541</v>
+        <v>0.98309982010817365</v>
       </c>
       <c r="K59">
-        <v>0.67000844089207345</v>
+        <v>5.486273678109675E-3</v>
       </c>
       <c r="L59">
-        <v>-0.2572064242650674</v>
+        <v>-0.54629282925006473</v>
       </c>
       <c r="M59">
-        <v>-0.68321035437607369</v>
+        <v>-0.42885775757814842</v>
       </c>
       <c r="N59">
-        <v>-0.23401724668709625</v>
+        <v>-0.23196163489005731</v>
       </c>
       <c r="O59">
-        <v>-0.33782634999803507</v>
+        <v>-1.3549435029424994</v>
       </c>
       <c r="P59">
-        <v>-0.28315969815166658</v>
+        <v>-0.12079716575024349</v>
       </c>
       <c r="Q59">
-        <v>-0.31431238841382353</v>
+        <v>-0.14999783599451907</v>
       </c>
       <c r="R59">
-        <v>-3.700640798438553E-2</v>
+        <v>-0.56361337417589841</v>
       </c>
       <c r="S59">
-        <v>0.1120306501567436</v>
+        <v>-0.14614838315979961</v>
       </c>
       <c r="T59">
-        <v>-0.18011257662916549</v>
+        <v>0.19628023995646338</v>
       </c>
       <c r="U59">
-        <v>8.5475303589235233E-2</v>
+        <v>-0.18782376011092403</v>
       </c>
       <c r="V59">
-        <v>0.16158703495182844</v>
+        <v>0.23756480378189504</v>
       </c>
       <c r="W59">
-        <v>-0.53930998654651308</v>
+        <v>-0.19816772050573705</v>
       </c>
       <c r="X59">
-        <v>-0.111394081083623</v>
+        <v>0.22182251216234447</v>
       </c>
       <c r="Y59">
-        <v>0.24553569333667824</v>
+        <v>0.30646168896830045</v>
       </c>
       <c r="Z59">
-        <v>-0.20959228183127024</v>
+        <v>-0.12512619727800386</v>
       </c>
       <c r="AA59">
-        <v>-5.4398226950655715E-2</v>
+        <v>5.7661189133474868E-3</v>
       </c>
       <c r="AB59">
-        <v>4.1997178738358919E-2</v>
+        <v>0.20196070635419169</v>
       </c>
       <c r="AC59">
-        <v>-6.2383785168040849E-3</v>
+        <v>5.405004750296357E-2</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>7.6976808314123799</v>
+        <v>6.1745448820278863</v>
       </c>
       <c r="B60">
-        <v>0.37093601821186939</v>
+        <v>-6.2068913846709206</v>
       </c>
       <c r="C60">
-        <v>-3.054260096886285</v>
+        <v>-3.9022999946664849</v>
       </c>
       <c r="D60">
-        <v>-1.3131765345598068</v>
+        <v>2.6312168499107229</v>
       </c>
       <c r="E60">
-        <v>1.9233243738648951</v>
+        <v>-1.7278193673320037</v>
       </c>
       <c r="F60">
-        <v>0.69310483546005452</v>
+        <v>-5.1155515543705239E-2</v>
       </c>
       <c r="G60">
-        <v>-1.4256660597499344</v>
+        <v>-7.6009484362449919E-2</v>
       </c>
       <c r="H60">
-        <v>-0.35348034184150595</v>
+        <v>-0.18168243234455178</v>
       </c>
       <c r="I60">
-        <v>0.22450776493910349</v>
+        <v>-0.69585850341701772</v>
       </c>
       <c r="J60">
-        <v>1.490291896720696</v>
+        <v>0.12782670448526534</v>
       </c>
       <c r="K60">
-        <v>-0.83173610436716683</v>
+        <v>0.43659976979246923</v>
       </c>
       <c r="L60">
-        <v>-0.1266766896750951</v>
+        <v>0.80763402934231265</v>
       </c>
       <c r="M60">
-        <v>-0.23051917108237069</v>
+        <v>-1.0430182097657761</v>
       </c>
       <c r="N60">
-        <v>-5.1549479806740864E-2</v>
+        <v>-0.43337960326496633</v>
       </c>
       <c r="O60">
-        <v>-0.23824833938033319</v>
+        <v>-0.22365862709647291</v>
       </c>
       <c r="P60">
-        <v>4.5625145683031679E-2</v>
+        <v>0.17092726948066042</v>
       </c>
       <c r="Q60">
-        <v>-0.26319688879251829</v>
+        <v>-0.12831525077458103</v>
       </c>
       <c r="R60">
-        <v>-0.25716905191915623</v>
+        <v>-0.48216171206641006</v>
       </c>
       <c r="S60">
-        <v>-0.20617425658489735</v>
+        <v>-0.38961232501231996</v>
       </c>
       <c r="T60">
-        <v>-0.31648793580963025</v>
+        <v>-7.0663837567570192E-2</v>
       </c>
       <c r="U60">
-        <v>-1.7897042530740555E-3</v>
+        <v>0.1215855454448629</v>
       </c>
       <c r="V60">
-        <v>-0.24038049632932271</v>
+        <v>-2.2034764128970912E-2</v>
       </c>
       <c r="W60">
-        <v>-9.791204613620845E-2</v>
+        <v>-0.10443708455936516</v>
       </c>
       <c r="X60">
-        <v>-0.24371362758380211</v>
+        <v>0.3641319835098133</v>
       </c>
       <c r="Y60">
-        <v>-0.28270387234188438</v>
+        <v>2.3342336248260424E-2</v>
       </c>
       <c r="Z60">
-        <v>-0.23218597058524199</v>
+        <v>-0.13213085092607996</v>
       </c>
       <c r="AA60">
-        <v>-0.34693072800184055</v>
+        <v>7.9740668355727067E-3</v>
       </c>
       <c r="AB60">
-        <v>-0.16862888887123795</v>
+        <v>-0.18386154151872808</v>
       </c>
       <c r="AC60">
-        <v>0.23059550923413422</v>
+        <v>6.9499181263418058E-2</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>6.6241355388540564</v>
+        <v>5.5564798991598146</v>
       </c>
       <c r="B61">
-        <v>0.99876806045646449</v>
+        <v>-5.2328025870289769</v>
       </c>
       <c r="C61">
-        <v>1.0959459680056707</v>
+        <v>-3.2680770847523353</v>
       </c>
       <c r="D61">
-        <v>1.1797593860390743</v>
+        <v>-0.45028831042430906</v>
       </c>
       <c r="E61">
-        <v>1.1224575360496147</v>
+        <v>0.46205057459181748</v>
       </c>
       <c r="F61">
-        <v>0.48886538421862658</v>
+        <v>0.803357318085271</v>
       </c>
       <c r="G61">
-        <v>2.260546565480209</v>
+        <v>0.38905344566951183</v>
       </c>
       <c r="H61">
-        <v>-0.67902553823930689</v>
+        <v>-2.7048364945646479E-3</v>
       </c>
       <c r="I61">
-        <v>-0.11482939392666104</v>
+        <v>-0.7575554705184625</v>
       </c>
       <c r="J61">
-        <v>0.9096466015965804</v>
+        <v>-6.9132336906406137E-3</v>
       </c>
       <c r="K61">
-        <v>-0.43332897199874537</v>
+        <v>3.162984141478322E-2</v>
       </c>
       <c r="L61">
-        <v>3.6099319345468457E-2</v>
+        <v>1.8786949591193293E-2</v>
       </c>
       <c r="M61">
-        <v>-4.6931125951637363E-2</v>
+        <v>-3.5747075357089697E-3</v>
       </c>
       <c r="N61">
         <v>0.30445668917677621</v>
@@ -5794,43 +5830,43 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>7.7998502329143289</v>
+        <v>6.918086387610189</v>
       </c>
       <c r="B62">
-        <v>1.0634563591202739</v>
+        <v>-5.3270494578744021</v>
       </c>
       <c r="C62">
-        <v>3.7608062050267117</v>
+        <v>-2.9631696306788764</v>
       </c>
       <c r="D62">
-        <v>1.1582895715029302</v>
+        <v>0.82722294961348264</v>
       </c>
       <c r="E62">
-        <v>-0.82067569117322325</v>
+        <v>1.1299461942436899</v>
       </c>
       <c r="F62">
-        <v>2.0333378656257888</v>
+        <v>0.38067045403106842</v>
       </c>
       <c r="G62">
-        <v>-0.47653531466633203</v>
+        <v>-1.1726767995502148</v>
       </c>
       <c r="H62">
-        <v>-0.19709699596452246</v>
+        <v>-0.24872776625142129</v>
       </c>
       <c r="I62">
-        <v>0.42141213256902949</v>
+        <v>0.98695262207945755</v>
       </c>
       <c r="J62">
-        <v>-0.29075199395947599</v>
+        <v>-0.10079042374067103</v>
       </c>
       <c r="K62">
-        <v>0.79485720301440144</v>
+        <v>-0.13792027217164515</v>
       </c>
       <c r="L62">
-        <v>-0.92612498406910115</v>
+        <v>0.2118393824110647</v>
       </c>
       <c r="M62">
-        <v>0.31554487064250814</v>
+        <v>0.1965017108962058</v>
       </c>
       <c r="N62">
         <v>0.20865394567065462</v>
@@ -5883,43 +5919,43 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>7.9648884925614016</v>
+        <v>4.4371885282251684</v>
       </c>
       <c r="B63">
-        <v>3.9424650160574357</v>
+        <v>-0.73564568421423782</v>
       </c>
       <c r="C63">
-        <v>3.062968103381476</v>
+        <v>-0.35358524346110332</v>
       </c>
       <c r="D63">
-        <v>1.5679724977244993</v>
+        <v>-2.78840143819655E-2</v>
       </c>
       <c r="E63">
-        <v>0.93063813701442244</v>
+        <v>0.14971975451004416</v>
       </c>
       <c r="F63">
-        <v>-0.14847648930952315</v>
+        <v>0.52054454094453328</v>
       </c>
       <c r="G63">
-        <v>0.93360201388396802</v>
+        <v>0.4575629530183522</v>
       </c>
       <c r="H63">
-        <v>-0.16984109181090856</v>
+        <v>0.72038465152747222</v>
       </c>
       <c r="I63">
-        <v>-0.21333344102291832</v>
+        <v>-0.25092390293196076</v>
       </c>
       <c r="J63">
-        <v>0.14721942003265748</v>
+        <v>-0.13796533974691699</v>
       </c>
       <c r="K63">
-        <v>-2.1414706730099972E-2</v>
+        <v>-0.23573849581765732</v>
       </c>
       <c r="L63">
-        <v>-0.4538691392549859</v>
+        <v>-0.34413951080050814</v>
       </c>
       <c r="M63">
-        <v>-0.38164591500548206</v>
+        <v>-1.5785697047120181E-2</v>
       </c>
       <c r="N63">
         <v>0.52452292032585246</v>
@@ -5972,43 +6008,43 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>7.9632941851649672</v>
+        <v>6.179765030800314</v>
       </c>
       <c r="B64">
-        <v>3.5562267046059537</v>
+        <v>-3.0354245340855819</v>
       </c>
       <c r="C64">
-        <v>-1.6136613299327225</v>
+        <v>-0.57743145256625539</v>
       </c>
       <c r="D64">
-        <v>1.5541379051207875</v>
+        <v>-0.29792031149001713</v>
       </c>
       <c r="E64">
-        <v>3.0751852746929651</v>
+        <v>-3.6592965275783269E-2</v>
       </c>
       <c r="F64">
-        <v>-0.1031480377589306</v>
+        <v>-0.20049595468978465</v>
       </c>
       <c r="G64">
-        <v>-0.82357755329326454</v>
+        <v>-0.52796764822391684</v>
       </c>
       <c r="H64">
-        <v>-0.35694889064912638</v>
+        <v>-0.11656469635143904</v>
       </c>
       <c r="I64">
-        <v>0.48277421529500797</v>
+        <v>-0.1826528531469476</v>
       </c>
       <c r="J64">
-        <v>0.29388246634312776</v>
+        <v>-6.4930529276207141E-2</v>
       </c>
       <c r="K64">
-        <v>-1.1616588703758</v>
+        <v>6.4901856578420763E-2</v>
       </c>
       <c r="L64">
-        <v>1.4353773576481769E-2</v>
+        <v>0.2231985893256507</v>
       </c>
       <c r="M64">
-        <v>0.61839699763318534</v>
+        <v>-0.2677379814824396</v>
       </c>
       <c r="N64">
         <v>-0.14399624199843894</v>
@@ -6061,43 +6097,43 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>8.0433116124888375</v>
+        <v>7.8125104677148229</v>
       </c>
       <c r="B65">
-        <v>3.1257707617139028</v>
+        <v>4.4976086588664224</v>
       </c>
       <c r="C65">
-        <v>-1.782264624199503</v>
+        <v>1.1723497013082842</v>
       </c>
       <c r="D65">
-        <v>-2.4853834104306629</v>
+        <v>1.1529678576379661</v>
       </c>
       <c r="E65">
-        <v>-1.4942014619909538</v>
+        <v>1.0418618622900953</v>
       </c>
       <c r="F65">
-        <v>0.30227374539341867</v>
+        <v>1.0348791902735743</v>
       </c>
       <c r="G65">
-        <v>1.2904518110642067</v>
+        <v>0.72633240898913876</v>
       </c>
       <c r="H65">
-        <v>0.91243556968686668</v>
+        <v>0.47016337243099121</v>
       </c>
       <c r="I65">
-        <v>-0.31536428465267341</v>
+        <v>0.15725288360918602</v>
       </c>
       <c r="J65">
-        <v>-1.2375113309882095</v>
+        <v>-2.7989426877133378E-2</v>
       </c>
       <c r="K65">
-        <v>-1.1485085833100526</v>
+        <v>-5.6633235156555994E-2</v>
       </c>
       <c r="L65">
-        <v>-0.26043966290286413</v>
+        <v>0.23009299406361344</v>
       </c>
       <c r="M65">
-        <v>0.60305647632001036</v>
+        <v>0.16370281164792821</v>
       </c>
       <c r="N65">
         <v>3.8847917935454376E-2</v>
@@ -6150,43 +6186,43 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>6.7975664980586732</v>
+        <v>6.4900679845879043</v>
       </c>
       <c r="B66">
-        <v>-2.0215230359924496</v>
+        <v>1.5377561025262927</v>
       </c>
       <c r="C66">
-        <v>-1.6736360047684335</v>
+        <v>1.5920536370610692</v>
       </c>
       <c r="D66">
-        <v>-0.75454413212094051</v>
+        <v>1.696186038381537</v>
       </c>
       <c r="E66">
-        <v>-0.14578923068885125</v>
+        <v>-0.20012332172583724</v>
       </c>
       <c r="F66">
-        <v>0.54495175311083743</v>
+        <v>1.181762392340036</v>
       </c>
       <c r="G66">
-        <v>0.59701341130542629</v>
+        <v>-8.1517767362178625E-2</v>
       </c>
       <c r="H66">
-        <v>0.91138660608114808</v>
+        <v>1.1447827163719375</v>
       </c>
       <c r="I66">
-        <v>0.83873889603696938</v>
+        <v>-0.54085839538544656</v>
       </c>
       <c r="J66">
-        <v>0.58025936680020418</v>
+        <v>-8.960285090065764E-3</v>
       </c>
       <c r="K66">
-        <v>0.31875329862722412</v>
+        <v>0.81923815496241525</v>
       </c>
       <c r="L66">
-        <v>9.3171237993260062E-2</v>
+        <v>-0.32040965013059919</v>
       </c>
       <c r="M66">
-        <v>3.2410863249249654E-2</v>
+        <v>0.22015775364266801</v>
       </c>
       <c r="N66">
         <v>-5.7971294877202255E-2</v>
@@ -6239,43 +6275,43 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>8.1335566593649418</v>
+        <v>1.5396152819952365</v>
       </c>
       <c r="B67">
-        <v>-1.0462361821152641</v>
+        <v>1.2999231547893972</v>
       </c>
       <c r="C67">
-        <v>-2.7238012740145212</v>
+        <v>0.23649917434283335</v>
       </c>
       <c r="D67">
-        <v>-1.6413774421743981</v>
+        <v>2.2882060863466798</v>
       </c>
       <c r="E67">
-        <v>-1.0822857659888456E-3</v>
+        <v>1.0147741885392085</v>
       </c>
       <c r="F67">
-        <v>-4.11569967544972E-3</v>
+        <v>0.52983574826611246</v>
       </c>
       <c r="G67">
-        <v>6.3756529379175753E-2</v>
+        <v>0.68080949657503398</v>
       </c>
       <c r="H67">
-        <v>0.95651014841423931</v>
+        <v>0.2483269144804725</v>
       </c>
       <c r="I67">
-        <v>0.83321390240261184</v>
+        <v>0.27750149067564278</v>
       </c>
       <c r="J67">
-        <v>0.2405052677070601</v>
+        <v>4.3400634208116051E-3</v>
       </c>
       <c r="K67">
-        <v>5.7186406420087696E-2</v>
+        <v>0.12308996661469143</v>
       </c>
       <c r="L67">
-        <v>0.74116907455829939</v>
+        <v>0.26472802800085293</v>
       </c>
       <c r="M67">
-        <v>1.0755334577720228</v>
+        <v>0.40401480183474558</v>
       </c>
       <c r="N67">
         <v>-0.11870336823660135</v>
@@ -6328,43 +6364,43 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>8.1335567793154269</v>
+        <v>6.8024013863956236</v>
       </c>
       <c r="B68">
-        <v>-1.048732431497055</v>
+        <v>1.0923320265843477</v>
       </c>
       <c r="C68">
-        <v>-2.7258318195697058</v>
+        <v>-1.7275807990770362</v>
       </c>
       <c r="D68">
-        <v>-1.6442412290634492</v>
+        <v>-0.6462505434893614</v>
       </c>
       <c r="E68">
-        <v>-2.1035952628763728E-3</v>
+        <v>-0.73082383433524256</v>
       </c>
       <c r="F68">
-        <v>-5.5610515208152234E-3</v>
+        <v>0.18441593800507286</v>
       </c>
       <c r="G68">
-        <v>6.4442553889700258E-2</v>
+        <v>0.24520368251763694</v>
       </c>
       <c r="H68">
-        <v>0.95725086326669884</v>
+        <v>-0.40617277280114744</v>
       </c>
       <c r="I68">
-        <v>0.83496756138156203</v>
+        <v>1.3478541751421567E-2</v>
       </c>
       <c r="J68">
-        <v>0.24306657171456841</v>
+        <v>-0.67238200591139563</v>
       </c>
       <c r="K68">
-        <v>6.1138026651240872E-2</v>
+        <v>-0.31567961260066096</v>
       </c>
       <c r="L68">
-        <v>0.74306087375464203</v>
+        <v>-7.0587940513921463E-2</v>
       </c>
       <c r="M68">
-        <v>1.0784197869430772</v>
+        <v>0.24357096103309556</v>
       </c>
       <c r="N68">
         <v>0.28032345070780662</v>
@@ -6417,43 +6453,43 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>6.6018539133853453</v>
+        <v>7.1846730346256731</v>
       </c>
       <c r="B69">
-        <v>0.54794757548959072</v>
+        <v>1.7370490304570734</v>
       </c>
       <c r="C69">
-        <v>-1.7042843281859719</v>
+        <v>0.62615226219342723</v>
       </c>
       <c r="D69">
-        <v>-1.7569073075256805</v>
+        <v>-0.32037526246409637</v>
       </c>
       <c r="E69">
-        <v>-1.1711852935998397</v>
+        <v>-0.59815433260124595</v>
       </c>
       <c r="F69">
-        <v>-0.21857530401420708</v>
+        <v>-1.007443097125287</v>
       </c>
       <c r="G69">
-        <v>0.41004820868522368</v>
+        <v>-0.95654036239712248</v>
       </c>
       <c r="H69">
-        <v>0.97277414633744308</v>
+        <v>-1.439302053425223</v>
       </c>
       <c r="I69">
-        <v>0.21552783158420247</v>
+        <v>-1.5385948213485097</v>
       </c>
       <c r="J69">
-        <v>-0.83470872990699918</v>
+        <v>-0.22016597078797717</v>
       </c>
       <c r="K69">
-        <v>-0.97731147664578955</v>
+        <v>-0.72777897004114822</v>
       </c>
       <c r="L69">
-        <v>-8.9201299054527602E-2</v>
+        <v>0.5440892590781452</v>
       </c>
       <c r="M69">
-        <v>0.43818745241756407</v>
+        <v>-6.1525791944427255E-2</v>
       </c>
       <c r="N69">
         <v>0.39688105734869872</v>
@@ -6506,43 +6542,43 @@
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>6.9714441301523822</v>
+        <v>5.8845270903957561</v>
       </c>
       <c r="B70">
-        <v>-1.5675375452116938</v>
+        <v>-1.4630038431539607</v>
       </c>
       <c r="C70">
-        <v>-2.1806784995673434</v>
+        <v>-2.6489158061665425</v>
       </c>
       <c r="D70">
-        <v>-1.0661117824656294</v>
+        <v>-6.5247634278637473E-2</v>
       </c>
       <c r="E70">
-        <v>0.2334197386752124</v>
+        <v>0.7395949311493949</v>
       </c>
       <c r="F70">
-        <v>0.34646172152908006</v>
+        <v>0.27543003299468655</v>
       </c>
       <c r="G70">
-        <v>0.59279398954598395</v>
+        <v>1.0941556539208654</v>
       </c>
       <c r="H70">
-        <v>1.1647267274311479</v>
+        <v>-0.69972336156351977</v>
       </c>
       <c r="I70">
-        <v>1.0764535582179902</v>
+        <v>-0.62983759979422715</v>
       </c>
       <c r="J70">
-        <v>0.25726373952387666</v>
+        <v>0.22487133816962399</v>
       </c>
       <c r="K70">
-        <v>-0.38819675077535026</v>
+        <v>0.73978822694420754</v>
       </c>
       <c r="L70">
-        <v>0.17407290160103131</v>
+        <v>-0.19849500182513169</v>
       </c>
       <c r="M70">
-        <v>0.64042161590567581</v>
+        <v>-0.82515980702165992</v>
       </c>
       <c r="N70">
         <v>-0.17813656381984252</v>
@@ -6595,43 +6631,43 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>6.8537300387176154</v>
+        <v>6.0174244582082794</v>
       </c>
       <c r="B71">
-        <v>-0.89690105930986086</v>
+        <v>1.9046296189068885</v>
       </c>
       <c r="C71">
-        <v>-2.3572221416687644</v>
+        <v>1.2006741187661252</v>
       </c>
       <c r="D71">
-        <v>-2.2865105812100164</v>
+        <v>0.51570782427992412</v>
       </c>
       <c r="E71">
-        <v>-0.85374116961821689</v>
+        <v>0.52491156425045737</v>
       </c>
       <c r="F71">
-        <v>-0.11250558674614899</v>
+        <v>0.8417576585047003</v>
       </c>
       <c r="G71">
-        <v>1.2750704901225443</v>
+        <v>0.46314050222124786</v>
       </c>
       <c r="H71">
-        <v>2.2366068408333066</v>
+        <v>-0.30996617178374802</v>
       </c>
       <c r="I71">
-        <v>1.2452795793741318</v>
+        <v>-0.29917076260138553</v>
       </c>
       <c r="J71">
-        <v>-0.20976960274026257</v>
+        <v>-0.30456529170030594</v>
       </c>
       <c r="K71">
-        <v>-0.4499575587781045</v>
+        <v>-0.16516564556243182</v>
       </c>
       <c r="L71">
-        <v>0.60096579264194228</v>
+        <v>-0.12283400018676431</v>
       </c>
       <c r="M71">
-        <v>0.91500706563784828</v>
+        <v>0.11239103756540128</v>
       </c>
       <c r="N71">
         <v>-0.21774671989954772</v>
@@ -6684,43 +6720,43 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>8.4033294011678379</v>
+        <v>6.2098627410367166</v>
       </c>
       <c r="B72">
-        <v>-1.8158486968206711</v>
+        <v>-0.21063689765620119</v>
       </c>
       <c r="C72">
-        <v>-2.4303301647115947</v>
+        <v>-1.370192447328364</v>
       </c>
       <c r="D72">
-        <v>-1.3990477629192128</v>
+        <v>-0.84887844051040218</v>
       </c>
       <c r="E72">
-        <v>-0.36318818250769264</v>
+        <v>-4.8931700186480985E-2</v>
       </c>
       <c r="F72">
-        <v>-0.10906496645917231</v>
+        <v>0.57186918221178451</v>
       </c>
       <c r="G72">
-        <v>0.31219150056229933</v>
+        <v>-0.13774776864740526</v>
       </c>
       <c r="H72">
-        <v>1.4660113578166658</v>
+        <v>-0.45637385917520484</v>
       </c>
       <c r="I72">
-        <v>1.5982861321876038</v>
+        <v>-0.32336006554088187</v>
       </c>
       <c r="J72">
-        <v>0.64386240966784458</v>
+        <v>-0.4194173754525044</v>
       </c>
       <c r="K72">
-        <v>0.52235642752549716</v>
+        <v>-0.22584345975083714</v>
       </c>
       <c r="L72">
-        <v>1.0305189048685701</v>
+        <v>0.26809883573587651</v>
       </c>
       <c r="M72">
-        <v>0.6464557308868516</v>
+        <v>-0.32959840886643732</v>
       </c>
       <c r="N72">
         <v>-0.59093730646698883</v>
@@ -6773,43 +6809,43 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>7.2769286249046017</v>
+        <v>4.3988107439550923</v>
       </c>
       <c r="B73">
-        <v>5.0132426850720435</v>
+        <v>-3.9224824693888038</v>
       </c>
       <c r="C73">
-        <v>1.8999170149196771</v>
+        <v>-3.2512351757241751</v>
       </c>
       <c r="D73">
-        <v>2.2438811970381471</v>
+        <v>2.1284776558237364</v>
       </c>
       <c r="E73">
-        <v>0.13044091113982076</v>
+        <v>-0.57342544969585429</v>
       </c>
       <c r="F73">
-        <v>0.75825194800790774</v>
+        <v>5.8583486340814526E-2</v>
       </c>
       <c r="G73">
-        <v>0.9151692288913359</v>
+        <v>0.29539355656182564</v>
       </c>
       <c r="H73">
-        <v>-0.58435492073245665</v>
+        <v>8.2154698670005119E-2</v>
       </c>
       <c r="I73">
-        <v>0.41750322446390958</v>
+        <v>-0.83328030147300836</v>
       </c>
       <c r="J73">
-        <v>0.35266947022159251</v>
+        <v>0.33873931586527029</v>
       </c>
       <c r="K73">
-        <v>-0.70446234984298295</v>
+        <v>0.36977583099050193</v>
       </c>
       <c r="L73">
-        <v>0.71252493777487835</v>
+        <v>-0.31673523074388277</v>
       </c>
       <c r="M73">
-        <v>0.45372126298963295</v>
+        <v>3.7439664969409229E-3</v>
       </c>
       <c r="N73">
         <v>-0.12706384293961373</v>
@@ -6862,43 +6898,43 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>7.7116543491460074</v>
+        <v>6.6752958086959211</v>
       </c>
       <c r="B74">
-        <v>4.2329143593363332</v>
+        <v>-5.6811879971357611</v>
       </c>
       <c r="C74">
-        <v>0.9127897978555487</v>
+        <v>-1.7878377798288585</v>
       </c>
       <c r="D74">
-        <v>1.150551692867219</v>
+        <v>1.7601031196399719</v>
       </c>
       <c r="E74">
-        <v>1.4153595013729172</v>
+        <v>-0.74109973503995008</v>
       </c>
       <c r="F74">
-        <v>0.57722514789760071</v>
+        <v>2.3169995808848216E-2</v>
       </c>
       <c r="G74">
-        <v>-7.4369790147379558E-2</v>
+        <v>-9.4804575140565506E-2</v>
       </c>
       <c r="H74">
-        <v>0.68974799264605857</v>
+        <v>0.53662763391245261</v>
       </c>
       <c r="I74">
-        <v>0.49185127705302467</v>
+        <v>-1.004199503615181</v>
       </c>
       <c r="J74">
-        <v>-0.18419236232792791</v>
+        <v>0.98309982010817365</v>
       </c>
       <c r="K74">
-        <v>-0.14440912283253271</v>
+        <v>5.486273678109675E-3</v>
       </c>
       <c r="L74">
-        <v>0.32037246466320285</v>
+        <v>-0.54629282925006473</v>
       </c>
       <c r="M74">
-        <v>0.32274539305514938</v>
+        <v>-0.42885775757814842</v>
       </c>
       <c r="N74">
         <v>0.97650312058589328</v>
@@ -6951,43 +6987,43 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>7.6141438061978954</v>
+        <v>6.1745448820278863</v>
       </c>
       <c r="B75">
-        <v>3.4147065720593641</v>
+        <v>-6.2068913846709206</v>
       </c>
       <c r="C75">
-        <v>-1.5900051905540902</v>
+        <v>-3.9022999946664849</v>
       </c>
       <c r="D75">
-        <v>0.4223590524400907</v>
+        <v>2.6312168499107229</v>
       </c>
       <c r="E75">
-        <v>1.4887235701529606</v>
+        <v>-1.7278193673320037</v>
       </c>
       <c r="F75">
-        <v>1.1767628952322129</v>
+        <v>-5.1155515543705239E-2</v>
       </c>
       <c r="G75">
-        <v>-0.2848294059623464</v>
+        <v>-7.6009484362449919E-2</v>
       </c>
       <c r="H75">
-        <v>-0.73895730730892717</v>
+        <v>-0.18168243234455178</v>
       </c>
       <c r="I75">
-        <v>1.3731508236825854E-2</v>
+        <v>-0.69585850341701772</v>
       </c>
       <c r="J75">
-        <v>-0.55095212143594696</v>
+        <v>0.12782670448526534</v>
       </c>
       <c r="K75">
-        <v>-0.68620842324824249</v>
+        <v>0.43659976979246923</v>
       </c>
       <c r="L75">
-        <v>0.69986955207994272</v>
+        <v>0.80763402934231265</v>
       </c>
       <c r="M75">
-        <v>0.39043413924178128</v>
+        <v>-1.0430182097657761</v>
       </c>
       <c r="N75">
         <v>6.4219058901042578E-4</v>
@@ -7040,402 +7076,447 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>6.6211013510302825</v>
+        <v>2.7156900536869877</v>
       </c>
       <c r="B76">
-        <v>3.505032857922433</v>
+        <v>1.7529324208448611</v>
       </c>
       <c r="C76">
-        <v>-0.20461105614613886</v>
+        <v>-1.8665463334255123</v>
       </c>
       <c r="D76">
-        <v>2.5206550931990135</v>
+        <v>-0.53171216903513796</v>
       </c>
       <c r="E76">
-        <v>3.2265053042487981</v>
+        <v>5.9988193998202585E-2</v>
       </c>
       <c r="F76">
-        <v>0.74544152866180846</v>
+        <v>0.91586102162647298</v>
       </c>
       <c r="G76">
-        <v>-0.87160923323953943</v>
+        <v>0.4450457266556952</v>
       </c>
       <c r="H76">
-        <v>0.24483528634560797</v>
+        <v>-0.24521364271057428</v>
       </c>
       <c r="I76">
-        <v>1.0148319752040622</v>
+        <v>0.92027882711550535</v>
       </c>
       <c r="J76">
-        <v>-0.12637145459252841</v>
+        <v>0.30281541866059608</v>
       </c>
       <c r="K76">
-        <v>-0.92208260676377229</v>
+        <v>0.23933590338446598</v>
       </c>
       <c r="L76">
-        <v>-0.19683564638614151</v>
+        <v>0.31569152863045924</v>
       </c>
       <c r="M76">
-        <v>0.30160079124074135</v>
+        <v>-0.26669156530070481</v>
       </c>
       <c r="N76">
-        <v>0.14926109581446481</v>
+        <v>0.69740921202207884</v>
       </c>
       <c r="O76">
-        <v>-0.23751499028699927</v>
+        <v>0.48533085911873208</v>
       </c>
       <c r="P76">
-        <v>-0.37646978770885298</v>
+        <v>-0.37708974717029897</v>
       </c>
       <c r="Q76">
-        <v>1.4981055865000363E-2</v>
+        <v>-0.25990516198580144</v>
       </c>
       <c r="R76">
-        <v>0.15930649145053366</v>
+        <v>-2.3394667272765301E-2</v>
       </c>
       <c r="S76">
-        <v>0.27182574567188389</v>
+        <v>-2.1525269350601998E-2</v>
       </c>
       <c r="T76">
-        <v>0.36702232803282275</v>
+        <v>8.4653998841791769E-2</v>
       </c>
       <c r="U76">
-        <v>0.12260966859967759</v>
+        <v>-0.26919184894195741</v>
       </c>
       <c r="V76">
-        <v>4.4416317042608879E-2</v>
+        <v>-0.33364576397043011</v>
       </c>
       <c r="W76">
-        <v>9.2830571522076855E-2</v>
+        <v>-0.15814239482436088</v>
       </c>
       <c r="X76">
-        <v>-8.8484907313098778E-3</v>
+        <v>-9.851935820996402E-2</v>
       </c>
       <c r="Y76">
-        <v>0.37760016688927628</v>
+        <v>0.10725229476193988</v>
       </c>
       <c r="Z76">
-        <v>0.1300593934084609</v>
+        <v>6.3111364446697474E-2</v>
+      </c>
+      <c r="AA76">
+        <v>0.21204884489787787</v>
+      </c>
+      <c r="AB76">
+        <v>0.23821260951399587</v>
+      </c>
+      <c r="AC76">
+        <v>-0.1516973012025005</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>6.7179576657487434</v>
+        <v>5.2245018140118349</v>
       </c>
       <c r="B77">
-        <v>2.3944355883596931</v>
+        <v>1.3478538778114693</v>
       </c>
       <c r="C77">
-        <v>-2.8802753403766701</v>
+        <v>0.38139434061318156</v>
       </c>
       <c r="D77">
-        <v>2.6617742495307057</v>
+        <v>3.5156730478015259</v>
       </c>
       <c r="E77">
-        <v>3.0000797392644802</v>
+        <v>0.46855541743494672</v>
       </c>
       <c r="F77">
-        <v>-0.37785496146611541</v>
+        <v>0.57977206825760619</v>
       </c>
       <c r="G77">
-        <v>-1.0687152260422295</v>
+        <v>0.30648016076600687</v>
       </c>
       <c r="H77">
-        <v>1.5013967404204305</v>
+        <v>0.17128645452943492</v>
       </c>
       <c r="I77">
-        <v>1.2426846340957263</v>
+        <v>-1.0645346889563587</v>
       </c>
       <c r="J77">
-        <v>-1.3675357691650345</v>
+        <v>-0.30871754638322252</v>
       </c>
       <c r="K77">
-        <v>-0.57740778068116072</v>
+        <v>6.556885397645551E-2</v>
       </c>
       <c r="L77">
-        <v>1.3700561689990762</v>
+        <v>-0.27175801828161245</v>
       </c>
       <c r="M77">
-        <v>0.1320698382049989</v>
+        <v>-0.23366108666756749</v>
       </c>
       <c r="N77">
-        <v>0.17266829637743461</v>
+        <v>0.60206551344060733</v>
       </c>
       <c r="O77">
-        <v>0.45997882858000044</v>
+        <v>0.64633183039564246</v>
       </c>
       <c r="P77">
-        <v>0.11583196417238616</v>
+        <v>-2.7737060768108265E-2</v>
       </c>
       <c r="Q77">
-        <v>1.8742271304221503E-2</v>
+        <v>-0.19579694918859183</v>
       </c>
       <c r="R77">
-        <v>-0.25143990848768638</v>
+        <v>-0.37415126362638657</v>
       </c>
       <c r="S77">
-        <v>-0.3332680535216957</v>
+        <v>-0.25980157944987869</v>
       </c>
       <c r="T77">
-        <v>5.586682300923166E-2</v>
+        <v>-0.38171102121524447</v>
       </c>
       <c r="U77">
-        <v>0.11032172267505484</v>
+        <v>-0.21662315287953152</v>
       </c>
       <c r="V77">
-        <v>2.9716368007445412E-2</v>
+        <v>0.23200151351630016</v>
       </c>
       <c r="W77">
-        <v>8.8734944892306031E-3</v>
+        <v>-2.6871204951178281E-2</v>
       </c>
       <c r="X77">
-        <v>9.9234487590823636E-2</v>
+        <v>-1.3373254492901254E-2</v>
       </c>
       <c r="Y77">
-        <v>0.10104402934604302</v>
+        <v>0.14471747658390693</v>
       </c>
       <c r="Z77">
-        <v>-4.5340511212256787E-3</v>
+        <v>-9.6817437032625589E-2</v>
+      </c>
+      <c r="AA77">
+        <v>-0.20879283674280846</v>
+      </c>
+      <c r="AB77">
+        <v>-5.0391255517710211E-2</v>
+      </c>
+      <c r="AC77">
+        <v>2.7422206169674286E-3</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>6.7590829400743653</v>
+        <v>3.8454815215745546</v>
       </c>
       <c r="B78">
-        <v>1.5973229146576027</v>
+        <v>2.1137526488450331</v>
       </c>
       <c r="C78">
-        <v>2.9279233879434705</v>
+        <v>-0.7798390062073165</v>
       </c>
       <c r="D78">
-        <v>1.3125619021125254</v>
+        <v>-0.1331344734162469</v>
       </c>
       <c r="E78">
-        <v>-9.0873196152470997E-2</v>
+        <v>-0.1161635155594158</v>
       </c>
       <c r="F78">
-        <v>3.0632145122085112E-2</v>
+        <v>0.18135559268779852</v>
       </c>
       <c r="G78">
-        <v>-1.8212896933865481</v>
+        <v>2.1059375545036271E-2</v>
       </c>
       <c r="H78">
-        <v>0.56132393985725726</v>
+        <v>-1.1703425096951062E-3</v>
       </c>
       <c r="I78">
-        <v>-1.246747243927709</v>
+        <v>-9.4694492007746947E-2</v>
       </c>
       <c r="J78">
-        <v>0.74316611863865567</v>
+        <v>-0.13371820597132877</v>
       </c>
       <c r="K78">
-        <v>-0.14552638156601777</v>
+        <v>0.17162774632160979</v>
       </c>
       <c r="L78">
-        <v>-0.35015102331904113</v>
+        <v>9.4429047734299554E-2</v>
       </c>
       <c r="M78">
-        <v>6.6975360707229301E-2</v>
+        <v>-9.7054786969422865E-2</v>
       </c>
       <c r="N78">
-        <v>-0.20365101888706491</v>
+        <v>0.38313909064244273</v>
       </c>
       <c r="O78">
-        <v>0.22607407051497774</v>
+        <v>0.20591353741861329</v>
       </c>
       <c r="P78">
-        <v>-9.2220019141812076E-2</v>
+        <v>-1.6215676152651782E-2</v>
       </c>
       <c r="Q78">
-        <v>-9.1701934534963794E-2</v>
+        <v>5.7437144649640275E-2</v>
       </c>
       <c r="R78">
-        <v>-7.9348132501293855E-2</v>
+        <v>-7.2023803561787308E-2</v>
       </c>
       <c r="S78">
-        <v>-0.20054107087050824</v>
+        <v>0.1547862439998928</v>
       </c>
       <c r="T78">
-        <v>2.2410445609770208E-2</v>
+        <v>0.16232267418525009</v>
       </c>
       <c r="U78">
-        <v>0.73323489705853939</v>
+        <v>4.5062887088381708E-2</v>
       </c>
       <c r="V78">
-        <v>-4.4857702046914694E-2</v>
+        <v>8.4856853610440652E-2</v>
       </c>
       <c r="W78">
-        <v>-0.16115571610999324</v>
+        <v>-5.9790206100286888E-2</v>
       </c>
       <c r="X78">
-        <v>-0.17356746975658327</v>
+        <v>8.5351037811481692E-2</v>
       </c>
       <c r="Y78">
-        <v>-0.38467093537852032</v>
+        <v>0.12140907869173234</v>
       </c>
       <c r="Z78">
-        <v>1.1154292143552137E-2</v>
+        <v>-4.8856764466027165E-2</v>
+      </c>
+      <c r="AA78">
+        <v>0.14779519328307861</v>
+      </c>
+      <c r="AB78">
+        <v>8.3766251008226905E-2</v>
+      </c>
+      <c r="AC78">
+        <v>-8.3761343992029488E-3</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>7.4135150630848852</v>
+        <v>6.3486088620706873</v>
       </c>
       <c r="B79">
-        <v>0.32473278815363482</v>
+        <v>-4.0362502027905949</v>
       </c>
       <c r="C79">
-        <v>2.9240311610884531</v>
+        <v>-3.2292812229350587</v>
       </c>
       <c r="D79">
-        <v>1.8439153400646631</v>
+        <v>1.4081450160660804</v>
       </c>
       <c r="E79">
-        <v>-7.7714833168328154E-2</v>
+        <v>-0.71792661250552958</v>
       </c>
       <c r="F79">
-        <v>0.90592812214813023</v>
+        <v>0.91387240709242401</v>
       </c>
       <c r="G79">
-        <v>-1.830582802208063</v>
+        <v>-0.18627899368094014</v>
       </c>
       <c r="H79">
-        <v>0.62832523216524339</v>
+        <v>-0.16380801706529877</v>
       </c>
       <c r="I79">
-        <v>-0.78157217880588137</v>
+        <v>-0.78936581436678099</v>
       </c>
       <c r="J79">
-        <v>-7.2017885477065974E-2</v>
+        <v>0.63654364045263578</v>
       </c>
       <c r="K79">
-        <v>-7.566917734131054E-2</v>
+        <v>0.18125081414857169</v>
       </c>
       <c r="L79">
-        <v>-1.6302575995724287E-2</v>
+        <v>0.97817445996526831</v>
       </c>
       <c r="M79">
-        <v>-0.24593866209852946</v>
+        <v>-1.5707314645980117</v>
       </c>
       <c r="N79">
-        <v>-1.4194466354636618E-2</v>
+        <v>-0.30766341487267163</v>
       </c>
       <c r="O79">
-        <v>-0.15946370202036378</v>
+        <v>1.210202676011336</v>
       </c>
       <c r="P79">
-        <v>-0.23030602622234156</v>
+        <v>-0.21932308484473428</v>
       </c>
       <c r="Q79">
-        <v>-0.40791355969652437</v>
+        <v>-0.45499823837932718</v>
       </c>
       <c r="R79">
-        <v>-0.35474954855492635</v>
+        <v>0.20130554524548361</v>
       </c>
       <c r="S79">
-        <v>-0.41028100283965802</v>
+        <v>5.5358578446270415E-2</v>
       </c>
       <c r="T79">
-        <v>-0.37324469343558792</v>
+        <v>-0.1195975181899501</v>
       </c>
       <c r="U79">
-        <v>-4.680106968455737E-2</v>
+        <v>0.27747856211224242</v>
       </c>
       <c r="V79">
-        <v>0.15410592722926594</v>
+        <v>7.2034160451447699E-2</v>
       </c>
       <c r="W79">
-        <v>-2.8232234460595671E-2</v>
+        <v>-0.36388461206943246</v>
       </c>
       <c r="X79">
-        <v>-0.13834539518414257</v>
+        <v>1.0319476645743864E-2</v>
       </c>
       <c r="Y79">
-        <v>3.4692445198354634E-2</v>
+        <v>3.3111534663501994E-2</v>
       </c>
       <c r="Z79">
-        <v>3.7347205667917292E-2</v>
+        <v>0.20426246888520244</v>
+      </c>
+      <c r="AA79">
+        <v>-0.15857990790337662</v>
+      </c>
+      <c r="AB79">
+        <v>0.1221816855588066</v>
+      </c>
+      <c r="AC79">
+        <v>-0.23161907938673576</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>7.5969560792011324</v>
+        <v>6.1449720378378911</v>
       </c>
       <c r="B80">
-        <v>0.45888999517248436</v>
+        <v>-1.580448620056276</v>
       </c>
       <c r="C80">
-        <v>-2.3486872056711414</v>
+        <v>-1.8959135568158028</v>
       </c>
       <c r="D80">
-        <v>1.2596694098487056</v>
+        <v>-2.4557827519763022</v>
       </c>
       <c r="E80">
-        <v>1.8776743377888214</v>
+        <v>-1.0472462239346532</v>
       </c>
       <c r="F80">
-        <v>0.16153881956546307</v>
+        <v>-3.8234838381616024E-2</v>
       </c>
       <c r="G80">
-        <v>-1.7542803443558574</v>
+        <v>1.0288468758871423</v>
       </c>
       <c r="H80">
-        <v>0.52853788652807199</v>
+        <v>0.66682154331565402</v>
       </c>
       <c r="I80">
-        <v>4.1371116300934305E-2</v>
+        <v>-0.12377891608038143</v>
       </c>
       <c r="J80">
-        <v>-0.40098588900655352</v>
+        <v>-2.0053550095708906E-2</v>
       </c>
       <c r="K80">
-        <v>-0.68941582924706257</v>
+        <v>-0.81136694422724398</v>
       </c>
       <c r="L80">
-        <v>0.29532681849387765</v>
+        <v>0.27073588284452299</v>
       </c>
       <c r="M80">
-        <v>0.88077796829201105</v>
+        <v>-0.14092330930837321</v>
       </c>
       <c r="N80">
-        <v>-0.18224965850908897</v>
+        <v>0.26316214514962466</v>
       </c>
       <c r="O80">
-        <v>-0.2639736305025846</v>
+        <v>0.13599557173160753</v>
       </c>
       <c r="P80">
-        <v>0.60028847659801243</v>
+        <v>0.17054072202180762</v>
       </c>
       <c r="Q80">
-        <v>0.20539845379473978</v>
+        <v>-0.11423194913437923</v>
       </c>
       <c r="R80">
-        <v>0.16125105028419601</v>
+        <v>-0.38976350719627284</v>
       </c>
       <c r="S80">
-        <v>-9.4017460129239935E-2</v>
+        <v>0.34986969207930635</v>
       </c>
       <c r="T80">
-        <v>-6.9829610236659583E-3</v>
+        <v>-0.28186948702054732</v>
       </c>
       <c r="U80">
-        <v>4.1227809984508423E-2</v>
+        <v>0.31234770022430419</v>
       </c>
       <c r="V80">
-        <v>0.1952778225325055</v>
+        <v>-1.015581291469024E-2</v>
       </c>
       <c r="W80">
-        <v>-8.9703128414136343E-2</v>
+        <v>-2.8990750566019883E-2</v>
       </c>
       <c r="X80">
-        <v>8.6905162834416835E-2</v>
+        <v>-0.10627439760024165</v>
       </c>
       <c r="Y80">
-        <v>-0.27334594097499393</v>
+        <v>-0.10870706936716724</v>
       </c>
       <c r="Z80">
-        <v>-0.11545282307373166</v>
+        <v>0.15701033461058553</v>
+      </c>
+      <c r="AA80">
+        <v>4.2502703013960641E-2</v>
+      </c>
+      <c r="AB80">
+        <v>-0.10512369222710066</v>
+      </c>
+      <c r="AC80">
+        <v>-6.6005621661780686E-2</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">

--- a/audio_database/Feature.xlsx
+++ b/audio_database/Feature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Documents\MATLAB\Project\audio_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1914507A-A4E9-4525-8333-D7640EEAF49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68CE989-527E-4FB4-8E2F-EAB352A752A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{F98F55DE-6286-4433-92DF-1F34DB2F1572}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FD446B-03FF-433F-A5A5-561D5C99261F}">
-  <dimension ref="A1:AC120"/>
+  <dimension ref="A1:AC150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M60"/>
+      <selection sqref="A1:M150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1736,43 +1736,43 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5.3375523744066609</v>
+        <v>3.7815736122608201</v>
       </c>
       <c r="B16">
-        <v>0.50983533202217068</v>
+        <v>3.0619818273253632</v>
       </c>
       <c r="C16">
-        <v>0.54046965585803441</v>
+        <v>-2.0159250922436738</v>
       </c>
       <c r="D16">
-        <v>0.43793785723953238</v>
+        <v>-0.23907705930529791</v>
       </c>
       <c r="E16">
-        <v>-1.3815460590274899</v>
+        <v>-5.9453855605034696E-2</v>
       </c>
       <c r="F16">
-        <v>2.0131206192612381</v>
+        <v>0.2981693293086079</v>
       </c>
       <c r="G16">
-        <v>-2.3086485705966431</v>
+        <v>0.41689663535001314</v>
       </c>
       <c r="H16">
-        <v>0.28392682761518501</v>
+        <v>-0.17393049132474919</v>
       </c>
       <c r="I16">
-        <v>-0.56425095359006816</v>
+        <v>-0.15941048340834971</v>
       </c>
       <c r="J16">
-        <v>-1.1679976049906375</v>
+        <v>2.300704029825406E-2</v>
       </c>
       <c r="K16">
-        <v>0.26968381273027903</v>
+        <v>-3.5699526373195095E-2</v>
       </c>
       <c r="L16">
-        <v>0.36303158611216735</v>
+        <v>0.6281422947518519</v>
       </c>
       <c r="M16">
-        <v>0.51911912632765866</v>
+        <v>0.33574155370067738</v>
       </c>
       <c r="N16">
         <v>0.46093962992373122</v>
@@ -1825,43 +1825,43 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>5.5456267991679491</v>
+        <v>2.7095408126740144</v>
       </c>
       <c r="B17">
-        <v>0.68375389017592625</v>
+        <v>-3.2278644737349462</v>
       </c>
       <c r="C17">
-        <v>1.021818400733769</v>
+        <v>-4.6779335980541754</v>
       </c>
       <c r="D17">
-        <v>1.4827204638234435</v>
+        <v>1.2687434088804814</v>
       </c>
       <c r="E17">
-        <v>-1.0414449532286647</v>
+        <v>-0.50091617545458444</v>
       </c>
       <c r="F17">
-        <v>3.1775589240055937</v>
+        <v>-1.3857838880930615</v>
       </c>
       <c r="G17">
-        <v>0.25573894058554597</v>
+        <v>-0.116593205518823</v>
       </c>
       <c r="H17">
-        <v>-0.68598816844771604</v>
+        <v>0.63435041262786196</v>
       </c>
       <c r="I17">
-        <v>-1.0063825151443619</v>
+        <v>0.65516265063040013</v>
       </c>
       <c r="J17">
-        <v>0.30284290776589545</v>
+        <v>-0.31741477510048449</v>
       </c>
       <c r="K17">
-        <v>-8.2274446060977488E-2</v>
+        <v>-0.24456236801446196</v>
       </c>
       <c r="L17">
-        <v>0.26813776103969006</v>
+        <v>0.55604090370359682</v>
       </c>
       <c r="M17">
-        <v>0.29345290698871068</v>
+        <v>-0.46587146174873983</v>
       </c>
       <c r="N17">
         <v>-0.61394102755165081</v>
@@ -1914,43 +1914,43 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7.475586993741909</v>
+        <v>3.4498153627264014</v>
       </c>
       <c r="B18">
-        <v>-5.1664239557841807</v>
+        <v>3.6499529480254744</v>
       </c>
       <c r="C18">
-        <v>-2.707821290822725</v>
+        <v>0.55855886958243783</v>
       </c>
       <c r="D18">
-        <v>-1.9217441088413885</v>
+        <v>3.4326398416086001</v>
       </c>
       <c r="E18">
-        <v>-1.0100452997659499</v>
+        <v>-0.23010843045354323</v>
       </c>
       <c r="F18">
-        <v>0.80782438259670275</v>
+        <v>0.29466937701109652</v>
       </c>
       <c r="G18">
-        <v>1.0680836762924368</v>
+        <v>0.50502226242650505</v>
       </c>
       <c r="H18">
-        <v>0.89724932880066077</v>
+        <v>-0.16552537006459184</v>
       </c>
       <c r="I18">
-        <v>5.3332113166008645E-2</v>
+        <v>0.445689095633933</v>
       </c>
       <c r="J18">
-        <v>-0.54011249336767031</v>
+        <v>-0.59762268179774847</v>
       </c>
       <c r="K18">
-        <v>-0.48887480072447348</v>
+        <v>6.4823452591875372E-2</v>
       </c>
       <c r="L18">
-        <v>-0.44420501383161054</v>
+        <v>-0.50479895680480746</v>
       </c>
       <c r="M18">
-        <v>-0.20589531531415697</v>
+        <v>-0.21262393216358094</v>
       </c>
       <c r="N18">
         <v>0.27765998120703916</v>
@@ -2003,43 +2003,43 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>6.9519917573460788</v>
+        <v>9.3277733374388525</v>
       </c>
       <c r="B19">
-        <v>-5.4928745737214699</v>
+        <v>4.405702283140859</v>
       </c>
       <c r="C19">
-        <v>-3.0335548767367593</v>
+        <v>1.1731043250917943</v>
       </c>
       <c r="D19">
-        <v>-2.6920774905115152</v>
+        <v>0.8241541074424158</v>
       </c>
       <c r="E19">
-        <v>-0.59753640939585373</v>
+        <v>0.37400597765693788</v>
       </c>
       <c r="F19">
-        <v>1.3385636556619371</v>
+        <v>0.37635187571193957</v>
       </c>
       <c r="G19">
-        <v>8.2648319268988028E-3</v>
+        <v>0.24993955659853781</v>
       </c>
       <c r="H19">
-        <v>0.49568702162137229</v>
+        <v>0.23257538784116238</v>
       </c>
       <c r="I19">
-        <v>-6.7536089457753745E-2</v>
+        <v>0.15330914502616255</v>
       </c>
       <c r="J19">
-        <v>-0.95528104993385821</v>
+        <v>9.008124846155327E-2</v>
       </c>
       <c r="K19">
-        <v>-0.71758291979949429</v>
+        <v>-5.5170798802507533E-2</v>
       </c>
       <c r="L19">
-        <v>-0.60812107858256947</v>
+        <v>-3.7212141054520309E-2</v>
       </c>
       <c r="M19">
-        <v>-0.13422951382867807</v>
+        <v>1.0666065107064438E-2</v>
       </c>
       <c r="N19">
         <v>6.2253348656864244E-2</v>
@@ -2092,43 +2092,43 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>7.3347616640913058</v>
+        <v>6.7522993129175051</v>
       </c>
       <c r="B20">
-        <v>-3.6560157527458346</v>
+        <v>4.8281286884421162</v>
       </c>
       <c r="C20">
-        <v>-1.4198597356366387</v>
+        <v>0.9096453924811656</v>
       </c>
       <c r="D20">
-        <v>-1.9385494251627848</v>
+        <v>1.1976194435015333</v>
       </c>
       <c r="E20">
-        <v>-0.57077092755567316</v>
+        <v>-0.40898622970776372</v>
       </c>
       <c r="F20">
-        <v>0.67870873143766508</v>
+        <v>-0.35339466214516363</v>
       </c>
       <c r="G20">
-        <v>0.49209604162529397</v>
+        <v>-0.58589101826589229</v>
       </c>
       <c r="H20">
-        <v>-0.20637197505435531</v>
+        <v>-0.65907675149341971</v>
       </c>
       <c r="I20">
-        <v>0.33521144786653018</v>
+        <v>-0.52729270189467048</v>
       </c>
       <c r="J20">
-        <v>0.31222623091039481</v>
+        <v>-0.63207669426929214</v>
       </c>
       <c r="K20">
-        <v>-0.82671686142333967</v>
+        <v>3.414782450755513E-2</v>
       </c>
       <c r="L20">
-        <v>7.3282439069097441E-2</v>
+        <v>-1.7798746324806658E-2</v>
       </c>
       <c r="M20">
-        <v>-0.10881719549599293</v>
+        <v>-0.1060068521801683</v>
       </c>
       <c r="N20">
         <v>-0.15121329557355828</v>
@@ -2181,43 +2181,43 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>7.2161630144595641</v>
+        <v>6.5051104985903061</v>
       </c>
       <c r="B21">
-        <v>-1.1863083500469949</v>
+        <v>-4.6555852416121768</v>
       </c>
       <c r="C21">
-        <v>-4.758492926782818</v>
+        <v>0.86348440866027176</v>
       </c>
       <c r="D21">
-        <v>-2.7581353052637891</v>
+        <v>-1.7055175066018631</v>
       </c>
       <c r="E21">
-        <v>0.16178665383703777</v>
+        <v>1.4184367185504245</v>
       </c>
       <c r="F21">
-        <v>1.2580598301729191</v>
+        <v>-0.34838467953061647</v>
       </c>
       <c r="G21">
-        <v>-0.44754767686711883</v>
+        <v>0.2087243420166516</v>
       </c>
       <c r="H21">
-        <v>1.1358586023998201</v>
+        <v>0.61413120196282756</v>
       </c>
       <c r="I21">
-        <v>0.82131223110280571</v>
+        <v>-0.12389127261393472</v>
       </c>
       <c r="J21">
-        <v>0.34554892357478478</v>
+        <v>0.28529623670218851</v>
       </c>
       <c r="K21">
-        <v>-0.79017518335711212</v>
+        <v>9.1431464653664099E-2</v>
       </c>
       <c r="L21">
-        <v>8.8275322226729389E-2</v>
+        <v>-0.30582680828512593</v>
       </c>
       <c r="M21">
-        <v>-0.24721374771104007</v>
+        <v>0.13280698782987338</v>
       </c>
       <c r="N21">
         <v>-0.79193546322526298</v>
@@ -2270,43 +2270,43 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>7.3132826744032835</v>
+        <v>6.8699017694337812</v>
       </c>
       <c r="B22">
-        <v>-1.2807582396323705</v>
+        <v>-0.59984418494895086</v>
       </c>
       <c r="C22">
-        <v>-4.5997301652995732</v>
+        <v>-2.7604556220043137</v>
       </c>
       <c r="D22">
-        <v>0.47249520036173015</v>
+        <v>-1.4900106302059286</v>
       </c>
       <c r="E22">
-        <v>-2.9867199098172241</v>
+        <v>-1.5628921807655873</v>
       </c>
       <c r="F22">
-        <v>-1.7252471169867716</v>
+        <v>-1.7435943875928857</v>
       </c>
       <c r="G22">
-        <v>0.19980337838923656</v>
+        <v>-0.41853263595652529</v>
       </c>
       <c r="H22">
-        <v>1.1350764015074846</v>
+        <v>-0.13201040218708537</v>
       </c>
       <c r="I22">
-        <v>0.84068126191811687</v>
+        <v>0.10627838508008776</v>
       </c>
       <c r="J22">
-        <v>-0.22353662969912397</v>
+        <v>0.65153819773783173</v>
       </c>
       <c r="K22">
-        <v>-0.41968765009980297</v>
+        <v>0.32344787893529792</v>
       </c>
       <c r="L22">
-        <v>-3.2335559730701166E-2</v>
+        <v>0.17172792941331777</v>
       </c>
       <c r="M22">
-        <v>-1.0333119182131405</v>
+        <v>0.44651288407833817</v>
       </c>
       <c r="N22">
         <v>-0.87367675154224533</v>
@@ -2359,43 +2359,43 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>7.874401341794858</v>
+        <v>6.3655783321669697</v>
       </c>
       <c r="B23">
-        <v>4.6295220236599803</v>
+        <v>0.81798462021631879</v>
       </c>
       <c r="C23">
-        <v>-2.6714988371448904</v>
+        <v>-3.2422270767690803E-2</v>
       </c>
       <c r="D23">
-        <v>-1.4284060626741535</v>
+        <v>-0.12988591130198057</v>
       </c>
       <c r="E23">
-        <v>-1.1116139318267262</v>
+        <v>1.0301888224971993</v>
       </c>
       <c r="F23">
-        <v>-2.3370771174610696</v>
+        <v>0.70494758951350833</v>
       </c>
       <c r="G23">
-        <v>-2.0700685550387026</v>
+        <v>-0.11737215512410337</v>
       </c>
       <c r="H23">
-        <v>-0.13677734456198382</v>
+        <v>-0.35283251881449162</v>
       </c>
       <c r="I23">
-        <v>9.9172073426786037E-2</v>
+        <v>-0.56648750745707133</v>
       </c>
       <c r="J23">
-        <v>-1.0476749560440373</v>
+        <v>-0.63596738054955348</v>
       </c>
       <c r="K23">
-        <v>-0.67577166998402816</v>
+        <v>-0.40036556024684672</v>
       </c>
       <c r="L23">
-        <v>0.89143181655897308</v>
+        <v>-4.4737133919173118E-2</v>
       </c>
       <c r="M23">
-        <v>0.88209106765251089</v>
+        <v>-0.22206779697986972</v>
       </c>
       <c r="N23">
         <v>0.5480615419819912</v>
@@ -2448,43 +2448,43 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>8.1786843194554368</v>
+        <v>5.6870721364537342</v>
       </c>
       <c r="B24">
-        <v>1.8036363625134746</v>
+        <v>3.2728202312587165</v>
       </c>
       <c r="C24">
-        <v>-1.0722395940680562</v>
+        <v>-0.16255049720112744</v>
       </c>
       <c r="D24">
-        <v>-1.1361891168573623</v>
+        <v>6.5494019528827413E-2</v>
       </c>
       <c r="E24">
-        <v>-0.90939413651455325</v>
+        <v>0.69945902892891643</v>
       </c>
       <c r="F24">
-        <v>-0.66339682542505418</v>
+        <v>7.0016316522531707E-2</v>
       </c>
       <c r="G24">
-        <v>-1.111514185205883</v>
+        <v>-0.55081074344108261</v>
       </c>
       <c r="H24">
-        <v>-0.24245365291878879</v>
+        <v>-0.212372079533972</v>
       </c>
       <c r="I24">
-        <v>-0.94921901283021226</v>
+        <v>-0.20248118906163659</v>
       </c>
       <c r="J24">
-        <v>0.34389859544674234</v>
+        <v>-3.1521159172016325E-2</v>
       </c>
       <c r="K24">
-        <v>-0.48472489298982102</v>
+        <v>-0.40965852773781503</v>
       </c>
       <c r="L24">
-        <v>-0.21418978810168054</v>
+        <v>-0.47512055991646218</v>
       </c>
       <c r="M24">
-        <v>0.17466417375049759</v>
+        <v>-0.21382118089466351</v>
       </c>
       <c r="N24">
         <v>0.39611147518722328</v>
@@ -2537,43 +2537,43 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>8.0728070541582877</v>
+        <v>6.0838035870398048</v>
       </c>
       <c r="B25">
-        <v>0.5596318720386152</v>
+        <v>-0.54908717699027765</v>
       </c>
       <c r="C25">
-        <v>-3.3309203075636242</v>
+        <v>-1.4386608353857691</v>
       </c>
       <c r="D25">
-        <v>2.5941347904557932</v>
+        <v>0.17198705103637027</v>
       </c>
       <c r="E25">
-        <v>-2.4440853461105894</v>
+        <v>1.3823286141335436</v>
       </c>
       <c r="F25">
-        <v>-2.1274569721039192</v>
+        <v>1.4501397092731292</v>
       </c>
       <c r="G25">
-        <v>1.2734357522364201</v>
+        <v>0.9215327018810926</v>
       </c>
       <c r="H25">
-        <v>-1.4926806855681753</v>
+        <v>0.47842364596851478</v>
       </c>
       <c r="I25">
-        <v>-1.1750163869436758</v>
+        <v>-9.6984802722478503E-2</v>
       </c>
       <c r="J25">
-        <v>1.4809321036330749</v>
+        <v>-7.3589700098092625E-2</v>
       </c>
       <c r="K25">
-        <v>-1.0188123347187423</v>
+        <v>-0.5507782620174948</v>
       </c>
       <c r="L25">
-        <v>6.8565189233198168E-2</v>
+        <v>-0.4866073601667385</v>
       </c>
       <c r="M25">
-        <v>0.88406431529569962</v>
+        <v>-0.53111381727357643</v>
       </c>
       <c r="N25">
         <v>-0.1629061587571965</v>
@@ -2626,43 +2626,43 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>7.5533476488074163</v>
+        <v>6.4836350662459861</v>
       </c>
       <c r="B26">
-        <v>-0.25203304761085477</v>
+        <v>-4.2718295893937039</v>
       </c>
       <c r="C26">
-        <v>-3.964034340978186</v>
+        <v>1.2272237268278354</v>
       </c>
       <c r="D26">
-        <v>0.33270629974116944</v>
+        <v>-1.3956276520788429</v>
       </c>
       <c r="E26">
-        <v>-2.8701021142576355</v>
+        <v>0.77110726472237223</v>
       </c>
       <c r="F26">
-        <v>-1.3182776525972684</v>
+        <v>-0.74977782995770559</v>
       </c>
       <c r="G26">
-        <v>-0.44397088123800565</v>
+        <v>-5.7532062283339284E-2</v>
       </c>
       <c r="H26">
-        <v>-1.0350747608226898</v>
+        <v>0.19402251199852749</v>
       </c>
       <c r="I26">
-        <v>-0.25115917945744931</v>
+        <v>-0.34055272979525858</v>
       </c>
       <c r="J26">
-        <v>-0.36524822658770145</v>
+        <v>8.7128981687534281E-3</v>
       </c>
       <c r="K26">
-        <v>-0.37139495519972726</v>
+        <v>-6.9352255078259248E-2</v>
       </c>
       <c r="L26">
-        <v>-0.22953710840840885</v>
+        <v>-0.36882636400517738</v>
       </c>
       <c r="M26">
-        <v>-0.47795191252128505</v>
+        <v>-0.33933360756671499</v>
       </c>
       <c r="N26">
         <v>0.29857850686245524</v>
@@ -2715,43 +2715,43 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>8.5279406555946231</v>
+        <v>6.0553401540115361</v>
       </c>
       <c r="B27">
-        <v>3.3976049286222882</v>
+        <v>6.1403947264156873</v>
       </c>
       <c r="C27">
-        <v>-0.93919007255975528</v>
+        <v>2.9605541235795947</v>
       </c>
       <c r="D27">
-        <v>-2.0563794134268623</v>
+        <v>1.9811947932244007</v>
       </c>
       <c r="E27">
-        <v>-1.0109975247301668</v>
+        <v>0.85226187169285939</v>
       </c>
       <c r="F27">
-        <v>-1.0768920046580694</v>
+        <v>0.69743803672908367</v>
       </c>
       <c r="G27">
-        <v>-1.6450789274932749</v>
+        <v>-4.283857929016089E-2</v>
       </c>
       <c r="H27">
-        <v>0.14968869926349396</v>
+        <v>-0.4879843221283241</v>
       </c>
       <c r="I27">
-        <v>-0.4217980462107927</v>
+        <v>-0.52297153897988169</v>
       </c>
       <c r="J27">
-        <v>0.14268934328652069</v>
+        <v>-0.37764657541428409</v>
       </c>
       <c r="K27">
-        <v>-0.90698506480594232</v>
+        <v>-0.58516811603189045</v>
       </c>
       <c r="L27">
-        <v>-0.21145360121647258</v>
+        <v>-0.18818943344578404</v>
       </c>
       <c r="M27">
-        <v>0.25187391196604392</v>
+        <v>-0.48134002816563176</v>
       </c>
       <c r="N27">
         <v>7.5078262335494764E-2</v>
@@ -2804,43 +2804,43 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>8.0801390144090952</v>
+        <v>3.7012281056843732</v>
       </c>
       <c r="B28">
-        <v>0.40931078717220765</v>
+        <v>3.8502756112995287</v>
       </c>
       <c r="C28">
-        <v>-2.0255567821742226</v>
+        <v>0.17887836108689434</v>
       </c>
       <c r="D28">
-        <v>-1.4316961333381291</v>
+        <v>7.4269643959814863E-2</v>
       </c>
       <c r="E28">
-        <v>-0.71464758276023055</v>
+        <v>-0.63001748862251794</v>
       </c>
       <c r="F28">
-        <v>-0.27373401609936338</v>
+        <v>0.55213792524446204</v>
       </c>
       <c r="G28">
-        <v>-3.592584154519646</v>
+        <v>0.37685559950140257</v>
       </c>
       <c r="H28">
-        <v>0.17526291969684268</v>
+        <v>-0.55189409022340097</v>
       </c>
       <c r="I28">
-        <v>-0.4578242984074038</v>
+        <v>-0.2787459793719691</v>
       </c>
       <c r="J28">
-        <v>0.1755913580630846</v>
+        <v>-0.40368796974527038</v>
       </c>
       <c r="K28">
-        <v>0.23656884822500357</v>
+        <v>-0.2658857920270481</v>
       </c>
       <c r="L28">
-        <v>8.5794932358519135E-2</v>
+        <v>0.39503506524821774</v>
       </c>
       <c r="M28">
-        <v>0.96973334524656996</v>
+        <v>-0.4036044518499588</v>
       </c>
       <c r="N28">
         <v>-0.51788593424144513</v>
@@ -2893,43 +2893,43 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>7.3681698011478041</v>
+        <v>5.7471513777296028</v>
       </c>
       <c r="B29">
-        <v>-1.3609375935115202</v>
+        <v>-4.8873820571466391</v>
       </c>
       <c r="C29">
-        <v>0.53090771864922837</v>
+        <v>-3.5249037211353214</v>
       </c>
       <c r="D29">
-        <v>2.6287456175804116</v>
+        <v>4.4753084976646784</v>
       </c>
       <c r="E29">
-        <v>-3.5192266514454213</v>
+        <v>-9.9738192101090861E-2</v>
       </c>
       <c r="F29">
-        <v>-1.9034768632107828</v>
+        <v>0.90884486871295644</v>
       </c>
       <c r="G29">
-        <v>-0.37336116321295792</v>
+        <v>0.4367162981463022</v>
       </c>
       <c r="H29">
-        <v>-3.0257106270708798</v>
+        <v>0.55232103205249916</v>
       </c>
       <c r="I29">
-        <v>-1.0837756072611269</v>
+        <v>-0.20120831129878847</v>
       </c>
       <c r="J29">
-        <v>-0.21236638750602463</v>
+        <v>-8.2220943973203894E-3</v>
       </c>
       <c r="K29">
-        <v>-1.3715921938561799</v>
+        <v>0.359684734721199</v>
       </c>
       <c r="L29">
-        <v>0.47330958212523672</v>
+        <v>1.1239103337784271</v>
       </c>
       <c r="M29">
-        <v>0.46908127530407334</v>
+        <v>-0.5207202248208076</v>
       </c>
       <c r="N29">
         <v>-4.6605630225354973E-2</v>
@@ -2982,43 +2982,43 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>7.8852104089547019</v>
+        <v>4.7336359727182469</v>
       </c>
       <c r="B30">
-        <v>-1.7063725976986595</v>
+        <v>1.8842333706498102</v>
       </c>
       <c r="C30">
-        <v>-3.0146746395591397</v>
+        <v>-0.68293979031226892</v>
       </c>
       <c r="D30">
-        <v>3.0731506149052765</v>
+        <v>1.8823255659496987</v>
       </c>
       <c r="E30">
-        <v>-2.7304518002597824</v>
+        <v>1.8870671564630612</v>
       </c>
       <c r="F30">
-        <v>-0.80714678786176242</v>
+        <v>0.92532029074176447</v>
       </c>
       <c r="G30">
-        <v>0.92274069408435766</v>
+        <v>-6.213644695610724E-2</v>
       </c>
       <c r="H30">
-        <v>-1.8045616360612644</v>
+        <v>0.34330900247762064</v>
       </c>
       <c r="I30">
-        <v>-0.28048231188608214</v>
+        <v>0.40704455038919507</v>
       </c>
       <c r="J30">
-        <v>1.149183657182514</v>
+        <v>0.31807583068754169</v>
       </c>
       <c r="K30">
-        <v>-1.0875763185794201</v>
+        <v>-1.5589235492246731E-2</v>
       </c>
       <c r="L30">
-        <v>0.67966550872640896</v>
+        <v>-0.23914851127429287</v>
       </c>
       <c r="M30">
-        <v>1.0547258849787997</v>
+        <v>0.19600965201476436</v>
       </c>
       <c r="N30">
         <v>-0.41602074813740803</v>
@@ -3071,43 +3071,43 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>6.6241355388540564</v>
+        <v>5.3375523744066609</v>
       </c>
       <c r="B31">
-        <v>0.99876806045646449</v>
+        <v>0.50983533202217068</v>
       </c>
       <c r="C31">
-        <v>1.0959459680056707</v>
+        <v>0.54046965585803441</v>
       </c>
       <c r="D31">
-        <v>1.1797593860390743</v>
+        <v>0.43793785723953238</v>
       </c>
       <c r="E31">
-        <v>1.1224575360496147</v>
+        <v>-1.3815460590274899</v>
       </c>
       <c r="F31">
-        <v>0.48886538421862658</v>
+        <v>2.0131206192612381</v>
       </c>
       <c r="G31">
-        <v>2.260546565480209</v>
+        <v>-2.3086485705966431</v>
       </c>
       <c r="H31">
-        <v>-0.67902553823930689</v>
+        <v>0.28392682761518501</v>
       </c>
       <c r="I31">
-        <v>-0.11482939392666104</v>
+        <v>-0.56425095359006816</v>
       </c>
       <c r="J31">
-        <v>0.9096466015965804</v>
+        <v>-1.1679976049906375</v>
       </c>
       <c r="K31">
-        <v>-0.43332897199874537</v>
+        <v>0.26968381273027903</v>
       </c>
       <c r="L31">
-        <v>3.6099319345468457E-2</v>
+        <v>0.36303158611216735</v>
       </c>
       <c r="M31">
-        <v>-4.6931125951637363E-2</v>
+        <v>0.51911912632765866</v>
       </c>
       <c r="N31">
         <v>0.2183993549200447</v>
@@ -3160,43 +3160,43 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>7.7998502329143289</v>
+        <v>5.5456267991679491</v>
       </c>
       <c r="B32">
-        <v>1.0634563591202739</v>
+        <v>0.68375389017592625</v>
       </c>
       <c r="C32">
-        <v>3.7608062050267117</v>
+        <v>1.021818400733769</v>
       </c>
       <c r="D32">
-        <v>1.1582895715029302</v>
+        <v>1.4827204638234435</v>
       </c>
       <c r="E32">
-        <v>-0.82067569117322325</v>
+        <v>-1.0414449532286647</v>
       </c>
       <c r="F32">
-        <v>2.0333378656257888</v>
+        <v>3.1775589240055937</v>
       </c>
       <c r="G32">
-        <v>-0.47653531466633203</v>
+        <v>0.25573894058554597</v>
       </c>
       <c r="H32">
-        <v>-0.19709699596452246</v>
+        <v>-0.68598816844771604</v>
       </c>
       <c r="I32">
-        <v>0.42141213256902949</v>
+        <v>-1.0063825151443619</v>
       </c>
       <c r="J32">
-        <v>-0.29075199395947599</v>
+        <v>0.30284290776589545</v>
       </c>
       <c r="K32">
-        <v>0.79485720301440144</v>
+        <v>-8.2274446060977488E-2</v>
       </c>
       <c r="L32">
-        <v>-0.92612498406910115</v>
+        <v>0.26813776103969006</v>
       </c>
       <c r="M32">
-        <v>0.31554487064250814</v>
+        <v>0.29345290698871068</v>
       </c>
       <c r="N32">
         <v>8.6067514744485193E-2</v>
@@ -3249,43 +3249,43 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>7.9648884925614016</v>
+        <v>7.475586993741909</v>
       </c>
       <c r="B33">
-        <v>3.9424650160574357</v>
+        <v>-5.1664239557841807</v>
       </c>
       <c r="C33">
-        <v>3.062968103381476</v>
+        <v>-2.707821290822725</v>
       </c>
       <c r="D33">
-        <v>1.5679724977244993</v>
+        <v>-1.9217441088413885</v>
       </c>
       <c r="E33">
-        <v>0.93063813701442244</v>
+        <v>-1.0100452997659499</v>
       </c>
       <c r="F33">
-        <v>-0.14847648930952315</v>
+        <v>0.80782438259670275</v>
       </c>
       <c r="G33">
-        <v>0.93360201388396802</v>
+        <v>1.0680836762924368</v>
       </c>
       <c r="H33">
-        <v>-0.16984109181090856</v>
+        <v>0.89724932880066077</v>
       </c>
       <c r="I33">
-        <v>-0.21333344102291832</v>
+        <v>5.3332113166008645E-2</v>
       </c>
       <c r="J33">
-        <v>0.14721942003265748</v>
+        <v>-0.54011249336767031</v>
       </c>
       <c r="K33">
-        <v>-2.1414706730099972E-2</v>
+        <v>-0.48887480072447348</v>
       </c>
       <c r="L33">
-        <v>-0.4538691392549859</v>
+        <v>-0.44420501383161054</v>
       </c>
       <c r="M33">
-        <v>-0.38164591500548206</v>
+        <v>-0.20589531531415697</v>
       </c>
       <c r="N33">
         <v>2.0422126424174295E-2</v>
@@ -3338,43 +3338,43 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>7.9632941851649672</v>
+        <v>6.9519917573460788</v>
       </c>
       <c r="B34">
-        <v>3.5562267046059537</v>
+        <v>-5.4928745737214699</v>
       </c>
       <c r="C34">
-        <v>-1.6136613299327225</v>
+        <v>-3.0335548767367593</v>
       </c>
       <c r="D34">
-        <v>1.5541379051207875</v>
+        <v>-2.6920774905115152</v>
       </c>
       <c r="E34">
-        <v>3.0751852746929651</v>
+        <v>-0.59753640939585373</v>
       </c>
       <c r="F34">
-        <v>-0.1031480377589306</v>
+        <v>1.3385636556619371</v>
       </c>
       <c r="G34">
-        <v>-0.82357755329326454</v>
+        <v>8.2648319268988028E-3</v>
       </c>
       <c r="H34">
-        <v>-0.35694889064912638</v>
+        <v>0.49568702162137229</v>
       </c>
       <c r="I34">
-        <v>0.48277421529500797</v>
+        <v>-6.7536089457753745E-2</v>
       </c>
       <c r="J34">
-        <v>0.29388246634312776</v>
+        <v>-0.95528104993385821</v>
       </c>
       <c r="K34">
-        <v>-1.1616588703758</v>
+        <v>-0.71758291979949429</v>
       </c>
       <c r="L34">
-        <v>1.4353773576481769E-2</v>
+        <v>-0.60812107858256947</v>
       </c>
       <c r="M34">
-        <v>0.61839699763318534</v>
+        <v>-0.13422951382867807</v>
       </c>
       <c r="N34">
         <v>-0.19187549229736398</v>
@@ -3427,43 +3427,43 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>8.0433116124888375</v>
+        <v>7.3347616640913058</v>
       </c>
       <c r="B35">
-        <v>3.1257707617139028</v>
+        <v>-3.6560157527458346</v>
       </c>
       <c r="C35">
-        <v>-1.782264624199503</v>
+        <v>-1.4198597356366387</v>
       </c>
       <c r="D35">
-        <v>-2.4853834104306629</v>
+        <v>-1.9385494251627848</v>
       </c>
       <c r="E35">
-        <v>-1.4942014619909538</v>
+        <v>-0.57077092755567316</v>
       </c>
       <c r="F35">
-        <v>0.30227374539341867</v>
+        <v>0.67870873143766508</v>
       </c>
       <c r="G35">
-        <v>1.2904518110642067</v>
+        <v>0.49209604162529397</v>
       </c>
       <c r="H35">
-        <v>0.91243556968686668</v>
+        <v>-0.20637197505435531</v>
       </c>
       <c r="I35">
-        <v>-0.31536428465267341</v>
+        <v>0.33521144786653018</v>
       </c>
       <c r="J35">
-        <v>-1.2375113309882095</v>
+        <v>0.31222623091039481</v>
       </c>
       <c r="K35">
-        <v>-1.1485085833100526</v>
+        <v>-0.82671686142333967</v>
       </c>
       <c r="L35">
-        <v>-0.26043966290286413</v>
+        <v>7.3282439069097441E-2</v>
       </c>
       <c r="M35">
-        <v>0.60305647632001036</v>
+        <v>-0.10881719549599293</v>
       </c>
       <c r="N35">
         <v>-0.60173616646771044</v>
@@ -3516,43 +3516,43 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>6.7975664980586732</v>
+        <v>7.2161630144595641</v>
       </c>
       <c r="B36">
-        <v>-2.0215230359924496</v>
+        <v>-1.1863083500469949</v>
       </c>
       <c r="C36">
-        <v>-1.6736360047684335</v>
+        <v>-4.758492926782818</v>
       </c>
       <c r="D36">
-        <v>-0.75454413212094051</v>
+        <v>-2.7581353052637891</v>
       </c>
       <c r="E36">
-        <v>-0.14578923068885125</v>
+        <v>0.16178665383703777</v>
       </c>
       <c r="F36">
-        <v>0.54495175311083743</v>
+        <v>1.2580598301729191</v>
       </c>
       <c r="G36">
-        <v>0.59701341130542629</v>
+        <v>-0.44754767686711883</v>
       </c>
       <c r="H36">
-        <v>0.91138660608114808</v>
+        <v>1.1358586023998201</v>
       </c>
       <c r="I36">
-        <v>0.83873889603696938</v>
+        <v>0.82131223110280571</v>
       </c>
       <c r="J36">
-        <v>0.58025936680020418</v>
+        <v>0.34554892357478478</v>
       </c>
       <c r="K36">
-        <v>0.31875329862722412</v>
+        <v>-0.79017518335711212</v>
       </c>
       <c r="L36">
-        <v>9.3171237993260062E-2</v>
+        <v>8.8275322226729389E-2</v>
       </c>
       <c r="M36">
-        <v>3.2410863249249654E-2</v>
+        <v>-0.24721374771104007</v>
       </c>
       <c r="N36">
         <v>-9.9203637574635545E-2</v>
@@ -3605,43 +3605,43 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>8.1335566593649418</v>
+        <v>7.3132826744032835</v>
       </c>
       <c r="B37">
-        <v>-1.0462361821152641</v>
+        <v>-1.2807582396323705</v>
       </c>
       <c r="C37">
-        <v>-2.7238012740145212</v>
+        <v>-4.5997301652995732</v>
       </c>
       <c r="D37">
-        <v>-1.6413774421743981</v>
+        <v>0.47249520036173015</v>
       </c>
       <c r="E37">
-        <v>-1.0822857659888456E-3</v>
+        <v>-2.9867199098172241</v>
       </c>
       <c r="F37">
-        <v>-4.11569967544972E-3</v>
+        <v>-1.7252471169867716</v>
       </c>
       <c r="G37">
-        <v>6.3756529379175753E-2</v>
+        <v>0.19980337838923656</v>
       </c>
       <c r="H37">
-        <v>0.95651014841423931</v>
+        <v>1.1350764015074846</v>
       </c>
       <c r="I37">
-        <v>0.83321390240261184</v>
+        <v>0.84068126191811687</v>
       </c>
       <c r="J37">
-        <v>0.2405052677070601</v>
+        <v>-0.22353662969912397</v>
       </c>
       <c r="K37">
-        <v>5.7186406420087696E-2</v>
+        <v>-0.41968765009980297</v>
       </c>
       <c r="L37">
-        <v>0.74116907455829939</v>
+        <v>-3.2335559730701166E-2</v>
       </c>
       <c r="M37">
-        <v>1.0755334577720228</v>
+        <v>-1.0333119182131405</v>
       </c>
       <c r="N37">
         <v>-9.5895127665191066E-2</v>
@@ -3694,43 +3694,43 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>8.1335567793154269</v>
+        <v>7.874401341794858</v>
       </c>
       <c r="B38">
-        <v>-1.048732431497055</v>
+        <v>4.6295220236599803</v>
       </c>
       <c r="C38">
-        <v>-2.7258318195697058</v>
+        <v>-2.6714988371448904</v>
       </c>
       <c r="D38">
-        <v>-1.6442412290634492</v>
+        <v>-1.4284060626741535</v>
       </c>
       <c r="E38">
-        <v>-2.1035952628763728E-3</v>
+        <v>-1.1116139318267262</v>
       </c>
       <c r="F38">
-        <v>-5.5610515208152234E-3</v>
+        <v>-2.3370771174610696</v>
       </c>
       <c r="G38">
-        <v>6.4442553889700258E-2</v>
+        <v>-2.0700685550387026</v>
       </c>
       <c r="H38">
-        <v>0.95725086326669884</v>
+        <v>-0.13677734456198382</v>
       </c>
       <c r="I38">
-        <v>0.83496756138156203</v>
+        <v>9.9172073426786037E-2</v>
       </c>
       <c r="J38">
-        <v>0.24306657171456841</v>
+        <v>-1.0476749560440373</v>
       </c>
       <c r="K38">
-        <v>6.1138026651240872E-2</v>
+        <v>-0.67577166998402816</v>
       </c>
       <c r="L38">
-        <v>0.74306087375464203</v>
+        <v>0.89143181655897308</v>
       </c>
       <c r="M38">
-        <v>1.0784197869430772</v>
+        <v>0.88209106765251089</v>
       </c>
       <c r="N38">
         <v>-0.15450277159779191</v>
@@ -3783,43 +3783,43 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>6.6018539133853453</v>
+        <v>8.1786843194554368</v>
       </c>
       <c r="B39">
-        <v>0.54794757548959072</v>
+        <v>1.8036363625134746</v>
       </c>
       <c r="C39">
-        <v>-1.7042843281859719</v>
+        <v>-1.0722395940680562</v>
       </c>
       <c r="D39">
-        <v>-1.7569073075256805</v>
+        <v>-1.1361891168573623</v>
       </c>
       <c r="E39">
-        <v>-1.1711852935998397</v>
+        <v>-0.90939413651455325</v>
       </c>
       <c r="F39">
-        <v>-0.21857530401420708</v>
+        <v>-0.66339682542505418</v>
       </c>
       <c r="G39">
-        <v>0.41004820868522368</v>
+        <v>-1.111514185205883</v>
       </c>
       <c r="H39">
-        <v>0.97277414633744308</v>
+        <v>-0.24245365291878879</v>
       </c>
       <c r="I39">
-        <v>0.21552783158420247</v>
+        <v>-0.94921901283021226</v>
       </c>
       <c r="J39">
-        <v>-0.83470872990699918</v>
+        <v>0.34389859544674234</v>
       </c>
       <c r="K39">
-        <v>-0.97731147664578955</v>
+        <v>-0.48472489298982102</v>
       </c>
       <c r="L39">
-        <v>-8.9201299054527602E-2</v>
+        <v>-0.21418978810168054</v>
       </c>
       <c r="M39">
-        <v>0.43818745241756407</v>
+        <v>0.17466417375049759</v>
       </c>
       <c r="N39">
         <v>-7.6903750038751273E-2</v>
@@ -3872,43 +3872,43 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>6.9714441301523822</v>
+        <v>8.0728070541582877</v>
       </c>
       <c r="B40">
-        <v>-1.5675375452116938</v>
+        <v>0.5596318720386152</v>
       </c>
       <c r="C40">
-        <v>-2.1806784995673434</v>
+        <v>-3.3309203075636242</v>
       </c>
       <c r="D40">
-        <v>-1.0661117824656294</v>
+        <v>2.5941347904557932</v>
       </c>
       <c r="E40">
-        <v>0.2334197386752124</v>
+        <v>-2.4440853461105894</v>
       </c>
       <c r="F40">
-        <v>0.34646172152908006</v>
+        <v>-2.1274569721039192</v>
       </c>
       <c r="G40">
-        <v>0.59279398954598395</v>
+        <v>1.2734357522364201</v>
       </c>
       <c r="H40">
-        <v>1.1647267274311479</v>
+        <v>-1.4926806855681753</v>
       </c>
       <c r="I40">
-        <v>1.0764535582179902</v>
+        <v>-1.1750163869436758</v>
       </c>
       <c r="J40">
-        <v>0.25726373952387666</v>
+        <v>1.4809321036330749</v>
       </c>
       <c r="K40">
-        <v>-0.38819675077535026</v>
+        <v>-1.0188123347187423</v>
       </c>
       <c r="L40">
-        <v>0.17407290160103131</v>
+        <v>6.8565189233198168E-2</v>
       </c>
       <c r="M40">
-        <v>0.64042161590567581</v>
+        <v>0.88406431529569962</v>
       </c>
       <c r="N40">
         <v>0.17330796230279982</v>
@@ -3961,43 +3961,43 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>6.8537300387176154</v>
+        <v>7.5533476488074163</v>
       </c>
       <c r="B41">
-        <v>-0.89690105930986086</v>
+        <v>-0.25203304761085477</v>
       </c>
       <c r="C41">
-        <v>-2.3572221416687644</v>
+        <v>-3.964034340978186</v>
       </c>
       <c r="D41">
-        <v>-2.2865105812100164</v>
+        <v>0.33270629974116944</v>
       </c>
       <c r="E41">
-        <v>-0.85374116961821689</v>
+        <v>-2.8701021142576355</v>
       </c>
       <c r="F41">
-        <v>-0.11250558674614899</v>
+        <v>-1.3182776525972684</v>
       </c>
       <c r="G41">
-        <v>1.2750704901225443</v>
+        <v>-0.44397088123800565</v>
       </c>
       <c r="H41">
-        <v>2.2366068408333066</v>
+        <v>-1.0350747608226898</v>
       </c>
       <c r="I41">
-        <v>1.2452795793741318</v>
+        <v>-0.25115917945744931</v>
       </c>
       <c r="J41">
-        <v>-0.20976960274026257</v>
+        <v>-0.36524822658770145</v>
       </c>
       <c r="K41">
-        <v>-0.4499575587781045</v>
+        <v>-0.37139495519972726</v>
       </c>
       <c r="L41">
-        <v>0.60096579264194228</v>
+        <v>-0.22953710840840885</v>
       </c>
       <c r="M41">
-        <v>0.91500706563784828</v>
+        <v>-0.47795191252128505</v>
       </c>
       <c r="N41">
         <v>-0.16439842766547655</v>
@@ -4050,43 +4050,43 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8.4033294011678379</v>
+        <v>8.5279406555946231</v>
       </c>
       <c r="B42">
-        <v>-1.8158486968206711</v>
+        <v>3.3976049286222882</v>
       </c>
       <c r="C42">
-        <v>-2.4303301647115947</v>
+        <v>-0.93919007255975528</v>
       </c>
       <c r="D42">
-        <v>-1.3990477629192128</v>
+        <v>-2.0563794134268623</v>
       </c>
       <c r="E42">
-        <v>-0.36318818250769264</v>
+        <v>-1.0109975247301668</v>
       </c>
       <c r="F42">
-        <v>-0.10906496645917231</v>
+        <v>-1.0768920046580694</v>
       </c>
       <c r="G42">
-        <v>0.31219150056229933</v>
+        <v>-1.6450789274932749</v>
       </c>
       <c r="H42">
-        <v>1.4660113578166658</v>
+        <v>0.14968869926349396</v>
       </c>
       <c r="I42">
-        <v>1.5982861321876038</v>
+        <v>-0.4217980462107927</v>
       </c>
       <c r="J42">
-        <v>0.64386240966784458</v>
+        <v>0.14268934328652069</v>
       </c>
       <c r="K42">
-        <v>0.52235642752549716</v>
+        <v>-0.90698506480594232</v>
       </c>
       <c r="L42">
-        <v>1.0305189048685701</v>
+        <v>-0.21145360121647258</v>
       </c>
       <c r="M42">
-        <v>0.6464557308868516</v>
+        <v>0.25187391196604392</v>
       </c>
       <c r="N42">
         <v>0.31651620939067432</v>
@@ -4139,43 +4139,43 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>7.2769286249046017</v>
+        <v>8.0801390144090952</v>
       </c>
       <c r="B43">
-        <v>5.0132426850720435</v>
+        <v>0.40931078717220765</v>
       </c>
       <c r="C43">
-        <v>1.8999170149196771</v>
+        <v>-2.0255567821742226</v>
       </c>
       <c r="D43">
-        <v>2.2438811970381471</v>
+        <v>-1.4316961333381291</v>
       </c>
       <c r="E43">
-        <v>0.13044091113982076</v>
+        <v>-0.71464758276023055</v>
       </c>
       <c r="F43">
-        <v>0.75825194800790774</v>
+        <v>-0.27373401609936338</v>
       </c>
       <c r="G43">
-        <v>0.9151692288913359</v>
+        <v>-3.592584154519646</v>
       </c>
       <c r="H43">
-        <v>-0.58435492073245665</v>
+        <v>0.17526291969684268</v>
       </c>
       <c r="I43">
-        <v>0.41750322446390958</v>
+        <v>-0.4578242984074038</v>
       </c>
       <c r="J43">
-        <v>0.35266947022159251</v>
+        <v>0.1755913580630846</v>
       </c>
       <c r="K43">
-        <v>-0.70446234984298295</v>
+        <v>0.23656884822500357</v>
       </c>
       <c r="L43">
-        <v>0.71252493777487835</v>
+        <v>8.5794932358519135E-2</v>
       </c>
       <c r="M43">
-        <v>0.45372126298963295</v>
+        <v>0.96973334524656996</v>
       </c>
       <c r="N43">
         <v>4.164743271598504E-2</v>
@@ -4228,43 +4228,43 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>7.7116543491460074</v>
+        <v>7.3681698011478041</v>
       </c>
       <c r="B44">
-        <v>4.2329143593363332</v>
+        <v>-1.3609375935115202</v>
       </c>
       <c r="C44">
-        <v>0.9127897978555487</v>
+        <v>0.53090771864922837</v>
       </c>
       <c r="D44">
-        <v>1.150551692867219</v>
+        <v>2.6287456175804116</v>
       </c>
       <c r="E44">
-        <v>1.4153595013729172</v>
+        <v>-3.5192266514454213</v>
       </c>
       <c r="F44">
-        <v>0.57722514789760071</v>
+        <v>-1.9034768632107828</v>
       </c>
       <c r="G44">
-        <v>-7.4369790147379558E-2</v>
+        <v>-0.37336116321295792</v>
       </c>
       <c r="H44">
-        <v>0.68974799264605857</v>
+        <v>-3.0257106270708798</v>
       </c>
       <c r="I44">
-        <v>0.49185127705302467</v>
+        <v>-1.0837756072611269</v>
       </c>
       <c r="J44">
-        <v>-0.18419236232792791</v>
+        <v>-0.21236638750602463</v>
       </c>
       <c r="K44">
-        <v>-0.14440912283253271</v>
+        <v>-1.3715921938561799</v>
       </c>
       <c r="L44">
-        <v>0.32037246466320285</v>
+        <v>0.47330958212523672</v>
       </c>
       <c r="M44">
-        <v>0.32274539305514938</v>
+        <v>0.46908127530407334</v>
       </c>
       <c r="N44">
         <v>7.5719404301357721E-2</v>
@@ -4317,43 +4317,43 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>7.6141438061978954</v>
+        <v>7.8852104089547019</v>
       </c>
       <c r="B45">
-        <v>3.4147065720593641</v>
+        <v>-1.7063725976986595</v>
       </c>
       <c r="C45">
-        <v>-1.5900051905540902</v>
+        <v>-3.0146746395591397</v>
       </c>
       <c r="D45">
-        <v>0.4223590524400907</v>
+        <v>3.0731506149052765</v>
       </c>
       <c r="E45">
-        <v>1.4887235701529606</v>
+        <v>-2.7304518002597824</v>
       </c>
       <c r="F45">
-        <v>1.1767628952322129</v>
+        <v>-0.80714678786176242</v>
       </c>
       <c r="G45">
-        <v>-0.2848294059623464</v>
+        <v>0.92274069408435766</v>
       </c>
       <c r="H45">
-        <v>-0.73895730730892717</v>
+        <v>-1.8045616360612644</v>
       </c>
       <c r="I45">
-        <v>1.3731508236825854E-2</v>
+        <v>-0.28048231188608214</v>
       </c>
       <c r="J45">
-        <v>-0.55095212143594696</v>
+        <v>1.149183657182514</v>
       </c>
       <c r="K45">
-        <v>-0.68620842324824249</v>
+        <v>-1.0875763185794201</v>
       </c>
       <c r="L45">
-        <v>0.69986955207994272</v>
+        <v>0.67966550872640896</v>
       </c>
       <c r="M45">
-        <v>0.39043413924178128</v>
+        <v>1.0547258849787997</v>
       </c>
       <c r="N45">
         <v>0.811652589027135</v>
@@ -4406,43 +4406,43 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>5.5564798991598146</v>
+        <v>7.3190449062287337</v>
       </c>
       <c r="B46">
-        <v>-5.2328025870289769</v>
+        <v>1.4453477841526576</v>
       </c>
       <c r="C46">
-        <v>-3.2680770847523353</v>
+        <v>0.75801074160892035</v>
       </c>
       <c r="D46">
-        <v>-0.45028831042430906</v>
+        <v>-0.69549651603942597</v>
       </c>
       <c r="E46">
-        <v>0.46205057459181748</v>
+        <v>5.5501874007252471E-3</v>
       </c>
       <c r="F46">
-        <v>0.803357318085271</v>
+        <v>-0.26661008247479551</v>
       </c>
       <c r="G46">
-        <v>0.38905344566951183</v>
+        <v>-0.57909692982957195</v>
       </c>
       <c r="H46">
-        <v>-2.7048364945646479E-3</v>
+        <v>9.7242732964411965E-2</v>
       </c>
       <c r="I46">
-        <v>-0.7575554705184625</v>
+        <v>-1.046740435337026</v>
       </c>
       <c r="J46">
-        <v>-6.9132336906406137E-3</v>
+        <v>0.42196562042210306</v>
       </c>
       <c r="K46">
-        <v>3.162984141478322E-2</v>
+        <v>-0.45091756008226652</v>
       </c>
       <c r="L46">
-        <v>1.8786949591193293E-2</v>
+        <v>0.46208972478278093</v>
       </c>
       <c r="M46">
-        <v>-3.5747075357089697E-3</v>
+        <v>-0.63745714260046182</v>
       </c>
       <c r="N46">
         <v>0.24891504735335582</v>
@@ -4495,43 +4495,43 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>6.918086387610189</v>
+        <v>7.5832175741569552</v>
       </c>
       <c r="B47">
-        <v>-5.3270494578744021</v>
+        <v>2.9716637462046807</v>
       </c>
       <c r="C47">
-        <v>-2.9631696306788764</v>
+        <v>1.6874654584270095</v>
       </c>
       <c r="D47">
-        <v>0.82722294961348264</v>
+        <v>0.37324202576742926</v>
       </c>
       <c r="E47">
-        <v>1.1299461942436899</v>
+        <v>-0.43949980882596823</v>
       </c>
       <c r="F47">
-        <v>0.38067045403106842</v>
+        <v>-0.32070096983071789</v>
       </c>
       <c r="G47">
-        <v>-1.1726767995502148</v>
+        <v>-0.98426505568819589</v>
       </c>
       <c r="H47">
-        <v>-0.24872776625142129</v>
+        <v>-0.45713270558148339</v>
       </c>
       <c r="I47">
-        <v>0.98695262207945755</v>
+        <v>-0.91493586922522496</v>
       </c>
       <c r="J47">
-        <v>-0.10079042374067103</v>
+        <v>0.42207601227708785</v>
       </c>
       <c r="K47">
-        <v>-0.13792027217164515</v>
+        <v>-0.99662650264796993</v>
       </c>
       <c r="L47">
-        <v>0.2118393824110647</v>
+        <v>0.40658084341037559</v>
       </c>
       <c r="M47">
-        <v>0.1965017108962058</v>
+        <v>-0.10335290233136797</v>
       </c>
       <c r="N47">
         <v>0.60901089514305706</v>
@@ -4584,43 +4584,43 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4.4371885282251684</v>
+        <v>6.5607988747557755</v>
       </c>
       <c r="B48">
-        <v>-0.73564568421423782</v>
+        <v>3.8334124490708921</v>
       </c>
       <c r="C48">
-        <v>-0.35358524346110332</v>
+        <v>1.3794634229256002</v>
       </c>
       <c r="D48">
-        <v>-2.78840143819655E-2</v>
+        <v>-0.5648292094233246</v>
       </c>
       <c r="E48">
-        <v>0.14971975451004416</v>
+        <v>-0.20251047909900177</v>
       </c>
       <c r="F48">
-        <v>0.52054454094453328</v>
+        <v>-0.21151469217863805</v>
       </c>
       <c r="G48">
-        <v>0.4575629530183522</v>
+        <v>-0.91405214401008228</v>
       </c>
       <c r="H48">
-        <v>0.72038465152747222</v>
+        <v>0.18287960708320217</v>
       </c>
       <c r="I48">
-        <v>-0.25092390293196076</v>
+        <v>-0.80218375741543291</v>
       </c>
       <c r="J48">
-        <v>-0.13796533974691699</v>
+        <v>0.72934667270465292</v>
       </c>
       <c r="K48">
-        <v>-0.23573849581765732</v>
+        <v>-0.32697162801318441</v>
       </c>
       <c r="L48">
-        <v>-0.34413951080050814</v>
+        <v>-9.0735967807405671E-2</v>
       </c>
       <c r="M48">
-        <v>-1.5785697047120181E-2</v>
+        <v>-0.45351590261453284</v>
       </c>
       <c r="N48">
         <v>0.61037930957414244</v>
@@ -4673,43 +4673,43 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>6.179765030800314</v>
+        <v>7.7580552436255594</v>
       </c>
       <c r="B49">
-        <v>-3.0354245340855819</v>
+        <v>1.6528970044587559</v>
       </c>
       <c r="C49">
-        <v>-0.57743145256625539</v>
+        <v>1.4050276353977593</v>
       </c>
       <c r="D49">
-        <v>-0.29792031149001713</v>
+        <v>-0.31039088366602813</v>
       </c>
       <c r="E49">
-        <v>-3.6592965275783269E-2</v>
+        <v>-0.5902600814535961</v>
       </c>
       <c r="F49">
-        <v>-0.20049595468978465</v>
+        <v>-0.24002523995569314</v>
       </c>
       <c r="G49">
-        <v>-0.52796764822391684</v>
+        <v>-0.39286276589778196</v>
       </c>
       <c r="H49">
-        <v>-0.11656469635143904</v>
+        <v>0.19408231255537767</v>
       </c>
       <c r="I49">
-        <v>-0.1826528531469476</v>
+        <v>-0.5798489718226647</v>
       </c>
       <c r="J49">
-        <v>-6.4930529276207141E-2</v>
+        <v>0.94845780541024249</v>
       </c>
       <c r="K49">
-        <v>6.4901856578420763E-2</v>
+        <v>-1.4823251494519922</v>
       </c>
       <c r="L49">
-        <v>0.2231985893256507</v>
+        <v>0.20974185651448543</v>
       </c>
       <c r="M49">
-        <v>-0.2677379814824396</v>
+        <v>-7.1330256551733945E-2</v>
       </c>
       <c r="N49">
         <v>0.31317955311370299</v>
@@ -4762,43 +4762,43 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>7.8125104677148229</v>
+        <v>6.6924268047812268</v>
       </c>
       <c r="B50">
-        <v>4.4976086588664224</v>
+        <v>2.4037196190152947</v>
       </c>
       <c r="C50">
-        <v>1.1723497013082842</v>
+        <v>1.2135836099706332</v>
       </c>
       <c r="D50">
-        <v>1.1529678576379661</v>
+        <v>-0.77797715620591879</v>
       </c>
       <c r="E50">
-        <v>1.0418618622900953</v>
+        <v>-0.40934678605468822</v>
       </c>
       <c r="F50">
-        <v>1.0348791902735743</v>
+        <v>3.4577989282968735E-2</v>
       </c>
       <c r="G50">
-        <v>0.72633240898913876</v>
+        <v>-1.10185826565413</v>
       </c>
       <c r="H50">
-        <v>0.47016337243099121</v>
+        <v>-0.26532012059870613</v>
       </c>
       <c r="I50">
-        <v>0.15725288360918602</v>
+        <v>-1.2383043911327727</v>
       </c>
       <c r="J50">
-        <v>-2.7989426877133378E-2</v>
+        <v>0.10677014105029928</v>
       </c>
       <c r="K50">
-        <v>-5.6633235156555994E-2</v>
+        <v>-0.81210472594551553</v>
       </c>
       <c r="L50">
-        <v>0.23009299406361344</v>
+        <v>-2.3687809482224806E-2</v>
       </c>
       <c r="M50">
-        <v>0.16370281164792821</v>
+        <v>-0.39591412818089372</v>
       </c>
       <c r="N50">
         <v>0.45527252915538491</v>
@@ -4851,43 +4851,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>6.4900679845879043</v>
-      </c>
-      <c r="B51">
-        <v>1.5377561025262927</v>
-      </c>
-      <c r="C51">
-        <v>1.5920536370610692</v>
-      </c>
-      <c r="D51">
-        <v>1.696186038381537</v>
-      </c>
-      <c r="E51">
-        <v>-0.20012332172583724</v>
-      </c>
-      <c r="F51">
-        <v>1.181762392340036</v>
-      </c>
-      <c r="G51">
-        <v>-8.1517767362178625E-2</v>
-      </c>
-      <c r="H51">
-        <v>1.1447827163719375</v>
-      </c>
-      <c r="I51">
-        <v>-0.54085839538544656</v>
-      </c>
-      <c r="J51">
-        <v>-8.960285090065764E-3</v>
-      </c>
-      <c r="K51">
-        <v>0.81923815496241525</v>
-      </c>
-      <c r="L51">
-        <v>-0.32040965013059919</v>
-      </c>
-      <c r="M51">
-        <v>0.22015775364266801</v>
+        <v>8.3630814357182697</v>
       </c>
       <c r="N51">
         <v>0.73484001113860931</v>
@@ -4940,43 +4904,43 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1.5396152819952365</v>
+        <v>8.9167879562488785</v>
       </c>
       <c r="B52">
-        <v>1.2999231547893972</v>
+        <v>-3.8147778783658191</v>
       </c>
       <c r="C52">
-        <v>0.23649917434283335</v>
+        <v>-5.3043776017901161</v>
       </c>
       <c r="D52">
-        <v>2.2882060863466798</v>
+        <v>-0.53373077758201637</v>
       </c>
       <c r="E52">
-        <v>1.0147741885392085</v>
+        <v>0.38749268908325329</v>
       </c>
       <c r="F52">
-        <v>0.52983574826611246</v>
+        <v>0.92615518699278643</v>
       </c>
       <c r="G52">
-        <v>0.68080949657503398</v>
+        <v>0.50451602911908477</v>
       </c>
       <c r="H52">
-        <v>0.2483269144804725</v>
+        <v>0.18406472936743987</v>
       </c>
       <c r="I52">
-        <v>0.27750149067564278</v>
+        <v>-1.7399870933286563</v>
       </c>
       <c r="J52">
-        <v>4.3400634208116051E-3</v>
+        <v>1.3932332416370072E-2</v>
       </c>
       <c r="K52">
-        <v>0.12308996661469143</v>
+        <v>1.2560961156276196</v>
       </c>
       <c r="L52">
-        <v>0.26472802800085293</v>
+        <v>-0.47954719339771801</v>
       </c>
       <c r="M52">
-        <v>0.40401480183474558</v>
+        <v>-1.799532442568446E-2</v>
       </c>
       <c r="N52">
         <v>0.33283022615966606</v>
@@ -5029,43 +4993,43 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>6.8024013863956236</v>
+        <v>8.3363780071141402</v>
       </c>
       <c r="B53">
-        <v>1.0923320265843477</v>
+        <v>-3.0218980546574143</v>
       </c>
       <c r="C53">
-        <v>-1.7275807990770362</v>
+        <v>-3.219492605702353</v>
       </c>
       <c r="D53">
-        <v>-0.6462505434893614</v>
+        <v>-1.0902101380367888</v>
       </c>
       <c r="E53">
-        <v>-0.73082383433524256</v>
+        <v>-0.57816341586671327</v>
       </c>
       <c r="F53">
-        <v>0.18441593800507286</v>
+        <v>2.5283860690543536</v>
       </c>
       <c r="G53">
-        <v>0.24520368251763694</v>
+        <v>0.17358291065793952</v>
       </c>
       <c r="H53">
-        <v>-0.40617277280114744</v>
+        <v>0.52587598940730773</v>
       </c>
       <c r="I53">
-        <v>1.3478541751421567E-2</v>
+        <v>-2.6305729012823811</v>
       </c>
       <c r="J53">
-        <v>-0.67238200591139563</v>
+        <v>-0.12343122586111853</v>
       </c>
       <c r="K53">
-        <v>-0.31567961260066096</v>
+        <v>1.7800921293048753</v>
       </c>
       <c r="L53">
-        <v>-7.0587940513921463E-2</v>
+        <v>0.32122498126296845</v>
       </c>
       <c r="M53">
-        <v>0.24357096103309556</v>
+        <v>-1.3533494285749494</v>
       </c>
       <c r="N53">
         <v>-0.49469434148476982</v>
@@ -5118,43 +5082,43 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>7.1846730346256731</v>
+        <v>8.4197445163111464</v>
       </c>
       <c r="B54">
-        <v>1.7370490304570734</v>
+        <v>2.5111838907290331</v>
       </c>
       <c r="C54">
-        <v>0.62615226219342723</v>
+        <v>-3.2827834737114494</v>
       </c>
       <c r="D54">
-        <v>-0.32037526246409637</v>
+        <v>-1.4283786379656047</v>
       </c>
       <c r="E54">
-        <v>-0.59815433260124595</v>
+        <v>0.5361352840209006</v>
       </c>
       <c r="F54">
-        <v>-1.007443097125287</v>
+        <v>1.5509896496402025</v>
       </c>
       <c r="G54">
-        <v>-0.95654036239712248</v>
+        <v>-2.7382270528470847E-2</v>
       </c>
       <c r="H54">
-        <v>-1.439302053425223</v>
+        <v>-0.90209749207149692</v>
       </c>
       <c r="I54">
-        <v>-1.5385948213485097</v>
+        <v>-0.16858846962515669</v>
       </c>
       <c r="J54">
-        <v>-0.22016597078797717</v>
+        <v>0.21698622533166212</v>
       </c>
       <c r="K54">
-        <v>-0.72777897004114822</v>
+        <v>0.57927738509899607</v>
       </c>
       <c r="L54">
-        <v>0.5440892590781452</v>
+        <v>0.11574459567704078</v>
       </c>
       <c r="M54">
-        <v>-6.1525791944427255E-2</v>
+        <v>-0.63553660016611446</v>
       </c>
       <c r="N54">
         <v>-0.1484350654696549</v>
@@ -5207,43 +5171,43 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>5.8845270903957561</v>
+        <v>8.2118712554466704</v>
       </c>
       <c r="B55">
-        <v>-1.4630038431539607</v>
+        <v>1.4585287953783741</v>
       </c>
       <c r="C55">
-        <v>-2.6489158061665425</v>
+        <v>-3.3302543219565406</v>
       </c>
       <c r="D55">
-        <v>-6.5247634278637473E-2</v>
+        <v>-2.8689205303099907</v>
       </c>
       <c r="E55">
-        <v>0.7395949311493949</v>
+        <v>-0.6211350936757366</v>
       </c>
       <c r="F55">
-        <v>0.27543003299468655</v>
+        <v>1.4660259152903872</v>
       </c>
       <c r="G55">
-        <v>1.0941556539208654</v>
+        <v>1.2333626324814881</v>
       </c>
       <c r="H55">
-        <v>-0.69972336156351977</v>
+        <v>-0.42286588957110272</v>
       </c>
       <c r="I55">
-        <v>-0.62983759979422715</v>
+        <v>-1.5282578851389161</v>
       </c>
       <c r="J55">
-        <v>0.22487133816962399</v>
+        <v>-0.8752081861107438</v>
       </c>
       <c r="K55">
-        <v>0.73978822694420754</v>
+        <v>0.24303185448812159</v>
       </c>
       <c r="L55">
-        <v>-0.19849500182513169</v>
+        <v>0.41397180955460378</v>
       </c>
       <c r="M55">
-        <v>-0.82515980702165992</v>
+        <v>-0.59437917758719594</v>
       </c>
       <c r="N55">
         <v>-0.3522256975771193</v>
@@ -5296,43 +5260,43 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>6.0174244582082794</v>
+        <v>9.0330729131316136</v>
       </c>
       <c r="B56">
-        <v>1.9046296189068885</v>
+        <v>3.5728557969279828</v>
       </c>
       <c r="C56">
-        <v>1.2006741187661252</v>
+        <v>-3.2143731637822834</v>
       </c>
       <c r="D56">
-        <v>0.51570782427992412</v>
+        <v>-2.2052770638622636</v>
       </c>
       <c r="E56">
-        <v>0.52491156425045737</v>
+        <v>0.4091674859957195</v>
       </c>
       <c r="F56">
-        <v>0.8417576585047003</v>
+        <v>1.6424694788960443</v>
       </c>
       <c r="G56">
-        <v>0.46314050222124786</v>
+        <v>0.42221609009661681</v>
       </c>
       <c r="H56">
-        <v>-0.30996617178374802</v>
+        <v>-0.90451160399613595</v>
       </c>
       <c r="I56">
-        <v>-0.29917076260138553</v>
+        <v>-0.81442177560525619</v>
       </c>
       <c r="J56">
-        <v>-0.30456529170030594</v>
+        <v>0.23529361586954994</v>
       </c>
       <c r="K56">
-        <v>-0.16516564556243182</v>
+        <v>0.6805582966558108</v>
       </c>
       <c r="L56">
-        <v>-0.12283400018676431</v>
+        <v>0.20130498015806339</v>
       </c>
       <c r="M56">
-        <v>0.11239103756540128</v>
+        <v>-0.34544304825480854</v>
       </c>
       <c r="N56">
         <v>-0.311836767857888</v>
@@ -5385,43 +5349,43 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>6.2098627410367166</v>
+        <v>8.4450526985095529</v>
       </c>
       <c r="B57">
-        <v>-0.21063689765620119</v>
+        <v>-0.83444041036185934</v>
       </c>
       <c r="C57">
-        <v>-1.370192447328364</v>
+        <v>-4.3418261228676345</v>
       </c>
       <c r="D57">
-        <v>-0.84887844051040218</v>
+        <v>-1.7332037864265102</v>
       </c>
       <c r="E57">
-        <v>-4.8931700186480985E-2</v>
+        <v>0.83549521684381334</v>
       </c>
       <c r="F57">
-        <v>0.57186918221178451</v>
+        <v>1.6181771558951699</v>
       </c>
       <c r="G57">
-        <v>-0.13774776864740526</v>
+        <v>0.15471768310122333</v>
       </c>
       <c r="H57">
-        <v>-0.45637385917520484</v>
+        <v>-0.79748168957906174</v>
       </c>
       <c r="I57">
-        <v>-0.32336006554088187</v>
+        <v>-0.17420678744037735</v>
       </c>
       <c r="J57">
-        <v>-0.4194173754525044</v>
+        <v>0.72338510809628098</v>
       </c>
       <c r="K57">
-        <v>-0.22584345975083714</v>
+        <v>0.83346228202466754</v>
       </c>
       <c r="L57">
-        <v>0.26809883573587651</v>
+        <v>0.11446190335539087</v>
       </c>
       <c r="M57">
-        <v>-0.32959840886643732</v>
+        <v>-0.44100577305335054</v>
       </c>
       <c r="N57">
         <v>-0.90308869567403427</v>
@@ -5474,43 +5438,43 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>4.3988107439550923</v>
+        <v>8.4280190711110166</v>
       </c>
       <c r="B58">
-        <v>-3.9224824693888038</v>
+        <v>-0.36086253032990023</v>
       </c>
       <c r="C58">
-        <v>-3.2512351757241751</v>
+        <v>-3.1300443167929841</v>
       </c>
       <c r="D58">
-        <v>2.1284776558237364</v>
+        <v>-2.8656112977467316</v>
       </c>
       <c r="E58">
-        <v>-0.57342544969585429</v>
+        <v>-1.9789718165262815</v>
       </c>
       <c r="F58">
-        <v>5.8583486340814526E-2</v>
+        <v>-1.5743248417929634</v>
       </c>
       <c r="G58">
-        <v>0.29539355656182564</v>
+        <v>0.99787695548640187</v>
       </c>
       <c r="H58">
-        <v>8.2154698670005119E-2</v>
+        <v>-0.70821631869961077</v>
       </c>
       <c r="I58">
-        <v>-0.83328030147300836</v>
+        <v>-1.5017824865686451</v>
       </c>
       <c r="J58">
-        <v>0.33873931586527029</v>
+        <v>0.58688955485848582</v>
       </c>
       <c r="K58">
-        <v>0.36977583099050193</v>
+        <v>0.75152731364214931</v>
       </c>
       <c r="L58">
-        <v>-0.31673523074388277</v>
+        <v>0.58889627746184825</v>
       </c>
       <c r="M58">
-        <v>3.7439664969409229E-3</v>
+        <v>-1.4902238776718864</v>
       </c>
       <c r="N58">
         <v>-0.10351454044310904</v>
@@ -5563,43 +5527,43 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>6.6752958086959211</v>
+        <v>7.7268735081418658</v>
       </c>
       <c r="B59">
-        <v>-5.6811879971357611</v>
+        <v>4.4628715030855624</v>
       </c>
       <c r="C59">
-        <v>-1.7878377798288585</v>
+        <v>-4.1392328635017508</v>
       </c>
       <c r="D59">
-        <v>1.7601031196399719</v>
+        <v>-1.5892136728548227</v>
       </c>
       <c r="E59">
-        <v>-0.74109973503995008</v>
+        <v>0.84023487597188917</v>
       </c>
       <c r="F59">
-        <v>2.3169995808848216E-2</v>
+        <v>1.6242325326104632</v>
       </c>
       <c r="G59">
-        <v>-9.4804575140565506E-2</v>
+        <v>-0.18349756001961154</v>
       </c>
       <c r="H59">
-        <v>0.53662763391245261</v>
+        <v>-1.1609116502468333</v>
       </c>
       <c r="I59">
-        <v>-1.004199503615181</v>
+        <v>-0.52808657535254</v>
       </c>
       <c r="J59">
-        <v>0.98309982010817365</v>
+        <v>0.740623571647541</v>
       </c>
       <c r="K59">
-        <v>5.486273678109675E-3</v>
+        <v>0.67000844089207345</v>
       </c>
       <c r="L59">
-        <v>-0.54629282925006473</v>
+        <v>-0.2572064242650674</v>
       </c>
       <c r="M59">
-        <v>-0.42885775757814842</v>
+        <v>-0.68321035437607369</v>
       </c>
       <c r="N59">
         <v>-0.23196163489005731</v>
@@ -5652,43 +5616,43 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>6.1745448820278863</v>
+        <v>7.6976808314123799</v>
       </c>
       <c r="B60">
-        <v>-6.2068913846709206</v>
+        <v>0.37093601821186939</v>
       </c>
       <c r="C60">
-        <v>-3.9022999946664849</v>
+        <v>-3.054260096886285</v>
       </c>
       <c r="D60">
-        <v>2.6312168499107229</v>
+        <v>-1.3131765345598068</v>
       </c>
       <c r="E60">
-        <v>-1.7278193673320037</v>
+        <v>1.9233243738648951</v>
       </c>
       <c r="F60">
-        <v>-5.1155515543705239E-2</v>
+        <v>0.69310483546005452</v>
       </c>
       <c r="G60">
-        <v>-7.6009484362449919E-2</v>
+        <v>-1.4256660597499344</v>
       </c>
       <c r="H60">
-        <v>-0.18168243234455178</v>
+        <v>-0.35348034184150595</v>
       </c>
       <c r="I60">
-        <v>-0.69585850341701772</v>
+        <v>0.22450776493910349</v>
       </c>
       <c r="J60">
-        <v>0.12782670448526534</v>
+        <v>1.490291896720696</v>
       </c>
       <c r="K60">
-        <v>0.43659976979246923</v>
+        <v>-0.83173610436716683</v>
       </c>
       <c r="L60">
-        <v>0.80763402934231265</v>
+        <v>-0.1266766896750951</v>
       </c>
       <c r="M60">
-        <v>-1.0430182097657761</v>
+        <v>-0.23051917108237069</v>
       </c>
       <c r="N60">
         <v>-0.43337960326496633</v>
@@ -5741,43 +5705,43 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5.5564798991598146</v>
+        <v>6.6241355388540564</v>
       </c>
       <c r="B61">
-        <v>-5.2328025870289769</v>
+        <v>0.99876806045646449</v>
       </c>
       <c r="C61">
-        <v>-3.2680770847523353</v>
+        <v>1.0959459680056707</v>
       </c>
       <c r="D61">
-        <v>-0.45028831042430906</v>
+        <v>1.1797593860390743</v>
       </c>
       <c r="E61">
-        <v>0.46205057459181748</v>
+        <v>1.1224575360496147</v>
       </c>
       <c r="F61">
-        <v>0.803357318085271</v>
+        <v>0.48886538421862658</v>
       </c>
       <c r="G61">
-        <v>0.38905344566951183</v>
+        <v>2.260546565480209</v>
       </c>
       <c r="H61">
-        <v>-2.7048364945646479E-3</v>
+        <v>-0.67902553823930689</v>
       </c>
       <c r="I61">
-        <v>-0.7575554705184625</v>
+        <v>-0.11482939392666104</v>
       </c>
       <c r="J61">
-        <v>-6.9132336906406137E-3</v>
+        <v>0.9096466015965804</v>
       </c>
       <c r="K61">
-        <v>3.162984141478322E-2</v>
+        <v>-0.43332897199874537</v>
       </c>
       <c r="L61">
-        <v>1.8786949591193293E-2</v>
+        <v>3.6099319345468457E-2</v>
       </c>
       <c r="M61">
-        <v>-3.5747075357089697E-3</v>
+        <v>-4.6931125951637363E-2</v>
       </c>
       <c r="N61">
         <v>0.30445668917677621</v>
@@ -5830,43 +5794,43 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>6.918086387610189</v>
+        <v>7.7998502329143289</v>
       </c>
       <c r="B62">
-        <v>-5.3270494578744021</v>
+        <v>1.0634563591202739</v>
       </c>
       <c r="C62">
-        <v>-2.9631696306788764</v>
+        <v>3.7608062050267117</v>
       </c>
       <c r="D62">
-        <v>0.82722294961348264</v>
+        <v>1.1582895715029302</v>
       </c>
       <c r="E62">
-        <v>1.1299461942436899</v>
+        <v>-0.82067569117322325</v>
       </c>
       <c r="F62">
-        <v>0.38067045403106842</v>
+        <v>2.0333378656257888</v>
       </c>
       <c r="G62">
-        <v>-1.1726767995502148</v>
+        <v>-0.47653531466633203</v>
       </c>
       <c r="H62">
-        <v>-0.24872776625142129</v>
+        <v>-0.19709699596452246</v>
       </c>
       <c r="I62">
-        <v>0.98695262207945755</v>
+        <v>0.42141213256902949</v>
       </c>
       <c r="J62">
-        <v>-0.10079042374067103</v>
+        <v>-0.29075199395947599</v>
       </c>
       <c r="K62">
-        <v>-0.13792027217164515</v>
+        <v>0.79485720301440144</v>
       </c>
       <c r="L62">
-        <v>0.2118393824110647</v>
+        <v>-0.92612498406910115</v>
       </c>
       <c r="M62">
-        <v>0.1965017108962058</v>
+        <v>0.31554487064250814</v>
       </c>
       <c r="N62">
         <v>0.20865394567065462</v>
@@ -5919,43 +5883,43 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>4.4371885282251684</v>
+        <v>7.9648884925614016</v>
       </c>
       <c r="B63">
-        <v>-0.73564568421423782</v>
+        <v>3.9424650160574357</v>
       </c>
       <c r="C63">
-        <v>-0.35358524346110332</v>
+        <v>3.062968103381476</v>
       </c>
       <c r="D63">
-        <v>-2.78840143819655E-2</v>
+        <v>1.5679724977244993</v>
       </c>
       <c r="E63">
-        <v>0.14971975451004416</v>
+        <v>0.93063813701442244</v>
       </c>
       <c r="F63">
-        <v>0.52054454094453328</v>
+        <v>-0.14847648930952315</v>
       </c>
       <c r="G63">
-        <v>0.4575629530183522</v>
+        <v>0.93360201388396802</v>
       </c>
       <c r="H63">
-        <v>0.72038465152747222</v>
+        <v>-0.16984109181090856</v>
       </c>
       <c r="I63">
-        <v>-0.25092390293196076</v>
+        <v>-0.21333344102291832</v>
       </c>
       <c r="J63">
-        <v>-0.13796533974691699</v>
+        <v>0.14721942003265748</v>
       </c>
       <c r="K63">
-        <v>-0.23573849581765732</v>
+        <v>-2.1414706730099972E-2</v>
       </c>
       <c r="L63">
-        <v>-0.34413951080050814</v>
+        <v>-0.4538691392549859</v>
       </c>
       <c r="M63">
-        <v>-1.5785697047120181E-2</v>
+        <v>-0.38164591500548206</v>
       </c>
       <c r="N63">
         <v>0.52452292032585246</v>
@@ -6008,43 +5972,43 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>6.179765030800314</v>
+        <v>7.9632941851649672</v>
       </c>
       <c r="B64">
-        <v>-3.0354245340855819</v>
+        <v>3.5562267046059537</v>
       </c>
       <c r="C64">
-        <v>-0.57743145256625539</v>
+        <v>-1.6136613299327225</v>
       </c>
       <c r="D64">
-        <v>-0.29792031149001713</v>
+        <v>1.5541379051207875</v>
       </c>
       <c r="E64">
-        <v>-3.6592965275783269E-2</v>
+        <v>3.0751852746929651</v>
       </c>
       <c r="F64">
-        <v>-0.20049595468978465</v>
+        <v>-0.1031480377589306</v>
       </c>
       <c r="G64">
-        <v>-0.52796764822391684</v>
+        <v>-0.82357755329326454</v>
       </c>
       <c r="H64">
-        <v>-0.11656469635143904</v>
+        <v>-0.35694889064912638</v>
       </c>
       <c r="I64">
-        <v>-0.1826528531469476</v>
+        <v>0.48277421529500797</v>
       </c>
       <c r="J64">
-        <v>-6.4930529276207141E-2</v>
+        <v>0.29388246634312776</v>
       </c>
       <c r="K64">
-        <v>6.4901856578420763E-2</v>
+        <v>-1.1616588703758</v>
       </c>
       <c r="L64">
-        <v>0.2231985893256507</v>
+        <v>1.4353773576481769E-2</v>
       </c>
       <c r="M64">
-        <v>-0.2677379814824396</v>
+        <v>0.61839699763318534</v>
       </c>
       <c r="N64">
         <v>-0.14399624199843894</v>
@@ -6097,43 +6061,43 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>7.8125104677148229</v>
+        <v>8.0433116124888375</v>
       </c>
       <c r="B65">
-        <v>4.4976086588664224</v>
+        <v>3.1257707617139028</v>
       </c>
       <c r="C65">
-        <v>1.1723497013082842</v>
+        <v>-1.782264624199503</v>
       </c>
       <c r="D65">
-        <v>1.1529678576379661</v>
+        <v>-2.4853834104306629</v>
       </c>
       <c r="E65">
-        <v>1.0418618622900953</v>
+        <v>-1.4942014619909538</v>
       </c>
       <c r="F65">
-        <v>1.0348791902735743</v>
+        <v>0.30227374539341867</v>
       </c>
       <c r="G65">
-        <v>0.72633240898913876</v>
+        <v>1.2904518110642067</v>
       </c>
       <c r="H65">
-        <v>0.47016337243099121</v>
+        <v>0.91243556968686668</v>
       </c>
       <c r="I65">
-        <v>0.15725288360918602</v>
+        <v>-0.31536428465267341</v>
       </c>
       <c r="J65">
-        <v>-2.7989426877133378E-2</v>
+        <v>-1.2375113309882095</v>
       </c>
       <c r="K65">
-        <v>-5.6633235156555994E-2</v>
+        <v>-1.1485085833100526</v>
       </c>
       <c r="L65">
-        <v>0.23009299406361344</v>
+        <v>-0.26043966290286413</v>
       </c>
       <c r="M65">
-        <v>0.16370281164792821</v>
+        <v>0.60305647632001036</v>
       </c>
       <c r="N65">
         <v>3.8847917935454376E-2</v>
@@ -6186,43 +6150,43 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>6.4900679845879043</v>
+        <v>6.7975664980586732</v>
       </c>
       <c r="B66">
-        <v>1.5377561025262927</v>
+        <v>-2.0215230359924496</v>
       </c>
       <c r="C66">
-        <v>1.5920536370610692</v>
+        <v>-1.6736360047684335</v>
       </c>
       <c r="D66">
-        <v>1.696186038381537</v>
+        <v>-0.75454413212094051</v>
       </c>
       <c r="E66">
-        <v>-0.20012332172583724</v>
+        <v>-0.14578923068885125</v>
       </c>
       <c r="F66">
-        <v>1.181762392340036</v>
+        <v>0.54495175311083743</v>
       </c>
       <c r="G66">
-        <v>-8.1517767362178625E-2</v>
+        <v>0.59701341130542629</v>
       </c>
       <c r="H66">
-        <v>1.1447827163719375</v>
+        <v>0.91138660608114808</v>
       </c>
       <c r="I66">
-        <v>-0.54085839538544656</v>
+        <v>0.83873889603696938</v>
       </c>
       <c r="J66">
-        <v>-8.960285090065764E-3</v>
+        <v>0.58025936680020418</v>
       </c>
       <c r="K66">
-        <v>0.81923815496241525</v>
+        <v>0.31875329862722412</v>
       </c>
       <c r="L66">
-        <v>-0.32040965013059919</v>
+        <v>9.3171237993260062E-2</v>
       </c>
       <c r="M66">
-        <v>0.22015775364266801</v>
+        <v>3.2410863249249654E-2</v>
       </c>
       <c r="N66">
         <v>-5.7971294877202255E-2</v>
@@ -6275,43 +6239,43 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1.5396152819952365</v>
+        <v>8.1335566593649418</v>
       </c>
       <c r="B67">
-        <v>1.2999231547893972</v>
+        <v>-1.0462361821152641</v>
       </c>
       <c r="C67">
-        <v>0.23649917434283335</v>
+        <v>-2.7238012740145212</v>
       </c>
       <c r="D67">
-        <v>2.2882060863466798</v>
+        <v>-1.6413774421743981</v>
       </c>
       <c r="E67">
-        <v>1.0147741885392085</v>
+        <v>-1.0822857659888456E-3</v>
       </c>
       <c r="F67">
-        <v>0.52983574826611246</v>
+        <v>-4.11569967544972E-3</v>
       </c>
       <c r="G67">
-        <v>0.68080949657503398</v>
+        <v>6.3756529379175753E-2</v>
       </c>
       <c r="H67">
-        <v>0.2483269144804725</v>
+        <v>0.95651014841423931</v>
       </c>
       <c r="I67">
-        <v>0.27750149067564278</v>
+        <v>0.83321390240261184</v>
       </c>
       <c r="J67">
-        <v>4.3400634208116051E-3</v>
+        <v>0.2405052677070601</v>
       </c>
       <c r="K67">
-        <v>0.12308996661469143</v>
+        <v>5.7186406420087696E-2</v>
       </c>
       <c r="L67">
-        <v>0.26472802800085293</v>
+        <v>0.74116907455829939</v>
       </c>
       <c r="M67">
-        <v>0.40401480183474558</v>
+        <v>1.0755334577720228</v>
       </c>
       <c r="N67">
         <v>-0.11870336823660135</v>
@@ -6364,43 +6328,43 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>6.8024013863956236</v>
+        <v>8.1335567793154269</v>
       </c>
       <c r="B68">
-        <v>1.0923320265843477</v>
+        <v>-1.048732431497055</v>
       </c>
       <c r="C68">
-        <v>-1.7275807990770362</v>
+        <v>-2.7258318195697058</v>
       </c>
       <c r="D68">
-        <v>-0.6462505434893614</v>
+        <v>-1.6442412290634492</v>
       </c>
       <c r="E68">
-        <v>-0.73082383433524256</v>
+        <v>-2.1035952628763728E-3</v>
       </c>
       <c r="F68">
-        <v>0.18441593800507286</v>
+        <v>-5.5610515208152234E-3</v>
       </c>
       <c r="G68">
-        <v>0.24520368251763694</v>
+        <v>6.4442553889700258E-2</v>
       </c>
       <c r="H68">
-        <v>-0.40617277280114744</v>
+        <v>0.95725086326669884</v>
       </c>
       <c r="I68">
-        <v>1.3478541751421567E-2</v>
+        <v>0.83496756138156203</v>
       </c>
       <c r="J68">
-        <v>-0.67238200591139563</v>
+        <v>0.24306657171456841</v>
       </c>
       <c r="K68">
-        <v>-0.31567961260066096</v>
+        <v>6.1138026651240872E-2</v>
       </c>
       <c r="L68">
-        <v>-7.0587940513921463E-2</v>
+        <v>0.74306087375464203</v>
       </c>
       <c r="M68">
-        <v>0.24357096103309556</v>
+        <v>1.0784197869430772</v>
       </c>
       <c r="N68">
         <v>0.28032345070780662</v>
@@ -6453,43 +6417,43 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>7.1846730346256731</v>
+        <v>6.6018539133853453</v>
       </c>
       <c r="B69">
-        <v>1.7370490304570734</v>
+        <v>0.54794757548959072</v>
       </c>
       <c r="C69">
-        <v>0.62615226219342723</v>
+        <v>-1.7042843281859719</v>
       </c>
       <c r="D69">
-        <v>-0.32037526246409637</v>
+        <v>-1.7569073075256805</v>
       </c>
       <c r="E69">
-        <v>-0.59815433260124595</v>
+        <v>-1.1711852935998397</v>
       </c>
       <c r="F69">
-        <v>-1.007443097125287</v>
+        <v>-0.21857530401420708</v>
       </c>
       <c r="G69">
-        <v>-0.95654036239712248</v>
+        <v>0.41004820868522368</v>
       </c>
       <c r="H69">
-        <v>-1.439302053425223</v>
+        <v>0.97277414633744308</v>
       </c>
       <c r="I69">
-        <v>-1.5385948213485097</v>
+        <v>0.21552783158420247</v>
       </c>
       <c r="J69">
-        <v>-0.22016597078797717</v>
+        <v>-0.83470872990699918</v>
       </c>
       <c r="K69">
-        <v>-0.72777897004114822</v>
+        <v>-0.97731147664578955</v>
       </c>
       <c r="L69">
-        <v>0.5440892590781452</v>
+        <v>-8.9201299054527602E-2</v>
       </c>
       <c r="M69">
-        <v>-6.1525791944427255E-2</v>
+        <v>0.43818745241756407</v>
       </c>
       <c r="N69">
         <v>0.39688105734869872</v>
@@ -6542,43 +6506,43 @@
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>5.8845270903957561</v>
+        <v>6.9714441301523822</v>
       </c>
       <c r="B70">
-        <v>-1.4630038431539607</v>
+        <v>-1.5675375452116938</v>
       </c>
       <c r="C70">
-        <v>-2.6489158061665425</v>
+        <v>-2.1806784995673434</v>
       </c>
       <c r="D70">
-        <v>-6.5247634278637473E-2</v>
+        <v>-1.0661117824656294</v>
       </c>
       <c r="E70">
-        <v>0.7395949311493949</v>
+        <v>0.2334197386752124</v>
       </c>
       <c r="F70">
-        <v>0.27543003299468655</v>
+        <v>0.34646172152908006</v>
       </c>
       <c r="G70">
-        <v>1.0941556539208654</v>
+        <v>0.59279398954598395</v>
       </c>
       <c r="H70">
-        <v>-0.69972336156351977</v>
+        <v>1.1647267274311479</v>
       </c>
       <c r="I70">
-        <v>-0.62983759979422715</v>
+        <v>1.0764535582179902</v>
       </c>
       <c r="J70">
-        <v>0.22487133816962399</v>
+        <v>0.25726373952387666</v>
       </c>
       <c r="K70">
-        <v>0.73978822694420754</v>
+        <v>-0.38819675077535026</v>
       </c>
       <c r="L70">
-        <v>-0.19849500182513169</v>
+        <v>0.17407290160103131</v>
       </c>
       <c r="M70">
-        <v>-0.82515980702165992</v>
+        <v>0.64042161590567581</v>
       </c>
       <c r="N70">
         <v>-0.17813656381984252</v>
@@ -6631,43 +6595,43 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>6.0174244582082794</v>
+        <v>6.8537300387176154</v>
       </c>
       <c r="B71">
-        <v>1.9046296189068885</v>
+        <v>-0.89690105930986086</v>
       </c>
       <c r="C71">
-        <v>1.2006741187661252</v>
+        <v>-2.3572221416687644</v>
       </c>
       <c r="D71">
-        <v>0.51570782427992412</v>
+        <v>-2.2865105812100164</v>
       </c>
       <c r="E71">
-        <v>0.52491156425045737</v>
+        <v>-0.85374116961821689</v>
       </c>
       <c r="F71">
-        <v>0.8417576585047003</v>
+        <v>-0.11250558674614899</v>
       </c>
       <c r="G71">
-        <v>0.46314050222124786</v>
+        <v>1.2750704901225443</v>
       </c>
       <c r="H71">
-        <v>-0.30996617178374802</v>
+        <v>2.2366068408333066</v>
       </c>
       <c r="I71">
-        <v>-0.29917076260138553</v>
+        <v>1.2452795793741318</v>
       </c>
       <c r="J71">
-        <v>-0.30456529170030594</v>
+        <v>-0.20976960274026257</v>
       </c>
       <c r="K71">
-        <v>-0.16516564556243182</v>
+        <v>-0.4499575587781045</v>
       </c>
       <c r="L71">
-        <v>-0.12283400018676431</v>
+        <v>0.60096579264194228</v>
       </c>
       <c r="M71">
-        <v>0.11239103756540128</v>
+        <v>0.91500706563784828</v>
       </c>
       <c r="N71">
         <v>-0.21774671989954772</v>
@@ -6720,43 +6684,43 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>6.2098627410367166</v>
+        <v>8.4033294011678379</v>
       </c>
       <c r="B72">
-        <v>-0.21063689765620119</v>
+        <v>-1.8158486968206711</v>
       </c>
       <c r="C72">
-        <v>-1.370192447328364</v>
+        <v>-2.4303301647115947</v>
       </c>
       <c r="D72">
-        <v>-0.84887844051040218</v>
+        <v>-1.3990477629192128</v>
       </c>
       <c r="E72">
-        <v>-4.8931700186480985E-2</v>
+        <v>-0.36318818250769264</v>
       </c>
       <c r="F72">
-        <v>0.57186918221178451</v>
+        <v>-0.10906496645917231</v>
       </c>
       <c r="G72">
-        <v>-0.13774776864740526</v>
+        <v>0.31219150056229933</v>
       </c>
       <c r="H72">
-        <v>-0.45637385917520484</v>
+        <v>1.4660113578166658</v>
       </c>
       <c r="I72">
-        <v>-0.32336006554088187</v>
+        <v>1.5982861321876038</v>
       </c>
       <c r="J72">
-        <v>-0.4194173754525044</v>
+        <v>0.64386240966784458</v>
       </c>
       <c r="K72">
-        <v>-0.22584345975083714</v>
+        <v>0.52235642752549716</v>
       </c>
       <c r="L72">
-        <v>0.26809883573587651</v>
+        <v>1.0305189048685701</v>
       </c>
       <c r="M72">
-        <v>-0.32959840886643732</v>
+        <v>0.6464557308868516</v>
       </c>
       <c r="N72">
         <v>-0.59093730646698883</v>
@@ -6809,43 +6773,43 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>4.3988107439550923</v>
+        <v>7.2769286249046017</v>
       </c>
       <c r="B73">
-        <v>-3.9224824693888038</v>
+        <v>5.0132426850720435</v>
       </c>
       <c r="C73">
-        <v>-3.2512351757241751</v>
+        <v>1.8999170149196771</v>
       </c>
       <c r="D73">
-        <v>2.1284776558237364</v>
+        <v>2.2438811970381471</v>
       </c>
       <c r="E73">
-        <v>-0.57342544969585429</v>
+        <v>0.13044091113982076</v>
       </c>
       <c r="F73">
-        <v>5.8583486340814526E-2</v>
+        <v>0.75825194800790774</v>
       </c>
       <c r="G73">
-        <v>0.29539355656182564</v>
+        <v>0.9151692288913359</v>
       </c>
       <c r="H73">
-        <v>8.2154698670005119E-2</v>
+        <v>-0.58435492073245665</v>
       </c>
       <c r="I73">
-        <v>-0.83328030147300836</v>
+        <v>0.41750322446390958</v>
       </c>
       <c r="J73">
-        <v>0.33873931586527029</v>
+        <v>0.35266947022159251</v>
       </c>
       <c r="K73">
-        <v>0.36977583099050193</v>
+        <v>-0.70446234984298295</v>
       </c>
       <c r="L73">
-        <v>-0.31673523074388277</v>
+        <v>0.71252493777487835</v>
       </c>
       <c r="M73">
-        <v>3.7439664969409229E-3</v>
+        <v>0.45372126298963295</v>
       </c>
       <c r="N73">
         <v>-0.12706384293961373</v>
@@ -6898,43 +6862,43 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>6.6752958086959211</v>
+        <v>7.7116543491460074</v>
       </c>
       <c r="B74">
-        <v>-5.6811879971357611</v>
+        <v>4.2329143593363332</v>
       </c>
       <c r="C74">
-        <v>-1.7878377798288585</v>
+        <v>0.9127897978555487</v>
       </c>
       <c r="D74">
-        <v>1.7601031196399719</v>
+        <v>1.150551692867219</v>
       </c>
       <c r="E74">
-        <v>-0.74109973503995008</v>
+        <v>1.4153595013729172</v>
       </c>
       <c r="F74">
-        <v>2.3169995808848216E-2</v>
+        <v>0.57722514789760071</v>
       </c>
       <c r="G74">
-        <v>-9.4804575140565506E-2</v>
+        <v>-7.4369790147379558E-2</v>
       </c>
       <c r="H74">
-        <v>0.53662763391245261</v>
+        <v>0.68974799264605857</v>
       </c>
       <c r="I74">
-        <v>-1.004199503615181</v>
+        <v>0.49185127705302467</v>
       </c>
       <c r="J74">
-        <v>0.98309982010817365</v>
+        <v>-0.18419236232792791</v>
       </c>
       <c r="K74">
-        <v>5.486273678109675E-3</v>
+        <v>-0.14440912283253271</v>
       </c>
       <c r="L74">
-        <v>-0.54629282925006473</v>
+        <v>0.32037246466320285</v>
       </c>
       <c r="M74">
-        <v>-0.42885775757814842</v>
+        <v>0.32274539305514938</v>
       </c>
       <c r="N74">
         <v>0.97650312058589328</v>
@@ -6987,43 +6951,43 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>6.1745448820278863</v>
+        <v>7.6141438061978954</v>
       </c>
       <c r="B75">
-        <v>-6.2068913846709206</v>
+        <v>3.4147065720593641</v>
       </c>
       <c r="C75">
-        <v>-3.9022999946664849</v>
+        <v>-1.5900051905540902</v>
       </c>
       <c r="D75">
-        <v>2.6312168499107229</v>
+        <v>0.4223590524400907</v>
       </c>
       <c r="E75">
-        <v>-1.7278193673320037</v>
+        <v>1.4887235701529606</v>
       </c>
       <c r="F75">
-        <v>-5.1155515543705239E-2</v>
+        <v>1.1767628952322129</v>
       </c>
       <c r="G75">
-        <v>-7.6009484362449919E-2</v>
+        <v>-0.2848294059623464</v>
       </c>
       <c r="H75">
-        <v>-0.18168243234455178</v>
+        <v>-0.73895730730892717</v>
       </c>
       <c r="I75">
-        <v>-0.69585850341701772</v>
+        <v>1.3731508236825854E-2</v>
       </c>
       <c r="J75">
-        <v>0.12782670448526534</v>
+        <v>-0.55095212143594696</v>
       </c>
       <c r="K75">
-        <v>0.43659976979246923</v>
+        <v>-0.68620842324824249</v>
       </c>
       <c r="L75">
-        <v>0.80763402934231265</v>
+        <v>0.69986955207994272</v>
       </c>
       <c r="M75">
-        <v>-1.0430182097657761</v>
+        <v>0.39043413924178128</v>
       </c>
       <c r="N75">
         <v>6.4219058901042578E-4</v>
@@ -7076,43 +7040,43 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>2.7156900536869877</v>
+        <v>6.6211013510302825</v>
       </c>
       <c r="B76">
-        <v>1.7529324208448611</v>
+        <v>3.505032857922433</v>
       </c>
       <c r="C76">
-        <v>-1.8665463334255123</v>
+        <v>-0.20461105614613886</v>
       </c>
       <c r="D76">
-        <v>-0.53171216903513796</v>
+        <v>2.5206550931990135</v>
       </c>
       <c r="E76">
-        <v>5.9988193998202585E-2</v>
+        <v>3.2265053042487981</v>
       </c>
       <c r="F76">
-        <v>0.91586102162647298</v>
+        <v>0.74544152866180846</v>
       </c>
       <c r="G76">
-        <v>0.4450457266556952</v>
+        <v>-0.87160923323953943</v>
       </c>
       <c r="H76">
-        <v>-0.24521364271057428</v>
+        <v>0.24483528634560797</v>
       </c>
       <c r="I76">
-        <v>0.92027882711550535</v>
+        <v>1.0148319752040622</v>
       </c>
       <c r="J76">
-        <v>0.30281541866059608</v>
+        <v>-0.12637145459252841</v>
       </c>
       <c r="K76">
-        <v>0.23933590338446598</v>
+        <v>-0.92208260676377229</v>
       </c>
       <c r="L76">
-        <v>0.31569152863045924</v>
+        <v>-0.19683564638614151</v>
       </c>
       <c r="M76">
-        <v>-0.26669156530070481</v>
+        <v>0.30160079124074135</v>
       </c>
       <c r="N76">
         <v>0.69740921202207884</v>
@@ -7165,43 +7129,43 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>5.2245018140118349</v>
+        <v>6.7179576657487434</v>
       </c>
       <c r="B77">
-        <v>1.3478538778114693</v>
+        <v>2.3944355883596931</v>
       </c>
       <c r="C77">
-        <v>0.38139434061318156</v>
+        <v>-2.8802753403766701</v>
       </c>
       <c r="D77">
-        <v>3.5156730478015259</v>
+        <v>2.6617742495307057</v>
       </c>
       <c r="E77">
-        <v>0.46855541743494672</v>
+        <v>3.0000797392644802</v>
       </c>
       <c r="F77">
-        <v>0.57977206825760619</v>
+        <v>-0.37785496146611541</v>
       </c>
       <c r="G77">
-        <v>0.30648016076600687</v>
+        <v>-1.0687152260422295</v>
       </c>
       <c r="H77">
-        <v>0.17128645452943492</v>
+        <v>1.5013967404204305</v>
       </c>
       <c r="I77">
-        <v>-1.0645346889563587</v>
+        <v>1.2426846340957263</v>
       </c>
       <c r="J77">
-        <v>-0.30871754638322252</v>
+        <v>-1.3675357691650345</v>
       </c>
       <c r="K77">
-        <v>6.556885397645551E-2</v>
+        <v>-0.57740778068116072</v>
       </c>
       <c r="L77">
-        <v>-0.27175801828161245</v>
+        <v>1.3700561689990762</v>
       </c>
       <c r="M77">
-        <v>-0.23366108666756749</v>
+        <v>0.1320698382049989</v>
       </c>
       <c r="N77">
         <v>0.60206551344060733</v>
@@ -7254,43 +7218,43 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>3.8454815215745546</v>
+        <v>6.7590829400743653</v>
       </c>
       <c r="B78">
-        <v>2.1137526488450331</v>
+        <v>1.5973229146576027</v>
       </c>
       <c r="C78">
-        <v>-0.7798390062073165</v>
+        <v>2.9279233879434705</v>
       </c>
       <c r="D78">
-        <v>-0.1331344734162469</v>
+        <v>1.3125619021125254</v>
       </c>
       <c r="E78">
-        <v>-0.1161635155594158</v>
+        <v>-9.0873196152470997E-2</v>
       </c>
       <c r="F78">
-        <v>0.18135559268779852</v>
+        <v>3.0632145122085112E-2</v>
       </c>
       <c r="G78">
-        <v>2.1059375545036271E-2</v>
+        <v>-1.8212896933865481</v>
       </c>
       <c r="H78">
-        <v>-1.1703425096951062E-3</v>
+        <v>0.56132393985725726</v>
       </c>
       <c r="I78">
-        <v>-9.4694492007746947E-2</v>
+        <v>-1.246747243927709</v>
       </c>
       <c r="J78">
-        <v>-0.13371820597132877</v>
+        <v>0.74316611863865567</v>
       </c>
       <c r="K78">
-        <v>0.17162774632160979</v>
+        <v>-0.14552638156601777</v>
       </c>
       <c r="L78">
-        <v>9.4429047734299554E-2</v>
+        <v>-0.35015102331904113</v>
       </c>
       <c r="M78">
-        <v>-9.7054786969422865E-2</v>
+        <v>6.6975360707229301E-2</v>
       </c>
       <c r="N78">
         <v>0.38313909064244273</v>
@@ -7343,43 +7307,43 @@
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>6.3486088620706873</v>
+        <v>7.4135150630848852</v>
       </c>
       <c r="B79">
-        <v>-4.0362502027905949</v>
+        <v>0.32473278815363482</v>
       </c>
       <c r="C79">
-        <v>-3.2292812229350587</v>
+        <v>2.9240311610884531</v>
       </c>
       <c r="D79">
-        <v>1.4081450160660804</v>
+        <v>1.8439153400646631</v>
       </c>
       <c r="E79">
-        <v>-0.71792661250552958</v>
+        <v>-7.7714833168328154E-2</v>
       </c>
       <c r="F79">
-        <v>0.91387240709242401</v>
+        <v>0.90592812214813023</v>
       </c>
       <c r="G79">
-        <v>-0.18627899368094014</v>
+        <v>-1.830582802208063</v>
       </c>
       <c r="H79">
-        <v>-0.16380801706529877</v>
+        <v>0.62832523216524339</v>
       </c>
       <c r="I79">
-        <v>-0.78936581436678099</v>
+        <v>-0.78157217880588137</v>
       </c>
       <c r="J79">
-        <v>0.63654364045263578</v>
+        <v>-7.2017885477065974E-2</v>
       </c>
       <c r="K79">
-        <v>0.18125081414857169</v>
+        <v>-7.566917734131054E-2</v>
       </c>
       <c r="L79">
-        <v>0.97817445996526831</v>
+        <v>-1.6302575995724287E-2</v>
       </c>
       <c r="M79">
-        <v>-1.5707314645980117</v>
+        <v>-0.24593866209852946</v>
       </c>
       <c r="N79">
         <v>-0.30766341487267163</v>
@@ -7432,43 +7396,43 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>6.1449720378378911</v>
+        <v>7.5969560792011324</v>
       </c>
       <c r="B80">
-        <v>-1.580448620056276</v>
+        <v>0.45888999517248436</v>
       </c>
       <c r="C80">
-        <v>-1.8959135568158028</v>
+        <v>-2.3486872056711414</v>
       </c>
       <c r="D80">
-        <v>-2.4557827519763022</v>
+        <v>1.2596694098487056</v>
       </c>
       <c r="E80">
-        <v>-1.0472462239346532</v>
+        <v>1.8776743377888214</v>
       </c>
       <c r="F80">
-        <v>-3.8234838381616024E-2</v>
+        <v>0.16153881956546307</v>
       </c>
       <c r="G80">
-        <v>1.0288468758871423</v>
+        <v>-1.7542803443558574</v>
       </c>
       <c r="H80">
-        <v>0.66682154331565402</v>
+        <v>0.52853788652807199</v>
       </c>
       <c r="I80">
-        <v>-0.12377891608038143</v>
+        <v>4.1371116300934305E-2</v>
       </c>
       <c r="J80">
-        <v>-2.0053550095708906E-2</v>
+        <v>-0.40098588900655352</v>
       </c>
       <c r="K80">
-        <v>-0.81136694422724398</v>
+        <v>-0.68941582924706257</v>
       </c>
       <c r="L80">
-        <v>0.27073588284452299</v>
+        <v>0.29532681849387765</v>
       </c>
       <c r="M80">
-        <v>-0.14092330930837321</v>
+        <v>0.88077796829201105</v>
       </c>
       <c r="N80">
         <v>0.26316214514962466</v>
@@ -9547,6 +9511,1236 @@
       </c>
       <c r="M120">
         <v>0.21075810888663182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>4.6618226677294778</v>
+      </c>
+      <c r="B121">
+        <v>2.058578162080738</v>
+      </c>
+      <c r="C121">
+        <v>-1.4881126709584678</v>
+      </c>
+      <c r="D121">
+        <v>-2.3105353356894973</v>
+      </c>
+      <c r="E121">
+        <v>-2.5636192679727889</v>
+      </c>
+      <c r="F121">
+        <v>-0.77863147183784853</v>
+      </c>
+      <c r="G121">
+        <v>0.52260027138960985</v>
+      </c>
+      <c r="H121">
+        <v>0.82857788020213519</v>
+      </c>
+      <c r="I121">
+        <v>1.0833144334250462</v>
+      </c>
+      <c r="J121">
+        <v>0.10463538974838787</v>
+      </c>
+      <c r="K121">
+        <v>-0.56120628827587205</v>
+      </c>
+      <c r="L121">
+        <v>-0.42497076909700948</v>
+      </c>
+      <c r="M121">
+        <v>-0.47477352835813696</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>6.1423851001087284</v>
+      </c>
+      <c r="B122">
+        <v>-3.6974902074848908</v>
+      </c>
+      <c r="C122">
+        <v>1.4813107728402632</v>
+      </c>
+      <c r="D122">
+        <v>-1.2024791859925994</v>
+      </c>
+      <c r="E122">
+        <v>0.75369506585425416</v>
+      </c>
+      <c r="F122">
+        <v>-0.67000780038292451</v>
+      </c>
+      <c r="G122">
+        <v>-0.19152944521276982</v>
+      </c>
+      <c r="H122">
+        <v>-0.20339702075665406</v>
+      </c>
+      <c r="I122">
+        <v>-0.67745597775576394</v>
+      </c>
+      <c r="J122">
+        <v>-0.19620371538022957</v>
+      </c>
+      <c r="K122">
+        <v>-0.15388897339153795</v>
+      </c>
+      <c r="L122">
+        <v>-4.5193392800350909E-2</v>
+      </c>
+      <c r="M122">
+        <v>-5.256277388909756E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>5.9866680554151568</v>
+      </c>
+      <c r="B123">
+        <v>-3.6275278690982375</v>
+      </c>
+      <c r="C123">
+        <v>1.519392099149937</v>
+      </c>
+      <c r="D123">
+        <v>-2.1307623692315456</v>
+      </c>
+      <c r="E123">
+        <v>1.1139331881070458</v>
+      </c>
+      <c r="F123">
+        <v>-0.78415971681643259</v>
+      </c>
+      <c r="G123">
+        <v>-0.3966667188887778</v>
+      </c>
+      <c r="H123">
+        <v>0.46185879953332221</v>
+      </c>
+      <c r="I123">
+        <v>-0.42679405426501182</v>
+      </c>
+      <c r="J123">
+        <v>-4.9983904117689507E-2</v>
+      </c>
+      <c r="K123">
+        <v>-0.17548603296283041</v>
+      </c>
+      <c r="L123">
+        <v>-0.31109533065178602</v>
+      </c>
+      <c r="M123">
+        <v>0.27048711821111487</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>5.1810702729270917</v>
+      </c>
+      <c r="B124">
+        <v>-4.1667356076015443</v>
+      </c>
+      <c r="C124">
+        <v>1.2824484643313177</v>
+      </c>
+      <c r="D124">
+        <v>-2.1942001815245993</v>
+      </c>
+      <c r="E124">
+        <v>0.63572291848177276</v>
+      </c>
+      <c r="F124">
+        <v>-0.56181506773050627</v>
+      </c>
+      <c r="G124">
+        <v>4.0902763135914989E-2</v>
+      </c>
+      <c r="H124">
+        <v>0.35537653447633594</v>
+      </c>
+      <c r="I124">
+        <v>-0.18257728333533163</v>
+      </c>
+      <c r="J124">
+        <v>0.44233286827720342</v>
+      </c>
+      <c r="K124">
+        <v>0.14096981469158981</v>
+      </c>
+      <c r="L124">
+        <v>-0.13072615344520838</v>
+      </c>
+      <c r="M124">
+        <v>0.1911273437174236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>5.5047487398268791</v>
+      </c>
+      <c r="B125">
+        <v>0.47475524407885245</v>
+      </c>
+      <c r="C125">
+        <v>-1.7478061916962715</v>
+      </c>
+      <c r="D125">
+        <v>-0.85238665891497101</v>
+      </c>
+      <c r="E125">
+        <v>0.11301672723398372</v>
+      </c>
+      <c r="F125">
+        <v>-9.7067103536104885E-2</v>
+      </c>
+      <c r="G125">
+        <v>2.5509529519422498E-3</v>
+      </c>
+      <c r="H125">
+        <v>-0.20457991750172752</v>
+      </c>
+      <c r="I125">
+        <v>-0.35761756643999815</v>
+      </c>
+      <c r="J125">
+        <v>-0.56371935997380307</v>
+      </c>
+      <c r="K125">
+        <v>-0.34489166639325491</v>
+      </c>
+      <c r="L125">
+        <v>-0.12557541664718383</v>
+      </c>
+      <c r="M125">
+        <v>1.7997410633028229E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>5.7213026161069225</v>
+      </c>
+      <c r="B126">
+        <v>-0.59210193337161598</v>
+      </c>
+      <c r="C126">
+        <v>-3.2778346534844647</v>
+      </c>
+      <c r="D126">
+        <v>-1.1012862796907974</v>
+      </c>
+      <c r="E126">
+        <v>0.44948650656592581</v>
+      </c>
+      <c r="F126">
+        <v>-1.4442640330455652</v>
+      </c>
+      <c r="G126">
+        <v>-0.85408891233430528</v>
+      </c>
+      <c r="H126">
+        <v>-0.14965633137723583</v>
+      </c>
+      <c r="I126">
+        <v>-0.84209777610222769</v>
+      </c>
+      <c r="J126">
+        <v>-1.3003856461410022</v>
+      </c>
+      <c r="K126">
+        <v>-0.52077751252011728</v>
+      </c>
+      <c r="L126">
+        <v>-0.73081857562294295</v>
+      </c>
+      <c r="M126">
+        <v>-0.31212407238973261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>5.1773255124326338</v>
+      </c>
+      <c r="B127">
+        <v>0.19735731990368699</v>
+      </c>
+      <c r="C127">
+        <v>-2.1785939683679061</v>
+      </c>
+      <c r="D127">
+        <v>-0.72101074710597468</v>
+      </c>
+      <c r="E127">
+        <v>0.3340466115710804</v>
+      </c>
+      <c r="F127">
+        <v>-0.76186940188512897</v>
+      </c>
+      <c r="G127">
+        <v>-0.74036767497582823</v>
+      </c>
+      <c r="H127">
+        <v>-0.27459464013339963</v>
+      </c>
+      <c r="I127">
+        <v>-0.75845136965599247</v>
+      </c>
+      <c r="J127">
+        <v>-1.0461357598865779</v>
+      </c>
+      <c r="K127">
+        <v>-0.71758400209711637</v>
+      </c>
+      <c r="L127">
+        <v>-0.54894400002951038</v>
+      </c>
+      <c r="M127">
+        <v>-0.35162772841439227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>5.6170193594029394</v>
+      </c>
+      <c r="B128">
+        <v>4.8386493943839329E-2</v>
+      </c>
+      <c r="C128">
+        <v>-2.0302854377455981</v>
+      </c>
+      <c r="D128">
+        <v>-0.87947783306503913</v>
+      </c>
+      <c r="E128">
+        <v>-0.24611579911518391</v>
+      </c>
+      <c r="F128">
+        <v>-0.56748383507451339</v>
+      </c>
+      <c r="G128">
+        <v>0.20460085549980669</v>
+      </c>
+      <c r="H128">
+        <v>-0.18020359815570897</v>
+      </c>
+      <c r="I128">
+        <v>-0.10272533334585825</v>
+      </c>
+      <c r="J128">
+        <v>0.48645569782336789</v>
+      </c>
+      <c r="K128">
+        <v>-0.13973863184071048</v>
+      </c>
+      <c r="L128">
+        <v>-0.8500555665121361</v>
+      </c>
+      <c r="M128">
+        <v>-0.22040628487264088</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>5.0389013527206785</v>
+      </c>
+      <c r="B129">
+        <v>1.6728421624813357</v>
+      </c>
+      <c r="C129">
+        <v>-0.16180203263759987</v>
+      </c>
+      <c r="D129">
+        <v>-0.88255305425341002</v>
+      </c>
+      <c r="E129">
+        <v>-0.37980129331848683</v>
+      </c>
+      <c r="F129">
+        <v>-0.59096346557840396</v>
+      </c>
+      <c r="G129">
+        <v>-7.6738311919600802E-2</v>
+      </c>
+      <c r="H129">
+        <v>0.13402899269132523</v>
+      </c>
+      <c r="I129">
+        <v>-0.17728341550268784</v>
+      </c>
+      <c r="J129">
+        <v>-0.13273278944374334</v>
+      </c>
+      <c r="K129">
+        <v>-0.29876359237311284</v>
+      </c>
+      <c r="L129">
+        <v>-0.70022789085205495</v>
+      </c>
+      <c r="M129">
+        <v>-0.68699552061138836</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>5.9734520158785198</v>
+      </c>
+      <c r="B130">
+        <v>0.86534644143417705</v>
+      </c>
+      <c r="C130">
+        <v>-3.3240386007191649</v>
+      </c>
+      <c r="D130">
+        <v>-0.86220797294406892</v>
+      </c>
+      <c r="E130">
+        <v>-1.2018255272796143</v>
+      </c>
+      <c r="F130">
+        <v>-0.82367602977063026</v>
+      </c>
+      <c r="G130">
+        <v>-0.82709913146956726</v>
+      </c>
+      <c r="H130">
+        <v>-0.21806954373802911</v>
+      </c>
+      <c r="I130">
+        <v>-0.12061953751325957</v>
+      </c>
+      <c r="J130">
+        <v>-0.18313089035824934</v>
+      </c>
+      <c r="K130">
+        <v>-0.67020527978701849</v>
+      </c>
+      <c r="L130">
+        <v>-0.73970033329730711</v>
+      </c>
+      <c r="M130">
+        <v>0.35461639393597316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>5.3218461202139471</v>
+      </c>
+      <c r="B131">
+        <v>-0.27968743086365094</v>
+      </c>
+      <c r="C131">
+        <v>-3.4197027041604069</v>
+      </c>
+      <c r="D131">
+        <v>-2.0165781461508296</v>
+      </c>
+      <c r="E131">
+        <v>0.86787779262259401</v>
+      </c>
+      <c r="F131">
+        <v>-0.17848759757500587</v>
+      </c>
+      <c r="G131">
+        <v>0.17695806245606677</v>
+      </c>
+      <c r="H131">
+        <v>-0.238781523144938</v>
+      </c>
+      <c r="I131">
+        <v>-0.32833493189057844</v>
+      </c>
+      <c r="J131">
+        <v>-0.29175620103059169</v>
+      </c>
+      <c r="K131">
+        <v>-0.53122607754148576</v>
+      </c>
+      <c r="L131">
+        <v>-0.68606812559772679</v>
+      </c>
+      <c r="M131">
+        <v>1.6821456636468571E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>5.495548165391356</v>
+      </c>
+      <c r="B132">
+        <v>6.3700086522556374</v>
+      </c>
+      <c r="C132">
+        <v>3.0442992951351808</v>
+      </c>
+      <c r="D132">
+        <v>2.3089970814630632</v>
+      </c>
+      <c r="E132">
+        <v>1.5997744595173105</v>
+      </c>
+      <c r="F132">
+        <v>1.1718243907086954</v>
+      </c>
+      <c r="G132">
+        <v>0.82208214652739486</v>
+      </c>
+      <c r="H132">
+        <v>0.57474143390184484</v>
+      </c>
+      <c r="I132">
+        <v>0.37972619422094989</v>
+      </c>
+      <c r="J132">
+        <v>0.24595457475597282</v>
+      </c>
+      <c r="K132">
+        <v>0.13265375670203836</v>
+      </c>
+      <c r="L132">
+        <v>7.3041536294713896E-2</v>
+      </c>
+      <c r="M132">
+        <v>6.637537075342332E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>4.7116629483358041</v>
+      </c>
+      <c r="B133">
+        <v>5.231748118746574</v>
+      </c>
+      <c r="C133">
+        <v>-0.76768054533130847</v>
+      </c>
+      <c r="D133">
+        <v>-1.1104530599944593</v>
+      </c>
+      <c r="E133">
+        <v>0.37737478266077024</v>
+      </c>
+      <c r="F133">
+        <v>-0.42665332725972877</v>
+      </c>
+      <c r="G133">
+        <v>3.1185653177148592E-2</v>
+      </c>
+      <c r="H133">
+        <v>-0.58918984338655289</v>
+      </c>
+      <c r="I133">
+        <v>-0.34995125076711314</v>
+      </c>
+      <c r="J133">
+        <v>0.21464882161059459</v>
+      </c>
+      <c r="K133">
+        <v>-0.11602353087943876</v>
+      </c>
+      <c r="L133">
+        <v>0.40209784881806815</v>
+      </c>
+      <c r="M133">
+        <v>-0.10114338115605584</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>5.0944774939393076</v>
+      </c>
+      <c r="B134">
+        <v>-0.81682665649911423</v>
+      </c>
+      <c r="C134">
+        <v>0.93909388647746028</v>
+      </c>
+      <c r="D134">
+        <v>-0.2790165131531952</v>
+      </c>
+      <c r="E134">
+        <v>-4.8611647455978284E-2</v>
+      </c>
+      <c r="F134">
+        <v>-0.29326711142126821</v>
+      </c>
+      <c r="G134">
+        <v>4.2787637698068544E-2</v>
+      </c>
+      <c r="H134">
+        <v>-9.4758266460267804E-2</v>
+      </c>
+      <c r="I134">
+        <v>0.11476013904833696</v>
+      </c>
+      <c r="J134">
+        <v>0.31521945485153918</v>
+      </c>
+      <c r="K134">
+        <v>0.35757963626004935</v>
+      </c>
+      <c r="L134">
+        <v>-1.587498901717457E-2</v>
+      </c>
+      <c r="M134">
+        <v>-0.18540009361921125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>5.1498194027366138</v>
+      </c>
+      <c r="B135">
+        <v>5.4542831237176888</v>
+      </c>
+      <c r="C135">
+        <v>-0.20066226801579432</v>
+      </c>
+      <c r="D135">
+        <v>-0.12092388842558874</v>
+      </c>
+      <c r="E135">
+        <v>-0.44629403268156226</v>
+      </c>
+      <c r="F135">
+        <v>-0.61929358364138587</v>
+      </c>
+      <c r="G135">
+        <v>-0.35200024501723459</v>
+      </c>
+      <c r="H135">
+        <v>-0.24482870146702349</v>
+      </c>
+      <c r="I135">
+        <v>-0.17884820357118167</v>
+      </c>
+      <c r="J135">
+        <v>0.17737815289019901</v>
+      </c>
+      <c r="K135">
+        <v>0.33110834754417884</v>
+      </c>
+      <c r="L135">
+        <v>8.4022323522521869E-2</v>
+      </c>
+      <c r="M135">
+        <v>-0.43084265177409709</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>4.9758994908910639</v>
+      </c>
+      <c r="B136">
+        <v>-0.29781983308269122</v>
+      </c>
+      <c r="C136">
+        <v>-0.54877156937918081</v>
+      </c>
+      <c r="D136">
+        <v>-0.10751731428586127</v>
+      </c>
+      <c r="E136">
+        <v>0.4251406805649679</v>
+      </c>
+      <c r="F136">
+        <v>0.54394034500711885</v>
+      </c>
+      <c r="G136">
+        <v>0.75112073563030501</v>
+      </c>
+      <c r="H136">
+        <v>0.40454269412547061</v>
+      </c>
+      <c r="I136">
+        <v>0.49543855900169032</v>
+      </c>
+      <c r="J136">
+        <v>0.3939874855212892</v>
+      </c>
+      <c r="K136">
+        <v>0.72659350665709665</v>
+      </c>
+      <c r="L136">
+        <v>-0.2031880059422444</v>
+      </c>
+      <c r="M136">
+        <v>0.11218451033787552</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>5.4438053829226938</v>
+      </c>
+      <c r="B137">
+        <v>0.69291047609194034</v>
+      </c>
+      <c r="C137">
+        <v>-1.3089507812619006</v>
+      </c>
+      <c r="D137">
+        <v>1.1446486697996308</v>
+      </c>
+      <c r="E137">
+        <v>-1.3594279024563201</v>
+      </c>
+      <c r="F137">
+        <v>0.49126881165526232</v>
+      </c>
+      <c r="G137">
+        <v>0.21204780995278982</v>
+      </c>
+      <c r="H137">
+        <v>0.28671901998345484</v>
+      </c>
+      <c r="I137">
+        <v>0.63066703892054599</v>
+      </c>
+      <c r="J137">
+        <v>0.32640068647330711</v>
+      </c>
+      <c r="K137">
+        <v>9.7787282548078502E-2</v>
+      </c>
+      <c r="L137">
+        <v>7.1951050980035805E-2</v>
+      </c>
+      <c r="M137">
+        <v>0.26234579433908201</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>5.5082929122918216</v>
+      </c>
+      <c r="B138">
+        <v>1.037470779775612</v>
+      </c>
+      <c r="C138">
+        <v>-1.050114312131043</v>
+      </c>
+      <c r="D138">
+        <v>1.7168736391958488</v>
+      </c>
+      <c r="E138">
+        <v>-1.8092815969106493</v>
+      </c>
+      <c r="F138">
+        <v>0.26002842852070407</v>
+      </c>
+      <c r="G138">
+        <v>-0.55864477682423286</v>
+      </c>
+      <c r="H138">
+        <v>-0.32038133202125479</v>
+      </c>
+      <c r="I138">
+        <v>0.58822518529736534</v>
+      </c>
+      <c r="J138">
+        <v>-0.45470863017820584</v>
+      </c>
+      <c r="K138">
+        <v>0.27455987427277817</v>
+      </c>
+      <c r="L138">
+        <v>-7.2189434246932332E-2</v>
+      </c>
+      <c r="M138">
+        <v>0.50326968615908396</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>4.9357329631808646</v>
+      </c>
+      <c r="B139">
+        <v>0.19050605698664472</v>
+      </c>
+      <c r="C139">
+        <v>-2.6368680413763568</v>
+      </c>
+      <c r="D139">
+        <v>2.1372785282913438</v>
+      </c>
+      <c r="E139">
+        <v>-0.54664652063206942</v>
+      </c>
+      <c r="F139">
+        <v>-0.96591275735768234</v>
+      </c>
+      <c r="G139">
+        <v>0.92913646843134146</v>
+      </c>
+      <c r="H139">
+        <v>-4.751935384843476E-2</v>
+      </c>
+      <c r="I139">
+        <v>-0.43208654057585683</v>
+      </c>
+      <c r="J139">
+        <v>1.1268043416572573</v>
+      </c>
+      <c r="K139">
+        <v>0.43824306422284987</v>
+      </c>
+      <c r="L139">
+        <v>-0.25612638398978904</v>
+      </c>
+      <c r="M139">
+        <v>0.52189354522420039</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>4.9491492049528736</v>
+      </c>
+      <c r="B140">
+        <v>-4.1288486233110548</v>
+      </c>
+      <c r="C140">
+        <v>1.3785410650516099</v>
+      </c>
+      <c r="D140">
+        <v>-2.15205844239782</v>
+      </c>
+      <c r="E140">
+        <v>0.9734476737452824</v>
+      </c>
+      <c r="F140">
+        <v>-0.97174570969625851</v>
+      </c>
+      <c r="G140">
+        <v>-0.36810610592864706</v>
+      </c>
+      <c r="H140">
+        <v>0.55016044446051837</v>
+      </c>
+      <c r="I140">
+        <v>-0.28189757247436514</v>
+      </c>
+      <c r="J140">
+        <v>-0.11233966764449477</v>
+      </c>
+      <c r="K140">
+        <v>-0.38687692311457089</v>
+      </c>
+      <c r="L140">
+        <v>-0.46734889132698587</v>
+      </c>
+      <c r="M140">
+        <v>1.3587263413437965E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>5.6964033441095339</v>
+      </c>
+      <c r="B141">
+        <v>-3.7089959326115864</v>
+      </c>
+      <c r="C141">
+        <v>1.2007189719908746</v>
+      </c>
+      <c r="D141">
+        <v>-2.3397015622377979</v>
+      </c>
+      <c r="E141">
+        <v>0.7869092823332875</v>
+      </c>
+      <c r="F141">
+        <v>-0.79297492528921498</v>
+      </c>
+      <c r="G141">
+        <v>-0.29722150268191389</v>
+      </c>
+      <c r="H141">
+        <v>0.29567849893965698</v>
+      </c>
+      <c r="I141">
+        <v>-0.63693680869224956</v>
+      </c>
+      <c r="J141">
+        <v>0.15314641356786943</v>
+      </c>
+      <c r="K141">
+        <v>-5.6152639871280607E-2</v>
+      </c>
+      <c r="L141">
+        <v>-0.76170756810733986</v>
+      </c>
+      <c r="M141">
+        <v>-0.31238432803077798</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>5.3946666923409623</v>
+      </c>
+      <c r="B142">
+        <v>-3.5656451918839549</v>
+      </c>
+      <c r="C142">
+        <v>-3.8241929908374352</v>
+      </c>
+      <c r="D142">
+        <v>-1.3378846511000548</v>
+      </c>
+      <c r="E142">
+        <v>-0.45355927498780735</v>
+      </c>
+      <c r="F142">
+        <v>-0.47254083093226551</v>
+      </c>
+      <c r="G142">
+        <v>-0.66400101319072735</v>
+      </c>
+      <c r="H142">
+        <v>-0.26029372935922401</v>
+      </c>
+      <c r="I142">
+        <v>1.8980393163642809E-2</v>
+      </c>
+      <c r="J142">
+        <v>-0.148277359043195</v>
+      </c>
+      <c r="K142">
+        <v>1.0549177758857073E-2</v>
+      </c>
+      <c r="L142">
+        <v>-0.17431601924450724</v>
+      </c>
+      <c r="M142">
+        <v>-0.27067497687701486</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>4.9946565820032154</v>
+      </c>
+      <c r="B143">
+        <v>-3.5776694882512481</v>
+      </c>
+      <c r="C143">
+        <v>2.0698555045042522</v>
+      </c>
+      <c r="D143">
+        <v>-1.3723985994422601</v>
+      </c>
+      <c r="E143">
+        <v>1.3537944600296137</v>
+      </c>
+      <c r="F143">
+        <v>-0.25170414850086792</v>
+      </c>
+      <c r="G143">
+        <v>0.15767123188677351</v>
+      </c>
+      <c r="H143">
+        <v>0.35899982425787402</v>
+      </c>
+      <c r="I143">
+        <v>-0.6413889332783681</v>
+      </c>
+      <c r="J143">
+        <v>0.19501654601478141</v>
+      </c>
+      <c r="K143">
+        <v>0.19293213963110303</v>
+      </c>
+      <c r="L143">
+        <v>-3.8515099364979592E-2</v>
+      </c>
+      <c r="M143">
+        <v>0.15543644384766836</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>5.8466405538628976</v>
+      </c>
+      <c r="B144">
+        <v>0.87843209561307756</v>
+      </c>
+      <c r="C144">
+        <v>-2.8643591623202087</v>
+      </c>
+      <c r="D144">
+        <v>-5.1451331419123052E-2</v>
+      </c>
+      <c r="E144">
+        <v>-0.74740405856610981</v>
+      </c>
+      <c r="F144">
+        <v>0.12149581608018198</v>
+      </c>
+      <c r="G144">
+        <v>-0.50425211772225076</v>
+      </c>
+      <c r="H144">
+        <v>0.12651310734699986</v>
+      </c>
+      <c r="I144">
+        <v>0.65717638258151567</v>
+      </c>
+      <c r="J144">
+        <v>0.40743398490681143</v>
+      </c>
+      <c r="K144">
+        <v>9.2925919007547347E-2</v>
+      </c>
+      <c r="L144">
+        <v>0.72495652053123061</v>
+      </c>
+      <c r="M144">
+        <v>0.65067625764293491</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>4.9380305023569049</v>
+      </c>
+      <c r="B145">
+        <v>-4.0380943627953458</v>
+      </c>
+      <c r="C145">
+        <v>1.3013005065888641</v>
+      </c>
+      <c r="D145">
+        <v>-1.8426136985615515</v>
+      </c>
+      <c r="E145">
+        <v>0.84420825762591833</v>
+      </c>
+      <c r="F145">
+        <v>-0.49660677569604211</v>
+      </c>
+      <c r="G145">
+        <v>-6.4136978298845571E-2</v>
+      </c>
+      <c r="H145">
+        <v>0.52468659103233284</v>
+      </c>
+      <c r="I145">
+        <v>-0.19227127486744361</v>
+      </c>
+      <c r="J145">
+        <v>0.11138291627135877</v>
+      </c>
+      <c r="K145">
+        <v>-0.24730914123192152</v>
+      </c>
+      <c r="L145">
+        <v>-7.4894225263783559E-2</v>
+      </c>
+      <c r="M145">
+        <v>0.46092593792000136</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>5.0217279042974692</v>
+      </c>
+      <c r="B146">
+        <v>1.5692090998360186</v>
+      </c>
+      <c r="C146">
+        <v>-1.3480755247620586</v>
+      </c>
+      <c r="D146">
+        <v>0.33429950292683963</v>
+      </c>
+      <c r="E146">
+        <v>-0.62426462297791774</v>
+      </c>
+      <c r="F146">
+        <v>0.63014889534563201</v>
+      </c>
+      <c r="G146">
+        <v>-1.1580347219682461E-3</v>
+      </c>
+      <c r="H146">
+        <v>0.1796287292354255</v>
+      </c>
+      <c r="I146">
+        <v>0.97055449039304287</v>
+      </c>
+      <c r="J146">
+        <v>0.81952093388609648</v>
+      </c>
+      <c r="K146">
+        <v>0.72680605323989733</v>
+      </c>
+      <c r="L146">
+        <v>0.67906101134703267</v>
+      </c>
+      <c r="M146">
+        <v>0.92436890722781895</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>4.8433260928039008</v>
+      </c>
+      <c r="B147">
+        <v>1.7189817274596546</v>
+      </c>
+      <c r="C147">
+        <v>-1.2182815528710111</v>
+      </c>
+      <c r="D147">
+        <v>-0.71596645376642909</v>
+      </c>
+      <c r="E147">
+        <v>-0.12864665730261723</v>
+      </c>
+      <c r="F147">
+        <v>9.2130514268539562E-2</v>
+      </c>
+      <c r="G147">
+        <v>-0.24944700273475048</v>
+      </c>
+      <c r="H147">
+        <v>0.19770476059929951</v>
+      </c>
+      <c r="I147">
+        <v>0.22567911500266408</v>
+      </c>
+      <c r="J147">
+        <v>0.22616680974825165</v>
+      </c>
+      <c r="K147">
+        <v>0.12200562617561864</v>
+      </c>
+      <c r="L147">
+        <v>0.40074727449390335</v>
+      </c>
+      <c r="M147">
+        <v>0.37798614048203</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>4.3451528992942423</v>
+      </c>
+      <c r="B148">
+        <v>6.5010495541420337</v>
+      </c>
+      <c r="C148">
+        <v>-0.92754284943263832</v>
+      </c>
+      <c r="D148">
+        <v>0.28428471804514094</v>
+      </c>
+      <c r="E148">
+        <v>0.13465869770803074</v>
+      </c>
+      <c r="F148">
+        <v>-0.90019166917389526</v>
+      </c>
+      <c r="G148">
+        <v>-0.30363481109243451</v>
+      </c>
+      <c r="H148">
+        <v>-0.41854265241553945</v>
+      </c>
+      <c r="I148">
+        <v>-0.36736843489454912</v>
+      </c>
+      <c r="J148">
+        <v>-0.4196371908245044</v>
+      </c>
+      <c r="K148">
+        <v>0.17874331183307907</v>
+      </c>
+      <c r="L148">
+        <v>0.30712658273890997</v>
+      </c>
+      <c r="M148">
+        <v>-0.16752552989809236</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>5.5583642684104326</v>
+      </c>
+      <c r="B149">
+        <v>0.53531265898662173</v>
+      </c>
+      <c r="C149">
+        <v>-4.1806646090054667</v>
+      </c>
+      <c r="D149">
+        <v>0.82248041139507577</v>
+      </c>
+      <c r="E149">
+        <v>-0.86536270864042075</v>
+      </c>
+      <c r="F149">
+        <v>-0.17121937950283614</v>
+      </c>
+      <c r="G149">
+        <v>-0.31977036711223067</v>
+      </c>
+      <c r="H149">
+        <v>0.19797474158692233</v>
+      </c>
+      <c r="I149">
+        <v>4.1047026224655982E-2</v>
+      </c>
+      <c r="J149">
+        <v>0.1631901494768799</v>
+      </c>
+      <c r="K149">
+        <v>0.2025588843772976</v>
+      </c>
+      <c r="L149">
+        <v>-0.35587994561371533</v>
+      </c>
+      <c r="M149">
+        <v>-0.36946733070960441</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>6.0148413285571518</v>
+      </c>
+      <c r="B150">
+        <v>-0.87809336398579452</v>
+      </c>
+      <c r="C150">
+        <v>-3.8216093843841508</v>
+      </c>
+      <c r="D150">
+        <v>-4.529781073181022</v>
+      </c>
+      <c r="E150">
+        <v>0.3068513040374809</v>
+      </c>
+      <c r="F150">
+        <v>0.12170550976582795</v>
+      </c>
+      <c r="G150">
+        <v>0.72519720533755239</v>
+      </c>
+      <c r="H150">
+        <v>-1.3398905979166837</v>
+      </c>
+      <c r="I150">
+        <v>-0.26819178383937536</v>
+      </c>
+      <c r="J150">
+        <v>-3.1964352903675282E-2</v>
+      </c>
+      <c r="K150">
+        <v>0.60234065779266244</v>
+      </c>
+      <c r="L150">
+        <v>0.30593206273148266</v>
+      </c>
+      <c r="M150">
+        <v>-6.3391645170759028E-2</v>
       </c>
     </row>
   </sheetData>
